--- a/1_php/原生php/PHP函数分目参考.xlsx
+++ b/1_php/原生php/PHP函数分目参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20745" windowHeight="12615" activeTab="3"/>
+    <workbookView windowWidth="25200" windowHeight="12615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="判断函数" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,168 +46,176 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="942">
   <si>
     <t>双精度判断</t>
   </si>
   <si>
-    <t>is_double()</t>
-  </si>
-  <si>
     <t>is_float()</t>
   </si>
   <si>
+    <t>别名is_double()、is_real()</t>
+  </si>
+  <si>
+    <t>1、is_int()和is_float()只能识别数字类型的数字，不能识别字符串类型的数字。
+      如2和‘2’。只能识别2,。
+2、is_numerc()技能识别2和‘2’，也能识别2.2和‘2.2’</t>
+  </si>
+  <si>
+    <t>整数判断</t>
+  </si>
+  <si>
+    <t>is_int()</t>
+  </si>
+  <si>
+    <t>别名is_integer()、is_long()</t>
+  </si>
+  <si>
+    <t>对象判断</t>
+  </si>
+  <si>
+    <t>is_object()</t>
+  </si>
+  <si>
+    <t>字符判断</t>
+  </si>
+  <si>
+    <t>is_string()</t>
+  </si>
+  <si>
+    <t>数字型判断</t>
+  </si>
+  <si>
+    <t>is_numerc()</t>
+  </si>
+  <si>
+    <t>数字或数字字符串</t>
+  </si>
+  <si>
+    <t>布尔型判断</t>
+  </si>
+  <si>
+    <t>is_bool()</t>
+  </si>
+  <si>
+    <t>目录判断</t>
+  </si>
+  <si>
+    <t>is_dir()</t>
+  </si>
+  <si>
+    <t>文件判断</t>
+  </si>
+  <si>
+    <t>is_file()</t>
+  </si>
+  <si>
+    <t>空判断</t>
+  </si>
+  <si>
+    <t>is_null()</t>
+  </si>
+  <si>
+    <t>未定义变量和null</t>
+  </si>
+  <si>
+    <t>数组判断</t>
+  </si>
+  <si>
+    <t>is_array()</t>
+  </si>
+  <si>
     <t>函数是否存在</t>
   </si>
   <si>
     <t>function_exists()</t>
   </si>
   <si>
+    <t>类是否存在</t>
+  </si>
+  <si>
+    <t>class_exists()</t>
+  </si>
+  <si>
+    <t>变量A是对象B的实例</t>
+  </si>
+  <si>
+    <t>A instanceof  B</t>
+  </si>
+  <si>
+    <t>类中方法是否定义</t>
+  </si>
+  <si>
+    <t>method_exists()</t>
+  </si>
+  <si>
+    <t>变量是否存在</t>
+  </si>
+  <si>
+    <t>isset()</t>
+  </si>
+  <si>
+    <t>常量是否存在</t>
+  </si>
+  <si>
+    <t>defined()</t>
+  </si>
+  <si>
+    <t>判断某类型中存在某变量</t>
+  </si>
+  <si>
+    <t>filter_has_var()</t>
+  </si>
+  <si>
+    <t>filter_has_var(INPUT_GET,"name")</t>
+  </si>
+  <si>
     <t>exception类中常用方法</t>
   </si>
   <si>
-    <t>整数判断</t>
-  </si>
-  <si>
-    <t>is_integer()</t>
-  </si>
-  <si>
-    <t>is_int()/is_long()</t>
-  </si>
-  <si>
-    <t>类是否存在</t>
-  </si>
-  <si>
-    <t>class_exists()</t>
-  </si>
-  <si>
     <t>错误信息</t>
   </si>
   <si>
     <t>getMessage()</t>
   </si>
   <si>
-    <t>对象判断</t>
-  </si>
-  <si>
-    <t>is_object()</t>
-  </si>
-  <si>
-    <t>变量A是对象B的实例</t>
-  </si>
-  <si>
-    <t>A instanceof  B</t>
-  </si>
-  <si>
     <t>错误代码</t>
   </si>
   <si>
     <t>getCode()</t>
   </si>
   <si>
-    <t>字符判断</t>
-  </si>
-  <si>
-    <t>is_string()</t>
-  </si>
-  <si>
-    <t>类中方法是否定义</t>
-  </si>
-  <si>
-    <t>method_exists()</t>
-  </si>
-  <si>
     <t>异常文件</t>
   </si>
   <si>
     <t>getFile()</t>
   </si>
   <si>
-    <t>数字型判断</t>
-  </si>
-  <si>
-    <t>is_numerc()</t>
-  </si>
-  <si>
-    <t>变量是否存在</t>
-  </si>
-  <si>
-    <t>isset()</t>
-  </si>
-  <si>
     <t>异常行号</t>
   </si>
   <si>
     <t>getLine()</t>
   </si>
   <si>
-    <t>实数判断</t>
-  </si>
-  <si>
-    <t>is_real()</t>
-  </si>
-  <si>
-    <t>常量是否存在</t>
-  </si>
-  <si>
-    <t>defined()</t>
-  </si>
-  <si>
     <t>追踪得异常数据</t>
   </si>
   <si>
     <t>getTrace()</t>
   </si>
   <si>
-    <t>布尔型判断</t>
-  </si>
-  <si>
-    <t>is_bool()</t>
-  </si>
-  <si>
-    <t>判断某类型中存在某变量</t>
-  </si>
-  <si>
-    <t>filter_has_var()</t>
-  </si>
-  <si>
-    <t>filter_has_var(INPUT_GET,"name")</t>
-  </si>
-  <si>
     <t>追踪数据字符版</t>
   </si>
   <si>
     <t>getTraceAsString()</t>
   </si>
   <si>
-    <t>目录判断</t>
-  </si>
-  <si>
-    <t>is_dir()</t>
-  </si>
-  <si>
     <t>描述异常信息</t>
   </si>
   <si>
     <t>__toString()</t>
   </si>
   <si>
-    <t>文件判断</t>
-  </si>
-  <si>
-    <t>is_file()</t>
-  </si>
-  <si>
-    <t>空判断</t>
-  </si>
-  <si>
-    <t>is_null()</t>
-  </si>
-  <si>
-    <t>数组判断</t>
-  </si>
-  <si>
-    <t>is_array()</t>
+    <t>函数红色。变量蓝色。结果绿色</t>
   </si>
   <si>
     <t>函数</t>
@@ -216,25 +224,447 @@
     <t>描述</t>
   </si>
   <si>
+    <t>创建</t>
+  </si>
+  <si>
     <t>创建数组</t>
   </si>
   <si>
+    <t>$arr=array ([ mixed $... ] )</t>
+  </si>
+  <si>
     <t>array()</t>
   </si>
   <si>
     <t>创建数组。</t>
   </si>
   <si>
+    <t>$arr=array(1, 2, 3);</t>
+  </si>
+  <si>
+    <t>$arr=range ( mixed $start , mixed $end [, number $step = 1 ] )</t>
+  </si>
+  <si>
     <t>range()</t>
   </si>
   <si>
-    <t>创建一个包含指定范围的元素的数组。</t>
+    <t>$arr=range('a', 'c')=array('a','b', 'c')</t>
+  </si>
+  <si>
+    <r>
+      <t>$arr=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>compact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> ( mixed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$varname1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> [, mixed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> ] ) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> array</t>
+    </r>
   </si>
   <si>
     <t>compact()</t>
   </si>
   <si>
-    <t>创建一个包含变量名和它们的值的数组。</t>
+    <t>单个
+数组
+内部</t>
+  </si>
+  <si>
+    <t>单个数组
+内部操作</t>
+  </si>
+  <si>
+    <t>array_fill()</t>
+  </si>
+  <si>
+    <t>用给定的键值填充数组。</t>
+  </si>
+  <si>
+    <t>array_fill_keys()</t>
+  </si>
+  <si>
+    <t>用给定的指定键名的键值填充数组。</t>
+  </si>
+  <si>
+    <t>array_splice()</t>
+  </si>
+  <si>
+    <t>把数组中的指定元素去掉并用其它值取代。</t>
+  </si>
+  <si>
+    <t>array_flip()</t>
+  </si>
+  <si>
+    <t>反转/交换数组中的键名和对应关联的键值。</t>
+  </si>
+  <si>
+    <t>array_unique()</t>
+  </si>
+  <si>
+    <t>删除数组中重复的值。</t>
+  </si>
+  <si>
+    <t>shuffle()</t>
+  </si>
+  <si>
+    <t>将原有的数组随机打乱</t>
+  </si>
+  <si>
+    <t>array_reverse()</t>
+  </si>
+  <si>
+    <t>将原数组中的元素顺序翻转，创建新的数组并返回。</t>
+  </si>
+  <si>
+    <t>array_change_key_case()</t>
+  </si>
+  <si>
+    <t>返回其键均为大写或小写的数组。</t>
+  </si>
+  <si>
+    <t>array_values()</t>
+  </si>
+  <si>
+    <t>返回数组中所有的值。</t>
+  </si>
+  <si>
+    <t>array_slice()</t>
+  </si>
+  <si>
+    <t>返回数组中的选定部分。</t>
+  </si>
+  <si>
+    <t>array_keys()</t>
+  </si>
+  <si>
+    <t>返回数组中所有的键名。</t>
+  </si>
+  <si>
+    <t>array_rand()</t>
+  </si>
+  <si>
+    <t>从数组中随机选出一个或多个元素，返回键名。</t>
+  </si>
+  <si>
+    <t>array_column()</t>
+  </si>
+  <si>
+    <t>返回输入数组中某个单一列的值。</t>
+  </si>
+  <si>
+    <t>增删取
+数组键/值</t>
+  </si>
+  <si>
+    <t>array_unshift()</t>
+  </si>
+  <si>
+    <t>在数组开头插入一个或多个元素。</t>
+  </si>
+  <si>
+    <t>array_push()</t>
+  </si>
+  <si>
+    <t>将一个或多个元素插入数组的末尾（入栈）。</t>
+  </si>
+  <si>
+    <t>array_pad()</t>
+  </si>
+  <si>
+    <t>将指定数量的带有指定值的元素插入到数组中。</t>
+  </si>
+  <si>
+    <t>array_pop()</t>
+  </si>
+  <si>
+    <t>删除数组中的最后一个元素（出栈）。</t>
+  </si>
+  <si>
+    <t>array_shift()</t>
+  </si>
+  <si>
+    <t>删除数组中的第一个元素，并返回被删除元素的值。</t>
+  </si>
+  <si>
+    <t>判断存在</t>
+  </si>
+  <si>
+    <t>in_array()</t>
+  </si>
+  <si>
+    <t>检查数组中是否存在指定的值。</t>
+  </si>
+  <si>
+    <t>array_key_exists()</t>
+  </si>
+  <si>
+    <t>检查指定的键名是否存在于数组中。</t>
+  </si>
+  <si>
+    <t>array_search()</t>
+  </si>
+  <si>
+    <t>在数组中搜索给定的值，如果成功则返回相应的键名。</t>
+  </si>
+  <si>
+    <t>统计</t>
+  </si>
+  <si>
+    <t>array_product()</t>
+  </si>
+  <si>
+    <t>计算数组中所有值的乘积。</t>
+  </si>
+  <si>
+    <t>array_sum()</t>
+  </si>
+  <si>
+    <t>返回数组中所有值的和。</t>
+  </si>
+  <si>
+    <t>count()</t>
+  </si>
+  <si>
+    <t>返回数组中元素的数目。</t>
+  </si>
+  <si>
+    <t>sizeof()</t>
+  </si>
+  <si>
+    <t>count() 的别名。</t>
+  </si>
+  <si>
+    <t>array_count_values()</t>
+  </si>
+  <si>
+    <t>用于统计数组中所有值出现的次数。</t>
+  </si>
+  <si>
+    <t>用户定义操作</t>
+  </si>
+  <si>
+    <t>array_walk_recursive()</t>
+  </si>
+  <si>
+    <t>对数组中的每个成员递归地应用用户函数。</t>
+  </si>
+  <si>
+    <t>array_map()</t>
+  </si>
+  <si>
+    <t>将用户自定义函数作用到给定数组的每个值上，返回新的值。</t>
+  </si>
+  <si>
+    <t>array_reduce()</t>
+  </si>
+  <si>
+    <t>通过使用用户自定义函数，迭代地将数组简化为一个字符串，并返回。</t>
+  </si>
+  <si>
+    <t>array_filter()</t>
+  </si>
+  <si>
+    <t>用回调函数过滤数组中的元素。</t>
+  </si>
+  <si>
+    <t>array_walk()</t>
+  </si>
+  <si>
+    <t>对数组中的每个成员应用用户函数。</t>
+  </si>
+  <si>
+    <t>指针</t>
+  </si>
+  <si>
+    <t>list()</t>
+  </si>
+  <si>
+    <t>把数组中的值赋给一些数组变量。（关联数组无效）</t>
+  </si>
+  <si>
+    <t>reset()</t>
+  </si>
+  <si>
+    <t>将数组的内部指针指向第一个元素。</t>
+  </si>
+  <si>
+    <t>pos()</t>
+  </si>
+  <si>
+    <t>current() 的别名。</t>
+  </si>
+  <si>
+    <t>key()</t>
+  </si>
+  <si>
+    <t>当前指针对应的元素的键</t>
+  </si>
+  <si>
+    <t>each()</t>
+  </si>
+  <si>
+    <t>当前指针对应元素的键／值对。（并且指针会自动后移一位）</t>
+  </si>
+  <si>
+    <t>current()</t>
+  </si>
+  <si>
+    <t>当前指针对应的元素的值</t>
+  </si>
+  <si>
+    <t>prev()</t>
+  </si>
+  <si>
+    <t>前一位指针对应的元素的值</t>
+  </si>
+  <si>
+    <t>next()</t>
+  </si>
+  <si>
+    <t>下一位指针对应的元素的值</t>
+  </si>
+  <si>
+    <t>end()</t>
+  </si>
+  <si>
+    <t>最后一位指针对应的元素的值</t>
+  </si>
+  <si>
+    <t>数组序列化</t>
+  </si>
+  <si>
+    <t>array_multisort()</t>
+  </si>
+  <si>
+    <t>对多个数组或多维数组进行排序。</t>
+  </si>
+  <si>
+    <t>krsort()</t>
+  </si>
+  <si>
+    <t>对关联数组按照键名降序排序。</t>
+  </si>
+  <si>
+    <t>ksort()</t>
+  </si>
+  <si>
+    <t>对关联数组按照键名升序排序。</t>
+  </si>
+  <si>
+    <t>sort()</t>
+  </si>
+  <si>
+    <t>对数值数组进行升序排序。</t>
+  </si>
+  <si>
+    <t>uasort()</t>
+  </si>
+  <si>
+    <t>使用用户自定义的比较函数对数组中的键值进行排序。</t>
+  </si>
+  <si>
+    <t>uksort()</t>
+  </si>
+  <si>
+    <t>使用用户自定义的比较函数对数组中的键名进行排序。</t>
+  </si>
+  <si>
+    <t>usort()</t>
+  </si>
+  <si>
+    <t>使用用户自定义的比较函数对数组进行排序。</t>
+  </si>
+  <si>
+    <t>rsort()</t>
+  </si>
+  <si>
+    <t>对数值数组进行降序排序。</t>
+  </si>
+  <si>
+    <t>把数组中的元素按随机顺序重新排列。</t>
+  </si>
+  <si>
+    <t>natcasesort()</t>
+  </si>
+  <si>
+    <t>用"自然排序"算法对数组进行不区分大小写字母的排序。</t>
+  </si>
+  <si>
+    <t>natsort()</t>
+  </si>
+  <si>
+    <t>用"自然排序"算法对数组排序。</t>
+  </si>
+  <si>
+    <t>arsort()</t>
+  </si>
+  <si>
+    <t>对关联数组按照键值进行降序排序。</t>
+  </si>
+  <si>
+    <t>asort()</t>
+  </si>
+  <si>
+    <t>对关联数组按照键值进行升序排序。</t>
+  </si>
+  <si>
+    <t>数个
+数组
+间</t>
   </si>
   <si>
     <t>数组的
@@ -277,344 +707,6 @@
     <t>通过合并两个数组（一个为键名数组，一个为键值数组）来创建一个新数组。</t>
   </si>
   <si>
-    <t>单个数组
-内部操作</t>
-  </si>
-  <si>
-    <t>array_fill()</t>
-  </si>
-  <si>
-    <t>用给定的键值填充数组。</t>
-  </si>
-  <si>
-    <t>array_fill_keys()</t>
-  </si>
-  <si>
-    <t>用给定的指定键名的键值填充数组。</t>
-  </si>
-  <si>
-    <t>array_splice()</t>
-  </si>
-  <si>
-    <t>把数组中的指定元素去掉并用其它值取代。</t>
-  </si>
-  <si>
-    <t>array_flip()</t>
-  </si>
-  <si>
-    <t>反转/交换数组中的键名和对应关联的键值。</t>
-  </si>
-  <si>
-    <t>array_unique()</t>
-  </si>
-  <si>
-    <t>删除数组中重复的值。</t>
-  </si>
-  <si>
-    <t>shuffle()</t>
-  </si>
-  <si>
-    <t>将原有的数组随机打乱</t>
-  </si>
-  <si>
-    <t>array_reverse()</t>
-  </si>
-  <si>
-    <t>将原数组中的元素顺序翻转，创建新的数组并返回。</t>
-  </si>
-  <si>
-    <t>array_change_key_case()</t>
-  </si>
-  <si>
-    <t>返回其键均为大写或小写的数组。</t>
-  </si>
-  <si>
-    <t>array_values()</t>
-  </si>
-  <si>
-    <t>返回数组中所有的值。</t>
-  </si>
-  <si>
-    <t>array_slice()</t>
-  </si>
-  <si>
-    <t>返回数组中的选定部分。</t>
-  </si>
-  <si>
-    <t>array_keys()</t>
-  </si>
-  <si>
-    <t>返回数组中所有的键名。</t>
-  </si>
-  <si>
-    <t>array_rand()</t>
-  </si>
-  <si>
-    <t>从数组中随机选出一个或多个元素，返回键名。</t>
-  </si>
-  <si>
-    <t>array_column()</t>
-  </si>
-  <si>
-    <t>返回输入数组中某个单一列的值。</t>
-  </si>
-  <si>
-    <t>增删取
-数组键/值</t>
-  </si>
-  <si>
-    <t>array_unshift()</t>
-  </si>
-  <si>
-    <t>在数组开头插入一个或多个元素。</t>
-  </si>
-  <si>
-    <t>array_push()</t>
-  </si>
-  <si>
-    <t>将一个或多个元素插入数组的末尾（入栈）。</t>
-  </si>
-  <si>
-    <t>array_pad()</t>
-  </si>
-  <si>
-    <t>将指定数量的带有指定值的元素插入到数组中。</t>
-  </si>
-  <si>
-    <t>array_pop()</t>
-  </si>
-  <si>
-    <t>删除数组中的最后一个元素（出栈）。</t>
-  </si>
-  <si>
-    <t>array_shift()</t>
-  </si>
-  <si>
-    <t>删除数组中的第一个元素，并返回被删除元素的值。</t>
-  </si>
-  <si>
-    <t>判断存在</t>
-  </si>
-  <si>
-    <t>in_array()</t>
-  </si>
-  <si>
-    <t>检查数组中是否存在指定的值。</t>
-  </si>
-  <si>
-    <t>array_key_exists()</t>
-  </si>
-  <si>
-    <t>检查指定的键名是否存在于数组中。</t>
-  </si>
-  <si>
-    <t>array_search()</t>
-  </si>
-  <si>
-    <t>在数组中搜索给定的值，如果成功则返回相应的键名。</t>
-  </si>
-  <si>
-    <t>统计</t>
-  </si>
-  <si>
-    <t>array_product()</t>
-  </si>
-  <si>
-    <t>计算数组中所有值的乘积。</t>
-  </si>
-  <si>
-    <t>array_sum()</t>
-  </si>
-  <si>
-    <t>返回数组中所有值的和。</t>
-  </si>
-  <si>
-    <t>count()</t>
-  </si>
-  <si>
-    <t>返回数组中元素的数目。</t>
-  </si>
-  <si>
-    <t>sizeof()</t>
-  </si>
-  <si>
-    <t>count() 的别名。</t>
-  </si>
-  <si>
-    <t>array_count_values()</t>
-  </si>
-  <si>
-    <t>用于统计数组中所有值出现的次数。</t>
-  </si>
-  <si>
-    <t>用户定义操作</t>
-  </si>
-  <si>
-    <t>array_walk_recursive()</t>
-  </si>
-  <si>
-    <t>对数组中的每个成员递归地应用用户函数。</t>
-  </si>
-  <si>
-    <t>array_map()</t>
-  </si>
-  <si>
-    <t>将用户自定义函数作用到给定数组的每个值上，返回新的值。</t>
-  </si>
-  <si>
-    <t>array_reduce()</t>
-  </si>
-  <si>
-    <t>通过使用用户自定义函数，迭代地将数组简化为一个字符串，并返回。</t>
-  </si>
-  <si>
-    <t>array_filter()</t>
-  </si>
-  <si>
-    <t>用回调函数过滤数组中的元素。</t>
-  </si>
-  <si>
-    <t>array_walk()</t>
-  </si>
-  <si>
-    <t>对数组中的每个成员应用用户函数。</t>
-  </si>
-  <si>
-    <t>指针</t>
-  </si>
-  <si>
-    <t>list()</t>
-  </si>
-  <si>
-    <t>把数组中的值赋给一些数组变量。（关联数组无效）</t>
-  </si>
-  <si>
-    <t>reset()</t>
-  </si>
-  <si>
-    <t>将数组的内部指针指向第一个元素。</t>
-  </si>
-  <si>
-    <t>pos()</t>
-  </si>
-  <si>
-    <t>current() 的别名。</t>
-  </si>
-  <si>
-    <t>key()</t>
-  </si>
-  <si>
-    <t>当前指针对应的元素的键</t>
-  </si>
-  <si>
-    <t>each()</t>
-  </si>
-  <si>
-    <t>当前指针对应元素的键／值对。（并且指针会自动后移一位）</t>
-  </si>
-  <si>
-    <t>current()</t>
-  </si>
-  <si>
-    <t>当前指针对应的元素的值</t>
-  </si>
-  <si>
-    <t>prev()</t>
-  </si>
-  <si>
-    <t>前一位指针对应的元素的值</t>
-  </si>
-  <si>
-    <t>next()</t>
-  </si>
-  <si>
-    <t>下一位指针对应的元素的值</t>
-  </si>
-  <si>
-    <t>end()</t>
-  </si>
-  <si>
-    <t>最后一位指针对应的元素的值</t>
-  </si>
-  <si>
-    <t>数组序列化</t>
-  </si>
-  <si>
-    <t>array_multisort()</t>
-  </si>
-  <si>
-    <t>对多个数组或多维数组进行排序。</t>
-  </si>
-  <si>
-    <t>krsort()</t>
-  </si>
-  <si>
-    <t>对关联数组按照键名降序排序。</t>
-  </si>
-  <si>
-    <t>ksort()</t>
-  </si>
-  <si>
-    <t>对关联数组按照键名升序排序。</t>
-  </si>
-  <si>
-    <t>sort()</t>
-  </si>
-  <si>
-    <t>对数值数组进行升序排序。</t>
-  </si>
-  <si>
-    <t>uasort()</t>
-  </si>
-  <si>
-    <t>使用用户自定义的比较函数对数组中的键值进行排序。</t>
-  </si>
-  <si>
-    <t>uksort()</t>
-  </si>
-  <si>
-    <t>使用用户自定义的比较函数对数组中的键名进行排序。</t>
-  </si>
-  <si>
-    <t>usort()</t>
-  </si>
-  <si>
-    <t>使用用户自定义的比较函数对数组进行排序。</t>
-  </si>
-  <si>
-    <t>rsort()</t>
-  </si>
-  <si>
-    <t>对数值数组进行降序排序。</t>
-  </si>
-  <si>
-    <t>把数组中的元素按随机顺序重新排列。</t>
-  </si>
-  <si>
-    <t>natcasesort()</t>
-  </si>
-  <si>
-    <t>用"自然排序"算法对数组进行不区分大小写字母的排序。</t>
-  </si>
-  <si>
-    <t>natsort()</t>
-  </si>
-  <si>
-    <t>用"自然排序"算法对数组排序。</t>
-  </si>
-  <si>
-    <t>arsort()</t>
-  </si>
-  <si>
-    <t>对关联数组按照键值进行降序排序。</t>
-  </si>
-  <si>
-    <t>asort()</t>
-  </si>
-  <si>
-    <t>对关联数组按照键值进行升序排序。</t>
-  </si>
-  <si>
     <t>数组间
 差集交集运算</t>
   </si>
@@ -622,97 +714,97 @@
     <t>array_diff()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的差集（只比较键值）。</t>
+    <t>求差集（键值）。</t>
   </si>
   <si>
     <t>array_diff_key()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的差集（只比较键名）。</t>
+    <t>求差集（键名）。</t>
   </si>
   <si>
     <t>array_diff_assoc()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的差集（比较键名和键值）。</t>
+    <t>求差集（键名+键值）。</t>
   </si>
   <si>
     <t>array_diff_uassoc()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的差集（比较键名和键值，使用用户自定义的键名比较函数）。</t>
+    <t>求差集（键名+键值，自定义函数）。</t>
   </si>
   <si>
     <t>array_diff_ukey()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的差集（只比较键名，使用用户自定义的键名比较函数）。</t>
+    <t>求差集（较键名，自定义函数）。</t>
   </si>
   <si>
     <t>array_udiff()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的差集（只比较键值，使用一个用户自定义的键名比较函数）。</t>
+    <t>求差集（键值，自定义函数）。</t>
   </si>
   <si>
     <t>array_udiff_assoc()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的差集（比较键名和键值，使用内建函数比较键名，使用用户自定义函数比较键值）。</t>
+    <t>求差集（键名+键值，使用内建函数比较键名，使用用户自定义函数比较键值）。</t>
   </si>
   <si>
     <t>array_udiff_uassoc()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的差集（比较键名和键值，使用两个用户自定义的键名比较函数）。</t>
+    <t>求差集（比较键名和键值，使用两个用户自定义的键名比较函数）。</t>
   </si>
   <si>
     <t>array_intersect()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的交集（只比较键值）。</t>
+    <t>求交集（只比较键值）。</t>
   </si>
   <si>
     <t>array_intersect_key()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的交集（只比较键名）。</t>
+    <t>求交集（只比较键名）。</t>
   </si>
   <si>
     <t>array_intersect_assoc()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的交集（比较键名和键值）。</t>
+    <t>求交集（比较键名和键值）。</t>
   </si>
   <si>
     <t>array_intersect_uassoc()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的交集（比较键名和键值，使用用户自定义的键名比较函数）。</t>
+    <t>求交集（比较键名和键值，使用用户自定义的键名比较函数）。</t>
   </si>
   <si>
     <t>array_intersect_ukey()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的交集（只比较键名，使用用户自定义的键名比较函数）。</t>
+    <t>求交集（只比较键名，使用用户自定义的键名比较函数）。</t>
   </si>
   <si>
     <t>array_uintersect()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的交集（只比较键值，使用一个用户自定义的键名比较函数）。</t>
+    <t>求交集（只比较键值，使用一个用户自定义的键名比较函数）。</t>
   </si>
   <si>
     <t>array_uintersect_assoc()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的交集（比较键名和键值，使用内建函数比较键名，使用用户自定义函数比较键值）。</t>
+    <t>求交集（比较键名和键值，使用内建函数比较键名，使用用户自定义函数比较键值）。</t>
   </si>
   <si>
     <t>array_uintersect_uassoc()</t>
   </si>
   <si>
-    <t>比较数组，返回两个数组的交集（比较键名和键值，使用两个用户自定义的键名比较函数）。</t>
+    <t>求交集（比较键名和键值，使用两个用户自定义的键名比较函数）。</t>
   </si>
   <si>
     <t>未知不明</t>
@@ -2865,12 +2957,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2941,6 +3033,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -2952,13 +3049,6 @@
       <color theme="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2976,9 +3066,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2992,43 +3120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3036,6 +3128,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3051,15 +3151,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3067,6 +3181,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3080,28 +3201,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3161,7 +3276,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF0F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3179,31 +3300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3215,7 +3312,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3227,7 +3366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3245,18 +3390,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3269,13 +3402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3287,37 +3420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3329,24 +3444,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -3528,6 +3643,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3546,8 +3703,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3563,6 +3735,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3584,197 +3776,162 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4000,20 +4157,24 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4030,20 +4191,135 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4098,6 +4374,12 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FFFE97"/>
+      <color rgb="00EAF0F7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4393,213 +4675,489 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A2:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F13" sqref="F13:M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="3.25" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9" style="15" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14" style="15" customWidth="1"/>
-    <col min="8" max="8" width="30.125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="2.75" style="15" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="15" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="15" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="29" style="99" customWidth="1"/>
+    <col min="2" max="2" width="24" style="99" customWidth="1"/>
+    <col min="3" max="3" width="43.375" style="99" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="99" customWidth="1"/>
+    <col min="5" max="5" width="9" style="99" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="99" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="99" customWidth="1"/>
+    <col min="8" max="8" width="29.125" style="99" customWidth="1"/>
+    <col min="9" max="9" width="2.75" style="99" customWidth="1"/>
+    <col min="10" max="10" width="19.625" style="99" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="99" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="15" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="125"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="B3" s="100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="15" t="s">
+      <c r="C3" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="126"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="B4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="C4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="126"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="B5" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="C5" s="100"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="126"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="B6" s="100" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="C6" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="F6" s="103"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="126"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="B7" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="C7" s="100"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="126"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="B8" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="C8" s="100"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="126"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="100" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="15" t="s">
+      <c r="B9" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C9" s="100"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="126"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="B10" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="C10" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="F10" s="103"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="126"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="B11" s="100" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="15" t="s">
+      <c r="C11" s="100"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="127"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="128"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B13" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="C13" s="100"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="129"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="B14" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="C14" s="100"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="130"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="B15" s="100" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="15" t="s">
+      <c r="C15" s="100"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="130"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B16" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="C16" s="100"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="130"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="B17" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="C17" s="100"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="130"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="B18" s="100" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="15" t="s">
+      <c r="C18" s="100"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="130"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B19" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="C19" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="F19" s="117"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="131"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="107"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="109"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="132"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="B22" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="C22" s="100"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="133"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="100" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="15" t="s">
+      <c r="B23" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C23" s="100"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="133"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="B24" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="C24" s="100"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="133"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="100" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
+      <c r="B25" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C25" s="100"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="133"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="100" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
+      <c r="B26" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C26" s="100"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="133"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="100" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
+      <c r="B27" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C27" s="100"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="133"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="100" t="s">
         <v>53</v>
       </c>
+      <c r="B28" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="100"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="134"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F2:M11"/>
+    <mergeCell ref="F13:M19"/>
+    <mergeCell ref="F21:M28"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -4609,791 +5167,827 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="85.875" defaultRowHeight="17.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="85.875" defaultRowHeight="17.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="84" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="101" style="89" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="84" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="84" customWidth="1"/>
-    <col min="6" max="16384" width="85.875" style="84"/>
+    <col min="1" max="1" width="5.375" style="86" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="86" customWidth="1"/>
+    <col min="3" max="3" width="60.375" style="91" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="92" customWidth="1"/>
+    <col min="5" max="5" width="76.625" style="92" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="92" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="86" customWidth="1"/>
+    <col min="8" max="16384" width="85.875" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="2:3">
-      <c r="B1" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="90" t="s">
+    <row r="1" ht="18" spans="3:5">
+      <c r="C1" s="91" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="84" t="s">
+      <c r="D1" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="E1" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="92" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="86" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="91" t="s">
+      <c r="B2" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C2" s="94" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="91" t="s">
+      <c r="D2" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="E2" s="96" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="87" t="s">
+      <c r="F2" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="91" t="s">
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="D3" s="95" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="91" t="s">
+      <c r="E3" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="92" t="s">
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="94" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="91" t="s">
+      <c r="D4" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="E4" s="96" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="89" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="91" t="s">
+      <c r="B5" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C5" s="98"/>
+      <c r="D5" s="95" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="91" t="s">
+      <c r="E5" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="92" t="s">
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" s="95" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="91" t="s">
+      <c r="E6" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="92" t="s">
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" s="95" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="87" t="s">
+      <c r="E7" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="91" t="s">
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="E8" s="96" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="91" t="s">
+    <row r="9" spans="4:5">
+      <c r="D9" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="E9" s="96" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="91" t="s">
+    <row r="10" spans="4:5">
+      <c r="D10" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="E10" s="96" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="91" t="s">
+    <row r="11" spans="4:5">
+      <c r="D11" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="E11" s="96" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="91" t="s">
+    <row r="12" spans="4:5">
+      <c r="D12" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="E12" s="96" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="91" t="s">
+    <row r="13" spans="4:5">
+      <c r="D13" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="E13" s="96" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="91" t="s">
+    <row r="14" spans="4:5">
+      <c r="D14" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="E14" s="96" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="91" t="s">
+    <row r="15" spans="4:5">
+      <c r="D15" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="E15" s="96" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="91" t="s">
+    <row r="16" spans="4:5">
+      <c r="D16" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="E16" s="96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="91" t="s">
+    <row r="17" spans="4:5">
+      <c r="D17" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="E17" s="96" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="91" t="s">
+    <row r="18" spans="2:5">
+      <c r="B18" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C18" s="98"/>
+      <c r="D18" s="95" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="91" t="s">
+      <c r="E18" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="92" t="s">
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="95" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="91" t="s">
+      <c r="E19" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="92" t="s">
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="95" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="87" t="s">
+      <c r="E20" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="91" t="s">
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="E21" s="96" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="91" t="s">
+    <row r="22" spans="4:5">
+      <c r="D22" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="E22" s="96" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="91" t="s">
+    <row r="23" spans="2:5">
+      <c r="B23" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="D23" s="95" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="91" t="s">
+      <c r="E23" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="92" t="s">
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="95" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="91" t="s">
+      <c r="E24" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="92" t="s">
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="95" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="84" t="s">
+      <c r="E25" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="91" t="s">
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="D26" s="95" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="91" t="s">
+      <c r="E26" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="92" t="s">
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="95" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="91" t="s">
+      <c r="E27" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="92" t="s">
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="95" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="84" t="s">
+      <c r="E28" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="91" t="s">
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="92" t="s">
+      <c r="E29" s="96" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="91" t="s">
+    <row r="30" spans="4:5">
+      <c r="D30" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="92" t="s">
+      <c r="E30" s="96" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="91" t="s">
+    <row r="31" spans="2:5">
+      <c r="B31" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="D31" s="95" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="91" t="s">
+      <c r="E31" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="92" t="s">
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" s="95" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="91" t="s">
+      <c r="E32" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="92" t="s">
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="95" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="84" t="s">
+      <c r="E33" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="91" t="s">
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="92" t="s">
+      <c r="E34" s="96" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="91" t="s">
+    <row r="35" spans="4:5">
+      <c r="D35" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="92" t="s">
+      <c r="E35" s="96" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="91" t="s">
+    <row r="36" spans="2:5">
+      <c r="B36" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="92" t="s">
+      <c r="D36" s="95" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="91" t="s">
+      <c r="E36" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="92" t="s">
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="95" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="91" t="s">
+      <c r="E37" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="92" t="s">
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="95" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="84" t="s">
+      <c r="E38" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="91" t="s">
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="92" t="s">
+      <c r="E39" s="96" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="91" t="s">
+    <row r="40" spans="4:5">
+      <c r="D40" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="92" t="s">
+      <c r="E40" s="96" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="91" t="s">
+    <row r="41" spans="4:5">
+      <c r="D41" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="92" t="s">
+      <c r="E41" s="96" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="91" t="s">
+    <row r="42" spans="4:5">
+      <c r="D42" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="92" t="s">
+      <c r="E42" s="96" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="91" t="s">
+    <row r="43" spans="4:5">
+      <c r="D43" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="C46" s="92" t="s">
+      <c r="E43" s="96" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="91" t="s">
+    <row r="44" spans="4:5">
+      <c r="D44" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="92" t="s">
+      <c r="E44" s="96" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="91" t="s">
+    <row r="45" spans="2:5">
+      <c r="B45" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="92" t="s">
+      <c r="D45" s="95" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="91" t="s">
+      <c r="E45" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="C49" s="92" t="s">
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" s="95" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="91" t="s">
+      <c r="E46" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="92" t="s">
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" s="95" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="84" t="s">
+      <c r="E47" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="B51" s="91" t="s">
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" s="95" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="92" t="s">
+      <c r="E48" s="96" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="91" t="s">
+    <row r="49" spans="4:5">
+      <c r="D49" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="92" t="s">
+      <c r="E49" s="96" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="91" t="s">
+    <row r="50" spans="4:5">
+      <c r="D50" s="95" t="s">
         <v>167</v>
       </c>
-      <c r="C53" s="92" t="s">
+      <c r="E50" s="96" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="91" t="s">
+    <row r="51" spans="4:5">
+      <c r="D51" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="92" t="s">
+      <c r="E51" s="96" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="91" t="s">
+    <row r="52" spans="4:5">
+      <c r="D52" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="92" t="s">
+      <c r="E52" s="96" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="91" t="s">
+    <row r="53" spans="4:5">
+      <c r="D53" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="C56" s="92" t="s">
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54" s="95" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="91" t="s">
+      <c r="E54" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="92" t="s">
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" s="95" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="91" t="s">
+      <c r="E55" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="C58" s="92" t="s">
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56" s="95" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="92" t="s">
+      <c r="E56" s="96" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="91" t="s">
+    <row r="57" spans="4:5">
+      <c r="D57" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="C60" s="92" t="s">
+      <c r="E57" s="96" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="91" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="C61" s="92" t="s">
+      <c r="B58" s="89" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="91" t="s">
+      <c r="C58" s="98"/>
+      <c r="D58" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="92" t="s">
+      <c r="E58" s="96" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="91" t="s">
+    <row r="59" spans="4:5">
+      <c r="D59" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="92" t="s">
+      <c r="E59" s="96" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="87" t="s">
+    <row r="60" spans="4:5">
+      <c r="D60" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="91" t="s">
+      <c r="E60" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="92" t="s">
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61" s="95" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="91" t="s">
+      <c r="E61" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="92" t="s">
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62" s="95" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="91" t="s">
+      <c r="E62" s="96" t="s">
         <v>193</v>
       </c>
-      <c r="C66" s="92" t="s">
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63" s="95" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="91" t="s">
+      <c r="E63" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="C67" s="92" t="s">
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="89" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="91" t="s">
+      <c r="C64" s="98"/>
+      <c r="D64" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="92" t="s">
+      <c r="E64" s="96" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="91" t="s">
+    <row r="65" spans="4:5">
+      <c r="D65" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="92" t="s">
+      <c r="E65" s="96" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="91" t="s">
+    <row r="66" spans="4:5">
+      <c r="D66" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="C70" s="92" t="s">
+      <c r="E66" s="96" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="91" t="s">
+    <row r="67" spans="4:5">
+      <c r="D67" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="92" t="s">
+      <c r="E67" s="96" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="91" t="s">
+    <row r="68" spans="4:5">
+      <c r="D68" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="C72" s="92" t="s">
+      <c r="E68" s="96" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="91" t="s">
+    <row r="69" spans="4:5">
+      <c r="D69" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="C73" s="92" t="s">
+      <c r="E69" s="96" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="91" t="s">
+    <row r="70" spans="4:5">
+      <c r="D70" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="C74" s="92" t="s">
+      <c r="E70" s="96" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
-      <c r="B75" s="91" t="s">
+    <row r="71" spans="4:5">
+      <c r="D71" s="95" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="92" t="s">
+      <c r="E71" s="96" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
-      <c r="B76" s="91" t="s">
+    <row r="72" spans="4:5">
+      <c r="D72" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="C76" s="92" t="s">
+      <c r="E72" s="96" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="91" t="s">
+    <row r="73" spans="4:5">
+      <c r="D73" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="C77" s="92" t="s">
+      <c r="E73" s="96" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
-      <c r="B78" s="91" t="s">
+    <row r="74" spans="4:5">
+      <c r="D74" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="C78" s="92" t="s">
+      <c r="E74" s="96" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="91" t="s">
+    <row r="75" spans="4:5">
+      <c r="D75" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="C79" s="92" t="s">
+      <c r="E75" s="96" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="84" t="s">
+    <row r="76" spans="4:5">
+      <c r="D76" s="95" t="s">
         <v>221</v>
       </c>
-      <c r="B80" s="91" t="s">
+      <c r="E76" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="C80" s="92" t="s">
+    </row>
+    <row r="77" spans="4:5">
+      <c r="D77" s="95" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="B81" s="84"/>
-      <c r="C81" s="84"/>
+      <c r="E77" s="96" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5">
+      <c r="D78" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="E78" s="96" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5">
+      <c r="D79" s="95" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="96" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="D80" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="E80" s="96" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5">
+      <c r="D81" s="86"/>
+      <c r="E81" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A50"/>
-    <mergeCell ref="A51:A63"/>
-    <mergeCell ref="A64:A79"/>
+    <mergeCell ref="A5:A57"/>
+    <mergeCell ref="A58:A79"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="B45:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B79"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="array()"/>
-    <hyperlink ref="B18" r:id="rId2" display="array_change_key_case()"/>
-    <hyperlink ref="B5" r:id="rId3" display="array_chunk()"/>
-    <hyperlink ref="B23" r:id="rId4" display="array_column()"/>
-    <hyperlink ref="B10" r:id="rId5" display="array_combine()"/>
-    <hyperlink ref="B36" r:id="rId6" display="array_count_values()"/>
-    <hyperlink ref="B64" r:id="rId7" display="array_diff()"/>
-    <hyperlink ref="B66" r:id="rId8" display="array_diff_assoc()"/>
-    <hyperlink ref="B65" r:id="rId9" display="array_diff_key()"/>
-    <hyperlink ref="B67" r:id="rId10" display="array_diff_uassoc()"/>
-    <hyperlink ref="B68" r:id="rId11" display="array_diff_ukey()"/>
-    <hyperlink ref="B11" r:id="rId12" display="array_fill()"/>
-    <hyperlink ref="B12" r:id="rId13" display="array_fill_keys()"/>
-    <hyperlink ref="B40" r:id="rId14" display="array_filter()"/>
-    <hyperlink ref="B14" r:id="rId15" display="array_flip()"/>
-    <hyperlink ref="B72" r:id="rId16" display="array_intersect()"/>
-    <hyperlink ref="B74" r:id="rId17" display="array_intersect_assoc()"/>
-    <hyperlink ref="B73" r:id="rId18" display="array_intersect_key()"/>
-    <hyperlink ref="B75" r:id="rId19" display="array_intersect_uassoc()"/>
-    <hyperlink ref="B76" r:id="rId20" display="array_intersect_ukey()"/>
-    <hyperlink ref="B30" r:id="rId21" display="array_key_exists()"/>
-    <hyperlink ref="B21" r:id="rId22" display="array_keys()"/>
-    <hyperlink ref="B38" r:id="rId23" display="array_map()"/>
-    <hyperlink ref="B6" r:id="rId24" display="array_merge()"/>
-    <hyperlink ref="B8" r:id="rId25" display="array_merge_recursive()"/>
-    <hyperlink ref="B51" r:id="rId26" display="array_multisort()"/>
-    <hyperlink ref="B26" r:id="rId27" display="array_pad()"/>
-    <hyperlink ref="B27" r:id="rId28" display="array_pop()"/>
-    <hyperlink ref="B32" r:id="rId29" display="array_product()"/>
-    <hyperlink ref="B25" r:id="rId30" display="array_push()"/>
-    <hyperlink ref="B22" r:id="rId31" display="array_rand()"/>
-    <hyperlink ref="B39" r:id="rId32" display="array_reduce()"/>
-    <hyperlink ref="B7" r:id="rId33" display="array_replace()"/>
-    <hyperlink ref="B9" r:id="rId34" display="array_replace_recursive()"/>
-    <hyperlink ref="B17" r:id="rId35" display="array_reverse()"/>
-    <hyperlink ref="B31" r:id="rId36" display="array_search()"/>
-    <hyperlink ref="B28" r:id="rId37" display="array_shift()"/>
-    <hyperlink ref="B20" r:id="rId38" display="array_slice()"/>
-    <hyperlink ref="B13" r:id="rId39" display="array_splice()"/>
-    <hyperlink ref="B33" r:id="rId40" display="array_sum()"/>
-    <hyperlink ref="B69" r:id="rId41" display="array_udiff()"/>
-    <hyperlink ref="B70" r:id="rId42" display="array_udiff_assoc()"/>
-    <hyperlink ref="B71" r:id="rId43" display="array_udiff_uassoc()"/>
-    <hyperlink ref="B77" r:id="rId44" display="array_uintersect()"/>
-    <hyperlink ref="B78" r:id="rId45" display="array_uintersect_assoc()"/>
-    <hyperlink ref="B79" r:id="rId46" display="array_uintersect_uassoc()"/>
-    <hyperlink ref="B15" r:id="rId47" display="array_unique()"/>
-    <hyperlink ref="B24" r:id="rId48" display="array_unshift()"/>
-    <hyperlink ref="B19" r:id="rId49" display="array_values()"/>
-    <hyperlink ref="B41" r:id="rId50" display="array_walk()"/>
-    <hyperlink ref="B37" r:id="rId51" display="array_walk_recursive()"/>
-    <hyperlink ref="B62" r:id="rId52" display="arsort()"/>
-    <hyperlink ref="B63" r:id="rId53" display="asort()"/>
-    <hyperlink ref="B4" r:id="rId54" display="compact()"/>
-    <hyperlink ref="B34" r:id="rId55" display="count()"/>
-    <hyperlink ref="B47" r:id="rId56" display="current()"/>
-    <hyperlink ref="B46" r:id="rId57" display="each()"/>
-    <hyperlink ref="B50" r:id="rId58" display="end()"/>
-    <hyperlink ref="B80" r:id="rId59" display="extract()"/>
-    <hyperlink ref="B29" r:id="rId60" display="in_array()"/>
-    <hyperlink ref="B45" r:id="rId61" display="key()"/>
-    <hyperlink ref="B52" r:id="rId62" display="krsort()"/>
-    <hyperlink ref="B53" r:id="rId63" display="ksort()"/>
-    <hyperlink ref="B42" r:id="rId64" display="list()"/>
-    <hyperlink ref="B60" r:id="rId65" display="natcasesort()"/>
-    <hyperlink ref="B61" r:id="rId66" display="natsort()"/>
-    <hyperlink ref="B49" r:id="rId67" display="next()"/>
-    <hyperlink ref="B44" r:id="rId68" display="pos()"/>
-    <hyperlink ref="B48" r:id="rId69" display="prev()"/>
-    <hyperlink ref="B3" r:id="rId70" display="range()"/>
-    <hyperlink ref="B43" r:id="rId71" display="reset()"/>
-    <hyperlink ref="B58" r:id="rId72" display="rsort()"/>
-    <hyperlink ref="B59" r:id="rId73" display="shuffle()"/>
-    <hyperlink ref="B35" r:id="rId74" display="sizeof()"/>
-    <hyperlink ref="B54" r:id="rId75" display="sort()"/>
-    <hyperlink ref="B55" r:id="rId76" display="uasort()"/>
-    <hyperlink ref="B56" r:id="rId77" display="uksort()"/>
-    <hyperlink ref="B57" r:id="rId78" display="usort()"/>
+    <hyperlink ref="D2" r:id="rId1" display="array()"/>
+    <hyperlink ref="D12" r:id="rId2" display="array_change_key_case()"/>
+    <hyperlink ref="D58" r:id="rId3" display="array_chunk()"/>
+    <hyperlink ref="D17" r:id="rId4" display="array_column()"/>
+    <hyperlink ref="D63" r:id="rId5" display="array_combine()"/>
+    <hyperlink ref="D30" r:id="rId6" display="array_count_values()"/>
+    <hyperlink ref="D64" r:id="rId7" display="array_diff()"/>
+    <hyperlink ref="D66" r:id="rId8" display="array_diff_assoc()"/>
+    <hyperlink ref="D65" r:id="rId9" display="array_diff_key()"/>
+    <hyperlink ref="D67" r:id="rId10" display="array_diff_uassoc()"/>
+    <hyperlink ref="D68" r:id="rId11" display="array_diff_ukey()"/>
+    <hyperlink ref="D5" r:id="rId12" display="array_fill()"/>
+    <hyperlink ref="D6" r:id="rId13" display="array_fill_keys()"/>
+    <hyperlink ref="D34" r:id="rId14" display="array_filter()"/>
+    <hyperlink ref="D8" r:id="rId15" display="array_flip()"/>
+    <hyperlink ref="D72" r:id="rId16" display="array_intersect()"/>
+    <hyperlink ref="D74" r:id="rId17" display="array_intersect_assoc()"/>
+    <hyperlink ref="D73" r:id="rId18" display="array_intersect_key()"/>
+    <hyperlink ref="D75" r:id="rId19" display="array_intersect_uassoc()"/>
+    <hyperlink ref="D76" r:id="rId20" display="array_intersect_ukey()"/>
+    <hyperlink ref="D24" r:id="rId21" display="array_key_exists()"/>
+    <hyperlink ref="D15" r:id="rId22" display="array_keys()"/>
+    <hyperlink ref="D32" r:id="rId23" display="array_map()"/>
+    <hyperlink ref="D59" r:id="rId24" display="array_merge()"/>
+    <hyperlink ref="D61" r:id="rId25" display="array_merge_recursive()"/>
+    <hyperlink ref="D45" r:id="rId26" display="array_multisort()"/>
+    <hyperlink ref="D20" r:id="rId27" display="array_pad()"/>
+    <hyperlink ref="D21" r:id="rId28" display="array_pop()"/>
+    <hyperlink ref="D26" r:id="rId29" display="array_product()"/>
+    <hyperlink ref="D19" r:id="rId30" display="array_push()"/>
+    <hyperlink ref="D16" r:id="rId31" display="array_rand()"/>
+    <hyperlink ref="D33" r:id="rId32" display="array_reduce()"/>
+    <hyperlink ref="D60" r:id="rId33" display="array_replace()"/>
+    <hyperlink ref="D62" r:id="rId34" display="array_replace_recursive()"/>
+    <hyperlink ref="D11" r:id="rId35" display="array_reverse()"/>
+    <hyperlink ref="D25" r:id="rId36" display="array_search()"/>
+    <hyperlink ref="D22" r:id="rId37" display="array_shift()"/>
+    <hyperlink ref="D14" r:id="rId38" display="array_slice()"/>
+    <hyperlink ref="D7" r:id="rId39" display="array_splice()"/>
+    <hyperlink ref="D27" r:id="rId40" display="array_sum()"/>
+    <hyperlink ref="D69" r:id="rId41" display="array_udiff()"/>
+    <hyperlink ref="D70" r:id="rId42" display="array_udiff_assoc()"/>
+    <hyperlink ref="D71" r:id="rId43" display="array_udiff_uassoc()"/>
+    <hyperlink ref="D77" r:id="rId44" display="array_uintersect()"/>
+    <hyperlink ref="D78" r:id="rId45" display="array_uintersect_assoc()"/>
+    <hyperlink ref="D79" r:id="rId46" display="array_uintersect_uassoc()"/>
+    <hyperlink ref="D9" r:id="rId47" display="array_unique()"/>
+    <hyperlink ref="D18" r:id="rId48" display="array_unshift()"/>
+    <hyperlink ref="D13" r:id="rId49" display="array_values()"/>
+    <hyperlink ref="D35" r:id="rId50" display="array_walk()"/>
+    <hyperlink ref="D31" r:id="rId51" display="array_walk_recursive()"/>
+    <hyperlink ref="D56" r:id="rId52" display="arsort()"/>
+    <hyperlink ref="D57" r:id="rId53" display="asort()"/>
+    <hyperlink ref="D4" r:id="rId54" display="compact()"/>
+    <hyperlink ref="D28" r:id="rId55" display="count()"/>
+    <hyperlink ref="D41" r:id="rId56" display="current()"/>
+    <hyperlink ref="D40" r:id="rId57" display="each()"/>
+    <hyperlink ref="D44" r:id="rId58" display="end()"/>
+    <hyperlink ref="D80" r:id="rId59" display="extract()"/>
+    <hyperlink ref="D23" r:id="rId60" display="in_array()"/>
+    <hyperlink ref="D39" r:id="rId61" display="key()"/>
+    <hyperlink ref="D46" r:id="rId62" display="krsort()"/>
+    <hyperlink ref="D47" r:id="rId63" display="ksort()"/>
+    <hyperlink ref="D36" r:id="rId64" display="list()"/>
+    <hyperlink ref="D54" r:id="rId65" display="natcasesort()"/>
+    <hyperlink ref="D55" r:id="rId66" display="natsort()"/>
+    <hyperlink ref="D43" r:id="rId67" display="next()"/>
+    <hyperlink ref="D38" r:id="rId68" display="pos()"/>
+    <hyperlink ref="D42" r:id="rId69" display="prev()"/>
+    <hyperlink ref="D3" r:id="rId70" display="range()"/>
+    <hyperlink ref="D37" r:id="rId71" display="reset()"/>
+    <hyperlink ref="D52" r:id="rId72" display="rsort()"/>
+    <hyperlink ref="D53" r:id="rId73" display="shuffle()"/>
+    <hyperlink ref="D29" r:id="rId74" display="sizeof()"/>
+    <hyperlink ref="D48" r:id="rId75" display="sort()"/>
+    <hyperlink ref="D49" r:id="rId76" display="uasort()"/>
+    <hyperlink ref="D50" r:id="rId77" display="uksort()"/>
+    <hyperlink ref="D51" r:id="rId78" display="usort()"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" fitToHeight="2" orientation="landscape"/>
@@ -5420,908 +6014,908 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:4">
-      <c r="A1" s="84" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="84" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="85" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="86"/>
+      <c r="A1" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="88"/>
     </row>
     <row r="2" ht="17.25" spans="1:4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="87" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="88"/>
     </row>
     <row r="3" ht="17.25" spans="1:4">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" s="86"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="88"/>
     </row>
     <row r="4" ht="17.25" spans="1:4">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" s="86"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="88"/>
     </row>
     <row r="5" ht="17.25" spans="1:4">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="86"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="88"/>
     </row>
     <row r="6" ht="17.25" spans="1:4">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" s="86"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="88"/>
     </row>
     <row r="7" ht="17.25" spans="1:4">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="85" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" s="86"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="88"/>
     </row>
     <row r="8" ht="17.25" spans="1:4">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" s="86"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="88"/>
     </row>
     <row r="9" ht="17.25" spans="1:4">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="85" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="86"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="88"/>
     </row>
     <row r="10" ht="17.25" spans="1:4">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85" t="s">
-        <v>236</v>
-      </c>
-      <c r="D10" s="86"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="88"/>
     </row>
     <row r="11" ht="17.25" spans="1:4">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85" t="s">
-        <v>237</v>
-      </c>
-      <c r="D11" s="86"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="88"/>
     </row>
     <row r="12" ht="17.25" spans="1:4">
-      <c r="A12" s="84"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="86"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="88"/>
     </row>
     <row r="13" ht="17.25" spans="1:4">
-      <c r="A13" s="84"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="D13" s="86"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="88"/>
     </row>
     <row r="14" ht="17.25" spans="1:4">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" s="86"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="88"/>
     </row>
     <row r="15" ht="17.25" spans="1:4">
-      <c r="A15" s="84"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="86"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="88"/>
     </row>
     <row r="16" ht="17.25" spans="1:4">
-      <c r="A16" s="84"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85" t="s">
-        <v>243</v>
-      </c>
-      <c r="D16" s="86"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="88"/>
     </row>
     <row r="17" ht="17.25" spans="1:4">
-      <c r="A17" s="84"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="86"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="88"/>
     </row>
     <row r="18" ht="17.25" spans="1:4">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="86"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="88"/>
     </row>
     <row r="19" ht="17.25" spans="1:4">
-      <c r="A19" s="84"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" s="86"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="88"/>
     </row>
     <row r="20" ht="17.25" spans="1:4">
-      <c r="A20" s="84"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="D20" s="86"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="88"/>
     </row>
     <row r="21" ht="17.25" spans="1:4">
-      <c r="A21" s="84"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85" t="s">
-        <v>248</v>
-      </c>
-      <c r="D21" s="86"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="88"/>
     </row>
     <row r="22" ht="17.25" spans="1:4">
-      <c r="A22" s="84"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="D22" s="86"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="88"/>
     </row>
     <row r="23" ht="17.25" spans="1:4">
-      <c r="A23" s="84"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85" t="s">
-        <v>250</v>
-      </c>
-      <c r="D23" s="86"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="88"/>
     </row>
     <row r="24" ht="17.25" spans="1:4">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85" t="s">
-        <v>251</v>
-      </c>
-      <c r="D24" s="86"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="88"/>
     </row>
     <row r="25" ht="17.25" spans="1:4">
-      <c r="A25" s="84"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" s="86"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="88"/>
     </row>
     <row r="26" ht="17.25" spans="1:4">
-      <c r="A26" s="84"/>
-      <c r="B26" s="84" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="85" t="s">
-        <v>254</v>
-      </c>
-      <c r="D26" s="86"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="D26" s="88"/>
     </row>
     <row r="27" ht="17.25" spans="1:4">
-      <c r="A27" s="84"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="86"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="88"/>
     </row>
     <row r="28" ht="17.25" spans="1:4">
-      <c r="A28" s="84"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="D28" s="86"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="88"/>
     </row>
     <row r="29" ht="17.25" spans="1:4">
-      <c r="A29" s="84" t="s">
-        <v>257</v>
-      </c>
-      <c r="B29" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="C29" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" s="86"/>
+      <c r="A29" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" s="86" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="88"/>
     </row>
     <row r="30" ht="17.25" spans="1:4">
-      <c r="A30" s="84"/>
-      <c r="B30" s="84" t="s">
-        <v>260</v>
-      </c>
-      <c r="C30" s="85" t="s">
-        <v>261</v>
-      </c>
-      <c r="D30" s="86"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="88"/>
     </row>
     <row r="31" ht="17.25" spans="1:4">
-      <c r="A31" s="84"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="D31" s="86"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="88"/>
     </row>
     <row r="32" ht="17.25" spans="1:4">
-      <c r="A32" s="84"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="85" t="s">
-        <v>263</v>
-      </c>
-      <c r="D32" s="86"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="88"/>
     </row>
     <row r="33" ht="17.25" spans="1:4">
-      <c r="A33" s="84"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="85" t="s">
-        <v>264</v>
-      </c>
-      <c r="D33" s="86"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33" s="88"/>
     </row>
     <row r="34" ht="17.25" spans="1:4">
-      <c r="A34" s="84"/>
-      <c r="B34" s="84" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="85" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" s="86"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="86" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="D34" s="88"/>
     </row>
     <row r="35" ht="17.25" spans="1:4">
-      <c r="A35" s="84"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="85" t="s">
-        <v>267</v>
-      </c>
-      <c r="D35" s="86"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" s="88"/>
     </row>
     <row r="36" ht="17.25" spans="1:4">
-      <c r="A36" s="84"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="85" t="s">
-        <v>268</v>
-      </c>
-      <c r="D36" s="86"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="D36" s="88"/>
     </row>
     <row r="37" ht="17.25" spans="1:4">
-      <c r="A37" s="84"/>
-      <c r="B37" s="84" t="s">
-        <v>269</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>270</v>
-      </c>
-      <c r="D37" s="86"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="86" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" s="88"/>
     </row>
     <row r="38" ht="17.25" spans="1:4">
-      <c r="A38" s="84"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="85" t="s">
-        <v>271</v>
-      </c>
-      <c r="D38" s="86"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" s="88"/>
     </row>
     <row r="39" ht="17.25" spans="1:4">
-      <c r="A39" s="84"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="85" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" s="86"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" s="88"/>
     </row>
     <row r="40" ht="17.25" spans="1:4">
-      <c r="A40" s="84"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="85" t="s">
-        <v>273</v>
-      </c>
-      <c r="D40" s="86"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" s="88"/>
     </row>
     <row r="41" ht="17.25" spans="1:4">
-      <c r="A41" s="84"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="D41" s="86"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" s="88"/>
     </row>
     <row r="42" ht="17.25" spans="1:4">
-      <c r="A42" s="84"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="85" t="s">
-        <v>275</v>
-      </c>
-      <c r="D42" s="86"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="D42" s="88"/>
     </row>
     <row r="43" ht="17.25" spans="1:4">
-      <c r="A43" s="84"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="85" t="s">
-        <v>276</v>
-      </c>
-      <c r="D43" s="86"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="88"/>
     </row>
     <row r="44" ht="17.25" spans="1:4">
-      <c r="A44" s="84"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="D44" s="86"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44" s="88"/>
     </row>
     <row r="45" ht="17.25" spans="1:4">
-      <c r="A45" s="84"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="D45" s="86"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="D45" s="88"/>
     </row>
     <row r="46" ht="17.25" spans="1:4">
-      <c r="A46" s="84" t="s">
-        <v>279</v>
-      </c>
-      <c r="B46" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="C46" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="D46" s="86"/>
+      <c r="A46" s="86" t="s">
+        <v>287</v>
+      </c>
+      <c r="B46" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="C46" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" s="88"/>
     </row>
     <row r="47" ht="17.25" spans="1:4">
-      <c r="A47" s="84"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="85" t="s">
-        <v>282</v>
-      </c>
-      <c r="D47" s="86"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="88"/>
     </row>
     <row r="48" ht="17.25" spans="1:4">
-      <c r="A48" s="84"/>
-      <c r="B48" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="C48" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="D48" s="86"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="86" t="s">
+        <v>291</v>
+      </c>
+      <c r="C48" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="D48" s="88"/>
     </row>
     <row r="49" ht="17.25" spans="1:4">
-      <c r="A49" s="84"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="D49" s="86"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="D49" s="88"/>
     </row>
     <row r="50" ht="17.25" spans="1:4">
-      <c r="A50" s="84"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="85" t="s">
-        <v>286</v>
-      </c>
-      <c r="D50" s="86"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="87" t="s">
+        <v>294</v>
+      </c>
+      <c r="D50" s="88"/>
     </row>
     <row r="51" ht="17.25" spans="1:4">
-      <c r="A51" s="84"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="85" t="s">
-        <v>287</v>
-      </c>
-      <c r="D51" s="86"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="D51" s="88"/>
     </row>
     <row r="52" ht="17.25" spans="1:4">
-      <c r="A52" s="84"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="85" t="s">
-        <v>288</v>
-      </c>
-      <c r="D52" s="86"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="D52" s="88"/>
     </row>
     <row r="53" ht="17.25" spans="1:4">
-      <c r="A53" s="84"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="85" t="s">
-        <v>289</v>
-      </c>
-      <c r="D53" s="86"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53" s="88"/>
     </row>
     <row r="54" ht="17.25" spans="1:4">
-      <c r="A54" s="84"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="85" t="s">
-        <v>290</v>
-      </c>
-      <c r="D54" s="86"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="87" t="s">
+        <v>298</v>
+      </c>
+      <c r="D54" s="88"/>
     </row>
     <row r="55" ht="17.25" spans="1:4">
-      <c r="A55" s="84"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="85" t="s">
-        <v>291</v>
-      </c>
-      <c r="D55" s="86"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55" s="88"/>
     </row>
     <row r="56" ht="17.25" spans="1:4">
-      <c r="A56" s="84"/>
-      <c r="B56" s="84" t="s">
-        <v>292</v>
-      </c>
-      <c r="C56" s="85" t="s">
-        <v>293</v>
-      </c>
-      <c r="D56" s="86"/>
+      <c r="A56" s="86"/>
+      <c r="B56" s="86" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" s="87" t="s">
+        <v>301</v>
+      </c>
+      <c r="D56" s="88"/>
     </row>
     <row r="57" ht="17.25" spans="1:4">
-      <c r="A57" s="84" t="s">
-        <v>294</v>
-      </c>
-      <c r="B57" s="84" t="s">
-        <v>295</v>
-      </c>
-      <c r="C57" s="85" t="s">
-        <v>296</v>
-      </c>
-      <c r="D57" s="86"/>
+      <c r="A57" s="86" t="s">
+        <v>302</v>
+      </c>
+      <c r="B57" s="86" t="s">
+        <v>303</v>
+      </c>
+      <c r="C57" s="87" t="s">
+        <v>304</v>
+      </c>
+      <c r="D57" s="88"/>
     </row>
     <row r="58" ht="17.25" spans="1:4">
-      <c r="A58" s="84"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="85" t="s">
-        <v>297</v>
-      </c>
-      <c r="D58" s="86"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="87" t="s">
+        <v>305</v>
+      </c>
+      <c r="D58" s="88"/>
     </row>
     <row r="59" ht="17.25" spans="1:4">
-      <c r="A59" s="84"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="85" t="s">
-        <v>298</v>
-      </c>
-      <c r="D59" s="86"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="87" t="s">
+        <v>306</v>
+      </c>
+      <c r="D59" s="88"/>
     </row>
     <row r="60" ht="17.25" spans="1:4">
-      <c r="A60" s="84"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="85" t="s">
-        <v>299</v>
-      </c>
-      <c r="D60" s="86"/>
+      <c r="A60" s="86"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="D60" s="88"/>
     </row>
     <row r="61" ht="17.25" spans="1:4">
-      <c r="A61" s="84"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="85" t="s">
-        <v>300</v>
-      </c>
-      <c r="D61" s="86"/>
+      <c r="A61" s="86"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="87" t="s">
+        <v>308</v>
+      </c>
+      <c r="D61" s="88"/>
     </row>
     <row r="62" ht="17.25" spans="1:4">
-      <c r="A62" s="84"/>
-      <c r="B62" s="87" t="s">
-        <v>301</v>
-      </c>
-      <c r="C62" s="85" t="s">
-        <v>302</v>
-      </c>
-      <c r="D62" s="86"/>
+      <c r="A62" s="86"/>
+      <c r="B62" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="C62" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="D62" s="88"/>
     </row>
     <row r="63" ht="17.25" spans="1:4">
-      <c r="A63" s="84"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="85" t="s">
-        <v>303</v>
-      </c>
-      <c r="D63" s="86"/>
+      <c r="A63" s="86"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="D63" s="88"/>
     </row>
     <row r="64" ht="17.25" spans="1:4">
-      <c r="A64" s="84"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="85" t="s">
-        <v>304</v>
-      </c>
-      <c r="D64" s="86"/>
+      <c r="A64" s="86"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="87" t="s">
+        <v>312</v>
+      </c>
+      <c r="D64" s="88"/>
     </row>
     <row r="65" ht="17.25" spans="1:4">
-      <c r="A65" s="84"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="85" t="s">
-        <v>305</v>
-      </c>
-      <c r="D65" s="86"/>
+      <c r="A65" s="86"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="87" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" s="88"/>
     </row>
     <row r="66" ht="17.25" spans="1:4">
-      <c r="A66" s="84"/>
-      <c r="B66" s="84" t="s">
-        <v>306</v>
-      </c>
-      <c r="C66" s="85" t="s">
-        <v>307</v>
-      </c>
-      <c r="D66" s="86"/>
+      <c r="A66" s="86"/>
+      <c r="B66" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="C66" s="87" t="s">
+        <v>315</v>
+      </c>
+      <c r="D66" s="88"/>
     </row>
     <row r="67" ht="17.25" spans="1:4">
-      <c r="A67" s="84"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="85" t="s">
-        <v>308</v>
-      </c>
-      <c r="D67" s="86"/>
+      <c r="A67" s="86"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="D67" s="88"/>
     </row>
     <row r="68" ht="17.25" spans="1:4">
-      <c r="A68" s="84"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="85" t="s">
-        <v>309</v>
-      </c>
-      <c r="D68" s="86"/>
+      <c r="A68" s="86"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" s="88"/>
     </row>
     <row r="69" ht="17.25" spans="1:4">
-      <c r="A69" s="84"/>
-      <c r="B69" s="84"/>
-      <c r="C69" s="85" t="s">
-        <v>310</v>
-      </c>
-      <c r="D69" s="86"/>
+      <c r="A69" s="86"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="87" t="s">
+        <v>318</v>
+      </c>
+      <c r="D69" s="88"/>
     </row>
     <row r="70" ht="17.25" spans="1:4">
-      <c r="A70" s="84"/>
-      <c r="B70" s="84"/>
-      <c r="C70" s="85" t="s">
-        <v>311</v>
-      </c>
-      <c r="D70" s="86"/>
+      <c r="A70" s="86"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70" s="88"/>
     </row>
     <row r="71" ht="17.25" spans="1:4">
-      <c r="A71" s="84"/>
-      <c r="B71" s="84"/>
-      <c r="C71" s="85" t="s">
-        <v>312</v>
-      </c>
-      <c r="D71" s="86"/>
+      <c r="A71" s="86"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="87" t="s">
+        <v>320</v>
+      </c>
+      <c r="D71" s="88"/>
     </row>
     <row r="72" ht="17.25" spans="1:4">
-      <c r="A72" s="84"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="85" t="s">
-        <v>313</v>
-      </c>
-      <c r="D72" s="86"/>
+      <c r="A72" s="86"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="87" t="s">
+        <v>321</v>
+      </c>
+      <c r="D72" s="88"/>
     </row>
     <row r="73" ht="17.25" spans="1:4">
-      <c r="A73" s="84"/>
-      <c r="B73" s="84" t="s">
-        <v>314</v>
-      </c>
-      <c r="C73" s="85" t="s">
-        <v>315</v>
-      </c>
-      <c r="D73" s="86"/>
+      <c r="A73" s="86"/>
+      <c r="B73" s="86" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="D73" s="88"/>
     </row>
     <row r="74" ht="17.25" spans="1:4">
-      <c r="A74" s="84"/>
-      <c r="B74" s="84"/>
-      <c r="C74" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="D74" s="86"/>
+      <c r="A74" s="86"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="D74" s="88"/>
     </row>
     <row r="75" ht="17.25" spans="1:4">
-      <c r="A75" s="84"/>
-      <c r="B75" s="84" t="s">
-        <v>317</v>
-      </c>
-      <c r="C75" s="85" t="s">
-        <v>318</v>
-      </c>
-      <c r="D75" s="86"/>
+      <c r="A75" s="86"/>
+      <c r="B75" s="86" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" s="87" t="s">
+        <v>326</v>
+      </c>
+      <c r="D75" s="88"/>
     </row>
     <row r="76" ht="17.25" spans="1:4">
-      <c r="A76" s="84"/>
-      <c r="B76" s="84"/>
-      <c r="C76" s="85" t="s">
-        <v>319</v>
-      </c>
-      <c r="D76" s="86"/>
+      <c r="A76" s="86"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="D76" s="88"/>
     </row>
     <row r="77" ht="17.25" spans="1:4">
-      <c r="A77" s="84"/>
-      <c r="B77" s="84" t="s">
-        <v>320</v>
-      </c>
-      <c r="C77" s="85" t="s">
-        <v>321</v>
-      </c>
-      <c r="D77" s="86"/>
+      <c r="A77" s="86"/>
+      <c r="B77" s="86" t="s">
+        <v>328</v>
+      </c>
+      <c r="C77" s="87" t="s">
+        <v>329</v>
+      </c>
+      <c r="D77" s="88"/>
     </row>
     <row r="78" ht="17.25" spans="1:4">
-      <c r="A78" s="84" t="s">
-        <v>322</v>
-      </c>
-      <c r="B78" s="84"/>
-      <c r="C78" s="85" t="s">
-        <v>323</v>
-      </c>
-      <c r="D78" s="86"/>
+      <c r="A78" s="86" t="s">
+        <v>330</v>
+      </c>
+      <c r="B78" s="86"/>
+      <c r="C78" s="87" t="s">
+        <v>331</v>
+      </c>
+      <c r="D78" s="88"/>
     </row>
     <row r="79" ht="17.25" spans="1:4">
-      <c r="A79" s="84"/>
-      <c r="B79" s="84"/>
-      <c r="C79" s="85" t="s">
-        <v>324</v>
-      </c>
-      <c r="D79" s="86"/>
+      <c r="A79" s="86"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="87" t="s">
+        <v>332</v>
+      </c>
+      <c r="D79" s="88"/>
     </row>
     <row r="80" ht="17.25" spans="1:4">
-      <c r="A80" s="84"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="85" t="s">
-        <v>325</v>
-      </c>
-      <c r="D80" s="86"/>
+      <c r="A80" s="86"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="D80" s="88"/>
     </row>
     <row r="81" ht="17.25" spans="1:4">
-      <c r="A81" s="84"/>
-      <c r="B81" s="84"/>
-      <c r="C81" s="85" t="s">
-        <v>326</v>
-      </c>
-      <c r="D81" s="86"/>
+      <c r="A81" s="86"/>
+      <c r="B81" s="86"/>
+      <c r="C81" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="D81" s="88"/>
     </row>
     <row r="82" ht="17.25" spans="1:4">
-      <c r="A82" s="84"/>
-      <c r="B82" s="84"/>
-      <c r="C82" s="85" t="s">
-        <v>327</v>
-      </c>
-      <c r="D82" s="86"/>
+      <c r="A82" s="86"/>
+      <c r="B82" s="86"/>
+      <c r="C82" s="87" t="s">
+        <v>335</v>
+      </c>
+      <c r="D82" s="88"/>
     </row>
     <row r="83" ht="17.25" spans="1:4">
-      <c r="A83" s="84"/>
-      <c r="B83" s="84"/>
-      <c r="C83" s="85" t="s">
-        <v>328</v>
-      </c>
-      <c r="D83" s="86"/>
+      <c r="A83" s="86"/>
+      <c r="B83" s="86"/>
+      <c r="C83" s="87" t="s">
+        <v>336</v>
+      </c>
+      <c r="D83" s="88"/>
     </row>
     <row r="84" ht="17.25" spans="1:4">
-      <c r="A84" s="84"/>
-      <c r="B84" s="84"/>
-      <c r="C84" s="85" t="s">
-        <v>329</v>
-      </c>
-      <c r="D84" s="86"/>
+      <c r="A84" s="86"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="87" t="s">
+        <v>337</v>
+      </c>
+      <c r="D84" s="88"/>
     </row>
     <row r="85" ht="17.25" spans="1:4">
-      <c r="A85" s="84"/>
-      <c r="B85" s="84"/>
-      <c r="C85" s="85" t="s">
-        <v>330</v>
-      </c>
-      <c r="D85" s="86"/>
+      <c r="A85" s="86"/>
+      <c r="B85" s="86"/>
+      <c r="C85" s="87" t="s">
+        <v>338</v>
+      </c>
+      <c r="D85" s="88"/>
     </row>
     <row r="86" ht="17.25" spans="1:4">
-      <c r="A86" s="84"/>
-      <c r="B86" s="84"/>
-      <c r="C86" s="85" t="s">
-        <v>331</v>
-      </c>
-      <c r="D86" s="86"/>
+      <c r="A86" s="86"/>
+      <c r="B86" s="86"/>
+      <c r="C86" s="87" t="s">
+        <v>339</v>
+      </c>
+      <c r="D86" s="88"/>
     </row>
     <row r="87" ht="17.25" spans="1:4">
-      <c r="A87" s="84"/>
-      <c r="B87" s="84"/>
-      <c r="C87" s="85" t="s">
-        <v>332</v>
-      </c>
-      <c r="D87" s="86"/>
+      <c r="A87" s="86"/>
+      <c r="B87" s="86"/>
+      <c r="C87" s="87" t="s">
+        <v>340</v>
+      </c>
+      <c r="D87" s="88"/>
     </row>
     <row r="88" ht="17.25" spans="1:4">
-      <c r="A88" s="84" t="s">
-        <v>333</v>
-      </c>
-      <c r="B88" s="84"/>
-      <c r="C88" s="85" t="s">
-        <v>334</v>
-      </c>
-      <c r="D88" s="86"/>
+      <c r="A88" s="86" t="s">
+        <v>341</v>
+      </c>
+      <c r="B88" s="86"/>
+      <c r="C88" s="87" t="s">
+        <v>342</v>
+      </c>
+      <c r="D88" s="88"/>
     </row>
     <row r="89" ht="17.25" spans="1:4">
-      <c r="A89" s="84"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="85" t="s">
-        <v>335</v>
-      </c>
-      <c r="D89" s="86"/>
+      <c r="A89" s="86"/>
+      <c r="B89" s="86"/>
+      <c r="C89" s="87" t="s">
+        <v>343</v>
+      </c>
+      <c r="D89" s="88"/>
     </row>
     <row r="90" ht="17.25" spans="1:4">
-      <c r="A90" s="84"/>
-      <c r="B90" s="84"/>
-      <c r="C90" s="85" t="s">
-        <v>336</v>
-      </c>
-      <c r="D90" s="86"/>
+      <c r="A90" s="86"/>
+      <c r="B90" s="86"/>
+      <c r="C90" s="87" t="s">
+        <v>344</v>
+      </c>
+      <c r="D90" s="88"/>
     </row>
     <row r="91" ht="17.25" spans="1:4">
-      <c r="A91" s="84"/>
-      <c r="B91" s="84"/>
-      <c r="C91" s="85" t="s">
-        <v>337</v>
-      </c>
-      <c r="D91" s="86"/>
+      <c r="A91" s="86"/>
+      <c r="B91" s="86"/>
+      <c r="C91" s="87" t="s">
+        <v>345</v>
+      </c>
+      <c r="D91" s="88"/>
     </row>
     <row r="92" ht="17.25" spans="1:4">
-      <c r="A92" s="84"/>
-      <c r="B92" s="84"/>
-      <c r="C92" s="85" t="s">
-        <v>338</v>
-      </c>
-      <c r="D92" s="86"/>
+      <c r="A92" s="86"/>
+      <c r="B92" s="86"/>
+      <c r="C92" s="87" t="s">
+        <v>346</v>
+      </c>
+      <c r="D92" s="88"/>
     </row>
     <row r="93" ht="17.25" spans="1:4">
-      <c r="A93" s="84" t="s">
-        <v>339</v>
-      </c>
-      <c r="B93" s="84"/>
-      <c r="C93" s="85" t="s">
-        <v>340</v>
-      </c>
-      <c r="D93" s="86"/>
+      <c r="A93" s="86" t="s">
+        <v>347</v>
+      </c>
+      <c r="B93" s="86"/>
+      <c r="C93" s="87" t="s">
+        <v>348</v>
+      </c>
+      <c r="D93" s="88"/>
     </row>
     <row r="94" ht="17.25" spans="1:4">
-      <c r="A94" s="84"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="85" t="s">
-        <v>341</v>
-      </c>
-      <c r="D94" s="86"/>
+      <c r="A94" s="86"/>
+      <c r="B94" s="86"/>
+      <c r="C94" s="87" t="s">
+        <v>349</v>
+      </c>
+      <c r="D94" s="88"/>
     </row>
     <row r="95" ht="17.25" spans="1:4">
-      <c r="A95" s="84"/>
-      <c r="B95" s="84"/>
-      <c r="C95" s="85" t="s">
-        <v>342</v>
-      </c>
-      <c r="D95" s="86"/>
+      <c r="A95" s="86"/>
+      <c r="B95" s="86"/>
+      <c r="C95" s="87" t="s">
+        <v>350</v>
+      </c>
+      <c r="D95" s="88"/>
     </row>
     <row r="96" ht="17.25" spans="1:4">
-      <c r="A96" s="84"/>
-      <c r="B96" s="84"/>
-      <c r="C96" s="85" t="s">
-        <v>343</v>
-      </c>
-      <c r="D96" s="86"/>
+      <c r="A96" s="86"/>
+      <c r="B96" s="86"/>
+      <c r="C96" s="87" t="s">
+        <v>351</v>
+      </c>
+      <c r="D96" s="88"/>
     </row>
     <row r="97" ht="17.25" spans="1:4">
-      <c r="A97" s="84"/>
-      <c r="B97" s="84"/>
-      <c r="C97" s="85" t="s">
-        <v>344</v>
-      </c>
-      <c r="D97" s="86"/>
+      <c r="A97" s="86"/>
+      <c r="B97" s="86"/>
+      <c r="C97" s="87" t="s">
+        <v>352</v>
+      </c>
+      <c r="D97" s="88"/>
     </row>
     <row r="98" ht="17.25" spans="1:4">
-      <c r="A98" s="84"/>
-      <c r="B98" s="84"/>
-      <c r="C98" s="85" t="s">
-        <v>345</v>
-      </c>
-      <c r="D98" s="86"/>
+      <c r="A98" s="86"/>
+      <c r="B98" s="86"/>
+      <c r="C98" s="87" t="s">
+        <v>353</v>
+      </c>
+      <c r="D98" s="88"/>
     </row>
     <row r="161" spans="3:3">
-      <c r="C161" s="88"/>
+      <c r="C161" s="90"/>
     </row>
     <row r="162" spans="3:3">
-      <c r="C162" s="88"/>
+      <c r="C162" s="90"/>
     </row>
     <row r="163" spans="3:3">
-      <c r="C163" s="88"/>
+      <c r="C163" s="90"/>
     </row>
     <row r="164" spans="3:3">
-      <c r="C164" s="88"/>
+      <c r="C164" s="90"/>
     </row>
     <row r="166" spans="3:3">
-      <c r="C166" s="88"/>
+      <c r="C166" s="90"/>
     </row>
     <row r="167" spans="3:3">
-      <c r="C167" s="88"/>
+      <c r="C167" s="90"/>
     </row>
     <row r="168" spans="3:3">
-      <c r="C168" s="88"/>
+      <c r="C168" s="90"/>
     </row>
     <row r="169" spans="3:3">
-      <c r="C169" s="88"/>
+      <c r="C169" s="90"/>
     </row>
     <row r="170" spans="3:3">
-      <c r="C170" s="88"/>
+      <c r="C170" s="90"/>
     </row>
     <row r="171" spans="3:3">
-      <c r="C171" s="88"/>
+      <c r="C171" s="90"/>
     </row>
     <row r="172" spans="3:3">
-      <c r="C172" s="88"/>
+      <c r="C172" s="90"/>
     </row>
     <row r="173" spans="3:3">
-      <c r="C173" s="88"/>
+      <c r="C173" s="90"/>
     </row>
     <row r="174" spans="3:3">
-      <c r="C174" s="88"/>
+      <c r="C174" s="90"/>
     </row>
     <row r="175" spans="3:3">
-      <c r="C175" s="88"/>
+      <c r="C175" s="90"/>
     </row>
     <row r="176" spans="3:3">
-      <c r="C176" s="88"/>
+      <c r="C176" s="90"/>
     </row>
     <row r="177" spans="3:3">
-      <c r="C177" s="88"/>
+      <c r="C177" s="90"/>
     </row>
     <row r="178" spans="3:3">
-      <c r="C178" s="88"/>
+      <c r="C178" s="90"/>
     </row>
     <row r="179" spans="3:3">
-      <c r="C179" s="88"/>
+      <c r="C179" s="90"/>
     </row>
     <row r="180" spans="3:3">
-      <c r="C180" s="88"/>
+      <c r="C180" s="90"/>
     </row>
     <row r="181" spans="3:3">
-      <c r="C181" s="88"/>
+      <c r="C181" s="90"/>
     </row>
     <row r="182" spans="3:3">
-      <c r="C182" s="88"/>
+      <c r="C182" s="90"/>
     </row>
     <row r="183" spans="3:3">
-      <c r="C183" s="88"/>
+      <c r="C183" s="90"/>
     </row>
     <row r="184" spans="3:3">
-      <c r="C184" s="88"/>
+      <c r="C184" s="90"/>
     </row>
     <row r="185" spans="3:3">
-      <c r="C185" s="88"/>
+      <c r="C185" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -6455,61 +7049,69 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="41.625" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="48.5" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="52.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:4">
-      <c r="A1" s="73" t="s">
-        <v>346</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>347</v>
-      </c>
-      <c r="D1" s="75"/>
-    </row>
-    <row r="2" ht="20.25" spans="1:4">
-      <c r="A2" s="76" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" s="78"/>
-    </row>
-    <row r="3" ht="20.25" spans="1:4">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-    </row>
-    <row r="4" ht="303.75" spans="1:4">
-      <c r="A4" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
-        <v>351</v>
-      </c>
+    <row r="2" ht="20.25" spans="2:5">
+      <c r="B2" s="73" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="75"/>
+    </row>
+    <row r="3" ht="20.25" spans="2:5">
+      <c r="B3" s="76" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="78" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" s="78"/>
+    </row>
+    <row r="4" ht="20.25" spans="2:5">
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+    </row>
+    <row r="5" ht="40.5" spans="2:5">
+      <c r="B5" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:C4"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
@@ -6535,879 +7137,879 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="65" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="67" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="67" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="67" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="67" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="66" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="66" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="66" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="66" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="66" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="66" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="11" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="67" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="67" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="67" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="67" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="66" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="66" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="66" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="66" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="66" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="66" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="66" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="66" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="66" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="66" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C36" s="67" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="66" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="66" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11"/>
       <c r="B41" s="11" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="66" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11"/>
       <c r="B43" s="11" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="67" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11"/>
       <c r="B45" s="11" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11"/>
       <c r="B46" s="11" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11"/>
       <c r="B47" s="11" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="66" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11"/>
       <c r="B49" s="11" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="68" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="66" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C53" s="67" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="67" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="66" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="68" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="67" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="67" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="11"/>
       <c r="B59" s="11" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="66" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11"/>
       <c r="B61" s="11" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C61" s="67" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="67" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="68" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="67" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="11"/>
       <c r="B65" s="11" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="66" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="67" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="67" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="67" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="11" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="69" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="70" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="69" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="69" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="69" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="69" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="69" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="69" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="69" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="69" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="69" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="69" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="69" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="69" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="69" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="69" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="69" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="11" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="69" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="69" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="11" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="69" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="69" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="69" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="69" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="69" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="69" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="69" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="69" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="11" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="69" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="69" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="11" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="69" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="69" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="69" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="69" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="69" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="69" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="69" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="69" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="69" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="69" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="69" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="69" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="69" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="69" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="69" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="114" ht="33" spans="1:3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="69" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="69" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -7586,7 +8188,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="54" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -7594,398 +8196,398 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="57" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="57" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="57" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="57" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="57" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="57" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="57" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="57" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="57" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="57" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="57" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="59" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="59" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" ht="33" spans="1:2">
       <c r="A18" s="59" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="59" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="59" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" ht="33" spans="1:2">
       <c r="A21" s="59" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" ht="33" spans="1:2">
       <c r="A22" s="59" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="59" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="59" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" ht="33" spans="1:2">
       <c r="A25" s="59" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" ht="33" spans="1:2">
       <c r="A26" s="51" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" ht="33" spans="1:2">
       <c r="A27" s="59" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="59" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="59" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" ht="33" spans="1:2">
       <c r="A31" s="59" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" ht="33" spans="1:2">
       <c r="A32" s="59" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="59" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" ht="33" spans="1:2">
       <c r="A34" s="59" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="59" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="59" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="59" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="59" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="59" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="59" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="43" ht="33" spans="1:2">
       <c r="A43" s="59" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="59" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="59" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="59" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="59" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="59" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="54" ht="33" spans="1:2">
       <c r="A54" s="59" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="56" ht="33" spans="1:2">
       <c r="A56" s="59" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="59" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -7999,7 +8601,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="62" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -8007,90 +8609,90 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="63" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B68" s="64" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" ht="33" spans="1:2">
       <c r="A69" s="51" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70" ht="33" spans="1:2">
       <c r="A70" s="51" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B70" s="60" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="71" ht="33" spans="1:2">
       <c r="A71" s="51" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B71" s="60" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
     </row>
     <row r="72" ht="33" spans="1:2">
       <c r="A72" s="51" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="B72" s="60" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="73" ht="33" spans="1:2">
       <c r="A73" s="51" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="B73" s="60" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
     </row>
     <row r="74" ht="33" spans="1:2">
       <c r="A74" s="51" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="B74" s="60" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="75" ht="33" spans="1:2">
       <c r="A75" s="51" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="B75" s="60" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="76" ht="33" spans="1:2">
       <c r="A76" s="51" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B76" s="60" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="77" ht="33" spans="1:2">
       <c r="A77" s="51" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="B77" s="60" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="78" ht="33" spans="1:2">
       <c r="A78" s="51" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="B78" s="60" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -8156,196 +8758,196 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="41" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="45" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="46" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="43" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="47" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4"/>
       <c r="B8" s="46" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="45" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4"/>
       <c r="B9" s="46" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4"/>
       <c r="B10" s="46" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="47" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="47" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="43" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4"/>
       <c r="B14" s="46" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="47" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="46" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="47" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="46" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="50" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="49"/>
       <c r="D17" s="45" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8353,17 +8955,17 @@
       <c r="B18" s="51"/>
       <c r="C18" s="52"/>
       <c r="D18" s="45" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:4">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="44" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8371,7 +8973,7 @@
       <c r="B20" s="51"/>
       <c r="C20" s="44"/>
       <c r="D20" s="47" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21" s="39" customFormat="1" spans="1:1">
@@ -8463,7 +9065,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -8474,246 +9076,246 @@
     </row>
     <row r="2" ht="33" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="21" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" ht="33" spans="1:7">
       <c r="A3" s="17"/>
       <c r="B3" s="19" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="21"/>
       <c r="F3" s="18" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="21"/>
       <c r="F4" s="18" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5" ht="33" spans="1:7">
       <c r="A5" s="17"/>
       <c r="B5" s="18" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
       <c r="F5" s="18" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="21"/>
       <c r="F6" s="18" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" ht="33" spans="1:7">
       <c r="A7" s="17"/>
       <c r="B7" s="18" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
       <c r="F7" s="23" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" ht="33" spans="1:7">
       <c r="A8" s="17"/>
       <c r="B8" s="23" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="21"/>
       <c r="F8" s="23" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17"/>
       <c r="B9" s="23" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21"/>
       <c r="F9" s="23" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="17"/>
       <c r="B10" s="23" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="21"/>
       <c r="F10" s="23" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
       <c r="F11" s="23" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
       <c r="F12" s="23" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13" ht="33" spans="1:7">
       <c r="A13" s="17"/>
       <c r="B13" s="18" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
       <c r="F13" s="19" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="17"/>
       <c r="B14" s="23" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
       <c r="F14" s="19" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
       <c r="F15" s="18" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8723,366 +9325,366 @@
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
       <c r="F16" s="18" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="17"/>
       <c r="B17" s="18" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21"/>
       <c r="F17" s="24" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17"/>
       <c r="B18" s="23" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="17" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17"/>
       <c r="B19" s="23" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="17"/>
       <c r="F19" s="23" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="17"/>
       <c r="F20" s="23" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="17"/>
       <c r="F21" s="23" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="17" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17"/>
       <c r="B23" s="18" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
     </row>
     <row r="24" ht="33" spans="1:7">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="17"/>
       <c r="F24" s="19" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17"/>
       <c r="B25" s="18" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="25" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="26"/>
       <c r="B27" s="24" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="17"/>
       <c r="F27" s="18" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="26"/>
       <c r="B28" s="23" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="17" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="26"/>
       <c r="B29" s="19" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="17"/>
       <c r="F29" s="23" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="26"/>
       <c r="B30" s="23" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="17"/>
       <c r="F30" s="23" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="26" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="17"/>
       <c r="F31" s="23" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="26"/>
       <c r="B32" s="23" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="17"/>
       <c r="F32" s="23" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="26"/>
       <c r="B33" s="24" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="17"/>
       <c r="F33" s="23" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="26"/>
       <c r="B34" s="18" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="26"/>
       <c r="B35" s="18" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="26"/>
       <c r="B36" s="23" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="D36" s="22"/>
       <c r="F36" s="27" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="26"/>
       <c r="B37" s="23" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="26"/>
       <c r="B38" s="23" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="D38" s="22"/>
     </row>
@@ -9149,7 +9751,7 @@
       <c r="C69" s="36"/>
       <c r="D69" s="35"/>
       <c r="E69" s="37" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -9397,32 +9999,32 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -9431,678 +10033,678 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
       <c r="B10" s="9" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="10" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4"/>
       <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="11"/>
       <c r="C19" s="5" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="11"/>
       <c r="B29" s="4"/>
       <c r="C29" s="8" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="11"/>
       <c r="B30" s="4"/>
       <c r="C30" s="8" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11"/>
       <c r="B31" s="4" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11"/>
       <c r="B32" s="4"/>
       <c r="C32" s="8" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="4"/>
       <c r="C33" s="8" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11"/>
       <c r="B34" s="4"/>
       <c r="C34" s="8" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="4"/>
       <c r="C35" s="8" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="4"/>
       <c r="C36" s="8" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11"/>
       <c r="B37" s="4"/>
       <c r="C37" s="8" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="11"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11"/>
       <c r="B45" s="4" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11"/>
       <c r="B46" s="4" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11"/>
       <c r="B47" s="4"/>
       <c r="C47" s="8" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11"/>
       <c r="B48" s="4"/>
       <c r="C48" s="8" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11"/>
       <c r="B49" s="4" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11"/>
       <c r="B54" s="4" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11"/>
       <c r="B55" s="4"/>
       <c r="C55" s="8" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="8" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="8" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="8" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="8" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="8" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="8" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="8" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="8" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="8" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="8" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="8" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="8" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="8" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="12" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="13" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="13" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="13" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
     </row>
     <row r="84" spans="5:5">
       <c r="E84" s="14" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="12" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="13" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="13" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="13" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="13" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="13" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="13" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="13" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="13" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="13" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
     </row>
     <row r="96" spans="5:5">
       <c r="E96" s="14" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="12" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="13" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="13" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="13" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="13" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="13" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="13" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" s="14" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="12" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="13" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="13" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="13" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="13" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" s="14" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
     </row>
   </sheetData>

--- a/1_php/原生php/PHP函数分目参考.xlsx
+++ b/1_php/原生php/PHP函数分目参考.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="954">
   <si>
     <t>双精度判断</t>
   </si>
@@ -224,7 +224,7 @@
     <t>描述</t>
   </si>
   <si>
-    <t>创建</t>
+    <t>构造</t>
   </si>
   <si>
     <t>创建数组</t>
@@ -245,10 +245,73 @@
     <t>$arr=range ( mixed $start , mixed $end [, number $step = 1 ] )</t>
   </si>
   <si>
+    <t>[4],[5],[7]</t>
+  </si>
+  <si>
     <t>range()</t>
   </si>
   <si>
+    <t>创建数组。范围性创建</t>
+  </si>
+  <si>
     <t>$arr=range('a', 'c')=array('a','b', 'c')</t>
+  </si>
+  <si>
+    <t>$arr=array_fill ( int $start_index , int $num , mixed $value ) : array</t>
+  </si>
+  <si>
+    <t>[4 &gt;= 4.2.0],[5],[7]</t>
+  </si>
+  <si>
+    <t>array_fill()</t>
+  </si>
+  <si>
+    <t>创建数组。元素复制式创建</t>
+  </si>
+  <si>
+    <t>5.6.0 num 现在可以是零。 之前 num 必须大于零。</t>
+  </si>
+  <si>
+    <t>$arr=array_fill_keys ( array $keys , mixed $value ) : array</t>
+  </si>
+  <si>
+    <t>[5&gt;5.2],[7]</t>
+  </si>
+  <si>
+    <t>array_fill_keys()</t>
+  </si>
+  <si>
+    <t>$arr=array_combine ( array $keys , array $values ) : array</t>
+  </si>
+  <si>
+    <t>[5],[7]</t>
+  </si>
+  <si>
+    <t>array_combine()</t>
+  </si>
+  <si>
+    <t>创建数组。数组创建关联数组</t>
+  </si>
+  <si>
+    <t>$arr=array_merge ( array $array1 [, array $... ] ) : array</t>
+  </si>
+  <si>
+    <t>array_merge()</t>
+  </si>
+  <si>
+    <t>创建数组。多个数组合并</t>
+  </si>
+  <si>
+    <t>$arr=array_merge_recursive ( array $array1 [, array $... ] ) : array</t>
+  </si>
+  <si>
+    <t>[4&gt;4.0.1],[5],[7]</t>
+  </si>
+  <si>
+    <t>array_merge_recursive()</t>
+  </si>
+  <si>
+    <t>创建数组。多个数组合并。递归</t>
   </si>
   <si>
     <r>
@@ -319,37 +382,34 @@
     <t>compact()</t>
   </si>
   <si>
-    <t>单个
-数组
-内部</t>
-  </si>
-  <si>
-    <t>单个数组
-内部操作</t>
-  </si>
-  <si>
-    <t>array_fill()</t>
-  </si>
-  <si>
-    <t>用给定的键值填充数组。</t>
-  </si>
-  <si>
-    <t>array_fill_keys()</t>
-  </si>
-  <si>
-    <t>用给定的指定键名的键值填充数组。</t>
+    <t>创建数组。变量创建数组</t>
+  </si>
+  <si>
+    <t>析构</t>
+  </si>
+  <si>
+    <t>拆解</t>
+  </si>
+  <si>
+    <t>$num=extract ( array &amp;$array [, int $flags = EXTR_OVERWRITE [, string $prefix = NULL ]] ) : int</t>
+  </si>
+  <si>
+    <t>$arr=array_splice ( array &amp;$input , int $offset [, int $length = count($input) [, mixed $replacement = array() ]] ) : array</t>
   </si>
   <si>
     <t>array_splice()</t>
   </si>
   <si>
-    <t>把数组中的指定元素去掉并用其它值取代。</t>
+    <t>变更数组元素</t>
+  </si>
+  <si>
+    <t>$arr=array_flip ( array $array ) : array|null</t>
   </si>
   <si>
     <t>array_flip()</t>
   </si>
   <si>
-    <t>反转/交换数组中的键名和对应关联的键值。</t>
+    <t>反转数组的键与值</t>
   </si>
   <si>
     <t>array_unique()</t>
@@ -677,34 +737,16 @@
     <t>把一个数组分割为新的数组块。</t>
   </si>
   <si>
-    <t>array_merge()</t>
-  </si>
-  <si>
-    <t>把一个或多个数组合并为一个数组。</t>
-  </si>
-  <si>
     <t>array_replace()</t>
   </si>
   <si>
     <t>使用后面数组的值替换第一个数组的值。</t>
   </si>
   <si>
-    <t>array_merge_recursive()</t>
-  </si>
-  <si>
-    <t>递归地把一个或多个数组合并为一个数组。</t>
-  </si>
-  <si>
     <t>array_replace_recursive()</t>
   </si>
   <si>
     <t>递归地使用后面数组的值替换第一个数组的值。</t>
-  </si>
-  <si>
-    <t>array_combine()</t>
-  </si>
-  <si>
-    <t>通过合并两个数组（一个为键名数组，一个为键值数组）来创建一个新数组。</t>
   </si>
   <si>
     <t>数组间
@@ -805,15 +847,6 @@
   </si>
   <si>
     <t>求交集（比较键名和键值，使用两个用户自定义的键名比较函数）。</t>
-  </si>
-  <si>
-    <t>未知不明</t>
-  </si>
-  <si>
-    <t>extract()</t>
-  </si>
-  <si>
-    <t>从数组中将变量导入到当前的符号表。</t>
   </si>
   <si>
     <t>单字符串</t>
@@ -2962,7 +2995,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3047,6 +3080,24 @@
     <font>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF336699"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3179,8 +3230,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3193,9 +3245,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3294,12 +3345,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3312,13 +3357,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3336,19 +3387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3372,7 +3417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3396,13 +3447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3414,7 +3459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3432,7 +3483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3450,13 +3507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3785,153 +3836,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4213,6 +4264,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4249,9 +4305,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4299,9 +4352,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4683,472 +4733,472 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="99" customWidth="1"/>
-    <col min="2" max="2" width="24" style="99" customWidth="1"/>
-    <col min="3" max="3" width="43.375" style="99" customWidth="1"/>
-    <col min="4" max="4" width="3.25" style="99" customWidth="1"/>
-    <col min="5" max="5" width="9" style="99" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="99" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="99" customWidth="1"/>
-    <col min="8" max="8" width="29.125" style="99" customWidth="1"/>
-    <col min="9" max="9" width="2.75" style="99" customWidth="1"/>
-    <col min="10" max="10" width="19.625" style="99" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="99" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="99"/>
+    <col min="1" max="1" width="29" style="102" customWidth="1"/>
+    <col min="2" max="2" width="24" style="102" customWidth="1"/>
+    <col min="3" max="3" width="43.375" style="102" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="102" customWidth="1"/>
+    <col min="5" max="5" width="9" style="102" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="102" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="102" customWidth="1"/>
+    <col min="8" max="8" width="29.125" style="102" customWidth="1"/>
+    <col min="9" max="9" width="2.75" style="102" customWidth="1"/>
+    <col min="10" max="10" width="19.625" style="102" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="102" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="102"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="125"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="127"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="103"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="126"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="128"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="126"/>
+      <c r="C4" s="103"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="128"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="126"/>
+      <c r="C5" s="103"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="128"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="126"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="128"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="126"/>
+      <c r="C7" s="103"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="128"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="126"/>
+      <c r="C8" s="103"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="128"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="126"/>
+      <c r="C9" s="103"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="128"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="126"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="128"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="127"/>
+      <c r="C11" s="103"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="129"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="128"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="129"/>
+      <c r="C13" s="103"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="130"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="130"/>
+      <c r="C14" s="103"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="131"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="130"/>
+      <c r="C15" s="103"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="131"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="130"/>
+      <c r="C16" s="103"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="131"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="130"/>
+      <c r="C17" s="103"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="131"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="130"/>
+      <c r="C18" s="103"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="131"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="117"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="131"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="132"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="112"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="132"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="133"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="133"/>
+      <c r="C22" s="103"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="134"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="122"/>
-      <c r="M23" s="133"/>
+      <c r="C23" s="103"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="134"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="100"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="133"/>
+      <c r="C24" s="103"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="134"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="133"/>
+      <c r="C25" s="103"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="134"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="133"/>
+      <c r="C26" s="103"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="134"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="133"/>
+      <c r="C27" s="103"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="134"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="134"/>
+      <c r="C28" s="103"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5167,36 +5217,39 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="85.875" defaultRowHeight="17.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="85.875" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5.375" style="86" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="86" customWidth="1"/>
-    <col min="3" max="3" width="60.375" style="91" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="92" customWidth="1"/>
-    <col min="5" max="5" width="76.625" style="92" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="92" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="86" customWidth="1"/>
-    <col min="8" max="16384" width="85.875" style="86"/>
+    <col min="3" max="3" width="99.875" style="91" customWidth="1"/>
+    <col min="4" max="4" width="16" style="91" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="92" customWidth="1"/>
+    <col min="6" max="6" width="76.625" style="92" customWidth="1"/>
+    <col min="7" max="7" width="36.875" style="92" customWidth="1"/>
+    <col min="8" max="8" width="47.5" style="92" customWidth="1"/>
+    <col min="9" max="9" width="30.5" style="86" customWidth="1"/>
+    <col min="10" max="16384" width="85.875" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="3:5">
+    <row r="1" ht="18" spans="3:8">
       <c r="C1" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="E1" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="F1" s="93" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" s="93"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="86" t="s">
         <v>58</v>
       </c>
@@ -5206,788 +5259,925 @@
       <c r="C2" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="F2" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="G2" s="92" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="3:6">
+      <c r="H2" s="95"/>
+    </row>
+    <row r="3" spans="3:8">
       <c r="C3" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="92" t="s">
+      <c r="E3" s="95" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="C4" s="94" t="s">
+      <c r="F3" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="G3" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="96" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="89" t="s">
+      <c r="H3" s="95"/>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="D4" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="95" t="s">
+      <c r="E4" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="F4" s="96" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="4:5">
-      <c r="D6" s="95" t="s">
+      <c r="H4" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="96" t="s">
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="98" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="4:5">
-      <c r="D7" s="95" t="s">
+      <c r="D5" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E5" s="95" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="4:5">
-      <c r="D8" s="95" t="s">
+      <c r="F5" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="95"/>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="D6" s="99" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="4:5">
-      <c r="D9" s="95" t="s">
+      <c r="E6" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="F6" s="96" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="4:5">
-      <c r="D10" s="95" t="s">
+      <c r="H6" s="95"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="D7" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="95" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="4:5">
-      <c r="D11" s="95" t="s">
+      <c r="F7" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="H7" s="95"/>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="98" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="4:5">
-      <c r="D12" s="95" t="s">
+      <c r="D8" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E8" s="95" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="4:5">
-      <c r="D13" s="95" t="s">
+      <c r="F8" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="96" t="s">
+      <c r="H8" s="95"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="94" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="4:5">
-      <c r="D14" s="95" t="s">
+      <c r="D9" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="F9" s="96" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="4:5">
-      <c r="D15" s="95" t="s">
+      <c r="H9" s="95"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="B10" s="86" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="4:5">
-      <c r="D16" s="95" t="s">
+      <c r="C10" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="D10" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="H10" s="95"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="88"/>
+      <c r="C11" s="100" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="95" t="s">
+      <c r="E11" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="F11" s="96" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="89" t="s">
+      <c r="H11" s="101"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="88"/>
+      <c r="C12" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="95" t="s">
+      <c r="D12" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="96" t="s">
+      <c r="F12" s="96" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="95" t="s">
+      <c r="H12" s="95"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="88"/>
+      <c r="E13" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="F13" s="96" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" s="95" t="s">
+      <c r="H13" s="95"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="88"/>
+      <c r="E14" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="96" t="s">
+      <c r="F14" s="96" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="95" t="s">
+      <c r="H14" s="95"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="88"/>
+      <c r="E15" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="96" t="s">
+      <c r="F15" s="96" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="D22" s="95" t="s">
+      <c r="H15" s="95"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="88"/>
+      <c r="E16" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="96" t="s">
+      <c r="F16" s="96" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="86" t="s">
+      <c r="H16" s="95"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="88"/>
+      <c r="E17" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="95" t="s">
+      <c r="F17" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="96" t="s">
+      <c r="H17" s="95"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="88"/>
+      <c r="E18" s="95" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" s="95" t="s">
+      <c r="F18" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="96" t="s">
+      <c r="H18" s="95"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="88"/>
+      <c r="E19" s="95" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" s="95" t="s">
+      <c r="F19" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="96" t="s">
+      <c r="H19" s="95"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="88"/>
+      <c r="E20" s="95" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="86" t="s">
+      <c r="F20" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="H20" s="95"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="88"/>
+      <c r="E21" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="96" t="s">
+      <c r="F21" s="96" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" s="95" t="s">
+      <c r="H21" s="95"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="96" t="s">
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="95" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" spans="4:5">
-      <c r="D28" s="95" t="s">
+      <c r="F22" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="96" t="s">
+      <c r="H22" s="95"/>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="E23" s="95" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="29" spans="4:5">
-      <c r="D29" s="95" t="s">
+      <c r="F23" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="96" t="s">
+      <c r="H23" s="95"/>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24" s="95" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="30" spans="4:5">
-      <c r="D30" s="95" t="s">
+      <c r="F24" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="96" t="s">
+      <c r="H24" s="95"/>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" s="95" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="86" t="s">
+      <c r="F25" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="95" t="s">
+      <c r="H25" s="95"/>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="96" t="s">
+      <c r="F26" s="96" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="32" spans="4:5">
-      <c r="D32" s="95" t="s">
+      <c r="H26" s="95"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="96" t="s">
+      <c r="E27" s="95" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="33" spans="4:5">
-      <c r="D33" s="95" t="s">
+      <c r="F27" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="96" t="s">
+      <c r="H27" s="95"/>
+    </row>
+    <row r="28" spans="5:8">
+      <c r="E28" s="95" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="D34" s="95" t="s">
+      <c r="F28" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="96" t="s">
+      <c r="H28" s="95"/>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" s="95" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35" s="95" t="s">
+      <c r="F29" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="96" t="s">
+      <c r="H29" s="95"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="86" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="86" t="s">
+      <c r="E30" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="95" t="s">
+      <c r="F30" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="96" t="s">
+      <c r="H30" s="95"/>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="E31" s="95" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="D37" s="95" t="s">
+      <c r="F31" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="E37" s="96" t="s">
+      <c r="H31" s="95"/>
+    </row>
+    <row r="32" spans="5:8">
+      <c r="E32" s="95" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="38" spans="4:5">
-      <c r="D38" s="95" t="s">
+      <c r="F32" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="96" t="s">
+      <c r="H32" s="95"/>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33" s="95" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="D39" s="95" t="s">
+      <c r="F33" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="96" t="s">
+      <c r="H33" s="95"/>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="E34" s="95" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="D40" s="95" t="s">
+      <c r="F34" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="96" t="s">
+      <c r="H34" s="95"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="86" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="41" spans="4:5">
-      <c r="D41" s="95" t="s">
+      <c r="E35" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="E41" s="96" t="s">
+      <c r="F35" s="96" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="42" spans="4:5">
-      <c r="D42" s="95" t="s">
+      <c r="H35" s="95"/>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="E36" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="E42" s="96" t="s">
+      <c r="F36" s="96" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="43" spans="4:5">
-      <c r="D43" s="95" t="s">
+      <c r="H36" s="95"/>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="E37" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="96" t="s">
+      <c r="F37" s="96" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="44" spans="4:5">
-      <c r="D44" s="95" t="s">
+      <c r="H37" s="95"/>
+    </row>
+    <row r="38" spans="5:8">
+      <c r="E38" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="96" t="s">
+      <c r="F38" s="96" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="86" t="s">
+      <c r="H38" s="95"/>
+    </row>
+    <row r="39" spans="5:8">
+      <c r="E39" s="95" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="95" t="s">
+      <c r="F39" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="E45" s="96" t="s">
+      <c r="H39" s="95"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="86" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="46" spans="4:5">
-      <c r="D46" s="95" t="s">
+      <c r="E40" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="96" t="s">
+      <c r="F40" s="96" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="47" spans="4:5">
-      <c r="D47" s="95" t="s">
+      <c r="H40" s="95"/>
+    </row>
+    <row r="41" spans="5:8">
+      <c r="E41" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="E47" s="96" t="s">
+      <c r="F41" s="96" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="48" spans="4:5">
-      <c r="D48" s="95" t="s">
+      <c r="H41" s="95"/>
+    </row>
+    <row r="42" spans="5:8">
+      <c r="E42" s="95" t="s">
         <v>163</v>
       </c>
-      <c r="E48" s="96" t="s">
+      <c r="F42" s="96" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="49" spans="4:5">
-      <c r="D49" s="95" t="s">
+      <c r="H42" s="95"/>
+    </row>
+    <row r="43" spans="5:8">
+      <c r="E43" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="E49" s="96" t="s">
+      <c r="F43" s="96" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="50" spans="4:5">
-      <c r="D50" s="95" t="s">
+      <c r="H43" s="95"/>
+    </row>
+    <row r="44" spans="5:8">
+      <c r="E44" s="95" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="96" t="s">
+      <c r="F44" s="96" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="51" spans="4:5">
-      <c r="D51" s="95" t="s">
+      <c r="H44" s="95"/>
+    </row>
+    <row r="45" spans="5:8">
+      <c r="E45" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="E51" s="96" t="s">
+      <c r="F45" s="96" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="52" spans="4:5">
-      <c r="D52" s="95" t="s">
+      <c r="H45" s="95"/>
+    </row>
+    <row r="46" spans="5:8">
+      <c r="E46" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="E52" s="96" t="s">
+      <c r="F46" s="96" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="53" spans="4:5">
-      <c r="D53" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="96" t="s">
+      <c r="H46" s="95"/>
+    </row>
+    <row r="47" spans="5:8">
+      <c r="E47" s="95" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="54" spans="4:5">
-      <c r="D54" s="95" t="s">
+      <c r="F47" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="E54" s="96" t="s">
+      <c r="H47" s="95"/>
+    </row>
+    <row r="48" spans="5:8">
+      <c r="E48" s="95" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="55" spans="4:5">
-      <c r="D55" s="95" t="s">
+      <c r="F48" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="E55" s="96" t="s">
+      <c r="H48" s="95"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="86" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="56" spans="4:5">
-      <c r="D56" s="95" t="s">
+      <c r="E49" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="E56" s="96" t="s">
+      <c r="F49" s="96" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="57" spans="4:5">
-      <c r="D57" s="95" t="s">
+      <c r="H49" s="95"/>
+    </row>
+    <row r="50" spans="5:8">
+      <c r="E50" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="E57" s="96" t="s">
+      <c r="F50" s="96" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="89" t="s">
+      <c r="H50" s="95"/>
+    </row>
+    <row r="51" spans="5:8">
+      <c r="E51" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="B58" s="89" t="s">
+      <c r="F51" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="98"/>
-      <c r="D58" s="95" t="s">
+      <c r="H51" s="95"/>
+    </row>
+    <row r="52" spans="5:8">
+      <c r="E52" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="E58" s="96" t="s">
+      <c r="F52" s="96" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="59" spans="4:5">
-      <c r="D59" s="95" t="s">
+      <c r="H52" s="95"/>
+    </row>
+    <row r="53" spans="5:8">
+      <c r="E53" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="96" t="s">
+      <c r="F53" s="96" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="60" spans="4:5">
-      <c r="D60" s="95" t="s">
+      <c r="H53" s="95"/>
+    </row>
+    <row r="54" spans="5:8">
+      <c r="E54" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="E60" s="96" t="s">
+      <c r="F54" s="96" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="61" spans="4:5">
-      <c r="D61" s="95" t="s">
+      <c r="H54" s="95"/>
+    </row>
+    <row r="55" spans="5:8">
+      <c r="E55" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="E61" s="96" t="s">
+      <c r="F55" s="96" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="62" spans="4:5">
-      <c r="D62" s="95" t="s">
+      <c r="H55" s="95"/>
+    </row>
+    <row r="56" spans="5:8">
+      <c r="E56" s="95" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="96" t="s">
+      <c r="F56" s="96" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="63" spans="4:5">
-      <c r="D63" s="95" t="s">
+      <c r="H56" s="95"/>
+    </row>
+    <row r="57" spans="5:8">
+      <c r="E57" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="96" t="s">
+      <c r="H57" s="95"/>
+    </row>
+    <row r="58" spans="5:8">
+      <c r="E58" s="95" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="89" t="s">
+      <c r="F58" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C64" s="98"/>
-      <c r="D64" s="95" t="s">
+      <c r="H58" s="95"/>
+    </row>
+    <row r="59" spans="5:8">
+      <c r="E59" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="E64" s="96" t="s">
+      <c r="F59" s="96" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="65" spans="4:5">
-      <c r="D65" s="95" t="s">
+      <c r="H59" s="95"/>
+    </row>
+    <row r="60" spans="5:8">
+      <c r="E60" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="E65" s="96" t="s">
+      <c r="F60" s="96" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="66" spans="4:5">
-      <c r="D66" s="95" t="s">
+      <c r="H60" s="95"/>
+    </row>
+    <row r="61" spans="5:8">
+      <c r="E61" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="E66" s="96" t="s">
+      <c r="F61" s="96" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="67" spans="4:5">
-      <c r="D67" s="95" t="s">
+      <c r="H61" s="95"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="E67" s="96" t="s">
+      <c r="B62" s="89" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="68" spans="4:5">
-      <c r="D68" s="95" t="s">
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="E68" s="96" t="s">
+      <c r="F62" s="96" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="69" spans="4:5">
-      <c r="D69" s="95" t="s">
+      <c r="H62" s="95"/>
+    </row>
+    <row r="63" spans="5:8">
+      <c r="E63" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="E69" s="96" t="s">
+      <c r="F63" s="96" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="70" spans="4:5">
-      <c r="D70" s="95" t="s">
+      <c r="H63" s="95"/>
+    </row>
+    <row r="65" spans="5:8">
+      <c r="E65" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="E70" s="96" t="s">
+      <c r="F65" s="96" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="71" spans="4:5">
-      <c r="D71" s="95" t="s">
+      <c r="H65" s="95"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="96" t="s">
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="95" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="72" spans="4:5">
-      <c r="D72" s="95" t="s">
+      <c r="F66" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="E72" s="96" t="s">
+      <c r="H66" s="95"/>
+    </row>
+    <row r="67" spans="5:8">
+      <c r="E67" s="95" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="73" spans="4:5">
-      <c r="D73" s="95" t="s">
+      <c r="F67" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="E73" s="96" t="s">
+      <c r="H67" s="95"/>
+    </row>
+    <row r="68" spans="5:8">
+      <c r="E68" s="95" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="74" spans="4:5">
-      <c r="D74" s="95" t="s">
+      <c r="F68" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="E74" s="96" t="s">
+      <c r="H68" s="95"/>
+    </row>
+    <row r="69" spans="5:8">
+      <c r="E69" s="95" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="75" spans="4:5">
-      <c r="D75" s="95" t="s">
+      <c r="F69" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="E75" s="96" t="s">
+      <c r="H69" s="95"/>
+    </row>
+    <row r="70" spans="5:8">
+      <c r="E70" s="95" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="76" spans="4:5">
-      <c r="D76" s="95" t="s">
+      <c r="F70" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="96" t="s">
+      <c r="H70" s="95"/>
+    </row>
+    <row r="71" spans="5:8">
+      <c r="E71" s="95" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="77" spans="4:5">
-      <c r="D77" s="95" t="s">
+      <c r="F71" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="E77" s="96" t="s">
+      <c r="H71" s="95"/>
+    </row>
+    <row r="72" spans="5:8">
+      <c r="E72" s="95" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="78" spans="4:5">
-      <c r="D78" s="95" t="s">
+      <c r="F72" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="E78" s="96" t="s">
+      <c r="H72" s="95"/>
+    </row>
+    <row r="73" spans="5:8">
+      <c r="E73" s="95" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="79" spans="4:5">
-      <c r="D79" s="95" t="s">
+      <c r="F73" s="96" t="s">
         <v>227</v>
       </c>
-      <c r="E79" s="96" t="s">
+      <c r="H73" s="95"/>
+    </row>
+    <row r="74" spans="5:8">
+      <c r="E74" s="95" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="B80" s="86" t="s">
+      <c r="F74" s="96" t="s">
         <v>229</v>
       </c>
-      <c r="D80" s="95" t="s">
+      <c r="H74" s="95"/>
+    </row>
+    <row r="75" spans="5:8">
+      <c r="E75" s="95" t="s">
         <v>230</v>
       </c>
-      <c r="E80" s="96" t="s">
+      <c r="F75" s="96" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="81" spans="4:5">
-      <c r="D81" s="86"/>
-      <c r="E81" s="86"/>
+      <c r="H75" s="95"/>
+    </row>
+    <row r="76" spans="5:8">
+      <c r="E76" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="F76" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="H76" s="95"/>
+    </row>
+    <row r="77" spans="5:8">
+      <c r="E77" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="F77" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="H77" s="95"/>
+    </row>
+    <row r="78" spans="5:8">
+      <c r="E78" s="95" t="s">
+        <v>236</v>
+      </c>
+      <c r="F78" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="H78" s="95"/>
+    </row>
+    <row r="79" spans="5:8">
+      <c r="E79" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="H79" s="95"/>
+    </row>
+    <row r="80" spans="5:8">
+      <c r="E80" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="F80" s="96" t="s">
+        <v>241</v>
+      </c>
+      <c r="H80" s="95"/>
+    </row>
+    <row r="81" spans="5:8">
+      <c r="E81" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="F81" s="96" t="s">
+        <v>243</v>
+      </c>
+      <c r="H81" s="95"/>
+    </row>
+    <row r="82" spans="5:8">
+      <c r="E82" s="86"/>
+      <c r="F82" s="86"/>
+      <c r="H82" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A57"/>
-    <mergeCell ref="A58:A79"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B44"/>
-    <mergeCell ref="B45:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B79"/>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A61"/>
+    <mergeCell ref="A62:A81"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="B49:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B81"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="array()"/>
-    <hyperlink ref="D12" r:id="rId2" display="array_change_key_case()"/>
-    <hyperlink ref="D58" r:id="rId3" display="array_chunk()"/>
-    <hyperlink ref="D17" r:id="rId4" display="array_column()"/>
-    <hyperlink ref="D63" r:id="rId5" display="array_combine()"/>
-    <hyperlink ref="D30" r:id="rId6" display="array_count_values()"/>
-    <hyperlink ref="D64" r:id="rId7" display="array_diff()"/>
-    <hyperlink ref="D66" r:id="rId8" display="array_diff_assoc()"/>
-    <hyperlink ref="D65" r:id="rId9" display="array_diff_key()"/>
-    <hyperlink ref="D67" r:id="rId10" display="array_diff_uassoc()"/>
-    <hyperlink ref="D68" r:id="rId11" display="array_diff_ukey()"/>
-    <hyperlink ref="D5" r:id="rId12" display="array_fill()"/>
-    <hyperlink ref="D6" r:id="rId13" display="array_fill_keys()"/>
-    <hyperlink ref="D34" r:id="rId14" display="array_filter()"/>
-    <hyperlink ref="D8" r:id="rId15" display="array_flip()"/>
-    <hyperlink ref="D72" r:id="rId16" display="array_intersect()"/>
-    <hyperlink ref="D74" r:id="rId17" display="array_intersect_assoc()"/>
-    <hyperlink ref="D73" r:id="rId18" display="array_intersect_key()"/>
-    <hyperlink ref="D75" r:id="rId19" display="array_intersect_uassoc()"/>
-    <hyperlink ref="D76" r:id="rId20" display="array_intersect_ukey()"/>
-    <hyperlink ref="D24" r:id="rId21" display="array_key_exists()"/>
-    <hyperlink ref="D15" r:id="rId22" display="array_keys()"/>
-    <hyperlink ref="D32" r:id="rId23" display="array_map()"/>
-    <hyperlink ref="D59" r:id="rId24" display="array_merge()"/>
-    <hyperlink ref="D61" r:id="rId25" display="array_merge_recursive()"/>
-    <hyperlink ref="D45" r:id="rId26" display="array_multisort()"/>
-    <hyperlink ref="D20" r:id="rId27" display="array_pad()"/>
-    <hyperlink ref="D21" r:id="rId28" display="array_pop()"/>
-    <hyperlink ref="D26" r:id="rId29" display="array_product()"/>
-    <hyperlink ref="D19" r:id="rId30" display="array_push()"/>
-    <hyperlink ref="D16" r:id="rId31" display="array_rand()"/>
-    <hyperlink ref="D33" r:id="rId32" display="array_reduce()"/>
-    <hyperlink ref="D60" r:id="rId33" display="array_replace()"/>
-    <hyperlink ref="D62" r:id="rId34" display="array_replace_recursive()"/>
-    <hyperlink ref="D11" r:id="rId35" display="array_reverse()"/>
-    <hyperlink ref="D25" r:id="rId36" display="array_search()"/>
-    <hyperlink ref="D22" r:id="rId37" display="array_shift()"/>
-    <hyperlink ref="D14" r:id="rId38" display="array_slice()"/>
-    <hyperlink ref="D7" r:id="rId39" display="array_splice()"/>
-    <hyperlink ref="D27" r:id="rId40" display="array_sum()"/>
-    <hyperlink ref="D69" r:id="rId41" display="array_udiff()"/>
-    <hyperlink ref="D70" r:id="rId42" display="array_udiff_assoc()"/>
-    <hyperlink ref="D71" r:id="rId43" display="array_udiff_uassoc()"/>
-    <hyperlink ref="D77" r:id="rId44" display="array_uintersect()"/>
-    <hyperlink ref="D78" r:id="rId45" display="array_uintersect_assoc()"/>
-    <hyperlink ref="D79" r:id="rId46" display="array_uintersect_uassoc()"/>
-    <hyperlink ref="D9" r:id="rId47" display="array_unique()"/>
-    <hyperlink ref="D18" r:id="rId48" display="array_unshift()"/>
-    <hyperlink ref="D13" r:id="rId49" display="array_values()"/>
-    <hyperlink ref="D35" r:id="rId50" display="array_walk()"/>
-    <hyperlink ref="D31" r:id="rId51" display="array_walk_recursive()"/>
-    <hyperlink ref="D56" r:id="rId52" display="arsort()"/>
-    <hyperlink ref="D57" r:id="rId53" display="asort()"/>
-    <hyperlink ref="D4" r:id="rId54" display="compact()"/>
-    <hyperlink ref="D28" r:id="rId55" display="count()"/>
-    <hyperlink ref="D41" r:id="rId56" display="current()"/>
-    <hyperlink ref="D40" r:id="rId57" display="each()"/>
-    <hyperlink ref="D44" r:id="rId58" display="end()"/>
-    <hyperlink ref="D80" r:id="rId59" display="extract()"/>
-    <hyperlink ref="D23" r:id="rId60" display="in_array()"/>
-    <hyperlink ref="D39" r:id="rId61" display="key()"/>
-    <hyperlink ref="D46" r:id="rId62" display="krsort()"/>
-    <hyperlink ref="D47" r:id="rId63" display="ksort()"/>
-    <hyperlink ref="D36" r:id="rId64" display="list()"/>
-    <hyperlink ref="D54" r:id="rId65" display="natcasesort()"/>
-    <hyperlink ref="D55" r:id="rId66" display="natsort()"/>
-    <hyperlink ref="D43" r:id="rId67" display="next()"/>
-    <hyperlink ref="D38" r:id="rId68" display="pos()"/>
-    <hyperlink ref="D42" r:id="rId69" display="prev()"/>
-    <hyperlink ref="D3" r:id="rId70" display="range()"/>
-    <hyperlink ref="D37" r:id="rId71" display="reset()"/>
-    <hyperlink ref="D52" r:id="rId72" display="rsort()"/>
-    <hyperlink ref="D53" r:id="rId73" display="shuffle()"/>
-    <hyperlink ref="D29" r:id="rId74" display="sizeof()"/>
-    <hyperlink ref="D48" r:id="rId75" display="sort()"/>
-    <hyperlink ref="D49" r:id="rId76" display="uasort()"/>
-    <hyperlink ref="D50" r:id="rId77" display="uksort()"/>
-    <hyperlink ref="D51" r:id="rId78" display="usort()"/>
+    <hyperlink ref="E2" r:id="rId1" display="array()"/>
+    <hyperlink ref="E16" r:id="rId2" display="array_change_key_case()"/>
+    <hyperlink ref="E62" r:id="rId3" display="array_chunk()"/>
+    <hyperlink ref="E21" r:id="rId4" display="array_column()"/>
+    <hyperlink ref="E34" r:id="rId5" display="array_count_values()"/>
+    <hyperlink ref="E66" r:id="rId6" display="array_diff()"/>
+    <hyperlink ref="E68" r:id="rId7" display="array_diff_assoc()"/>
+    <hyperlink ref="E67" r:id="rId8" display="array_diff_key()"/>
+    <hyperlink ref="E69" r:id="rId9" display="array_diff_uassoc()"/>
+    <hyperlink ref="E70" r:id="rId10" display="array_diff_ukey()"/>
+    <hyperlink ref="E4" r:id="rId11" display="array_fill()"/>
+    <hyperlink ref="E5" r:id="rId12" display="array_fill_keys()"/>
+    <hyperlink ref="E38" r:id="rId13" display="array_filter()"/>
+    <hyperlink ref="E12" r:id="rId14" display="array_flip()"/>
+    <hyperlink ref="E74" r:id="rId15" display="array_intersect()"/>
+    <hyperlink ref="E76" r:id="rId16" display="array_intersect_assoc()"/>
+    <hyperlink ref="E75" r:id="rId17" display="array_intersect_key()"/>
+    <hyperlink ref="E77" r:id="rId18" display="array_intersect_uassoc()"/>
+    <hyperlink ref="E78" r:id="rId19" display="array_intersect_ukey()"/>
+    <hyperlink ref="E28" r:id="rId20" display="array_key_exists()"/>
+    <hyperlink ref="E19" r:id="rId21" display="array_keys()"/>
+    <hyperlink ref="E36" r:id="rId22" display="array_map()"/>
+    <hyperlink ref="E8" r:id="rId23" display="array_merge_recursive()"/>
+    <hyperlink ref="E49" r:id="rId24" display="array_multisort()"/>
+    <hyperlink ref="E24" r:id="rId25" display="array_pad()"/>
+    <hyperlink ref="E25" r:id="rId26" display="array_pop()"/>
+    <hyperlink ref="E30" r:id="rId27" display="array_product()"/>
+    <hyperlink ref="E23" r:id="rId28" display="array_push()"/>
+    <hyperlink ref="E20" r:id="rId29" display="array_rand()"/>
+    <hyperlink ref="E37" r:id="rId30" display="array_reduce()"/>
+    <hyperlink ref="E63" r:id="rId31" display="array_replace()"/>
+    <hyperlink ref="E65" r:id="rId32" display="array_replace_recursive()"/>
+    <hyperlink ref="E15" r:id="rId33" display="array_reverse()"/>
+    <hyperlink ref="E29" r:id="rId34" display="array_search()"/>
+    <hyperlink ref="E26" r:id="rId35" display="array_shift()"/>
+    <hyperlink ref="E18" r:id="rId36" display="array_slice()"/>
+    <hyperlink ref="E11" r:id="rId37" display="array_splice()"/>
+    <hyperlink ref="E31" r:id="rId38" display="array_sum()"/>
+    <hyperlink ref="E71" r:id="rId39" display="array_udiff()"/>
+    <hyperlink ref="E72" r:id="rId40" display="array_udiff_assoc()"/>
+    <hyperlink ref="E73" r:id="rId41" display="array_udiff_uassoc()"/>
+    <hyperlink ref="E79" r:id="rId42" display="array_uintersect()"/>
+    <hyperlink ref="E80" r:id="rId43" display="array_uintersect_assoc()"/>
+    <hyperlink ref="E81" r:id="rId44" display="array_uintersect_uassoc()"/>
+    <hyperlink ref="E13" r:id="rId45" display="array_unique()"/>
+    <hyperlink ref="E22" r:id="rId46" display="array_unshift()"/>
+    <hyperlink ref="E17" r:id="rId47" display="array_values()"/>
+    <hyperlink ref="E39" r:id="rId48" display="array_walk()"/>
+    <hyperlink ref="E35" r:id="rId49" display="array_walk_recursive()"/>
+    <hyperlink ref="E60" r:id="rId50" display="arsort()"/>
+    <hyperlink ref="E61" r:id="rId51" display="asort()"/>
+    <hyperlink ref="E9" r:id="rId52" display="compact()"/>
+    <hyperlink ref="E32" r:id="rId53" display="count()"/>
+    <hyperlink ref="E45" r:id="rId54" display="current()"/>
+    <hyperlink ref="E44" r:id="rId55" display="each()"/>
+    <hyperlink ref="E48" r:id="rId56" display="end()"/>
+    <hyperlink ref="E27" r:id="rId57" display="in_array()"/>
+    <hyperlink ref="E43" r:id="rId58" display="key()"/>
+    <hyperlink ref="E50" r:id="rId59" display="krsort()"/>
+    <hyperlink ref="E51" r:id="rId60" display="ksort()"/>
+    <hyperlink ref="E40" r:id="rId61" display="list()"/>
+    <hyperlink ref="E58" r:id="rId62" display="natcasesort()"/>
+    <hyperlink ref="E59" r:id="rId63" display="natsort()"/>
+    <hyperlink ref="E47" r:id="rId64" display="next()"/>
+    <hyperlink ref="E42" r:id="rId65" display="pos()"/>
+    <hyperlink ref="E46" r:id="rId66" display="prev()"/>
+    <hyperlink ref="E3" r:id="rId67" display="range()"/>
+    <hyperlink ref="E41" r:id="rId68" display="reset()"/>
+    <hyperlink ref="E56" r:id="rId69" display="rsort()"/>
+    <hyperlink ref="E57" r:id="rId70" display="shuffle()"/>
+    <hyperlink ref="E33" r:id="rId71" display="sizeof()"/>
+    <hyperlink ref="E52" r:id="rId72" display="sort()"/>
+    <hyperlink ref="E53" r:id="rId73" display="uasort()"/>
+    <hyperlink ref="E54" r:id="rId74" display="uksort()"/>
+    <hyperlink ref="E55" r:id="rId75" display="usort()"/>
+    <hyperlink ref="C11" r:id="rId76" display="$arr=array_splice ( array &amp;$input , int $offset [, int $length = count($input) [, mixed $replacement = array() ]] ) : array"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" fitToHeight="2" orientation="landscape"/>
@@ -6015,13 +6205,13 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:4">
       <c r="A1" s="86" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C1" s="87" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D1" s="88"/>
     </row>
@@ -6029,7 +6219,7 @@
       <c r="A2" s="86"/>
       <c r="B2" s="86"/>
       <c r="C2" s="87" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="D2" s="88"/>
     </row>
@@ -6037,7 +6227,7 @@
       <c r="A3" s="86"/>
       <c r="B3" s="86"/>
       <c r="C3" s="87" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D3" s="88"/>
     </row>
@@ -6045,17 +6235,17 @@
       <c r="A4" s="86"/>
       <c r="B4" s="86"/>
       <c r="C4" s="87" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D4" s="88"/>
     </row>
     <row r="5" ht="17.25" spans="1:4">
       <c r="A5" s="86"/>
       <c r="B5" s="86" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D5" s="88"/>
     </row>
@@ -6063,7 +6253,7 @@
       <c r="A6" s="86"/>
       <c r="B6" s="86"/>
       <c r="C6" s="87" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D6" s="88"/>
     </row>
@@ -6071,7 +6261,7 @@
       <c r="A7" s="86"/>
       <c r="B7" s="86"/>
       <c r="C7" s="87" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D7" s="88"/>
     </row>
@@ -6079,7 +6269,7 @@
       <c r="A8" s="86"/>
       <c r="B8" s="86"/>
       <c r="C8" s="87" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D8" s="88"/>
     </row>
@@ -6087,7 +6277,7 @@
       <c r="A9" s="86"/>
       <c r="B9" s="86"/>
       <c r="C9" s="87" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D9" s="88"/>
     </row>
@@ -6095,7 +6285,7 @@
       <c r="A10" s="86"/>
       <c r="B10" s="86"/>
       <c r="C10" s="87" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D10" s="88"/>
     </row>
@@ -6103,7 +6293,7 @@
       <c r="A11" s="86"/>
       <c r="B11" s="86"/>
       <c r="C11" s="87" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D11" s="88"/>
     </row>
@@ -6111,7 +6301,7 @@
       <c r="A12" s="86"/>
       <c r="B12" s="86"/>
       <c r="C12" s="87" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D12" s="88"/>
     </row>
@@ -6119,17 +6309,17 @@
       <c r="A13" s="86"/>
       <c r="B13" s="86"/>
       <c r="C13" s="87" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D13" s="88"/>
     </row>
     <row r="14" ht="17.25" spans="1:4">
       <c r="A14" s="86"/>
       <c r="B14" s="86" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D14" s="88"/>
     </row>
@@ -6137,7 +6327,7 @@
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="87" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D15" s="88"/>
     </row>
@@ -6145,7 +6335,7 @@
       <c r="A16" s="86"/>
       <c r="B16" s="86"/>
       <c r="C16" s="87" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D16" s="88"/>
     </row>
@@ -6153,7 +6343,7 @@
       <c r="A17" s="86"/>
       <c r="B17" s="86"/>
       <c r="C17" s="87" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D17" s="88"/>
     </row>
@@ -6161,7 +6351,7 @@
       <c r="A18" s="86"/>
       <c r="B18" s="86"/>
       <c r="C18" s="87" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D18" s="88"/>
     </row>
@@ -6169,7 +6359,7 @@
       <c r="A19" s="86"/>
       <c r="B19" s="86"/>
       <c r="C19" s="87" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D19" s="88"/>
     </row>
@@ -6177,7 +6367,7 @@
       <c r="A20" s="86"/>
       <c r="B20" s="86"/>
       <c r="C20" s="87" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D20" s="88"/>
     </row>
@@ -6185,7 +6375,7 @@
       <c r="A21" s="86"/>
       <c r="B21" s="86"/>
       <c r="C21" s="87" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D21" s="88"/>
     </row>
@@ -6193,7 +6383,7 @@
       <c r="A22" s="86"/>
       <c r="B22" s="86"/>
       <c r="C22" s="87" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D22" s="88"/>
     </row>
@@ -6201,7 +6391,7 @@
       <c r="A23" s="86"/>
       <c r="B23" s="86"/>
       <c r="C23" s="87" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D23" s="88"/>
     </row>
@@ -6209,7 +6399,7 @@
       <c r="A24" s="86"/>
       <c r="B24" s="86"/>
       <c r="C24" s="87" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D24" s="88"/>
     </row>
@@ -6217,17 +6407,17 @@
       <c r="A25" s="86"/>
       <c r="B25" s="86"/>
       <c r="C25" s="87" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D25" s="88"/>
     </row>
     <row r="26" ht="17.25" spans="1:4">
       <c r="A26" s="86"/>
       <c r="B26" s="86" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C26" s="87" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D26" s="88"/>
     </row>
@@ -6235,7 +6425,7 @@
       <c r="A27" s="86"/>
       <c r="B27" s="86"/>
       <c r="C27" s="87" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -6243,29 +6433,29 @@
       <c r="A28" s="86"/>
       <c r="B28" s="86"/>
       <c r="C28" s="87" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D28" s="88"/>
     </row>
     <row r="29" ht="17.25" spans="1:4">
       <c r="A29" s="86" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B29" s="86" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D29" s="88"/>
     </row>
     <row r="30" ht="17.25" spans="1:4">
       <c r="A30" s="86"/>
       <c r="B30" s="86" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D30" s="88"/>
     </row>
@@ -6273,7 +6463,7 @@
       <c r="A31" s="86"/>
       <c r="B31" s="86"/>
       <c r="C31" s="87" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D31" s="88"/>
     </row>
@@ -6281,7 +6471,7 @@
       <c r="A32" s="86"/>
       <c r="B32" s="86"/>
       <c r="C32" s="87" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="D32" s="88"/>
     </row>
@@ -6289,17 +6479,17 @@
       <c r="A33" s="86"/>
       <c r="B33" s="86"/>
       <c r="C33" s="87" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D33" s="88"/>
     </row>
     <row r="34" ht="17.25" spans="1:4">
       <c r="A34" s="86"/>
       <c r="B34" s="86" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C34" s="87" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="D34" s="88"/>
     </row>
@@ -6307,7 +6497,7 @@
       <c r="A35" s="86"/>
       <c r="B35" s="86"/>
       <c r="C35" s="87" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D35" s="88"/>
     </row>
@@ -6315,17 +6505,17 @@
       <c r="A36" s="86"/>
       <c r="B36" s="86"/>
       <c r="C36" s="87" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="D36" s="88"/>
     </row>
     <row r="37" ht="17.25" spans="1:4">
       <c r="A37" s="86"/>
       <c r="B37" s="86" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="D37" s="88"/>
     </row>
@@ -6333,7 +6523,7 @@
       <c r="A38" s="86"/>
       <c r="B38" s="86"/>
       <c r="C38" s="87" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D38" s="88"/>
     </row>
@@ -6341,7 +6531,7 @@
       <c r="A39" s="86"/>
       <c r="B39" s="86"/>
       <c r="C39" s="87" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D39" s="88"/>
     </row>
@@ -6349,7 +6539,7 @@
       <c r="A40" s="86"/>
       <c r="B40" s="86"/>
       <c r="C40" s="87" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D40" s="88"/>
     </row>
@@ -6357,7 +6547,7 @@
       <c r="A41" s="86"/>
       <c r="B41" s="86"/>
       <c r="C41" s="87" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="D41" s="88"/>
     </row>
@@ -6365,7 +6555,7 @@
       <c r="A42" s="86"/>
       <c r="B42" s="86"/>
       <c r="C42" s="87" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="D42" s="88"/>
     </row>
@@ -6373,7 +6563,7 @@
       <c r="A43" s="86"/>
       <c r="B43" s="86"/>
       <c r="C43" s="87" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="D43" s="88"/>
     </row>
@@ -6381,7 +6571,7 @@
       <c r="A44" s="86"/>
       <c r="B44" s="86"/>
       <c r="C44" s="87" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="D44" s="88"/>
     </row>
@@ -6389,19 +6579,19 @@
       <c r="A45" s="86"/>
       <c r="B45" s="86"/>
       <c r="C45" s="87" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D45" s="88"/>
     </row>
     <row r="46" ht="17.25" spans="1:4">
       <c r="A46" s="86" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B46" s="86" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C46" s="87" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D46" s="88"/>
     </row>
@@ -6409,17 +6599,17 @@
       <c r="A47" s="86"/>
       <c r="B47" s="86"/>
       <c r="C47" s="87" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="D47" s="88"/>
     </row>
     <row r="48" ht="17.25" spans="1:4">
       <c r="A48" s="86"/>
       <c r="B48" s="86" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C48" s="87" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D48" s="88"/>
     </row>
@@ -6427,7 +6617,7 @@
       <c r="A49" s="86"/>
       <c r="B49" s="86"/>
       <c r="C49" s="87" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="D49" s="88"/>
     </row>
@@ -6435,7 +6625,7 @@
       <c r="A50" s="86"/>
       <c r="B50" s="86"/>
       <c r="C50" s="87" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="D50" s="88"/>
     </row>
@@ -6443,7 +6633,7 @@
       <c r="A51" s="86"/>
       <c r="B51" s="86"/>
       <c r="C51" s="87" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="D51" s="88"/>
     </row>
@@ -6451,7 +6641,7 @@
       <c r="A52" s="86"/>
       <c r="B52" s="86"/>
       <c r="C52" s="87" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D52" s="88"/>
     </row>
@@ -6459,7 +6649,7 @@
       <c r="A53" s="86"/>
       <c r="B53" s="86"/>
       <c r="C53" s="87" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D53" s="88"/>
     </row>
@@ -6467,7 +6657,7 @@
       <c r="A54" s="86"/>
       <c r="B54" s="86"/>
       <c r="C54" s="87" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D54" s="88"/>
     </row>
@@ -6475,29 +6665,29 @@
       <c r="A55" s="86"/>
       <c r="B55" s="86"/>
       <c r="C55" s="87" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D55" s="88"/>
     </row>
     <row r="56" ht="17.25" spans="1:4">
       <c r="A56" s="86"/>
       <c r="B56" s="86" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C56" s="87" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="D56" s="88"/>
     </row>
     <row r="57" ht="17.25" spans="1:4">
       <c r="A57" s="86" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B57" s="86" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C57" s="87" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D57" s="88"/>
     </row>
@@ -6505,7 +6695,7 @@
       <c r="A58" s="86"/>
       <c r="B58" s="86"/>
       <c r="C58" s="87" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="D58" s="88"/>
     </row>
@@ -6513,7 +6703,7 @@
       <c r="A59" s="86"/>
       <c r="B59" s="86"/>
       <c r="C59" s="87" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="D59" s="88"/>
     </row>
@@ -6521,7 +6711,7 @@
       <c r="A60" s="86"/>
       <c r="B60" s="86"/>
       <c r="C60" s="87" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="D60" s="88"/>
     </row>
@@ -6529,17 +6719,17 @@
       <c r="A61" s="86"/>
       <c r="B61" s="86"/>
       <c r="C61" s="87" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="D61" s="88"/>
     </row>
     <row r="62" ht="17.25" spans="1:4">
       <c r="A62" s="86"/>
       <c r="B62" s="89" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C62" s="87" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="D62" s="88"/>
     </row>
@@ -6547,7 +6737,7 @@
       <c r="A63" s="86"/>
       <c r="B63" s="89"/>
       <c r="C63" s="87" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D63" s="88"/>
     </row>
@@ -6555,7 +6745,7 @@
       <c r="A64" s="86"/>
       <c r="B64" s="89"/>
       <c r="C64" s="87" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D64" s="88"/>
     </row>
@@ -6563,17 +6753,17 @@
       <c r="A65" s="86"/>
       <c r="B65" s="89"/>
       <c r="C65" s="87" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D65" s="88"/>
     </row>
     <row r="66" ht="17.25" spans="1:4">
       <c r="A66" s="86"/>
       <c r="B66" s="86" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="C66" s="87" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="D66" s="88"/>
     </row>
@@ -6581,7 +6771,7 @@
       <c r="A67" s="86"/>
       <c r="B67" s="86"/>
       <c r="C67" s="87" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D67" s="88"/>
     </row>
@@ -6589,7 +6779,7 @@
       <c r="A68" s="86"/>
       <c r="B68" s="86"/>
       <c r="C68" s="87" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="D68" s="88"/>
     </row>
@@ -6597,7 +6787,7 @@
       <c r="A69" s="86"/>
       <c r="B69" s="86"/>
       <c r="C69" s="87" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="D69" s="88"/>
     </row>
@@ -6605,7 +6795,7 @@
       <c r="A70" s="86"/>
       <c r="B70" s="86"/>
       <c r="C70" s="87" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="D70" s="88"/>
     </row>
@@ -6613,7 +6803,7 @@
       <c r="A71" s="86"/>
       <c r="B71" s="86"/>
       <c r="C71" s="87" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="D71" s="88"/>
     </row>
@@ -6621,17 +6811,17 @@
       <c r="A72" s="86"/>
       <c r="B72" s="86"/>
       <c r="C72" s="87" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D72" s="88"/>
     </row>
     <row r="73" ht="17.25" spans="1:4">
       <c r="A73" s="86"/>
       <c r="B73" s="86" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C73" s="87" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="D73" s="88"/>
     </row>
@@ -6639,17 +6829,17 @@
       <c r="A74" s="86"/>
       <c r="B74" s="86"/>
       <c r="C74" s="87" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="D74" s="88"/>
     </row>
     <row r="75" ht="17.25" spans="1:4">
       <c r="A75" s="86"/>
       <c r="B75" s="86" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C75" s="87" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="D75" s="88"/>
     </row>
@@ -6657,27 +6847,27 @@
       <c r="A76" s="86"/>
       <c r="B76" s="86"/>
       <c r="C76" s="87" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="D76" s="88"/>
     </row>
     <row r="77" ht="17.25" spans="1:4">
       <c r="A77" s="86"/>
       <c r="B77" s="86" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C77" s="87" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="D77" s="88"/>
     </row>
     <row r="78" ht="17.25" spans="1:4">
       <c r="A78" s="86" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B78" s="86"/>
       <c r="C78" s="87" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="D78" s="88"/>
     </row>
@@ -6685,7 +6875,7 @@
       <c r="A79" s="86"/>
       <c r="B79" s="86"/>
       <c r="C79" s="87" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D79" s="88"/>
     </row>
@@ -6693,7 +6883,7 @@
       <c r="A80" s="86"/>
       <c r="B80" s="86"/>
       <c r="C80" s="87" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D80" s="88"/>
     </row>
@@ -6701,7 +6891,7 @@
       <c r="A81" s="86"/>
       <c r="B81" s="86"/>
       <c r="C81" s="87" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D81" s="88"/>
     </row>
@@ -6709,7 +6899,7 @@
       <c r="A82" s="86"/>
       <c r="B82" s="86"/>
       <c r="C82" s="87" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="D82" s="88"/>
     </row>
@@ -6717,7 +6907,7 @@
       <c r="A83" s="86"/>
       <c r="B83" s="86"/>
       <c r="C83" s="87" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D83" s="88"/>
     </row>
@@ -6725,7 +6915,7 @@
       <c r="A84" s="86"/>
       <c r="B84" s="86"/>
       <c r="C84" s="87" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D84" s="88"/>
     </row>
@@ -6733,7 +6923,7 @@
       <c r="A85" s="86"/>
       <c r="B85" s="86"/>
       <c r="C85" s="87" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D85" s="88"/>
     </row>
@@ -6741,7 +6931,7 @@
       <c r="A86" s="86"/>
       <c r="B86" s="86"/>
       <c r="C86" s="87" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D86" s="88"/>
     </row>
@@ -6749,17 +6939,17 @@
       <c r="A87" s="86"/>
       <c r="B87" s="86"/>
       <c r="C87" s="87" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D87" s="88"/>
     </row>
     <row r="88" ht="17.25" spans="1:4">
       <c r="A88" s="86" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B88" s="86"/>
       <c r="C88" s="87" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="D88" s="88"/>
     </row>
@@ -6767,7 +6957,7 @@
       <c r="A89" s="86"/>
       <c r="B89" s="86"/>
       <c r="C89" s="87" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D89" s="88"/>
     </row>
@@ -6775,7 +6965,7 @@
       <c r="A90" s="86"/>
       <c r="B90" s="86"/>
       <c r="C90" s="87" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="D90" s="88"/>
     </row>
@@ -6783,7 +6973,7 @@
       <c r="A91" s="86"/>
       <c r="B91" s="86"/>
       <c r="C91" s="87" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D91" s="88"/>
     </row>
@@ -6791,17 +6981,17 @@
       <c r="A92" s="86"/>
       <c r="B92" s="86"/>
       <c r="C92" s="87" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="D92" s="88"/>
     </row>
     <row r="93" ht="17.25" spans="1:4">
       <c r="A93" s="86" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B93" s="86"/>
       <c r="C93" s="87" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="D93" s="88"/>
     </row>
@@ -6809,7 +6999,7 @@
       <c r="A94" s="86"/>
       <c r="B94" s="86"/>
       <c r="C94" s="87" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="D94" s="88"/>
     </row>
@@ -6817,7 +7007,7 @@
       <c r="A95" s="86"/>
       <c r="B95" s="86"/>
       <c r="C95" s="87" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D95" s="88"/>
     </row>
@@ -6825,7 +7015,7 @@
       <c r="A96" s="86"/>
       <c r="B96" s="86"/>
       <c r="C96" s="87" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="D96" s="88"/>
     </row>
@@ -6833,7 +7023,7 @@
       <c r="A97" s="86"/>
       <c r="B97" s="86"/>
       <c r="C97" s="87" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="D97" s="88"/>
     </row>
@@ -6841,7 +7031,7 @@
       <c r="A98" s="86"/>
       <c r="B98" s="86"/>
       <c r="C98" s="87" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="D98" s="88"/>
     </row>
@@ -7066,23 +7256,23 @@
   <sheetData>
     <row r="2" ht="20.25" spans="2:5">
       <c r="B2" s="73" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="E2" s="75"/>
     </row>
     <row r="3" ht="20.25" spans="2:5">
       <c r="B3" s="76" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="78" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="E3" s="78"/>
     </row>
@@ -7094,12 +7284,12 @@
     </row>
     <row r="5" ht="40.5" spans="2:5">
       <c r="B5" s="82" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C5" s="82"/>
       <c r="D5" s="82"/>
       <c r="E5" s="83" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -7137,879 +7327,879 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="65" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="67" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="67" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="67" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="67" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="66" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="66" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="66" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="66" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="66" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="66" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="11" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="67" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="67" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="67" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="67" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="66" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="66" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="66" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="66" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="66" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="66" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="66" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="66" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="66" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="66" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="C36" s="67" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="66" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="66" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11"/>
       <c r="B41" s="11" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="66" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11"/>
       <c r="B43" s="11" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="67" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11"/>
       <c r="B45" s="11" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11"/>
       <c r="B46" s="11" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11"/>
       <c r="B47" s="11" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="66" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11"/>
       <c r="B49" s="11" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="68" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="66" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C53" s="67" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="67" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="66" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="68" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="67" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="67" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="11"/>
       <c r="B59" s="11" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="66" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11"/>
       <c r="B61" s="11" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="C61" s="67" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="67" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="68" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="67" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="11"/>
       <c r="B65" s="11" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="66" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="11" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="67" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="67" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="67" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="11" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="69" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="70" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="69" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="69" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="69" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="69" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="69" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="69" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="69" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="69" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="69" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="69" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="69" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="69" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="69" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="69" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="69" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="11" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="69" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="69" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="11" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="69" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="69" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="69" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="69" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="69" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="69" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="69" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="69" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="11" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="69" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="69" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="11" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="69" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="69" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="69" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="69" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="69" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="69" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="69" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="69" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="69" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="69" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="69" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="69" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="69" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="69" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="69" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="114" ht="33" spans="1:3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="69" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="69" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -8188,7 +8378,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="54" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -8196,398 +8386,398 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="57" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="57" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="57" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="57" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="57" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="57" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="57" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="57" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="57" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="57" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="57" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="59" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="59" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" ht="33" spans="1:2">
       <c r="A18" s="59" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="59" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="59" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" ht="33" spans="1:2">
       <c r="A21" s="59" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" ht="33" spans="1:2">
       <c r="A22" s="59" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="59" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="59" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" ht="33" spans="1:2">
       <c r="A25" s="59" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" ht="33" spans="1:2">
       <c r="A26" s="51" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" ht="33" spans="1:2">
       <c r="A27" s="59" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="59" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="59" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" ht="33" spans="1:2">
       <c r="A31" s="59" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" ht="33" spans="1:2">
       <c r="A32" s="59" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="59" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34" ht="33" spans="1:2">
       <c r="A34" s="59" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="59" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="59" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="59" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="59" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="59" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="59" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" ht="33" spans="1:2">
       <c r="A43" s="59" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="59" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="59" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="59" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="59" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="59" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" ht="33" spans="1:2">
       <c r="A54" s="59" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="56" ht="33" spans="1:2">
       <c r="A56" s="59" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="59" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -8601,7 +8791,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="62" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -8609,7 +8799,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="63" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="B68" s="64" t="s">
         <v>57</v>
@@ -8617,82 +8807,82 @@
     </row>
     <row r="69" ht="33" spans="1:2">
       <c r="A69" s="51" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
     </row>
     <row r="70" ht="33" spans="1:2">
       <c r="A70" s="51" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="B70" s="60" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="71" ht="33" spans="1:2">
       <c r="A71" s="51" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="B71" s="60" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
     </row>
     <row r="72" ht="33" spans="1:2">
       <c r="A72" s="51" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="B72" s="60" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
     </row>
     <row r="73" ht="33" spans="1:2">
       <c r="A73" s="51" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="B73" s="60" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="74" ht="33" spans="1:2">
       <c r="A74" s="51" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="B74" s="60" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
     </row>
     <row r="75" ht="33" spans="1:2">
       <c r="A75" s="51" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="B75" s="60" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
     </row>
     <row r="76" ht="33" spans="1:2">
       <c r="A76" s="51" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="B76" s="60" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="77" ht="33" spans="1:2">
       <c r="A77" s="51" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="B77" s="60" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
     </row>
     <row r="78" ht="33" spans="1:2">
       <c r="A78" s="51" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="B78" s="60" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -8758,196 +8948,196 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="41" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="45" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="46" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="43" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="47" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4"/>
       <c r="B8" s="46" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="45" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4"/>
       <c r="B9" s="46" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4"/>
       <c r="B10" s="46" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="47" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="47" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="43" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4"/>
       <c r="B14" s="46" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="47" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="46" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="47" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="46" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="50" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="49"/>
       <c r="D17" s="45" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8955,17 +9145,17 @@
       <c r="B18" s="51"/>
       <c r="C18" s="52"/>
       <c r="D18" s="45" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:4">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="44" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8973,7 +9163,7 @@
       <c r="B20" s="51"/>
       <c r="C20" s="44"/>
       <c r="D20" s="47" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
     </row>
     <row r="21" s="39" customFormat="1" spans="1:1">
@@ -9065,7 +9255,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -9076,246 +9266,246 @@
     </row>
     <row r="2" ht="33" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="21" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" ht="33" spans="1:7">
       <c r="A3" s="17"/>
       <c r="B3" s="19" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="21"/>
       <c r="F3" s="18" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="21"/>
       <c r="F4" s="18" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
     </row>
     <row r="5" ht="33" spans="1:7">
       <c r="A5" s="17"/>
       <c r="B5" s="18" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
       <c r="F5" s="18" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="21"/>
       <c r="F6" s="18" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" ht="33" spans="1:7">
       <c r="A7" s="17"/>
       <c r="B7" s="18" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
       <c r="F7" s="23" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" ht="33" spans="1:7">
       <c r="A8" s="17"/>
       <c r="B8" s="23" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="21"/>
       <c r="F8" s="23" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17"/>
       <c r="B9" s="23" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21"/>
       <c r="F9" s="23" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="17"/>
       <c r="B10" s="23" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="21"/>
       <c r="F10" s="23" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
       <c r="F11" s="23" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
       <c r="F12" s="23" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" ht="33" spans="1:7">
       <c r="A13" s="17"/>
       <c r="B13" s="18" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
       <c r="F13" s="19" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="17"/>
       <c r="B14" s="23" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
       <c r="F14" s="19" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
       <c r="F15" s="18" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -9325,366 +9515,366 @@
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
       <c r="F16" s="18" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="17"/>
       <c r="B17" s="18" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21"/>
       <c r="F17" s="24" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17"/>
       <c r="B18" s="23" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="17" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17"/>
       <c r="B19" s="23" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="17"/>
       <c r="F19" s="23" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="17"/>
       <c r="F20" s="23" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="17"/>
       <c r="F21" s="23" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="17" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17"/>
       <c r="B23" s="18" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
     </row>
     <row r="24" ht="33" spans="1:7">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="17"/>
       <c r="F24" s="19" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17"/>
       <c r="B25" s="18" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="25" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="26"/>
       <c r="B27" s="24" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="17"/>
       <c r="F27" s="18" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="26"/>
       <c r="B28" s="23" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="17" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="26"/>
       <c r="B29" s="19" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="17"/>
       <c r="F29" s="23" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="26"/>
       <c r="B30" s="23" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="17"/>
       <c r="F30" s="23" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="26" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="17"/>
       <c r="F31" s="23" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="26"/>
       <c r="B32" s="23" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="17"/>
       <c r="F32" s="23" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="26"/>
       <c r="B33" s="24" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="17"/>
       <c r="F33" s="23" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="26"/>
       <c r="B34" s="18" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="26"/>
       <c r="B35" s="18" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="26"/>
       <c r="B36" s="23" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="D36" s="22"/>
       <c r="F36" s="27" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="26"/>
       <c r="B37" s="23" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="26"/>
       <c r="B38" s="23" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="D38" s="22"/>
     </row>
@@ -9751,7 +9941,7 @@
       <c r="C69" s="36"/>
       <c r="D69" s="35"/>
       <c r="E69" s="37" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -9999,32 +10189,32 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -10033,678 +10223,678 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
       <c r="B10" s="9" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="10" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4"/>
       <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="11"/>
       <c r="C19" s="5" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="11"/>
       <c r="B29" s="4"/>
       <c r="C29" s="8" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="11"/>
       <c r="B30" s="4"/>
       <c r="C30" s="8" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11"/>
       <c r="B31" s="4" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11"/>
       <c r="B32" s="4"/>
       <c r="C32" s="8" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="4"/>
       <c r="C33" s="8" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11"/>
       <c r="B34" s="4"/>
       <c r="C34" s="8" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="4"/>
       <c r="C35" s="8" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="4"/>
       <c r="C36" s="8" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11"/>
       <c r="B37" s="4"/>
       <c r="C37" s="8" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="11"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11"/>
       <c r="B45" s="4" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11"/>
       <c r="B46" s="4" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11"/>
       <c r="B47" s="4"/>
       <c r="C47" s="8" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11"/>
       <c r="B48" s="4"/>
       <c r="C48" s="8" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11"/>
       <c r="B49" s="4" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11"/>
       <c r="B54" s="4" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11"/>
       <c r="B55" s="4"/>
       <c r="C55" s="8" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="8" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="8" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="8" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="8" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="8" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="8" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="8" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="8" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="8" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="8" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="8" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="8" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="8" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="12" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="13" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="13" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="13" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="84" spans="5:5">
       <c r="E84" s="14" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="12" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="13" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="13" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="13" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="13" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="13" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="13" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="13" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="13" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="13" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
     </row>
     <row r="96" spans="5:5">
       <c r="E96" s="14" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="12" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="13" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="13" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="13" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="13" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="13" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="13" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" s="14" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="12" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="13" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="13" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="13" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="13" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" s="14" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>

--- a/1_php/原生php/PHP函数分目参考.xlsx
+++ b/1_php/原生php/PHP函数分目参考.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="968">
   <si>
     <t>双精度判断</t>
   </si>
@@ -215,7 +215,7 @@
     <t>__toString()</t>
   </si>
   <si>
-    <t>函数红色。变量蓝色。结果绿色</t>
+    <t>函数绿色。变量蓝色。结果棕色。&amp;红色</t>
   </si>
   <si>
     <t>函数</t>
@@ -314,69 +314,7 @@
     <t>创建数组。多个数组合并。递归</t>
   </si>
   <si>
-    <r>
-      <t>$arr=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>compact</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t> ( mixed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>$varname1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t> [, mixed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>$...</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t> ] ) :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t> array</t>
-    </r>
+    <t>$arr=compact ( mixed $varname1 [, mixed $... ] ) : array</t>
   </si>
   <si>
     <t>compact()</t>
@@ -400,7 +338,16 @@
     <t>array_splice()</t>
   </si>
   <si>
-    <t>变更数组元素</t>
+    <t>变更数组元素(去掉数组中的某一部分并用其它值取代)</t>
+  </si>
+  <si>
+    <t>$arr=array_slice ( array $array , int $offset [, int $length = NULL [, bool $preserve_keys = false ]] ) : array</t>
+  </si>
+  <si>
+    <t>array_slice()</t>
+  </si>
+  <si>
+    <t>返回数组中的选定部分。</t>
   </si>
   <si>
     <t>$arr=array_flip ( array $array ) : array|null</t>
@@ -412,28 +359,46 @@
     <t>反转数组的键与值</t>
   </si>
   <si>
+    <t>$arr=array_unique ( array $array [, int $sort_flags = SORT_STRING ] ) : array</t>
+  </si>
+  <si>
     <t>array_unique()</t>
   </si>
   <si>
     <t>删除数组中重复的值。</t>
   </si>
   <si>
+    <t>$bool=shuffle ( array &amp;$array ) : bool</t>
+  </si>
+  <si>
     <t>shuffle()</t>
   </si>
   <si>
     <t>将原有的数组随机打乱</t>
   </si>
   <si>
+    <t>$arr=array_reverse ( array $array [, bool $preserve_keys = FALSE ] ) : array</t>
+  </si>
+  <si>
     <t>array_reverse()</t>
   </si>
   <si>
     <t>将原数组中的元素顺序翻转，创建新的数组并返回。</t>
   </si>
   <si>
+    <t>$arr=array_change_key_case ( array $array [, int $case = CASE_LOWER ] ) : array|false</t>
+  </si>
+  <si>
     <t>array_change_key_case()</t>
   </si>
   <si>
-    <t>返回其键均为大写或小写的数组。</t>
+    <t>把数组的键改为全大写或全小写</t>
+  </si>
+  <si>
+    <t>如果输入值（array）不是一个数组，就会抛出一个错误警告（E_WARNING）。</t>
+  </si>
+  <si>
+    <t>$arr=array_values ( array $array ) : array</t>
   </si>
   <si>
     <t>array_values()</t>
@@ -442,10 +407,7 @@
     <t>返回数组中所有的值。</t>
   </si>
   <si>
-    <t>array_slice()</t>
-  </si>
-  <si>
-    <t>返回数组中的选定部分。</t>
+    <t>$arr=array_keys ( array $array [, mixed $search_value = null [, bool $strict = false ]] ) : array</t>
   </si>
   <si>
     <t>array_keys()</t>
@@ -454,10 +416,19 @@
     <t>返回数组中所有的键名。</t>
   </si>
   <si>
+    <t>$arr=array_rand ( array $array [, int $num = 1 ] ) : array|int|string|null</t>
+  </si>
+  <si>
     <t>array_rand()</t>
   </si>
   <si>
-    <t>从数组中随机选出一个或多个元素，返回键名。</t>
+    <t>随机获取一个或多个元素的键名。</t>
+  </si>
+  <si>
+    <t>E_WARNING</t>
+  </si>
+  <si>
+    <t>$arr=array_column ( array $input , mixed $column_key [, mixed $index_key = null ] ) : array</t>
   </si>
   <si>
     <t>array_column()</t>
@@ -470,16 +441,25 @@
 数组键/值</t>
   </si>
   <si>
+    <t>$num=array_unshift ( array &amp;$array [, mixed $... ] ) : int</t>
+  </si>
+  <si>
     <t>array_unshift()</t>
   </si>
   <si>
-    <t>在数组开头插入一个或多个元素。</t>
+    <t>入栈，在开头。可加一个或同时加多个</t>
+  </si>
+  <si>
+    <t>$num=array_push ( array &amp;$array , mixed $value1 [, mixed $... ] ) : int</t>
   </si>
   <si>
     <t>array_push()</t>
   </si>
   <si>
-    <t>将一个或多个元素插入数组的末尾（入栈）。</t>
+    <t>入栈，在结尾。可加一个或同时加多个</t>
+  </si>
+  <si>
+    <t>$arr=array_pad ( array $array , int $size , mixed $value ) : array</t>
   </si>
   <si>
     <t>array_pad()</t>
@@ -2990,12 +2970,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3091,12 +3071,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF336699"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -3111,22 +3085,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3230,9 +3189,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3243,31 +3224,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -3339,25 +3295,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3369,7 +3331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3387,7 +3349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3399,7 +3361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3417,13 +3379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3447,42 +3403,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3495,19 +3415,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3736,26 +3692,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3771,6 +3718,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3810,17 +3766,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3836,153 +3792,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4265,8 +4221,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4733,472 +4688,472 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="102" customWidth="1"/>
-    <col min="2" max="2" width="24" style="102" customWidth="1"/>
-    <col min="3" max="3" width="43.375" style="102" customWidth="1"/>
-    <col min="4" max="4" width="3.25" style="102" customWidth="1"/>
-    <col min="5" max="5" width="9" style="102" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="102" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="102" customWidth="1"/>
-    <col min="8" max="8" width="29.125" style="102" customWidth="1"/>
-    <col min="9" max="9" width="2.75" style="102" customWidth="1"/>
-    <col min="10" max="10" width="19.625" style="102" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="102" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="102"/>
+    <col min="1" max="1" width="29" style="101" customWidth="1"/>
+    <col min="2" max="2" width="24" style="101" customWidth="1"/>
+    <col min="3" max="3" width="43.375" style="101" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="101" customWidth="1"/>
+    <col min="5" max="5" width="9" style="101" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="101" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="101" customWidth="1"/>
+    <col min="8" max="8" width="29.125" style="101" customWidth="1"/>
+    <col min="9" max="9" width="2.75" style="101" customWidth="1"/>
+    <col min="10" max="10" width="19.625" style="101" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="101" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="101"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="127"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="128"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="127"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="128"/>
+      <c r="C4" s="102"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="127"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="128"/>
+      <c r="C5" s="102"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="127"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="106"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="128"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="127"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="128"/>
+      <c r="C7" s="102"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="127"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="128"/>
+      <c r="C8" s="102"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="127"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="128"/>
+      <c r="C9" s="102"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="127"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="128"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="127"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="129"/>
+      <c r="C11" s="102"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="128"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="110"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="130"/>
+      <c r="C13" s="102"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="129"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="131"/>
+      <c r="C14" s="102"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="130"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="131"/>
+      <c r="C15" s="102"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="130"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="131"/>
+      <c r="C16" s="102"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="130"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="131"/>
+      <c r="C17" s="102"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="130"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="131"/>
+      <c r="C18" s="102"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="130"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="119"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="132"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="131"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="110"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="112"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="103" t="s">
+      <c r="A21" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="133"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="132"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="103"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="134"/>
+      <c r="C22" s="102"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="133"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="134"/>
+      <c r="C23" s="102"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="133"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="134"/>
+      <c r="C24" s="102"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="133"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="134"/>
+      <c r="C25" s="102"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="133"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="103" t="s">
+      <c r="A26" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="134"/>
+      <c r="C26" s="102"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="133"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="103" t="s">
+      <c r="A27" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="103"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="134"/>
+      <c r="C27" s="102"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="133"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="103" t="s">
+      <c r="A28" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="135"/>
+      <c r="C28" s="102"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5220,7 +5175,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="85.875" defaultRowHeight="17.25" outlineLevelCol="7"/>
@@ -5400,16 +5355,16 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="88"/>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="100" t="s">
         <v>95</v>
       </c>
       <c r="F11" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="101"/>
+      <c r="H11" s="100"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="88"/>
@@ -5425,659 +5380,716 @@
       <c r="F12" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="95"/>
+      <c r="H12" s="100"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="88"/>
+      <c r="C13" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="94" t="s">
+        <v>65</v>
+      </c>
       <c r="E13" s="95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F13" s="96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H13" s="95"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="88"/>
+      <c r="C14" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="94" t="s">
+        <v>65</v>
+      </c>
       <c r="E14" s="95" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F14" s="96" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H14" s="95"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="88"/>
+      <c r="C15" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="94" t="s">
+        <v>65</v>
+      </c>
       <c r="E15" s="95" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F15" s="96" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H15" s="95"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="88"/>
+      <c r="C16" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>65</v>
+      </c>
       <c r="E16" s="95" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F16" s="96" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H16" s="95"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" ht="34.5" spans="2:8">
       <c r="B17" s="88"/>
+      <c r="C17" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>70</v>
+      </c>
       <c r="E17" s="95" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F17" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="95"/>
+        <v>114</v>
+      </c>
+      <c r="H17" s="95" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="88"/>
+      <c r="C18" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>65</v>
+      </c>
       <c r="E18" s="95" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F18" s="96" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H18" s="95"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="88"/>
+      <c r="C19" s="91" t="s">
+        <v>119</v>
+      </c>
       <c r="E19" s="95" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F19" s="96" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H19" s="95"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="88"/>
+      <c r="C20" s="91" t="s">
+        <v>122</v>
+      </c>
       <c r="E20" s="95" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F20" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="95"/>
+        <v>124</v>
+      </c>
+      <c r="H20" s="95" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="88"/>
+      <c r="C21" s="91" t="s">
+        <v>126</v>
+      </c>
       <c r="E21" s="95" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F21" s="96" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H21" s="95"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="98"/>
+        <v>129</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>130</v>
+      </c>
       <c r="D22" s="98"/>
       <c r="E22" s="95" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F22" s="96" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H22" s="95"/>
     </row>
-    <row r="23" spans="5:8">
+    <row r="23" spans="3:8">
+      <c r="C23" s="91" t="s">
+        <v>133</v>
+      </c>
       <c r="E23" s="95" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F23" s="96" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H23" s="95"/>
     </row>
-    <row r="24" spans="5:8">
+    <row r="24" spans="3:8">
+      <c r="C24" s="91" t="s">
+        <v>136</v>
+      </c>
       <c r="E24" s="95" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F24" s="96" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="H24" s="95"/>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="95" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F25" s="96" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H25" s="95"/>
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="95" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F26" s="96" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H26" s="95"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="86" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E27" s="95" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F27" s="96" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H27" s="95"/>
     </row>
     <row r="28" spans="5:8">
       <c r="E28" s="95" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F28" s="96" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="H28" s="95"/>
     </row>
     <row r="29" spans="5:8">
       <c r="E29" s="95" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F29" s="96" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="H29" s="95"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="86" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E30" s="95" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F30" s="96" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="H30" s="95"/>
     </row>
     <row r="31" spans="5:8">
       <c r="E31" s="95" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="F31" s="96" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="H31" s="95"/>
     </row>
     <row r="32" spans="5:8">
       <c r="E32" s="95" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F32" s="96" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="H32" s="95"/>
     </row>
     <row r="33" spans="5:8">
       <c r="E33" s="95" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F33" s="96" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="H33" s="95"/>
     </row>
     <row r="34" spans="5:8">
       <c r="E34" s="95" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="F34" s="96" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="H34" s="95"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="86" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E35" s="95" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F35" s="96" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="H35" s="95"/>
     </row>
     <row r="36" spans="5:8">
       <c r="E36" s="95" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F36" s="96" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="H36" s="95"/>
     </row>
     <row r="37" spans="5:8">
       <c r="E37" s="95" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F37" s="96" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="H37" s="95"/>
     </row>
     <row r="38" spans="5:8">
       <c r="E38" s="95" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F38" s="96" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="H38" s="95"/>
     </row>
     <row r="39" spans="5:8">
       <c r="E39" s="95" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F39" s="96" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="H39" s="95"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="86" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="E40" s="95" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="F40" s="96" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="H40" s="95"/>
     </row>
     <row r="41" spans="5:8">
       <c r="E41" s="95" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F41" s="96" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H41" s="95"/>
     </row>
     <row r="42" spans="5:8">
       <c r="E42" s="95" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="F42" s="96" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="H42" s="95"/>
     </row>
     <row r="43" spans="5:8">
       <c r="E43" s="95" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="F43" s="96" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H43" s="95"/>
     </row>
     <row r="44" spans="5:8">
       <c r="E44" s="95" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="F44" s="96" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="H44" s="95"/>
     </row>
     <row r="45" spans="5:8">
       <c r="E45" s="95" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="F45" s="96" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="H45" s="95"/>
     </row>
     <row r="46" spans="5:8">
       <c r="E46" s="95" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F46" s="96" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="H46" s="95"/>
     </row>
     <row r="47" spans="5:8">
       <c r="E47" s="95" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="F47" s="96" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="H47" s="95"/>
     </row>
     <row r="48" spans="5:8">
       <c r="E48" s="95" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F48" s="96" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="H48" s="95"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="86" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="E49" s="95" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F49" s="96" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="H49" s="95"/>
     </row>
     <row r="50" spans="5:8">
       <c r="E50" s="95" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="F50" s="96" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="H50" s="95"/>
     </row>
     <row r="51" spans="5:8">
       <c r="E51" s="95" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F51" s="96" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="H51" s="95"/>
     </row>
     <row r="52" spans="5:8">
       <c r="E52" s="95" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="F52" s="96" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="H52" s="95"/>
     </row>
     <row r="53" spans="5:8">
       <c r="E53" s="95" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="F53" s="96" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="H53" s="95"/>
     </row>
     <row r="54" spans="5:8">
       <c r="E54" s="95" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="F54" s="96" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="H54" s="95"/>
     </row>
     <row r="55" spans="5:8">
       <c r="E55" s="95" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="F55" s="96" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="H55" s="95"/>
     </row>
     <row r="56" spans="5:8">
       <c r="E56" s="95" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="F56" s="96" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="H56" s="95"/>
     </row>
     <row r="57" spans="5:8">
       <c r="E57" s="95" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F57" s="96" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="H57" s="95"/>
     </row>
     <row r="58" spans="5:8">
       <c r="E58" s="95" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="F58" s="96" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="H58" s="95"/>
     </row>
     <row r="59" spans="5:8">
       <c r="E59" s="95" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F59" s="96" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="H59" s="95"/>
     </row>
     <row r="60" spans="5:8">
       <c r="E60" s="95" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="F60" s="96" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H60" s="95"/>
     </row>
     <row r="61" spans="5:8">
       <c r="E61" s="95" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="F61" s="96" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="H61" s="95"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="89" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B62" s="89" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C62" s="98"/>
       <c r="D62" s="98"/>
       <c r="E62" s="95" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F62" s="96" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="H62" s="95"/>
     </row>
     <row r="63" spans="5:8">
       <c r="E63" s="95" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F63" s="96" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H63" s="95"/>
     </row>
     <row r="65" spans="5:8">
       <c r="E65" s="95" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F65" s="96" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="H65" s="95"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="89" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C66" s="98"/>
       <c r="D66" s="98"/>
       <c r="E66" s="95" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F66" s="96" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="H66" s="95"/>
     </row>
     <row r="67" spans="5:8">
       <c r="E67" s="95" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F67" s="96" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="H67" s="95"/>
     </row>
     <row r="68" spans="5:8">
       <c r="E68" s="95" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F68" s="96" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="H68" s="95"/>
     </row>
     <row r="69" spans="5:8">
       <c r="E69" s="95" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F69" s="96" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H69" s="95"/>
     </row>
     <row r="70" spans="5:8">
       <c r="E70" s="95" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F70" s="96" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="H70" s="95"/>
     </row>
     <row r="71" spans="5:8">
       <c r="E71" s="95" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F71" s="96" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="H71" s="95"/>
     </row>
     <row r="72" spans="5:8">
       <c r="E72" s="95" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F72" s="96" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="H72" s="95"/>
     </row>
     <row r="73" spans="5:8">
       <c r="E73" s="95" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="F73" s="96" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="H73" s="95"/>
     </row>
     <row r="74" spans="5:8">
       <c r="E74" s="95" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="F74" s="96" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="H74" s="95"/>
     </row>
     <row r="75" spans="5:8">
       <c r="E75" s="95" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="F75" s="96" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="H75" s="95"/>
     </row>
     <row r="76" spans="5:8">
       <c r="E76" s="95" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F76" s="96" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="H76" s="95"/>
     </row>
     <row r="77" spans="5:8">
       <c r="E77" s="95" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F77" s="96" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="H77" s="95"/>
     </row>
     <row r="78" spans="5:8">
       <c r="E78" s="95" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="F78" s="96" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="H78" s="95"/>
     </row>
     <row r="79" spans="5:8">
       <c r="E79" s="95" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F79" s="96" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="H79" s="95"/>
     </row>
     <row r="80" spans="5:8">
       <c r="E80" s="95" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F80" s="96" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="H80" s="95"/>
     </row>
     <row r="81" spans="5:8">
       <c r="E81" s="95" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="F81" s="96" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="H81" s="95"/>
     </row>
@@ -6103,7 +6115,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="array()"/>
-    <hyperlink ref="E16" r:id="rId2" display="array_change_key_case()"/>
+    <hyperlink ref="E17" r:id="rId2" display="array_change_key_case()"/>
     <hyperlink ref="E62" r:id="rId3" display="array_chunk()"/>
     <hyperlink ref="E21" r:id="rId4" display="array_column()"/>
     <hyperlink ref="E34" r:id="rId5" display="array_count_values()"/>
@@ -6115,7 +6127,7 @@
     <hyperlink ref="E4" r:id="rId11" display="array_fill()"/>
     <hyperlink ref="E5" r:id="rId12" display="array_fill_keys()"/>
     <hyperlink ref="E38" r:id="rId13" display="array_filter()"/>
-    <hyperlink ref="E12" r:id="rId14" display="array_flip()"/>
+    <hyperlink ref="E13" r:id="rId14" display="array_flip()"/>
     <hyperlink ref="E74" r:id="rId15" display="array_intersect()"/>
     <hyperlink ref="E76" r:id="rId16" display="array_intersect_assoc()"/>
     <hyperlink ref="E75" r:id="rId17" display="array_intersect_key()"/>
@@ -6134,10 +6146,10 @@
     <hyperlink ref="E37" r:id="rId30" display="array_reduce()"/>
     <hyperlink ref="E63" r:id="rId31" display="array_replace()"/>
     <hyperlink ref="E65" r:id="rId32" display="array_replace_recursive()"/>
-    <hyperlink ref="E15" r:id="rId33" display="array_reverse()"/>
+    <hyperlink ref="E16" r:id="rId33" display="array_reverse()"/>
     <hyperlink ref="E29" r:id="rId34" display="array_search()"/>
     <hyperlink ref="E26" r:id="rId35" display="array_shift()"/>
-    <hyperlink ref="E18" r:id="rId36" display="array_slice()"/>
+    <hyperlink ref="E12" r:id="rId36" display="array_slice()"/>
     <hyperlink ref="E11" r:id="rId37" display="array_splice()"/>
     <hyperlink ref="E31" r:id="rId38" display="array_sum()"/>
     <hyperlink ref="E71" r:id="rId39" display="array_udiff()"/>
@@ -6146,9 +6158,9 @@
     <hyperlink ref="E79" r:id="rId42" display="array_uintersect()"/>
     <hyperlink ref="E80" r:id="rId43" display="array_uintersect_assoc()"/>
     <hyperlink ref="E81" r:id="rId44" display="array_uintersect_uassoc()"/>
-    <hyperlink ref="E13" r:id="rId45" display="array_unique()"/>
+    <hyperlink ref="E14" r:id="rId45" display="array_unique()"/>
     <hyperlink ref="E22" r:id="rId46" display="array_unshift()"/>
-    <hyperlink ref="E17" r:id="rId47" display="array_values()"/>
+    <hyperlink ref="E18" r:id="rId47" display="array_values()"/>
     <hyperlink ref="E39" r:id="rId48" display="array_walk()"/>
     <hyperlink ref="E35" r:id="rId49" display="array_walk_recursive()"/>
     <hyperlink ref="E60" r:id="rId50" display="arsort()"/>
@@ -6205,13 +6217,13 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:4">
       <c r="A1" s="86" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C1" s="87" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="D1" s="88"/>
     </row>
@@ -6219,7 +6231,7 @@
       <c r="A2" s="86"/>
       <c r="B2" s="86"/>
       <c r="C2" s="87" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D2" s="88"/>
     </row>
@@ -6227,7 +6239,7 @@
       <c r="A3" s="86"/>
       <c r="B3" s="86"/>
       <c r="C3" s="87" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="D3" s="88"/>
     </row>
@@ -6235,17 +6247,17 @@
       <c r="A4" s="86"/>
       <c r="B4" s="86"/>
       <c r="C4" s="87" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D4" s="88"/>
     </row>
     <row r="5" ht="17.25" spans="1:4">
       <c r="A5" s="86"/>
       <c r="B5" s="86" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D5" s="88"/>
     </row>
@@ -6253,7 +6265,7 @@
       <c r="A6" s="86"/>
       <c r="B6" s="86"/>
       <c r="C6" s="87" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="D6" s="88"/>
     </row>
@@ -6261,7 +6273,7 @@
       <c r="A7" s="86"/>
       <c r="B7" s="86"/>
       <c r="C7" s="87" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D7" s="88"/>
     </row>
@@ -6269,7 +6281,7 @@
       <c r="A8" s="86"/>
       <c r="B8" s="86"/>
       <c r="C8" s="87" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D8" s="88"/>
     </row>
@@ -6277,7 +6289,7 @@
       <c r="A9" s="86"/>
       <c r="B9" s="86"/>
       <c r="C9" s="87" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D9" s="88"/>
     </row>
@@ -6285,7 +6297,7 @@
       <c r="A10" s="86"/>
       <c r="B10" s="86"/>
       <c r="C10" s="87" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D10" s="88"/>
     </row>
@@ -6293,7 +6305,7 @@
       <c r="A11" s="86"/>
       <c r="B11" s="86"/>
       <c r="C11" s="87" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D11" s="88"/>
     </row>
@@ -6301,7 +6313,7 @@
       <c r="A12" s="86"/>
       <c r="B12" s="86"/>
       <c r="C12" s="87" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D12" s="88"/>
     </row>
@@ -6309,17 +6321,17 @@
       <c r="A13" s="86"/>
       <c r="B13" s="86"/>
       <c r="C13" s="87" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D13" s="88"/>
     </row>
     <row r="14" ht="17.25" spans="1:4">
       <c r="A14" s="86"/>
       <c r="B14" s="86" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="D14" s="88"/>
     </row>
@@ -6327,7 +6339,7 @@
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="87" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="D15" s="88"/>
     </row>
@@ -6335,7 +6347,7 @@
       <c r="A16" s="86"/>
       <c r="B16" s="86"/>
       <c r="C16" s="87" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D16" s="88"/>
     </row>
@@ -6343,7 +6355,7 @@
       <c r="A17" s="86"/>
       <c r="B17" s="86"/>
       <c r="C17" s="87" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="D17" s="88"/>
     </row>
@@ -6351,7 +6363,7 @@
       <c r="A18" s="86"/>
       <c r="B18" s="86"/>
       <c r="C18" s="87" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="D18" s="88"/>
     </row>
@@ -6359,7 +6371,7 @@
       <c r="A19" s="86"/>
       <c r="B19" s="86"/>
       <c r="C19" s="87" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="D19" s="88"/>
     </row>
@@ -6367,7 +6379,7 @@
       <c r="A20" s="86"/>
       <c r="B20" s="86"/>
       <c r="C20" s="87" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="D20" s="88"/>
     </row>
@@ -6375,7 +6387,7 @@
       <c r="A21" s="86"/>
       <c r="B21" s="86"/>
       <c r="C21" s="87" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="D21" s="88"/>
     </row>
@@ -6383,7 +6395,7 @@
       <c r="A22" s="86"/>
       <c r="B22" s="86"/>
       <c r="C22" s="87" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="D22" s="88"/>
     </row>
@@ -6391,7 +6403,7 @@
       <c r="A23" s="86"/>
       <c r="B23" s="86"/>
       <c r="C23" s="87" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D23" s="88"/>
     </row>
@@ -6399,7 +6411,7 @@
       <c r="A24" s="86"/>
       <c r="B24" s="86"/>
       <c r="C24" s="87" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="D24" s="88"/>
     </row>
@@ -6407,17 +6419,17 @@
       <c r="A25" s="86"/>
       <c r="B25" s="86"/>
       <c r="C25" s="87" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D25" s="88"/>
     </row>
     <row r="26" ht="17.25" spans="1:4">
       <c r="A26" s="86"/>
       <c r="B26" s="86" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C26" s="87" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="D26" s="88"/>
     </row>
@@ -6425,7 +6437,7 @@
       <c r="A27" s="86"/>
       <c r="B27" s="86"/>
       <c r="C27" s="87" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -6433,29 +6445,29 @@
       <c r="A28" s="86"/>
       <c r="B28" s="86"/>
       <c r="C28" s="87" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="D28" s="88"/>
     </row>
     <row r="29" ht="17.25" spans="1:4">
       <c r="A29" s="86" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B29" s="86" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="D29" s="88"/>
     </row>
     <row r="30" ht="17.25" spans="1:4">
       <c r="A30" s="86"/>
       <c r="B30" s="86" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="D30" s="88"/>
     </row>
@@ -6463,7 +6475,7 @@
       <c r="A31" s="86"/>
       <c r="B31" s="86"/>
       <c r="C31" s="87" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="D31" s="88"/>
     </row>
@@ -6471,7 +6483,7 @@
       <c r="A32" s="86"/>
       <c r="B32" s="86"/>
       <c r="C32" s="87" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="D32" s="88"/>
     </row>
@@ -6479,17 +6491,17 @@
       <c r="A33" s="86"/>
       <c r="B33" s="86"/>
       <c r="C33" s="87" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="D33" s="88"/>
     </row>
     <row r="34" ht="17.25" spans="1:4">
       <c r="A34" s="86"/>
       <c r="B34" s="86" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C34" s="87" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="D34" s="88"/>
     </row>
@@ -6497,7 +6509,7 @@
       <c r="A35" s="86"/>
       <c r="B35" s="86"/>
       <c r="C35" s="87" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="D35" s="88"/>
     </row>
@@ -6505,17 +6517,17 @@
       <c r="A36" s="86"/>
       <c r="B36" s="86"/>
       <c r="C36" s="87" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D36" s="88"/>
     </row>
     <row r="37" ht="17.25" spans="1:4">
       <c r="A37" s="86"/>
       <c r="B37" s="86" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D37" s="88"/>
     </row>
@@ -6523,7 +6535,7 @@
       <c r="A38" s="86"/>
       <c r="B38" s="86"/>
       <c r="C38" s="87" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="D38" s="88"/>
     </row>
@@ -6531,7 +6543,7 @@
       <c r="A39" s="86"/>
       <c r="B39" s="86"/>
       <c r="C39" s="87" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D39" s="88"/>
     </row>
@@ -6539,7 +6551,7 @@
       <c r="A40" s="86"/>
       <c r="B40" s="86"/>
       <c r="C40" s="87" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D40" s="88"/>
     </row>
@@ -6547,7 +6559,7 @@
       <c r="A41" s="86"/>
       <c r="B41" s="86"/>
       <c r="C41" s="87" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D41" s="88"/>
     </row>
@@ -6555,7 +6567,7 @@
       <c r="A42" s="86"/>
       <c r="B42" s="86"/>
       <c r="C42" s="87" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="D42" s="88"/>
     </row>
@@ -6563,7 +6575,7 @@
       <c r="A43" s="86"/>
       <c r="B43" s="86"/>
       <c r="C43" s="87" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D43" s="88"/>
     </row>
@@ -6571,7 +6583,7 @@
       <c r="A44" s="86"/>
       <c r="B44" s="86"/>
       <c r="C44" s="87" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D44" s="88"/>
     </row>
@@ -6579,19 +6591,19 @@
       <c r="A45" s="86"/>
       <c r="B45" s="86"/>
       <c r="C45" s="87" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D45" s="88"/>
     </row>
     <row r="46" ht="17.25" spans="1:4">
       <c r="A46" s="86" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B46" s="86" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C46" s="87" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D46" s="88"/>
     </row>
@@ -6599,17 +6611,17 @@
       <c r="A47" s="86"/>
       <c r="B47" s="86"/>
       <c r="C47" s="87" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="D47" s="88"/>
     </row>
     <row r="48" ht="17.25" spans="1:4">
       <c r="A48" s="86"/>
       <c r="B48" s="86" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C48" s="87" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="D48" s="88"/>
     </row>
@@ -6617,7 +6629,7 @@
       <c r="A49" s="86"/>
       <c r="B49" s="86"/>
       <c r="C49" s="87" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D49" s="88"/>
     </row>
@@ -6625,7 +6637,7 @@
       <c r="A50" s="86"/>
       <c r="B50" s="86"/>
       <c r="C50" s="87" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D50" s="88"/>
     </row>
@@ -6633,7 +6645,7 @@
       <c r="A51" s="86"/>
       <c r="B51" s="86"/>
       <c r="C51" s="87" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="D51" s="88"/>
     </row>
@@ -6641,7 +6653,7 @@
       <c r="A52" s="86"/>
       <c r="B52" s="86"/>
       <c r="C52" s="87" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D52" s="88"/>
     </row>
@@ -6649,7 +6661,7 @@
       <c r="A53" s="86"/>
       <c r="B53" s="86"/>
       <c r="C53" s="87" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D53" s="88"/>
     </row>
@@ -6657,7 +6669,7 @@
       <c r="A54" s="86"/>
       <c r="B54" s="86"/>
       <c r="C54" s="87" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D54" s="88"/>
     </row>
@@ -6665,29 +6677,29 @@
       <c r="A55" s="86"/>
       <c r="B55" s="86"/>
       <c r="C55" s="87" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="D55" s="88"/>
     </row>
     <row r="56" ht="17.25" spans="1:4">
       <c r="A56" s="86"/>
       <c r="B56" s="86" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="C56" s="87" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D56" s="88"/>
     </row>
     <row r="57" ht="17.25" spans="1:4">
       <c r="A57" s="86" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B57" s="86" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C57" s="87" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="D57" s="88"/>
     </row>
@@ -6695,7 +6707,7 @@
       <c r="A58" s="86"/>
       <c r="B58" s="86"/>
       <c r="C58" s="87" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D58" s="88"/>
     </row>
@@ -6703,7 +6715,7 @@
       <c r="A59" s="86"/>
       <c r="B59" s="86"/>
       <c r="C59" s="87" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="D59" s="88"/>
     </row>
@@ -6711,7 +6723,7 @@
       <c r="A60" s="86"/>
       <c r="B60" s="86"/>
       <c r="C60" s="87" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="D60" s="88"/>
     </row>
@@ -6719,17 +6731,17 @@
       <c r="A61" s="86"/>
       <c r="B61" s="86"/>
       <c r="C61" s="87" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="D61" s="88"/>
     </row>
     <row r="62" ht="17.25" spans="1:4">
       <c r="A62" s="86"/>
       <c r="B62" s="89" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C62" s="87" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="D62" s="88"/>
     </row>
@@ -6737,7 +6749,7 @@
       <c r="A63" s="86"/>
       <c r="B63" s="89"/>
       <c r="C63" s="87" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="D63" s="88"/>
     </row>
@@ -6745,7 +6757,7 @@
       <c r="A64" s="86"/>
       <c r="B64" s="89"/>
       <c r="C64" s="87" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="D64" s="88"/>
     </row>
@@ -6753,17 +6765,17 @@
       <c r="A65" s="86"/>
       <c r="B65" s="89"/>
       <c r="C65" s="87" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="D65" s="88"/>
     </row>
     <row r="66" ht="17.25" spans="1:4">
       <c r="A66" s="86"/>
       <c r="B66" s="86" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="C66" s="87" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="D66" s="88"/>
     </row>
@@ -6771,7 +6783,7 @@
       <c r="A67" s="86"/>
       <c r="B67" s="86"/>
       <c r="C67" s="87" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D67" s="88"/>
     </row>
@@ -6779,7 +6791,7 @@
       <c r="A68" s="86"/>
       <c r="B68" s="86"/>
       <c r="C68" s="87" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="D68" s="88"/>
     </row>
@@ -6787,7 +6799,7 @@
       <c r="A69" s="86"/>
       <c r="B69" s="86"/>
       <c r="C69" s="87" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="D69" s="88"/>
     </row>
@@ -6795,7 +6807,7 @@
       <c r="A70" s="86"/>
       <c r="B70" s="86"/>
       <c r="C70" s="87" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="D70" s="88"/>
     </row>
@@ -6803,7 +6815,7 @@
       <c r="A71" s="86"/>
       <c r="B71" s="86"/>
       <c r="C71" s="87" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="D71" s="88"/>
     </row>
@@ -6811,17 +6823,17 @@
       <c r="A72" s="86"/>
       <c r="B72" s="86"/>
       <c r="C72" s="87" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="D72" s="88"/>
     </row>
     <row r="73" ht="17.25" spans="1:4">
       <c r="A73" s="86"/>
       <c r="B73" s="86" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="C73" s="87" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="D73" s="88"/>
     </row>
@@ -6829,17 +6841,17 @@
       <c r="A74" s="86"/>
       <c r="B74" s="86"/>
       <c r="C74" s="87" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D74" s="88"/>
     </row>
     <row r="75" ht="17.25" spans="1:4">
       <c r="A75" s="86"/>
       <c r="B75" s="86" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C75" s="87" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D75" s="88"/>
     </row>
@@ -6847,27 +6859,27 @@
       <c r="A76" s="86"/>
       <c r="B76" s="86"/>
       <c r="C76" s="87" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="D76" s="88"/>
     </row>
     <row r="77" ht="17.25" spans="1:4">
       <c r="A77" s="86"/>
       <c r="B77" s="86" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="C77" s="87" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="D77" s="88"/>
     </row>
     <row r="78" ht="17.25" spans="1:4">
       <c r="A78" s="86" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B78" s="86"/>
       <c r="C78" s="87" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="D78" s="88"/>
     </row>
@@ -6875,7 +6887,7 @@
       <c r="A79" s="86"/>
       <c r="B79" s="86"/>
       <c r="C79" s="87" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="D79" s="88"/>
     </row>
@@ -6883,7 +6895,7 @@
       <c r="A80" s="86"/>
       <c r="B80" s="86"/>
       <c r="C80" s="87" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="D80" s="88"/>
     </row>
@@ -6891,7 +6903,7 @@
       <c r="A81" s="86"/>
       <c r="B81" s="86"/>
       <c r="C81" s="87" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="D81" s="88"/>
     </row>
@@ -6899,7 +6911,7 @@
       <c r="A82" s="86"/>
       <c r="B82" s="86"/>
       <c r="C82" s="87" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="D82" s="88"/>
     </row>
@@ -6907,7 +6919,7 @@
       <c r="A83" s="86"/>
       <c r="B83" s="86"/>
       <c r="C83" s="87" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="D83" s="88"/>
     </row>
@@ -6915,7 +6927,7 @@
       <c r="A84" s="86"/>
       <c r="B84" s="86"/>
       <c r="C84" s="87" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="D84" s="88"/>
     </row>
@@ -6923,7 +6935,7 @@
       <c r="A85" s="86"/>
       <c r="B85" s="86"/>
       <c r="C85" s="87" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="D85" s="88"/>
     </row>
@@ -6931,7 +6943,7 @@
       <c r="A86" s="86"/>
       <c r="B86" s="86"/>
       <c r="C86" s="87" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="D86" s="88"/>
     </row>
@@ -6939,17 +6951,17 @@
       <c r="A87" s="86"/>
       <c r="B87" s="86"/>
       <c r="C87" s="87" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="D87" s="88"/>
     </row>
     <row r="88" ht="17.25" spans="1:4">
       <c r="A88" s="86" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B88" s="86"/>
       <c r="C88" s="87" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="D88" s="88"/>
     </row>
@@ -6957,7 +6969,7 @@
       <c r="A89" s="86"/>
       <c r="B89" s="86"/>
       <c r="C89" s="87" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="D89" s="88"/>
     </row>
@@ -6965,7 +6977,7 @@
       <c r="A90" s="86"/>
       <c r="B90" s="86"/>
       <c r="C90" s="87" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="D90" s="88"/>
     </row>
@@ -6973,7 +6985,7 @@
       <c r="A91" s="86"/>
       <c r="B91" s="86"/>
       <c r="C91" s="87" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="D91" s="88"/>
     </row>
@@ -6981,17 +6993,17 @@
       <c r="A92" s="86"/>
       <c r="B92" s="86"/>
       <c r="C92" s="87" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="D92" s="88"/>
     </row>
     <row r="93" ht="17.25" spans="1:4">
       <c r="A93" s="86" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B93" s="86"/>
       <c r="C93" s="87" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="D93" s="88"/>
     </row>
@@ -6999,7 +7011,7 @@
       <c r="A94" s="86"/>
       <c r="B94" s="86"/>
       <c r="C94" s="87" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="D94" s="88"/>
     </row>
@@ -7007,7 +7019,7 @@
       <c r="A95" s="86"/>
       <c r="B95" s="86"/>
       <c r="C95" s="87" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="D95" s="88"/>
     </row>
@@ -7015,7 +7027,7 @@
       <c r="A96" s="86"/>
       <c r="B96" s="86"/>
       <c r="C96" s="87" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="D96" s="88"/>
     </row>
@@ -7023,7 +7035,7 @@
       <c r="A97" s="86"/>
       <c r="B97" s="86"/>
       <c r="C97" s="87" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D97" s="88"/>
     </row>
@@ -7031,7 +7043,7 @@
       <c r="A98" s="86"/>
       <c r="B98" s="86"/>
       <c r="C98" s="87" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="D98" s="88"/>
     </row>
@@ -7256,23 +7268,23 @@
   <sheetData>
     <row r="2" ht="20.25" spans="2:5">
       <c r="B2" s="73" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="E2" s="75"/>
     </row>
     <row r="3" ht="20.25" spans="2:5">
       <c r="B3" s="76" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="78" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="E3" s="78"/>
     </row>
@@ -7284,12 +7296,12 @@
     </row>
     <row r="5" ht="40.5" spans="2:5">
       <c r="B5" s="82" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C5" s="82"/>
       <c r="D5" s="82"/>
       <c r="E5" s="83" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -7327,879 +7339,879 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="65" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="67" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="67" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="67" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="67" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="66" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="66" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="66" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="66" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="66" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="66" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="11" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="67" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="67" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="67" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="67" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="66" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="66" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="66" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="66" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="66" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="66" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="66" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="66" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="66" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="66" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="C36" s="67" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="66" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="66" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11"/>
       <c r="B41" s="11" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="66" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11"/>
       <c r="B43" s="11" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="67" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11"/>
       <c r="B45" s="11" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11"/>
       <c r="B46" s="11" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11"/>
       <c r="B47" s="11" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="66" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11"/>
       <c r="B49" s="11" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="68" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="66" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="C53" s="67" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="67" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="66" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="68" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="67" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="67" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="11"/>
       <c r="B59" s="11" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="66" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11"/>
       <c r="B61" s="11" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="C61" s="67" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="67" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="68" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="67" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="11"/>
       <c r="B65" s="11" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="66" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="11" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="67" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="67" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="67" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="11" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="69" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="70" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="69" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="69" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="69" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="69" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="69" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="69" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="69" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="69" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="69" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="69" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="69" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="69" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="69" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="69" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="69" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="11" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="69" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="69" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="11" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="69" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="69" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="69" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="69" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="69" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="69" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="69" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="69" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="11" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="69" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="69" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="11" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="69" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="69" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="69" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="69" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="69" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="69" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="69" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="69" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="69" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="69" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="69" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="69" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="69" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="69" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="69" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
     </row>
     <row r="114" ht="33" spans="1:3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="69" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="69" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -8378,7 +8390,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="54" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -8386,398 +8398,398 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="57" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="57" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="57" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="57" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="57" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="57" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="57" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="57" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="57" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="57" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="57" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="59" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="59" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" ht="33" spans="1:2">
       <c r="A18" s="59" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="59" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="59" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" ht="33" spans="1:2">
       <c r="A21" s="59" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" ht="33" spans="1:2">
       <c r="A22" s="59" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="59" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="59" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" ht="33" spans="1:2">
       <c r="A25" s="59" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" ht="33" spans="1:2">
       <c r="A26" s="51" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" ht="33" spans="1:2">
       <c r="A27" s="59" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="59" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="59" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" ht="33" spans="1:2">
       <c r="A31" s="59" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" ht="33" spans="1:2">
       <c r="A32" s="59" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="59" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" ht="33" spans="1:2">
       <c r="A34" s="59" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="59" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="59" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="59" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="59" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="59" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="59" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
     </row>
     <row r="43" ht="33" spans="1:2">
       <c r="A43" s="59" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="59" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="59" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="59" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="59" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="59" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54" ht="33" spans="1:2">
       <c r="A54" s="59" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
     </row>
     <row r="56" ht="33" spans="1:2">
       <c r="A56" s="59" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="59" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -8791,7 +8803,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="62" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -8799,7 +8811,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="63" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="B68" s="64" t="s">
         <v>57</v>
@@ -8807,82 +8819,82 @@
     </row>
     <row r="69" ht="33" spans="1:2">
       <c r="A69" s="51" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="70" ht="33" spans="1:2">
       <c r="A70" s="51" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="B70" s="60" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" ht="33" spans="1:2">
       <c r="A71" s="51" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="B71" s="60" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
     </row>
     <row r="72" ht="33" spans="1:2">
       <c r="A72" s="51" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="B72" s="60" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73" ht="33" spans="1:2">
       <c r="A73" s="51" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="B73" s="60" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
     </row>
     <row r="74" ht="33" spans="1:2">
       <c r="A74" s="51" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="B74" s="60" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75" ht="33" spans="1:2">
       <c r="A75" s="51" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="B75" s="60" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
     </row>
     <row r="76" ht="33" spans="1:2">
       <c r="A76" s="51" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="B76" s="60" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
     </row>
     <row r="77" ht="33" spans="1:2">
       <c r="A77" s="51" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="B77" s="60" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
     </row>
     <row r="78" ht="33" spans="1:2">
       <c r="A78" s="51" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="B78" s="60" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -8948,196 +8960,196 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="41" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="45" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="46" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="43" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="47" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4"/>
       <c r="B8" s="46" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="45" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4"/>
       <c r="B9" s="46" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4"/>
       <c r="B10" s="46" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="47" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="47" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="43" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4"/>
       <c r="B14" s="46" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="47" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="46" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="47" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="46" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="50" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="49"/>
       <c r="D17" s="45" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9145,17 +9157,17 @@
       <c r="B18" s="51"/>
       <c r="C18" s="52"/>
       <c r="D18" s="45" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:4">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="44" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9163,7 +9175,7 @@
       <c r="B20" s="51"/>
       <c r="C20" s="44"/>
       <c r="D20" s="47" t="s">
-        <v>691</v>
+        <v>705</v>
       </c>
     </row>
     <row r="21" s="39" customFormat="1" spans="1:1">
@@ -9255,7 +9267,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -9266,246 +9278,246 @@
     </row>
     <row r="2" ht="33" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="21" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" ht="33" spans="1:7">
       <c r="A3" s="17"/>
       <c r="B3" s="19" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="21"/>
       <c r="F3" s="18" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="21"/>
       <c r="F4" s="18" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" ht="33" spans="1:7">
       <c r="A5" s="17"/>
       <c r="B5" s="18" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
       <c r="F5" s="18" t="s">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="21"/>
       <c r="F6" s="18" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" ht="33" spans="1:7">
       <c r="A7" s="17"/>
       <c r="B7" s="18" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
       <c r="F7" s="23" t="s">
-        <v>718</v>
+        <v>732</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8" ht="33" spans="1:7">
       <c r="A8" s="17"/>
       <c r="B8" s="23" t="s">
-        <v>720</v>
+        <v>734</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="21"/>
       <c r="F8" s="23" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17"/>
       <c r="B9" s="23" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21"/>
       <c r="F9" s="23" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="17"/>
       <c r="B10" s="23" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>729</v>
+        <v>743</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="21"/>
       <c r="F10" s="23" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>731</v>
+        <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
       <c r="F11" s="23" t="s">
-        <v>734</v>
+        <v>748</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
       <c r="F12" s="23" t="s">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" ht="33" spans="1:7">
       <c r="A13" s="17"/>
       <c r="B13" s="18" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
       <c r="F13" s="19" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="17"/>
       <c r="B14" s="23" t="s">
-        <v>744</v>
+        <v>758</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
       <c r="F14" s="19" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
       <c r="F15" s="18" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -9515,366 +9527,366 @@
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
       <c r="F16" s="18" t="s">
-        <v>752</v>
+        <v>766</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="17"/>
       <c r="B17" s="18" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21"/>
       <c r="F17" s="24" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17"/>
       <c r="B18" s="23" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="17" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17"/>
       <c r="B19" s="23" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="17"/>
       <c r="F19" s="23" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="17"/>
       <c r="F20" s="23" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="17"/>
       <c r="F21" s="23" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="17" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17"/>
       <c r="B23" s="18" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
     </row>
     <row r="24" ht="33" spans="1:7">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>785</v>
+        <v>799</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="17"/>
       <c r="F24" s="19" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17"/>
       <c r="B25" s="18" t="s">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="25" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>793</v>
+        <v>807</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="26"/>
       <c r="B27" s="24" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="17"/>
       <c r="F27" s="18" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="26"/>
       <c r="B28" s="23" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="17" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="26"/>
       <c r="B29" s="19" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="17"/>
       <c r="F29" s="23" t="s">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="26"/>
       <c r="B30" s="23" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="17"/>
       <c r="F30" s="23" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="26" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="17"/>
       <c r="F31" s="23" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="26"/>
       <c r="B32" s="23" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="17"/>
       <c r="F32" s="23" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>821</v>
+        <v>835</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="26"/>
       <c r="B33" s="24" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="17"/>
       <c r="F33" s="23" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="26"/>
       <c r="B34" s="18" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="26"/>
       <c r="B35" s="18" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="26"/>
       <c r="B36" s="23" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="D36" s="22"/>
       <c r="F36" s="27" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="26"/>
       <c r="B37" s="23" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="26"/>
       <c r="B38" s="23" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="D38" s="22"/>
     </row>
@@ -9941,7 +9953,7 @@
       <c r="C69" s="36"/>
       <c r="D69" s="35"/>
       <c r="E69" s="37" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -10189,32 +10201,32 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -10223,678 +10235,678 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>852</v>
+        <v>866</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
       <c r="B10" s="9" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="10" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>863</v>
+        <v>877</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
-        <v>864</v>
+        <v>878</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4"/>
       <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
-        <v>865</v>
+        <v>879</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="11"/>
       <c r="C19" s="5" t="s">
-        <v>866</v>
+        <v>880</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
-        <v>868</v>
+        <v>882</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>869</v>
+        <v>883</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>870</v>
+        <v>884</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>871</v>
+        <v>885</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>872</v>
+        <v>886</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>873</v>
+        <v>887</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="11"/>
       <c r="B29" s="4"/>
       <c r="C29" s="8" t="s">
-        <v>877</v>
+        <v>891</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="11"/>
       <c r="B30" s="4"/>
       <c r="C30" s="8" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11"/>
       <c r="B31" s="4" t="s">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11"/>
       <c r="B32" s="4"/>
       <c r="C32" s="8" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="4"/>
       <c r="C33" s="8" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11"/>
       <c r="B34" s="4"/>
       <c r="C34" s="8" t="s">
-        <v>883</v>
+        <v>897</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="4"/>
       <c r="C35" s="8" t="s">
-        <v>884</v>
+        <v>898</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="4"/>
       <c r="C36" s="8" t="s">
-        <v>885</v>
+        <v>899</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11"/>
       <c r="B37" s="4"/>
       <c r="C37" s="8" t="s">
-        <v>886</v>
+        <v>900</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="11"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11"/>
       <c r="B45" s="4" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11"/>
       <c r="B46" s="4" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11"/>
       <c r="B47" s="4"/>
       <c r="C47" s="8" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11"/>
       <c r="B48" s="4"/>
       <c r="C48" s="8" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11"/>
       <c r="B49" s="4" t="s">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11"/>
       <c r="B54" s="4" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11"/>
       <c r="B55" s="4"/>
       <c r="C55" s="8" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="8" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="8" t="s">
-        <v>916</v>
+        <v>930</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="8" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="8" t="s">
-        <v>918</v>
+        <v>932</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="8" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="8" t="s">
-        <v>920</v>
+        <v>934</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="8" t="s">
-        <v>921</v>
+        <v>935</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="8" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="8" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="8" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="8" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="8" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="8" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="12" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="13" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="13" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="13" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
     </row>
     <row r="84" spans="5:5">
       <c r="E84" s="14" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="12" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="13" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="13" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="13" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="13" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="13" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="13" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="13" t="s">
-        <v>939</v>
+        <v>953</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="13" t="s">
-        <v>940</v>
+        <v>954</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="13" t="s">
-        <v>941</v>
+        <v>955</v>
       </c>
     </row>
     <row r="96" spans="5:5">
       <c r="E96" s="14" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="12" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="13" t="s">
-        <v>943</v>
+        <v>957</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="13" t="s">
-        <v>944</v>
+        <v>958</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="13" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="13" t="s">
-        <v>946</v>
+        <v>960</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="13" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="13" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" s="14" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="12" t="s">
-        <v>949</v>
+        <v>963</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="13" t="s">
-        <v>950</v>
+        <v>964</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="13" t="s">
-        <v>951</v>
+        <v>965</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="13" t="s">
-        <v>952</v>
+        <v>966</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="13" t="s">
-        <v>953</v>
+        <v>967</v>
       </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" s="14" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>

--- a/1_php/原生php/PHP函数分目参考.xlsx
+++ b/1_php/原生php/PHP函数分目参考.xlsx
@@ -423,6 +423,50 @@
         </r>
       </text>
     </comment>
+    <comment ref="D64" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D66" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -452,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1078">
   <si>
     <t>双精度判断</t>
   </si>
@@ -5791,6 +5835,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>strripos</t>
     </r>
     <r>
@@ -6009,6 +6059,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>strrpos</t>
     </r>
     <r>
@@ -6239,6 +6295,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>stripos</t>
     </r>
     <r>
@@ -6484,6 +6546,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>strpbrk</t>
     </r>
     <r>
@@ -6642,6 +6710,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>implode</t>
     </r>
     <r>
@@ -6836,6 +6910,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>lcfirst</t>
     </r>
     <r>
@@ -6940,6 +7020,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>ucfirst</t>
     </r>
     <r>
@@ -7041,6 +7127,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>ucwords</t>
     </r>
     <r>
@@ -7151,6 +7243,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>strtolower</t>
     </r>
     <r>
@@ -7252,6 +7350,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>strtoupper</t>
     </r>
     <r>
@@ -7356,6 +7460,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>trim</t>
     </r>
     <r>
@@ -7520,6 +7630,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>ltrim</t>
     </r>
     <r>
@@ -7675,6 +7791,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>rtrim</t>
     </r>
     <r>
@@ -7829,10 +7951,17 @@
     <t>去除多余字符。右边</t>
   </si>
   <si>
-    <t>HTML格式</t>
-  </si>
-  <si>
-    <r>
+    <t>HTML
+格式</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>nl2br</t>
     </r>
     <r>
@@ -8005,19 +8134,1127 @@
     <t>nl2br — 在字符串所有新行之前插入 HTML 换行标记</t>
   </si>
   <si>
-    <t>strip_tags — 从字符串中去除 HTML 和 PHP 标记</t>
-  </si>
-  <si>
-    <t>htmlspecialchars_decode — 将特殊的 HTML 实体转换回普通字符</t>
-  </si>
-  <si>
-    <t>htmlentities — Convert all applicable characters to HTML entities</t>
-  </si>
-  <si>
-    <t>htmlspecialchars — Convert special characters to HTML entities</t>
-  </si>
-  <si>
-    <t>html_entity_decode — Convert all HTML entities to their applicable characters</t>
+    <r>
+      <t>strip_tags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$allowable_tags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>] ) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <t>strip_tags()</t>
+  </si>
+  <si>
+    <t>去除 HTML 和 PHP 标记</t>
+  </si>
+  <si>
+    <r>
+      <t>htmlspecialchars</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$flags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> = ENT_COMPAT | ENT_HTML401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$encoding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> = ini_get("default_charset")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$double_encode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TRUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]]] ) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <t>htmlspecialchars()</t>
+  </si>
+  <si>
+    <t>加密html</t>
+  </si>
+  <si>
+    <r>
+      <t>htmlspecialchars_decode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$flags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> = ENT_COMPAT | ENT_HTML401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>] ) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <t>[5&gt;=5.1.0,7]</t>
+  </si>
+  <si>
+    <t>htmlspecialchars_decode ()</t>
+  </si>
+  <si>
+    <t>解密html</t>
+  </si>
+  <si>
+    <r>
+      <t>htmlentities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$flags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> = ENT_COMPAT | ENT_HTML401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$encoding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> = ini_get("default_charset")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$double_encode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> = true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]]] ) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <t>htmlentities()</t>
+  </si>
+  <si>
+    <r>
+      <t>html_entity_decode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$flags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> = ENT_COMPAT | ENT_HTML401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$encoding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> = ini_get("default_charset")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]] ) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <t>html_entity_decode()</t>
   </si>
   <si>
     <t>get_html_translation_table — 返回使用 htmlspecialchars 和 htmlentities 后的转换表</t>
@@ -8080,7 +9317,12 @@
     <t>str_rot13 — 对字符串执行 ROT13 转换</t>
   </si>
   <si>
-    <t>散列</t>
+    <t>算法
+加密
+校验</t>
+  </si>
+  <si>
+    <t>crc32 — 计算一个字符串的 crc32 多项式</t>
   </si>
   <si>
     <t>crypt — 单向字符串散列</t>
@@ -8095,12 +9337,12 @@
     <t>sha1_file — 计算文件的 sha1 散列值</t>
   </si>
   <si>
+    <t>不明区</t>
+  </si>
+  <si>
     <t>sha1 — 计算字符串的 sha1 散列值</t>
   </si>
   <si>
-    <t>不明区</t>
-  </si>
-  <si>
     <t>hebrev — 将逻辑顺序希伯来文（logical-Hebrew）转换为视觉顺序希伯来文（visual-Hebrew）</t>
   </si>
   <si>
@@ -8117,13 +9359,6 @@
   </si>
   <si>
     <t>nl_langinfo — Query language and locale information</t>
-  </si>
-  <si>
-    <t>加密
-校验</t>
-  </si>
-  <si>
-    <t>crc32 — 计算一个字符串的 crc32 多项式</t>
   </si>
   <si>
     <t>preg_split()</t>
@@ -9901,8 +11136,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -10015,6 +11250,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -10034,12 +11275,6 @@
       <sz val="12"/>
       <color rgb="FF800080"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -10171,9 +11406,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10186,8 +11420,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10297,6 +11532,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10309,13 +11556,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10333,37 +11610,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10387,6 +11652,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10394,36 +11677,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10441,31 +11694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10797,10 +12032,10 @@
     <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10809,16 +12044,16 @@
     <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10831,10 +12066,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10855,28 +12090,28 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -10885,62 +12120,62 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11217,31 +12452,32 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11319,7 +12555,7 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -11709,472 +12945,472 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="109" customWidth="1"/>
-    <col min="2" max="2" width="24" style="109" customWidth="1"/>
-    <col min="3" max="3" width="43.375" style="109" customWidth="1"/>
-    <col min="4" max="4" width="3.25" style="109" customWidth="1"/>
-    <col min="5" max="5" width="9" style="109" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="109" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="109" customWidth="1"/>
-    <col min="8" max="8" width="29.125" style="109" customWidth="1"/>
-    <col min="9" max="9" width="2.75" style="109" customWidth="1"/>
-    <col min="10" max="10" width="19.625" style="109" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="109" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="109"/>
+    <col min="1" max="1" width="29" style="110" customWidth="1"/>
+    <col min="2" max="2" width="24" style="110" customWidth="1"/>
+    <col min="3" max="3" width="43.375" style="110" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="110" customWidth="1"/>
+    <col min="5" max="5" width="9" style="110" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="110" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="110" customWidth="1"/>
+    <col min="8" max="8" width="29.125" style="110" customWidth="1"/>
+    <col min="9" max="9" width="2.75" style="110" customWidth="1"/>
+    <col min="10" max="10" width="19.625" style="110" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="110" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="110"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="135"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="136"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="136"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="137"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="136"/>
+      <c r="C4" s="111"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="137"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="136"/>
+      <c r="C5" s="111"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="137"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="113"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="136"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="137"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="136"/>
+      <c r="C7" s="111"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="137"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="136"/>
+      <c r="C8" s="111"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="137"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="136"/>
+      <c r="C9" s="111"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="137"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="136"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="137"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="137"/>
+      <c r="C11" s="111"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="138"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="117"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="138"/>
+      <c r="C13" s="111"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="139"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="139"/>
+      <c r="C14" s="111"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="140"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="139"/>
+      <c r="C15" s="111"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="140"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="110"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="139"/>
+      <c r="C16" s="111"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="140"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="139"/>
+      <c r="C17" s="111"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="140"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="139"/>
+      <c r="C18" s="111"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="140"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="126"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="140"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="141"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="117"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="119"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="141"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="142"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="142"/>
+      <c r="C22" s="111"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="143"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="142"/>
+      <c r="C23" s="111"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="143"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="142"/>
+      <c r="C24" s="111"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="143"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="142"/>
+      <c r="C25" s="111"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="143"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="142"/>
+      <c r="C26" s="111"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="143"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="142"/>
+      <c r="C27" s="111"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="143"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="143"/>
+      <c r="C28" s="111"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="144"/>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="92" t="s">
@@ -12182,7 +13418,7 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="134" t="s">
+      <c r="B34" s="135" t="s">
         <v>56</v>
       </c>
     </row>
@@ -12213,8 +13449,8 @@
   <cols>
     <col min="1" max="1" width="5.375" style="86" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="86" customWidth="1"/>
-    <col min="3" max="3" width="99.875" style="101" customWidth="1"/>
-    <col min="4" max="4" width="16" style="101" customWidth="1"/>
+    <col min="3" max="3" width="99.875" style="102" customWidth="1"/>
+    <col min="4" max="4" width="16" style="102" customWidth="1"/>
     <col min="5" max="5" width="24.125" style="91" customWidth="1"/>
     <col min="6" max="6" width="76.625" style="91" customWidth="1"/>
     <col min="7" max="7" width="36.875" style="91" customWidth="1"/>
@@ -12224,7 +13460,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="3:8">
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="102" t="s">
         <v>57</v>
       </c>
       <c r="E1" s="90" t="s">
@@ -12242,130 +13478,130 @@
       <c r="B2" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="D2" s="103"/>
+      <c r="E2" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="105" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="105" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="103"/>
+      <c r="H3" s="104"/>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="103" t="s">
+      <c r="H4" s="104" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="103"/>
+      <c r="H5" s="104"/>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="103"/>
+      <c r="H6" s="104"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="103"/>
+      <c r="H7" s="104"/>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="103"/>
+      <c r="H8" s="104"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="103"/>
+      <c r="H9" s="104"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="86" t="s">
@@ -12374,571 +13610,571 @@
       <c r="B10" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="H10" s="103"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="105"/>
+      <c r="H10" s="104"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="93"/>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="108"/>
+      <c r="H11" s="109"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="93"/>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="104" t="s">
+      <c r="F12" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="108"/>
+      <c r="H12" s="109"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="93"/>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="104" t="s">
+      <c r="F13" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="103"/>
+      <c r="H13" s="104"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="93"/>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="F14" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="103"/>
+      <c r="H14" s="104"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="93"/>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="F15" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="103"/>
+      <c r="H15" s="104"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="93"/>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="103" t="s">
+      <c r="E16" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="104" t="s">
+      <c r="F16" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="103"/>
+      <c r="H16" s="104"/>
     </row>
     <row r="17" ht="34.5" spans="2:8">
       <c r="B17" s="93"/>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="104" t="s">
+      <c r="F17" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="103" t="s">
+      <c r="H17" s="104" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="93"/>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="103" t="s">
+      <c r="E18" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="104" t="s">
+      <c r="F18" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="103"/>
+      <c r="H18" s="104"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="93"/>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="103" t="s">
+      <c r="E19" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="104" t="s">
+      <c r="F19" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="103"/>
+      <c r="H19" s="104"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="93"/>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="103" t="s">
+      <c r="E20" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="104" t="s">
+      <c r="F20" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="103" t="s">
+      <c r="H20" s="104" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="93"/>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="103" t="s">
+      <c r="E21" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="104" t="s">
+      <c r="F21" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="103"/>
+      <c r="H21" s="104"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="106" t="s">
+      <c r="C22" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="103" t="s">
+      <c r="D22" s="107"/>
+      <c r="E22" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="104" t="s">
+      <c r="F22" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="103"/>
+      <c r="H22" s="104"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="103" t="s">
+      <c r="E23" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="104" t="s">
+      <c r="F23" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="103"/>
+      <c r="H23" s="104"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="103" t="s">
+      <c r="E24" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="104" t="s">
+      <c r="F24" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="H24" s="103"/>
+      <c r="H24" s="104"/>
     </row>
     <row r="25" spans="5:8">
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="104" t="s">
+      <c r="F25" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="H25" s="103"/>
+      <c r="H25" s="104"/>
     </row>
     <row r="26" spans="5:8">
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="104" t="s">
+      <c r="F26" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="H26" s="103"/>
+      <c r="H26" s="104"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="103" t="s">
+      <c r="E27" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="104" t="s">
+      <c r="F27" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="H27" s="103"/>
+      <c r="H27" s="104"/>
     </row>
     <row r="28" spans="5:8">
-      <c r="E28" s="103" t="s">
+      <c r="E28" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="104" t="s">
+      <c r="F28" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="103"/>
+      <c r="H28" s="104"/>
     </row>
     <row r="29" spans="5:8">
-      <c r="E29" s="103" t="s">
+      <c r="E29" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="104" t="s">
+      <c r="F29" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="H29" s="103"/>
+      <c r="H29" s="104"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="103" t="s">
+      <c r="E30" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="104" t="s">
+      <c r="F30" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="H30" s="103"/>
+      <c r="H30" s="104"/>
     </row>
     <row r="31" spans="5:8">
-      <c r="E31" s="103" t="s">
+      <c r="E31" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="104" t="s">
+      <c r="F31" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="H31" s="103"/>
+      <c r="H31" s="104"/>
     </row>
     <row r="32" spans="5:8">
-      <c r="E32" s="103" t="s">
+      <c r="E32" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="F32" s="104" t="s">
+      <c r="F32" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="H32" s="103"/>
+      <c r="H32" s="104"/>
     </row>
     <row r="33" spans="5:8">
-      <c r="E33" s="103" t="s">
+      <c r="E33" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="F33" s="104" t="s">
+      <c r="F33" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="H33" s="103"/>
+      <c r="H33" s="104"/>
     </row>
     <row r="34" spans="5:8">
-      <c r="E34" s="103" t="s">
+      <c r="E34" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="104" t="s">
+      <c r="F34" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="H34" s="103"/>
+      <c r="H34" s="104"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="E35" s="103" t="s">
+      <c r="E35" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="F35" s="104" t="s">
+      <c r="F35" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="H35" s="103"/>
+      <c r="H35" s="104"/>
     </row>
     <row r="36" spans="5:8">
-      <c r="E36" s="103" t="s">
+      <c r="E36" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="104" t="s">
+      <c r="F36" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="H36" s="103"/>
+      <c r="H36" s="104"/>
     </row>
     <row r="37" spans="5:8">
-      <c r="E37" s="103" t="s">
+      <c r="E37" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="F37" s="104" t="s">
+      <c r="F37" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="H37" s="103"/>
+      <c r="H37" s="104"/>
     </row>
     <row r="38" spans="5:8">
-      <c r="E38" s="103" t="s">
+      <c r="E38" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="F38" s="104" t="s">
+      <c r="F38" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="H38" s="103"/>
+      <c r="H38" s="104"/>
     </row>
     <row r="39" spans="5:8">
-      <c r="E39" s="103" t="s">
+      <c r="E39" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="F39" s="104" t="s">
+      <c r="F39" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="H39" s="103"/>
+      <c r="H39" s="104"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="E40" s="103" t="s">
+      <c r="E40" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="F40" s="104" t="s">
+      <c r="F40" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="H40" s="103"/>
+      <c r="H40" s="104"/>
     </row>
     <row r="41" spans="5:8">
-      <c r="E41" s="103" t="s">
+      <c r="E41" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="F41" s="104" t="s">
+      <c r="F41" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="H41" s="103"/>
+      <c r="H41" s="104"/>
     </row>
     <row r="42" spans="5:8">
-      <c r="E42" s="103" t="s">
+      <c r="E42" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="F42" s="104" t="s">
+      <c r="F42" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="H42" s="103"/>
+      <c r="H42" s="104"/>
     </row>
     <row r="43" spans="5:8">
-      <c r="E43" s="103" t="s">
+      <c r="E43" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="104" t="s">
+      <c r="F43" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="H43" s="103"/>
+      <c r="H43" s="104"/>
     </row>
     <row r="44" spans="5:8">
-      <c r="E44" s="103" t="s">
+      <c r="E44" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="F44" s="104" t="s">
+      <c r="F44" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="H44" s="103"/>
+      <c r="H44" s="104"/>
     </row>
     <row r="45" spans="5:8">
-      <c r="E45" s="103" t="s">
+      <c r="E45" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="F45" s="104" t="s">
+      <c r="F45" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="H45" s="103"/>
+      <c r="H45" s="104"/>
     </row>
     <row r="46" spans="5:8">
-      <c r="E46" s="103" t="s">
+      <c r="E46" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="F46" s="104" t="s">
+      <c r="F46" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="103"/>
+      <c r="H46" s="104"/>
     </row>
     <row r="47" spans="5:8">
-      <c r="E47" s="103" t="s">
+      <c r="E47" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="F47" s="104" t="s">
+      <c r="F47" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="H47" s="103"/>
+      <c r="H47" s="104"/>
     </row>
     <row r="48" spans="5:8">
-      <c r="E48" s="103" t="s">
+      <c r="E48" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F48" s="104" t="s">
+      <c r="F48" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="H48" s="103"/>
+      <c r="H48" s="104"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="E49" s="103" t="s">
+      <c r="E49" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="104" t="s">
+      <c r="F49" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="H49" s="103"/>
+      <c r="H49" s="104"/>
     </row>
     <row r="50" spans="5:8">
-      <c r="E50" s="103" t="s">
+      <c r="E50" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="F50" s="104" t="s">
+      <c r="F50" s="105" t="s">
         <v>197</v>
       </c>
-      <c r="H50" s="103"/>
+      <c r="H50" s="104"/>
     </row>
     <row r="51" spans="5:8">
-      <c r="E51" s="103" t="s">
+      <c r="E51" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="F51" s="104" t="s">
+      <c r="F51" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="H51" s="103"/>
+      <c r="H51" s="104"/>
     </row>
     <row r="52" spans="5:8">
-      <c r="E52" s="103" t="s">
+      <c r="E52" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="F52" s="104" t="s">
+      <c r="F52" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="H52" s="103"/>
+      <c r="H52" s="104"/>
     </row>
     <row r="53" spans="5:8">
-      <c r="E53" s="103" t="s">
+      <c r="E53" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="F53" s="104" t="s">
+      <c r="F53" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="H53" s="103"/>
+      <c r="H53" s="104"/>
     </row>
     <row r="54" spans="5:8">
-      <c r="E54" s="103" t="s">
+      <c r="E54" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="F54" s="104" t="s">
+      <c r="F54" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="H54" s="103"/>
+      <c r="H54" s="104"/>
     </row>
     <row r="55" spans="5:8">
-      <c r="E55" s="103" t="s">
+      <c r="E55" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="F55" s="104" t="s">
+      <c r="F55" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="H55" s="103"/>
+      <c r="H55" s="104"/>
     </row>
     <row r="56" spans="5:8">
-      <c r="E56" s="103" t="s">
+      <c r="E56" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="F56" s="104" t="s">
+      <c r="F56" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="H56" s="103"/>
+      <c r="H56" s="104"/>
     </row>
     <row r="57" spans="5:8">
-      <c r="E57" s="103" t="s">
+      <c r="E57" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="F57" s="104" t="s">
+      <c r="F57" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="H57" s="103"/>
+      <c r="H57" s="104"/>
     </row>
     <row r="58" spans="5:8">
-      <c r="E58" s="103" t="s">
+      <c r="E58" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="F58" s="104" t="s">
+      <c r="F58" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="H58" s="103"/>
+      <c r="H58" s="104"/>
     </row>
     <row r="59" spans="5:8">
-      <c r="E59" s="103" t="s">
+      <c r="E59" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="F59" s="104" t="s">
+      <c r="F59" s="105" t="s">
         <v>214</v>
       </c>
-      <c r="H59" s="103"/>
+      <c r="H59" s="104"/>
     </row>
     <row r="60" spans="5:8">
-      <c r="E60" s="103" t="s">
+      <c r="E60" s="104" t="s">
         <v>215</v>
       </c>
-      <c r="F60" s="104" t="s">
+      <c r="F60" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="H60" s="103"/>
+      <c r="H60" s="104"/>
     </row>
     <row r="61" spans="5:8">
-      <c r="E61" s="103" t="s">
+      <c r="E61" s="104" t="s">
         <v>217</v>
       </c>
-      <c r="F61" s="104" t="s">
+      <c r="F61" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="H61" s="103"/>
+      <c r="H61" s="104"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="94" t="s">
@@ -12947,182 +14183,182 @@
       <c r="B62" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="C62" s="106"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="103" t="s">
+      <c r="C62" s="107"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="F62" s="104" t="s">
+      <c r="F62" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="H62" s="103"/>
+      <c r="H62" s="104"/>
     </row>
     <row r="63" spans="5:8">
-      <c r="E63" s="103" t="s">
+      <c r="E63" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="F63" s="104" t="s">
+      <c r="F63" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="H63" s="103"/>
+      <c r="H63" s="104"/>
     </row>
     <row r="65" spans="5:8">
-      <c r="E65" s="103" t="s">
+      <c r="E65" s="104" t="s">
         <v>225</v>
       </c>
-      <c r="F65" s="104" t="s">
+      <c r="F65" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="H65" s="103"/>
+      <c r="H65" s="104"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="103" t="s">
+      <c r="C66" s="107"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="F66" s="104" t="s">
+      <c r="F66" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="H66" s="103"/>
+      <c r="H66" s="104"/>
     </row>
     <row r="67" spans="5:8">
-      <c r="E67" s="103" t="s">
+      <c r="E67" s="104" t="s">
         <v>230</v>
       </c>
-      <c r="F67" s="104" t="s">
+      <c r="F67" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="H67" s="103"/>
+      <c r="H67" s="104"/>
     </row>
     <row r="68" spans="5:8">
-      <c r="E68" s="103" t="s">
+      <c r="E68" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="F68" s="104" t="s">
+      <c r="F68" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="H68" s="103"/>
+      <c r="H68" s="104"/>
     </row>
     <row r="69" spans="5:8">
-      <c r="E69" s="103" t="s">
+      <c r="E69" s="104" t="s">
         <v>234</v>
       </c>
-      <c r="F69" s="104" t="s">
+      <c r="F69" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="H69" s="103"/>
+      <c r="H69" s="104"/>
     </row>
     <row r="70" spans="5:8">
-      <c r="E70" s="103" t="s">
+      <c r="E70" s="104" t="s">
         <v>236</v>
       </c>
-      <c r="F70" s="104" t="s">
+      <c r="F70" s="105" t="s">
         <v>237</v>
       </c>
-      <c r="H70" s="103"/>
+      <c r="H70" s="104"/>
     </row>
     <row r="71" spans="5:8">
-      <c r="E71" s="103" t="s">
+      <c r="E71" s="104" t="s">
         <v>238</v>
       </c>
-      <c r="F71" s="104" t="s">
+      <c r="F71" s="105" t="s">
         <v>239</v>
       </c>
-      <c r="H71" s="103"/>
+      <c r="H71" s="104"/>
     </row>
     <row r="72" spans="5:8">
-      <c r="E72" s="103" t="s">
+      <c r="E72" s="104" t="s">
         <v>240</v>
       </c>
-      <c r="F72" s="104" t="s">
+      <c r="F72" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="H72" s="103"/>
+      <c r="H72" s="104"/>
     </row>
     <row r="73" spans="5:8">
-      <c r="E73" s="103" t="s">
+      <c r="E73" s="104" t="s">
         <v>242</v>
       </c>
-      <c r="F73" s="104" t="s">
+      <c r="F73" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="H73" s="103"/>
+      <c r="H73" s="104"/>
     </row>
     <row r="74" spans="5:8">
-      <c r="E74" s="103" t="s">
+      <c r="E74" s="104" t="s">
         <v>244</v>
       </c>
-      <c r="F74" s="104" t="s">
+      <c r="F74" s="105" t="s">
         <v>245</v>
       </c>
-      <c r="H74" s="103"/>
+      <c r="H74" s="104"/>
     </row>
     <row r="75" spans="5:8">
-      <c r="E75" s="103" t="s">
+      <c r="E75" s="104" t="s">
         <v>246</v>
       </c>
-      <c r="F75" s="104" t="s">
+      <c r="F75" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="H75" s="103"/>
+      <c r="H75" s="104"/>
     </row>
     <row r="76" spans="5:8">
-      <c r="E76" s="103" t="s">
+      <c r="E76" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="F76" s="104" t="s">
+      <c r="F76" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="H76" s="103"/>
+      <c r="H76" s="104"/>
     </row>
     <row r="77" spans="5:8">
-      <c r="E77" s="103" t="s">
+      <c r="E77" s="104" t="s">
         <v>250</v>
       </c>
-      <c r="F77" s="104" t="s">
+      <c r="F77" s="105" t="s">
         <v>251</v>
       </c>
-      <c r="H77" s="103"/>
+      <c r="H77" s="104"/>
     </row>
     <row r="78" spans="5:8">
-      <c r="E78" s="103" t="s">
+      <c r="E78" s="104" t="s">
         <v>252</v>
       </c>
-      <c r="F78" s="104" t="s">
+      <c r="F78" s="105" t="s">
         <v>253</v>
       </c>
-      <c r="H78" s="103"/>
+      <c r="H78" s="104"/>
     </row>
     <row r="79" spans="5:8">
-      <c r="E79" s="103" t="s">
+      <c r="E79" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="F79" s="104" t="s">
+      <c r="F79" s="105" t="s">
         <v>255</v>
       </c>
-      <c r="H79" s="103"/>
+      <c r="H79" s="104"/>
     </row>
     <row r="80" spans="5:8">
-      <c r="E80" s="103" t="s">
+      <c r="E80" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="F80" s="104" t="s">
+      <c r="F80" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="H80" s="103"/>
+      <c r="H80" s="104"/>
     </row>
     <row r="81" spans="5:8">
-      <c r="E81" s="103" t="s">
+      <c r="E81" s="104" t="s">
         <v>258</v>
       </c>
-      <c r="F81" s="104" t="s">
+      <c r="F81" s="105" t="s">
         <v>259</v>
       </c>
-      <c r="H81" s="103"/>
+      <c r="H81" s="104"/>
     </row>
     <row r="82" spans="5:8">
       <c r="E82" s="86"/>
@@ -13231,10 +14467,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I183"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13242,8 +14478,8 @@
     <col min="1" max="1" width="12.625" style="40" customWidth="1"/>
     <col min="2" max="3" width="9" style="40"/>
     <col min="4" max="4" width="73" style="87" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="87" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="87" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="87" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="87" customWidth="1"/>
     <col min="7" max="7" width="103.875" style="15" customWidth="1"/>
     <col min="8" max="8" width="68.875" style="15" customWidth="1"/>
     <col min="9" max="16384" width="9" style="15"/>
@@ -13868,7 +15104,7 @@
       <c r="C38" s="86" t="s">
         <v>369</v>
       </c>
-      <c r="D38" s="98" t="s">
+      <c r="D38" s="96" t="s">
         <v>370</v>
       </c>
       <c r="E38" s="87" t="s">
@@ -13886,7 +15122,7 @@
       <c r="A39" s="86"/>
       <c r="B39" s="86"/>
       <c r="C39" s="86"/>
-      <c r="D39" s="98" t="s">
+      <c r="D39" s="96" t="s">
         <v>373</v>
       </c>
       <c r="E39" s="87" t="s">
@@ -13904,7 +15140,7 @@
       <c r="A40" s="86"/>
       <c r="B40" s="86"/>
       <c r="C40" s="86"/>
-      <c r="D40" s="98" t="s">
+      <c r="D40" s="96" t="s">
         <v>376</v>
       </c>
       <c r="E40" s="87" t="s">
@@ -13924,7 +15160,7 @@
       <c r="C41" s="86" t="s">
         <v>379</v>
       </c>
-      <c r="D41" s="98" t="s">
+      <c r="D41" s="96" t="s">
         <v>380</v>
       </c>
       <c r="E41" s="87" t="s">
@@ -13942,7 +15178,7 @@
       <c r="A42" s="86"/>
       <c r="B42" s="86"/>
       <c r="C42" s="86"/>
-      <c r="D42" s="98" t="s">
+      <c r="D42" s="96" t="s">
         <v>383</v>
       </c>
       <c r="E42" s="87" t="s">
@@ -13960,7 +15196,7 @@
       <c r="A43" s="86"/>
       <c r="B43" s="86"/>
       <c r="C43" s="86"/>
-      <c r="D43" s="98" t="s">
+      <c r="D43" s="96" t="s">
         <v>386</v>
       </c>
       <c r="E43" s="87" t="s">
@@ -13978,7 +15214,7 @@
       <c r="A44" s="86"/>
       <c r="B44" s="86"/>
       <c r="C44" s="86"/>
-      <c r="D44" s="98" t="s">
+      <c r="D44" s="96" t="s">
         <v>389</v>
       </c>
       <c r="E44" s="87" t="s">
@@ -13996,7 +15232,7 @@
       <c r="A45" s="86"/>
       <c r="B45" s="86"/>
       <c r="C45" s="86"/>
-      <c r="D45" s="98" t="s">
+      <c r="D45" s="96" t="s">
         <v>392</v>
       </c>
       <c r="E45" s="87" t="s">
@@ -14016,7 +15252,7 @@
         <v>395</v>
       </c>
       <c r="C46" s="86"/>
-      <c r="D46" s="98" t="s">
+      <c r="D46" s="96" t="s">
         <v>396</v>
       </c>
       <c r="E46" s="87" t="s">
@@ -14123,7 +15359,7 @@
         <v>411</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="98" t="s">
+      <c r="D56" s="96" t="s">
         <v>412</v>
       </c>
       <c r="E56" s="87" t="s">
@@ -14141,7 +15377,7 @@
       <c r="A57" s="86"/>
       <c r="B57" s="86"/>
       <c r="C57" s="86"/>
-      <c r="D57" s="98" t="s">
+      <c r="D57" s="96" t="s">
         <v>416</v>
       </c>
       <c r="E57" s="87" t="s">
@@ -14177,7 +15413,7 @@
       <c r="A59" s="86"/>
       <c r="B59" s="86"/>
       <c r="C59" s="86"/>
-      <c r="D59" s="98" t="s">
+      <c r="D59" s="96" t="s">
         <v>422</v>
       </c>
       <c r="E59" s="87" t="s">
@@ -14195,7 +15431,7 @@
       <c r="A60" s="86"/>
       <c r="B60" s="86"/>
       <c r="C60" s="86"/>
-      <c r="D60" s="98" t="s">
+      <c r="D60" s="96" t="s">
         <v>425</v>
       </c>
       <c r="E60" s="87" t="s">
@@ -14215,13 +15451,13 @@
         <v>428</v>
       </c>
       <c r="C61" s="94"/>
-      <c r="D61" s="98" t="s">
+      <c r="D61" s="96" t="s">
         <v>429</v>
       </c>
       <c r="E61" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="F61" s="99" t="s">
+      <c r="F61" s="98" t="s">
         <v>430</v>
       </c>
       <c r="G61" s="92" t="s">
@@ -14233,13 +15469,13 @@
       <c r="A62" s="86"/>
       <c r="B62" s="94"/>
       <c r="C62" s="94"/>
-      <c r="D62" s="98" t="s">
+      <c r="D62" s="96" t="s">
         <v>432</v>
       </c>
       <c r="E62" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="F62" s="99" t="s">
+      <c r="F62" s="98" t="s">
         <v>433</v>
       </c>
       <c r="G62" s="92" t="s">
@@ -14251,13 +15487,13 @@
       <c r="A63" s="86"/>
       <c r="B63" s="94"/>
       <c r="C63" s="94"/>
-      <c r="D63" s="98" t="s">
+      <c r="D63" s="96" t="s">
         <v>435</v>
       </c>
       <c r="E63" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="F63" s="99" t="s">
+      <c r="F63" s="98" t="s">
         <v>436</v>
       </c>
       <c r="G63" s="92" t="s">
@@ -14267,11 +15503,11 @@
     </row>
     <row r="64" ht="17.25" spans="1:8">
       <c r="A64" s="86"/>
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="94" t="s">
         <v>438</v>
       </c>
       <c r="C64" s="86"/>
-      <c r="D64" s="98" t="s">
+      <c r="D64" s="96" t="s">
         <v>439</v>
       </c>
       <c r="E64" s="87" t="s">
@@ -14289,8 +15525,17 @@
       <c r="A65" s="86"/>
       <c r="B65" s="86"/>
       <c r="C65" s="86"/>
+      <c r="D65" s="99" t="s">
+        <v>442</v>
+      </c>
+      <c r="E65" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="F65" s="87" t="s">
+        <v>443</v>
+      </c>
       <c r="G65" s="92" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H65" s="93"/>
     </row>
@@ -14298,8 +15543,17 @@
       <c r="A66" s="86"/>
       <c r="B66" s="86"/>
       <c r="C66" s="86"/>
+      <c r="D66" s="99" t="s">
+        <v>445</v>
+      </c>
+      <c r="E66" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="F66" s="100" t="s">
+        <v>446</v>
+      </c>
       <c r="G66" s="92" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H66" s="93"/>
     </row>
@@ -14307,8 +15561,17 @@
       <c r="A67" s="86"/>
       <c r="B67" s="86"/>
       <c r="C67" s="86"/>
+      <c r="D67" s="99" t="s">
+        <v>448</v>
+      </c>
+      <c r="E67" s="87" t="s">
+        <v>449</v>
+      </c>
+      <c r="F67" s="87" t="s">
+        <v>450</v>
+      </c>
       <c r="G67" s="92" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="H67" s="93"/>
     </row>
@@ -14316,8 +15579,17 @@
       <c r="A68" s="86"/>
       <c r="B68" s="86"/>
       <c r="C68" s="86"/>
+      <c r="D68" s="99" t="s">
+        <v>452</v>
+      </c>
+      <c r="E68" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="F68" s="87" t="s">
+        <v>453</v>
+      </c>
       <c r="G68" s="92" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H68" s="93"/>
     </row>
@@ -14325,8 +15597,17 @@
       <c r="A69" s="86"/>
       <c r="B69" s="86"/>
       <c r="C69" s="86"/>
+      <c r="D69" s="99" t="s">
+        <v>454</v>
+      </c>
+      <c r="E69" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="F69" s="87" t="s">
+        <v>455</v>
+      </c>
       <c r="G69" s="92" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="H69" s="93"/>
     </row>
@@ -14335,18 +15616,18 @@
       <c r="B70" s="86"/>
       <c r="C70" s="86"/>
       <c r="G70" s="92" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H70" s="93"/>
     </row>
     <row r="71" ht="17.25" spans="1:8">
       <c r="A71" s="86"/>
       <c r="B71" s="86" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="C71" s="86"/>
       <c r="G71" s="92" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="H71" s="93"/>
     </row>
@@ -14355,18 +15636,18 @@
       <c r="B72" s="86"/>
       <c r="C72" s="86"/>
       <c r="G72" s="92" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H72" s="93"/>
     </row>
     <row r="73" ht="17.25" spans="1:8">
       <c r="A73" s="86"/>
       <c r="B73" s="86" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="C73" s="86"/>
       <c r="G73" s="92" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="H73" s="93"/>
     </row>
@@ -14375,29 +15656,29 @@
       <c r="B74" s="86"/>
       <c r="C74" s="86"/>
       <c r="G74" s="92" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="H74" s="93"/>
     </row>
     <row r="75" ht="17.25" spans="1:8">
       <c r="A75" s="86"/>
       <c r="B75" s="86" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="C75" s="86"/>
       <c r="G75" s="92" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="H75" s="93"/>
     </row>
     <row r="76" ht="17.25" spans="1:8">
       <c r="A76" s="86" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B76" s="86"/>
       <c r="C76" s="86"/>
       <c r="G76" s="92" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="H76" s="93"/>
     </row>
@@ -14406,7 +15687,7 @@
       <c r="B77" s="86"/>
       <c r="C77" s="86"/>
       <c r="G77" s="92" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="H77" s="93"/>
     </row>
@@ -14415,7 +15696,7 @@
       <c r="B78" s="86"/>
       <c r="C78" s="86"/>
       <c r="G78" s="92" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="H78" s="93"/>
     </row>
@@ -14424,7 +15705,7 @@
       <c r="B79" s="86"/>
       <c r="C79" s="86"/>
       <c r="G79" s="92" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="H79" s="93"/>
     </row>
@@ -14433,7 +15714,7 @@
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
       <c r="G80" s="92" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="H80" s="93"/>
     </row>
@@ -14442,7 +15723,7 @@
       <c r="B81" s="86"/>
       <c r="C81" s="86"/>
       <c r="G81" s="92" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="H81" s="93"/>
     </row>
@@ -14451,7 +15732,7 @@
       <c r="B82" s="86"/>
       <c r="C82" s="86"/>
       <c r="G82" s="92" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="H82" s="93"/>
     </row>
@@ -14460,7 +15741,7 @@
       <c r="B83" s="86"/>
       <c r="C83" s="86"/>
       <c r="G83" s="92" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H83" s="93"/>
     </row>
@@ -14469,7 +15750,7 @@
       <c r="B84" s="86"/>
       <c r="C84" s="86"/>
       <c r="G84" s="92" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="H84" s="93"/>
     </row>
@@ -14478,18 +15759,18 @@
       <c r="B85" s="86"/>
       <c r="C85" s="86"/>
       <c r="G85" s="92" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="H85" s="93"/>
     </row>
     <row r="86" ht="17.25" spans="1:8">
-      <c r="A86" s="86" t="s">
-        <v>467</v>
+      <c r="A86" s="94" t="s">
+        <v>476</v>
       </c>
       <c r="B86" s="86"/>
       <c r="C86" s="86"/>
       <c r="G86" s="92" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="H86" s="93"/>
     </row>
@@ -14498,7 +15779,7 @@
       <c r="B87" s="86"/>
       <c r="C87" s="86"/>
       <c r="G87" s="92" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="H87" s="93"/>
     </row>
@@ -14507,7 +15788,7 @@
       <c r="B88" s="86"/>
       <c r="C88" s="86"/>
       <c r="G88" s="92" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="H88" s="93"/>
     </row>
@@ -14516,7 +15797,7 @@
       <c r="B89" s="86"/>
       <c r="C89" s="86"/>
       <c r="G89" s="92" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="H89" s="93"/>
     </row>
@@ -14525,18 +15806,18 @@
       <c r="B90" s="86"/>
       <c r="C90" s="86"/>
       <c r="G90" s="92" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="H90" s="93"/>
     </row>
     <row r="91" ht="17.25" spans="1:8">
       <c r="A91" s="86" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B91" s="86"/>
       <c r="C91" s="86"/>
       <c r="G91" s="92" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="H91" s="93"/>
     </row>
@@ -14545,7 +15826,7 @@
       <c r="B92" s="86"/>
       <c r="C92" s="86"/>
       <c r="G92" s="92" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H92" s="93"/>
     </row>
@@ -14554,7 +15835,7 @@
       <c r="B93" s="86"/>
       <c r="C93" s="86"/>
       <c r="G93" s="92" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="H93" s="93"/>
     </row>
@@ -14563,7 +15844,7 @@
       <c r="B94" s="86"/>
       <c r="C94" s="86"/>
       <c r="G94" s="92" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="H94" s="93"/>
     </row>
@@ -14572,7 +15853,7 @@
       <c r="B95" s="86"/>
       <c r="C95" s="86"/>
       <c r="G95" s="92" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H95" s="93"/>
     </row>
@@ -14581,91 +15862,87 @@
       <c r="B96" s="86"/>
       <c r="C96" s="86"/>
       <c r="G96" s="92" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="H96" s="93"/>
     </row>
-    <row r="99" ht="33" spans="1:8">
-      <c r="A99" s="60" t="s">
-        <v>480</v>
-      </c>
-      <c r="C99" s="86"/>
-      <c r="G99" s="92" t="s">
-        <v>481</v>
-      </c>
-      <c r="H99" s="93"/>
+    <row r="97" ht="17.25" spans="3:7">
+      <c r="C97" s="86"/>
+      <c r="G97" s="92" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="158" spans="7:7">
+      <c r="G158" s="101"/>
     </row>
     <row r="159" spans="7:7">
-      <c r="G159" s="100"/>
+      <c r="G159" s="101"/>
     </row>
     <row r="160" spans="7:7">
-      <c r="G160" s="100"/>
+      <c r="G160" s="101"/>
     </row>
     <row r="161" spans="7:7">
-      <c r="G161" s="100"/>
-    </row>
-    <row r="162" spans="7:7">
-      <c r="G162" s="100"/>
+      <c r="G161" s="101"/>
+    </row>
+    <row r="163" spans="7:7">
+      <c r="G163" s="101"/>
     </row>
     <row r="164" spans="7:7">
-      <c r="G164" s="100"/>
+      <c r="G164" s="101"/>
     </row>
     <row r="165" spans="7:7">
-      <c r="G165" s="100"/>
+      <c r="G165" s="101"/>
     </row>
     <row r="166" spans="7:7">
-      <c r="G166" s="100"/>
+      <c r="G166" s="101"/>
     </row>
     <row r="167" spans="7:7">
-      <c r="G167" s="100"/>
+      <c r="G167" s="101"/>
     </row>
     <row r="168" spans="7:7">
-      <c r="G168" s="100"/>
+      <c r="G168" s="101"/>
     </row>
     <row r="169" spans="7:7">
-      <c r="G169" s="100"/>
+      <c r="G169" s="101"/>
     </row>
     <row r="170" spans="7:7">
-      <c r="G170" s="100"/>
+      <c r="G170" s="101"/>
     </row>
     <row r="171" spans="7:7">
-      <c r="G171" s="100"/>
+      <c r="G171" s="101"/>
     </row>
     <row r="172" spans="7:7">
-      <c r="G172" s="100"/>
+      <c r="G172" s="101"/>
     </row>
     <row r="173" spans="7:7">
-      <c r="G173" s="100"/>
+      <c r="G173" s="101"/>
     </row>
     <row r="174" spans="7:7">
-      <c r="G174" s="100"/>
+      <c r="G174" s="101"/>
     </row>
     <row r="175" spans="7:7">
-      <c r="G175" s="100"/>
+      <c r="G175" s="101"/>
     </row>
     <row r="176" spans="7:7">
-      <c r="G176" s="100"/>
+      <c r="G176" s="101"/>
     </row>
     <row r="177" spans="7:7">
-      <c r="G177" s="100"/>
+      <c r="G177" s="101"/>
     </row>
     <row r="178" spans="7:7">
-      <c r="G178" s="100"/>
+      <c r="G178" s="101"/>
     </row>
     <row r="179" spans="7:7">
-      <c r="G179" s="100"/>
+      <c r="G179" s="101"/>
     </row>
     <row r="180" spans="7:7">
-      <c r="G180" s="100"/>
+      <c r="G180" s="101"/>
     </row>
     <row r="181" spans="7:7">
-      <c r="G181" s="100"/>
+      <c r="G181" s="101"/>
     </row>
     <row r="182" spans="7:7">
-      <c r="G182" s="100"/>
-    </row>
-    <row r="183" spans="7:7">
-      <c r="G183" s="100"/>
+      <c r="G182" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -14731,23 +16008,23 @@
   <sheetData>
     <row r="2" ht="20.25" spans="2:5">
       <c r="B2" s="73" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C2" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="E2" s="75"/>
     </row>
     <row r="3" ht="20.25" spans="2:5">
       <c r="B3" s="76" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="78" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="E3" s="78"/>
     </row>
@@ -14759,12 +16036,12 @@
     </row>
     <row r="5" ht="40.5" spans="2:5">
       <c r="B5" s="82" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C5" s="82"/>
       <c r="D5" s="82"/>
       <c r="E5" s="83" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -14802,879 +16079,879 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="65" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="67" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="67" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="67" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="67" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="66" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="66" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="66" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="66" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="66" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="66" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="11" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="67" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="67" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="67" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="67" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="66" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="66" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="66" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="66" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="66" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="66" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="66" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="66" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="66" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="66" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C36" s="67" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="66" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="66" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11"/>
       <c r="B41" s="11" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="66" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11"/>
       <c r="B43" s="11" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="67" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11"/>
       <c r="B45" s="11" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11"/>
       <c r="B46" s="11" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11"/>
       <c r="B47" s="11" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="66" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11"/>
       <c r="B49" s="11" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="68" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="66" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C53" s="67" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="67" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="66" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="68" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="67" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="67" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="11"/>
       <c r="B59" s="11" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="66" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11"/>
       <c r="B61" s="11" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="C61" s="67" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="67" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="68" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="67" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="11"/>
       <c r="B65" s="11" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="66" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="11" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="67" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="67" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="67" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="11" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="69" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="70" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="69" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="69" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="69" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="69" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="69" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="69" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="69" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="69" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="69" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="69" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="69" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="69" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="69" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="69" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="69" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="11" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="69" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="69" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="11" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="69" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="69" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="69" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="69" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="69" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="69" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="69" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="69" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="11" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="69" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="69" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="11" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="69" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="69" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="69" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="69" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="69" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="69" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="69" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="69" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="69" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="69" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="69" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="69" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="69" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="69" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="69" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="114" ht="33" spans="1:3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="69" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="69" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -15853,7 +17130,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="54" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -15861,398 +17138,398 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="57" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="57" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="57" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="57" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="57" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="57" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="57" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="57" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="57" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="57" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="57" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="59" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="59" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
     </row>
     <row r="18" ht="33" spans="1:2">
       <c r="A18" s="59" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="59" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="59" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21" ht="33" spans="1:2">
       <c r="A21" s="59" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" ht="33" spans="1:2">
       <c r="A22" s="59" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="59" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="59" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" ht="33" spans="1:2">
       <c r="A25" s="59" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" ht="33" spans="1:2">
       <c r="A26" s="51" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" ht="33" spans="1:2">
       <c r="A27" s="59" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="59" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="59" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
     </row>
     <row r="31" ht="33" spans="1:2">
       <c r="A31" s="59" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
     <row r="32" ht="33" spans="1:2">
       <c r="A32" s="59" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="59" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
     </row>
     <row r="34" ht="33" spans="1:2">
       <c r="A34" s="59" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="59" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="59" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="59" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="59" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="59" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="59" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
     </row>
     <row r="43" ht="33" spans="1:2">
       <c r="A43" s="59" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="59" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="59" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="59" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="59" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="59" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="54" ht="33" spans="1:2">
       <c r="A54" s="59" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
     </row>
     <row r="56" ht="33" spans="1:2">
       <c r="A56" s="59" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="59" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -16266,7 +17543,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="62" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -16274,7 +17551,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="63" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="B68" s="64" t="s">
         <v>59</v>
@@ -16282,82 +17559,82 @@
     </row>
     <row r="69" ht="33" spans="1:2">
       <c r="A69" s="51" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
     </row>
     <row r="70" ht="33" spans="1:2">
       <c r="A70" s="51" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="B70" s="60" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="71" ht="33" spans="1:2">
       <c r="A71" s="51" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="B71" s="60" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
     </row>
     <row r="72" ht="33" spans="1:2">
       <c r="A72" s="51" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="B72" s="60" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="73" ht="33" spans="1:2">
       <c r="A73" s="51" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="B73" s="60" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="74" ht="33" spans="1:2">
       <c r="A74" s="51" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="B74" s="60" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
     </row>
     <row r="75" ht="33" spans="1:2">
       <c r="A75" s="51" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="B75" s="60" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
     </row>
     <row r="76" ht="33" spans="1:2">
       <c r="A76" s="51" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="B76" s="60" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
     </row>
     <row r="77" ht="33" spans="1:2">
       <c r="A77" s="51" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="B77" s="60" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="78" ht="33" spans="1:2">
       <c r="A78" s="51" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="B78" s="60" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -16423,196 +17700,196 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="41" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="45" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="46" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>302</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="43" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="47" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4"/>
       <c r="B8" s="46" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="45" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4"/>
       <c r="B9" s="46" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4"/>
       <c r="B10" s="46" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="47" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="47" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="43" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4"/>
       <c r="B14" s="46" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="47" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="46" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="47" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="46" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="50" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="49"/>
       <c r="D17" s="45" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -16620,17 +17897,17 @@
       <c r="B18" s="51"/>
       <c r="C18" s="52"/>
       <c r="D18" s="45" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:4">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="44" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -16638,7 +17915,7 @@
       <c r="B20" s="51"/>
       <c r="C20" s="44"/>
       <c r="D20" s="47" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
     </row>
     <row r="21" s="39" customFormat="1" spans="1:1">
@@ -16730,7 +18007,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -16741,246 +18018,246 @@
     </row>
     <row r="2" ht="33" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="21" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" ht="33" spans="1:7">
       <c r="A3" s="17"/>
       <c r="B3" s="19" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="21"/>
       <c r="F3" s="18" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="21"/>
       <c r="F4" s="18" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" ht="33" spans="1:7">
       <c r="A5" s="17"/>
       <c r="B5" s="18" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
       <c r="F5" s="18" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="21"/>
       <c r="F6" s="18" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" ht="33" spans="1:7">
       <c r="A7" s="17"/>
       <c r="B7" s="18" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
       <c r="F7" s="23" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
     </row>
     <row r="8" ht="33" spans="1:7">
       <c r="A8" s="17"/>
       <c r="B8" s="23" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="21"/>
       <c r="F8" s="23" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17"/>
       <c r="B9" s="23" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21"/>
       <c r="F9" s="23" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="17"/>
       <c r="B10" s="23" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="21"/>
       <c r="F10" s="23" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
       <c r="F11" s="23" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
       <c r="F12" s="23" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
     </row>
     <row r="13" ht="33" spans="1:7">
       <c r="A13" s="17"/>
       <c r="B13" s="18" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
       <c r="F13" s="19" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="17"/>
       <c r="B14" s="23" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
       <c r="F14" s="19" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
       <c r="F15" s="18" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -16990,366 +18267,366 @@
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
       <c r="F16" s="18" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="17"/>
       <c r="B17" s="18" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21"/>
       <c r="F17" s="24" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17"/>
       <c r="B18" s="23" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="17" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17"/>
       <c r="B19" s="23" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="17"/>
       <c r="F19" s="23" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="17"/>
       <c r="F20" s="23" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="17"/>
       <c r="F21" s="23" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="17" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17"/>
       <c r="B23" s="18" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
     </row>
     <row r="24" ht="33" spans="1:7">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="17"/>
       <c r="F24" s="19" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17"/>
       <c r="B25" s="18" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="25" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="26"/>
       <c r="B27" s="24" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="17"/>
       <c r="F27" s="18" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="26"/>
       <c r="B28" s="23" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="17" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="26"/>
       <c r="B29" s="19" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="17"/>
       <c r="F29" s="23" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="26"/>
       <c r="B30" s="23" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="17"/>
       <c r="F30" s="23" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="26" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="17"/>
       <c r="F31" s="23" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="26"/>
       <c r="B32" s="23" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="17"/>
       <c r="F32" s="23" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="26"/>
       <c r="B33" s="24" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="17"/>
       <c r="F33" s="23" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="26"/>
       <c r="B34" s="18" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="26"/>
       <c r="B35" s="18" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="26"/>
       <c r="B36" s="23" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="D36" s="22"/>
       <c r="F36" s="27" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="26"/>
       <c r="B37" s="23" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="26"/>
       <c r="B38" s="23" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="D38" s="22"/>
     </row>
@@ -17416,7 +18693,7 @@
       <c r="C69" s="36"/>
       <c r="D69" s="35"/>
       <c r="E69" s="37" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -17664,32 +18941,32 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -17698,678 +18975,678 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
       <c r="B10" s="9" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="10" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4"/>
       <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="11"/>
       <c r="C19" s="5" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="11"/>
       <c r="B29" s="4"/>
       <c r="C29" s="8" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="11"/>
       <c r="B30" s="4"/>
       <c r="C30" s="8" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11"/>
       <c r="B31" s="4" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11"/>
       <c r="B32" s="4"/>
       <c r="C32" s="8" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="4"/>
       <c r="C33" s="8" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11"/>
       <c r="B34" s="4"/>
       <c r="C34" s="8" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="4"/>
       <c r="C35" s="8" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="4"/>
       <c r="C36" s="8" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11"/>
       <c r="B37" s="4"/>
       <c r="C37" s="8" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="11"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11"/>
       <c r="B45" s="4" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11"/>
       <c r="B46" s="4" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11"/>
       <c r="B47" s="4"/>
       <c r="C47" s="8" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11"/>
       <c r="B48" s="4"/>
       <c r="C48" s="8" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11"/>
       <c r="B49" s="4" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11"/>
       <c r="B54" s="4" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11"/>
       <c r="B55" s="4"/>
       <c r="C55" s="8" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="8" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="8" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="8" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="8" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="8" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="8" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="8" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="8" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="8" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="8" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="8" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="8" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="8" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="12" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="13" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="13" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="13" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="84" spans="5:5">
       <c r="E84" s="14" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="12" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="13" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="13" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="13" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="13" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="13" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="13" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="13" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="13" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="13" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="96" spans="5:5">
       <c r="E96" s="14" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="12" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="13" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="13" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="13" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="13" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="13" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="13" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" s="14" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="12" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="13" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="13" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="13" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="13" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" s="14" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>

--- a/1_php/原生php/PHP函数分目参考.xlsx
+++ b/1_php/原生php/PHP函数分目参考.xlsx
@@ -27,7 +27,29 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D19" authorId="0">
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,29 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D27" authorId="0">
+    <comment ref="D25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -467,6 +467,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="D71" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -496,7 +518,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="1089">
   <si>
     <t>双精度判断</t>
   </si>
@@ -715,6 +737,15 @@
     </r>
   </si>
   <si>
+    <t>get_magic_quotes_gpc() </t>
+  </si>
+  <si>
+    <t>php.ini开启数据转义</t>
+  </si>
+  <si>
+    <t> magic_quotes_sybase</t>
+  </si>
+  <si>
     <t>函数绿色。变量蓝色。结果棕色。&amp;红色</t>
   </si>
   <si>
@@ -1332,6 +1363,349 @@
     <t>单字符串</t>
   </si>
   <si>
+    <t>转换</t>
+  </si>
+  <si>
+    <t>str_getcsv — 解析 CSV 字符串为一个数组</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>parse_str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$encoded_string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;$result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>] ) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>void</t>
+    </r>
+  </si>
+  <si>
+    <t>[4,5,7]</t>
+  </si>
+  <si>
+    <t>parse_str()</t>
+  </si>
+  <si>
+    <t>变量</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>str_split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$split_length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>] ) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <t>[5,7]</t>
+  </si>
+  <si>
+    <t>str_split()</t>
+  </si>
+  <si>
+    <t>数组</t>
+  </si>
+  <si>
     <t>分割</t>
   </si>
   <si>
@@ -1430,9 +1804,6 @@
     </r>
   </si>
   <si>
-    <t>[4,5,7]</t>
-  </si>
-  <si>
     <t>print()</t>
   </si>
   <si>
@@ -2526,9 +2897,6 @@
     </r>
   </si>
   <si>
-    <t>[5,7]</t>
-  </si>
-  <si>
     <t>将格式化后的字符串写入到流（覆盖性的写入）</t>
   </si>
   <si>
@@ -4013,343 +4381,6 @@
   </si>
   <si>
     <t>将数字结合地区格式化对应地区的货币字符串</t>
-  </si>
-  <si>
-    <t>转换</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF336699"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>parse_str</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF669933"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF336699"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>$encoded_string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF669933"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF336699"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&amp;$result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>] ) :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF669933"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>void</t>
-    </r>
-  </si>
-  <si>
-    <t>parse_str()</t>
-  </si>
-  <si>
-    <t>parse_str — 将字符串解析成多个变量</t>
-  </si>
-  <si>
-    <t>str_getcsv — 解析 CSV 字符串为一个数组</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF336699"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>str_split</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF669933"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF336699"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>$string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF669933"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF336699"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>$split_length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF993366"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> = 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>] ) :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF669933"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>array</t>
-    </r>
-  </si>
-  <si>
-    <t>str_split()</t>
-  </si>
-  <si>
-    <t>str_split — 将字符串转换为数组</t>
   </si>
   <si>
     <t>子串</t>
@@ -8135,6 +8166,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>strip_tags</t>
     </r>
     <r>
@@ -8290,6 +8327,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>htmlspecialchars</t>
     </r>
     <r>
@@ -8589,6 +8632,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>htmlspecialchars_decode</t>
     </r>
     <r>
@@ -8756,6 +8805,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>htmlentities</t>
     </r>
     <r>
@@ -9034,6 +9089,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>html_entity_decode</t>
     </r>
     <r>
@@ -9260,28 +9321,566 @@
     <t>get_html_translation_table — 返回使用 htmlspecialchars 和 htmlentities 后的转换表</t>
   </si>
   <si>
-    <t>反斜线</t>
-  </si>
-  <si>
-    <t>addcslashes — 以 C 语言风格使用反斜线转义字符串中的字符</t>
-  </si>
-  <si>
-    <t>addslashes — 使用反斜线引用字符串</t>
-  </si>
-  <si>
-    <t>反引用</t>
-  </si>
-  <si>
-    <t>stripcslashes — 反引用一个使用 addcslashes 转义的字符串</t>
-  </si>
-  <si>
-    <t>stripslashes — 反引用一个引用字符串</t>
-  </si>
-  <si>
     <t>转义</t>
   </si>
   <si>
-    <t>quotemeta — 转义元字符集（特殊字符前加 反斜线(\) 转义后的字符串）</t>
+    <r>
+      <t>quotemeta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <t>quotemeta()</t>
+  </si>
+  <si>
+    <t>转义。仅包括【. \ + * ? [ ^ ] ( $ )】</t>
+  </si>
+  <si>
+    <r>
+      <t>addslashes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <t>addslashes()</t>
+  </si>
+  <si>
+    <t>转义。仅包括【单引号'、双引号"、反斜线\与 NUL（NULL 字符）】</t>
+  </si>
+  <si>
+    <r>
+      <t>stripslashes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <t>stripslashes()</t>
+  </si>
+  <si>
+    <t>反转义</t>
+  </si>
+  <si>
+    <r>
+      <t>addcslashes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$charlist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <t>addcslashes()</t>
+  </si>
+  <si>
+    <t>转义。以c语言风格转义</t>
+  </si>
+  <si>
+    <r>
+      <t>stripcslashes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <t>stripcslashes()</t>
+  </si>
+  <si>
+    <t>反转义（以c语言风格转义。）</t>
   </si>
   <si>
     <t>字符串字体编码</t>
@@ -11136,12 +11735,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11231,15 +11830,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF336699"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF336699"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF336699"/>
-      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
@@ -11278,40 +11877,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFAE508D"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11413,6 +11995,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -11426,18 +12031,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF737373"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF669933"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -11455,6 +12048,18 @@
       <sz val="12"/>
       <color rgb="FF993366"/>
       <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF737373"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF669933"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -11527,30 +12132,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAF0F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11665,6 +12246,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11929,30 +12534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -11964,6 +12545,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12018,6 +12608,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -12029,153 +12634,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12442,21 +13047,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -12555,6 +13160,7 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -12937,10 +13543,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M34"/>
+  <dimension ref="A2:M40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -12978,7 +13584,7 @@
       <c r="J2" s="113"/>
       <c r="K2" s="113"/>
       <c r="L2" s="113"/>
-      <c r="M2" s="136"/>
+      <c r="M2" s="137"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="111" t="s">
@@ -12997,7 +13603,7 @@
       <c r="J3" s="115"/>
       <c r="K3" s="115"/>
       <c r="L3" s="115"/>
-      <c r="M3" s="137"/>
+      <c r="M3" s="138"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="111" t="s">
@@ -13014,7 +13620,7 @@
       <c r="J4" s="115"/>
       <c r="K4" s="115"/>
       <c r="L4" s="115"/>
-      <c r="M4" s="137"/>
+      <c r="M4" s="138"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="111" t="s">
@@ -13031,7 +13637,7 @@
       <c r="J5" s="115"/>
       <c r="K5" s="115"/>
       <c r="L5" s="115"/>
-      <c r="M5" s="137"/>
+      <c r="M5" s="138"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="111" t="s">
@@ -13050,7 +13656,7 @@
       <c r="J6" s="115"/>
       <c r="K6" s="115"/>
       <c r="L6" s="115"/>
-      <c r="M6" s="137"/>
+      <c r="M6" s="138"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="111" t="s">
@@ -13067,7 +13673,7 @@
       <c r="J7" s="115"/>
       <c r="K7" s="115"/>
       <c r="L7" s="115"/>
-      <c r="M7" s="137"/>
+      <c r="M7" s="138"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="111" t="s">
@@ -13084,7 +13690,7 @@
       <c r="J8" s="115"/>
       <c r="K8" s="115"/>
       <c r="L8" s="115"/>
-      <c r="M8" s="137"/>
+      <c r="M8" s="138"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="111" t="s">
@@ -13101,7 +13707,7 @@
       <c r="J9" s="115"/>
       <c r="K9" s="115"/>
       <c r="L9" s="115"/>
-      <c r="M9" s="137"/>
+      <c r="M9" s="138"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="111" t="s">
@@ -13120,7 +13726,7 @@
       <c r="J10" s="115"/>
       <c r="K10" s="115"/>
       <c r="L10" s="115"/>
-      <c r="M10" s="137"/>
+      <c r="M10" s="138"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="111" t="s">
@@ -13137,7 +13743,7 @@
       <c r="J11" s="117"/>
       <c r="K11" s="117"/>
       <c r="L11" s="117"/>
-      <c r="M11" s="138"/>
+      <c r="M11" s="139"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="118"/>
@@ -13167,7 +13773,7 @@
       <c r="J13" s="123"/>
       <c r="K13" s="123"/>
       <c r="L13" s="123"/>
-      <c r="M13" s="139"/>
+      <c r="M13" s="140"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="111" t="s">
@@ -13184,7 +13790,7 @@
       <c r="J14" s="125"/>
       <c r="K14" s="125"/>
       <c r="L14" s="125"/>
-      <c r="M14" s="140"/>
+      <c r="M14" s="141"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="111" t="s">
@@ -13201,7 +13807,7 @@
       <c r="J15" s="125"/>
       <c r="K15" s="125"/>
       <c r="L15" s="125"/>
-      <c r="M15" s="140"/>
+      <c r="M15" s="141"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="111" t="s">
@@ -13218,7 +13824,7 @@
       <c r="J16" s="125"/>
       <c r="K16" s="125"/>
       <c r="L16" s="125"/>
-      <c r="M16" s="140"/>
+      <c r="M16" s="141"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="111" t="s">
@@ -13235,7 +13841,7 @@
       <c r="J17" s="125"/>
       <c r="K17" s="125"/>
       <c r="L17" s="125"/>
-      <c r="M17" s="140"/>
+      <c r="M17" s="141"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="111" t="s">
@@ -13252,7 +13858,7 @@
       <c r="J18" s="125"/>
       <c r="K18" s="125"/>
       <c r="L18" s="125"/>
-      <c r="M18" s="140"/>
+      <c r="M18" s="141"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="126" t="s">
@@ -13271,7 +13877,7 @@
       <c r="J19" s="128"/>
       <c r="K19" s="128"/>
       <c r="L19" s="128"/>
-      <c r="M19" s="141"/>
+      <c r="M19" s="142"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="118"/>
@@ -13291,7 +13897,7 @@
       <c r="J21" s="130"/>
       <c r="K21" s="130"/>
       <c r="L21" s="130"/>
-      <c r="M21" s="142"/>
+      <c r="M21" s="143"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="111" t="s">
@@ -13308,7 +13914,7 @@
       <c r="J22" s="132"/>
       <c r="K22" s="132"/>
       <c r="L22" s="132"/>
-      <c r="M22" s="143"/>
+      <c r="M22" s="144"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="111" t="s">
@@ -13325,7 +13931,7 @@
       <c r="J23" s="132"/>
       <c r="K23" s="132"/>
       <c r="L23" s="132"/>
-      <c r="M23" s="143"/>
+      <c r="M23" s="144"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="111" t="s">
@@ -13342,7 +13948,7 @@
       <c r="J24" s="132"/>
       <c r="K24" s="132"/>
       <c r="L24" s="132"/>
-      <c r="M24" s="143"/>
+      <c r="M24" s="144"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="111" t="s">
@@ -13359,7 +13965,7 @@
       <c r="J25" s="132"/>
       <c r="K25" s="132"/>
       <c r="L25" s="132"/>
-      <c r="M25" s="143"/>
+      <c r="M25" s="144"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="111" t="s">
@@ -13376,7 +13982,7 @@
       <c r="J26" s="132"/>
       <c r="K26" s="132"/>
       <c r="L26" s="132"/>
-      <c r="M26" s="143"/>
+      <c r="M26" s="144"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="111" t="s">
@@ -13393,7 +13999,7 @@
       <c r="J27" s="132"/>
       <c r="K27" s="132"/>
       <c r="L27" s="132"/>
-      <c r="M27" s="143"/>
+      <c r="M27" s="144"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="111" t="s">
@@ -13410,7 +14016,7 @@
       <c r="J28" s="134"/>
       <c r="K28" s="134"/>
       <c r="L28" s="134"/>
-      <c r="M28" s="144"/>
+      <c r="M28" s="145"/>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="92" t="s">
@@ -13418,8 +14024,21 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="135" t="s">
+      <c r="B34" s="99" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="136" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -13430,6 +14049,10 @@
     <mergeCell ref="F13:M19"/>
     <mergeCell ref="F21:M28"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B39" r:id="rId1" display="get_magic_quotes_gpc() " tooltip="https://www.php.net/manual/zh/function.get-magic-quotes-gpc.php"/>
+    <hyperlink ref="B40" r:id="rId2" display=" magic_quotes_sybase"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -13461,160 +14084,160 @@
   <sheetData>
     <row r="1" ht="18" spans="3:8">
       <c r="C1" s="102" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H1" s="90"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="86" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="103" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D2" s="103"/>
       <c r="E2" s="104" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F2" s="105" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H2" s="104"/>
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="106" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D3" s="103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E3" s="104" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F3" s="105" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G3" s="91" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H3" s="104"/>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="107" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E4" s="104" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F4" s="105" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H4" s="104" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="107" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D5" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="105" t="s">
         <v>77</v>
-      </c>
-      <c r="E5" s="104" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="105" t="s">
-        <v>74</v>
       </c>
       <c r="H5" s="104"/>
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="107" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E6" s="104" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H6" s="104"/>
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="107" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D7" s="103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E7" s="104" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F7" s="105" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H7" s="104"/>
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="107" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D8" s="103" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E8" s="109" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F8" s="105" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H8" s="104"/>
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="103" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D9" s="103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E9" s="104" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H9" s="104"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="86" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B10" s="86" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C10" s="103" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D10" s="103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E10" s="104"/>
       <c r="F10" s="105"/>
@@ -13623,740 +14246,740 @@
     <row r="11" spans="2:8">
       <c r="B11" s="93"/>
       <c r="C11" s="103" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E11" s="109" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F11" s="105" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H11" s="109"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="93"/>
       <c r="C12" s="102" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D12" s="103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F12" s="105" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H12" s="109"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="93"/>
       <c r="C13" s="102" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D13" s="103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F13" s="105" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H13" s="104"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="93"/>
       <c r="C14" s="102" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D14" s="103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F14" s="105" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H14" s="104"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="93"/>
       <c r="C15" s="102" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D15" s="103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E15" s="104" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F15" s="105" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H15" s="104"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="93"/>
       <c r="C16" s="102" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D16" s="103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E16" s="104" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F16" s="105" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H16" s="104"/>
     </row>
     <row r="17" ht="34.5" spans="2:8">
       <c r="B17" s="93"/>
       <c r="C17" s="102" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E17" s="104" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F17" s="105" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H17" s="104" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="93"/>
       <c r="C18" s="102" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D18" s="103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E18" s="104" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F18" s="105" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H18" s="104"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="93"/>
       <c r="C19" s="102" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E19" s="104" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F19" s="105" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H19" s="104"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="93"/>
       <c r="C20" s="102" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E20" s="104" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F20" s="105" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H20" s="104" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="93"/>
       <c r="C21" s="102" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E21" s="104" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F21" s="105" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H21" s="104"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="94" t="s">
-        <v>131</v>
+      <c r="B22" s="95" t="s">
+        <v>134</v>
       </c>
       <c r="C22" s="107" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D22" s="107"/>
       <c r="E22" s="104" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F22" s="105" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H22" s="104"/>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="102" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F23" s="105" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H23" s="104"/>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="102" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E24" s="104" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F24" s="105" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H24" s="104"/>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="104" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H25" s="104"/>
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="104" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F26" s="105" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H26" s="104"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="86" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E27" s="104" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F27" s="105" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H27" s="104"/>
     </row>
     <row r="28" spans="5:8">
       <c r="E28" s="104" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H28" s="104"/>
     </row>
     <row r="29" spans="5:8">
       <c r="E29" s="104" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F29" s="105" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H29" s="104"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="86" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E30" s="104" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F30" s="105" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H30" s="104"/>
     </row>
     <row r="31" spans="5:8">
       <c r="E31" s="104" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F31" s="105" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H31" s="104"/>
     </row>
     <row r="32" spans="5:8">
       <c r="E32" s="104" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F32" s="105" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H32" s="104"/>
     </row>
     <row r="33" spans="5:8">
       <c r="E33" s="104" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F33" s="105" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H33" s="104"/>
     </row>
     <row r="34" spans="5:8">
       <c r="E34" s="104" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F34" s="105" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H34" s="104"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="86" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E35" s="104" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F35" s="105" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H35" s="104"/>
     </row>
     <row r="36" spans="5:8">
       <c r="E36" s="104" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F36" s="105" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H36" s="104"/>
     </row>
     <row r="37" spans="5:8">
       <c r="E37" s="104" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F37" s="105" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H37" s="104"/>
     </row>
     <row r="38" spans="5:8">
       <c r="E38" s="104" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F38" s="105" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H38" s="104"/>
     </row>
     <row r="39" spans="5:8">
       <c r="E39" s="104" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F39" s="105" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H39" s="104"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="86" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E40" s="104" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F40" s="105" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H40" s="104"/>
     </row>
     <row r="41" spans="5:8">
       <c r="E41" s="104" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F41" s="105" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H41" s="104"/>
     </row>
     <row r="42" spans="5:8">
       <c r="E42" s="104" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F42" s="105" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H42" s="104"/>
     </row>
     <row r="43" spans="5:8">
       <c r="E43" s="104" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F43" s="105" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H43" s="104"/>
     </row>
     <row r="44" spans="5:8">
       <c r="E44" s="104" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F44" s="105" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H44" s="104"/>
     </row>
     <row r="45" spans="5:8">
       <c r="E45" s="104" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F45" s="105" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H45" s="104"/>
     </row>
     <row r="46" spans="5:8">
       <c r="E46" s="104" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F46" s="105" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H46" s="104"/>
     </row>
     <row r="47" spans="5:8">
       <c r="E47" s="104" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F47" s="105" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H47" s="104"/>
     </row>
     <row r="48" spans="5:8">
       <c r="E48" s="104" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F48" s="105" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H48" s="104"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="86" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E49" s="104" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F49" s="105" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H49" s="104"/>
     </row>
     <row r="50" spans="5:8">
       <c r="E50" s="104" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F50" s="105" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H50" s="104"/>
     </row>
     <row r="51" spans="5:8">
       <c r="E51" s="104" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F51" s="105" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H51" s="104"/>
     </row>
     <row r="52" spans="5:8">
       <c r="E52" s="104" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F52" s="105" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H52" s="104"/>
     </row>
     <row r="53" spans="5:8">
       <c r="E53" s="104" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F53" s="105" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H53" s="104"/>
     </row>
     <row r="54" spans="5:8">
       <c r="E54" s="104" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F54" s="105" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H54" s="104"/>
     </row>
     <row r="55" spans="5:8">
       <c r="E55" s="104" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F55" s="105" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H55" s="104"/>
     </row>
     <row r="56" spans="5:8">
       <c r="E56" s="104" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F56" s="105" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H56" s="104"/>
     </row>
     <row r="57" spans="5:8">
       <c r="E57" s="104" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F57" s="105" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H57" s="104"/>
     </row>
     <row r="58" spans="5:8">
       <c r="E58" s="104" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F58" s="105" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H58" s="104"/>
     </row>
     <row r="59" spans="5:8">
       <c r="E59" s="104" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F59" s="105" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H59" s="104"/>
     </row>
     <row r="60" spans="5:8">
       <c r="E60" s="104" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F60" s="105" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H60" s="104"/>
     </row>
     <row r="61" spans="5:8">
       <c r="E61" s="104" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F61" s="105" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H61" s="104"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="B62" s="94" t="s">
-        <v>220</v>
+      <c r="A62" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="95" t="s">
+        <v>223</v>
       </c>
       <c r="C62" s="107"/>
       <c r="D62" s="107"/>
       <c r="E62" s="104" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F62" s="105" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H62" s="104"/>
     </row>
     <row r="63" spans="5:8">
       <c r="E63" s="104" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F63" s="105" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H63" s="104"/>
     </row>
     <row r="65" spans="5:8">
       <c r="E65" s="104" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F65" s="105" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H65" s="104"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="94" t="s">
-        <v>227</v>
+      <c r="B66" s="95" t="s">
+        <v>230</v>
       </c>
       <c r="C66" s="107"/>
       <c r="D66" s="107"/>
       <c r="E66" s="104" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F66" s="105" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H66" s="104"/>
     </row>
     <row r="67" spans="5:8">
       <c r="E67" s="104" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F67" s="105" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H67" s="104"/>
     </row>
     <row r="68" spans="5:8">
       <c r="E68" s="104" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F68" s="105" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H68" s="104"/>
     </row>
     <row r="69" spans="5:8">
       <c r="E69" s="104" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F69" s="105" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H69" s="104"/>
     </row>
     <row r="70" spans="5:8">
       <c r="E70" s="104" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F70" s="105" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H70" s="104"/>
     </row>
     <row r="71" spans="5:8">
       <c r="E71" s="104" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F71" s="105" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H71" s="104"/>
     </row>
     <row r="72" spans="5:8">
       <c r="E72" s="104" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F72" s="105" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H72" s="104"/>
     </row>
     <row r="73" spans="5:8">
       <c r="E73" s="104" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F73" s="105" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H73" s="104"/>
     </row>
     <row r="74" spans="5:8">
       <c r="E74" s="104" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F74" s="105" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H74" s="104"/>
     </row>
     <row r="75" spans="5:8">
       <c r="E75" s="104" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F75" s="105" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H75" s="104"/>
     </row>
     <row r="76" spans="5:8">
       <c r="E76" s="104" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F76" s="105" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H76" s="104"/>
     </row>
     <row r="77" spans="5:8">
       <c r="E77" s="104" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F77" s="105" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H77" s="104"/>
     </row>
     <row r="78" spans="5:8">
       <c r="E78" s="104" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F78" s="105" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H78" s="104"/>
     </row>
     <row r="79" spans="5:8">
       <c r="E79" s="104" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F79" s="105" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H79" s="104"/>
     </row>
     <row r="80" spans="5:8">
       <c r="E80" s="104" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F80" s="105" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H80" s="104"/>
     </row>
     <row r="81" spans="5:8">
       <c r="E81" s="104" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F81" s="105" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H81" s="104"/>
     </row>
@@ -14469,8 +15092,8 @@
   <sheetPr/>
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -14487,28 +15110,28 @@
   <sheetData>
     <row r="1" s="86" customFormat="1" ht="18" spans="4:9">
       <c r="D1" s="88" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E1" s="88"/>
       <c r="F1" s="89" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G1" s="90" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H1" s="91"/>
       <c r="I1" s="90"/>
     </row>
     <row r="2" ht="17.25" spans="1:8">
       <c r="A2" s="86" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C2" s="86"/>
       <c r="G2" s="92" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H2" s="93"/>
     </row>
@@ -14516,8 +15139,17 @@
       <c r="A3" s="86"/>
       <c r="B3" s="86"/>
       <c r="C3" s="86"/>
+      <c r="D3" s="94" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="87" t="s">
+        <v>268</v>
+      </c>
       <c r="G3" s="92" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H3" s="93"/>
     </row>
@@ -14525,36 +15157,37 @@
       <c r="A4" s="86"/>
       <c r="B4" s="86"/>
       <c r="C4" s="86"/>
+      <c r="D4" s="94" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="87" t="s">
+        <v>272</v>
+      </c>
       <c r="G4" s="92" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="H4" s="93"/>
     </row>
     <row r="5" ht="17.25" spans="1:8">
       <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
+      <c r="B5" s="86" t="s">
+        <v>274</v>
+      </c>
       <c r="C5" s="86"/>
       <c r="G5" s="92" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="H5" s="93"/>
     </row>
     <row r="6" ht="17.25" spans="1:8">
       <c r="A6" s="86"/>
-      <c r="B6" s="94" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>268</v>
-      </c>
-      <c r="F6" s="87" t="s">
-        <v>269</v>
-      </c>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
       <c r="G6" s="92" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H6" s="93"/>
     </row>
@@ -14562,17 +15195,8 @@
       <c r="A7" s="86"/>
       <c r="B7" s="86"/>
       <c r="C7" s="86"/>
-      <c r="D7" s="95" t="s">
-        <v>271</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="F7" s="87" t="s">
-        <v>273</v>
-      </c>
       <c r="G7" s="92" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H7" s="93"/>
     </row>
@@ -14580,35 +15204,27 @@
       <c r="A8" s="86"/>
       <c r="B8" s="86"/>
       <c r="C8" s="86"/>
-      <c r="D8" s="95" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="F8" s="87" t="s">
-        <v>276</v>
-      </c>
       <c r="G8" s="92" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H8" s="93"/>
     </row>
     <row r="9" ht="17.25" spans="1:8">
       <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="96" t="s">
-        <v>278</v>
-      </c>
-      <c r="E9" s="87" t="s">
+      <c r="B9" s="95" t="s">
         <v>279</v>
       </c>
+      <c r="C9" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>281</v>
+      </c>
       <c r="F9" s="87" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G9" s="92" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H9" s="93"/>
     </row>
@@ -14616,17 +15232,17 @@
       <c r="A10" s="86"/>
       <c r="B10" s="86"/>
       <c r="C10" s="86"/>
-      <c r="D10" s="95" t="s">
-        <v>282</v>
+      <c r="D10" s="96" t="s">
+        <v>284</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F10" s="87" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G10" s="92" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H10" s="93"/>
     </row>
@@ -14635,16 +15251,16 @@
       <c r="B11" s="86"/>
       <c r="C11" s="86"/>
       <c r="D11" s="96" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G11" s="92" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H11" s="93"/>
     </row>
@@ -14652,123 +15268,121 @@
       <c r="A12" s="86"/>
       <c r="B12" s="86"/>
       <c r="C12" s="86"/>
-      <c r="D12" s="96" t="s">
-        <v>288</v>
+      <c r="D12" s="94" t="s">
+        <v>290</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G12" s="92" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H12" s="93"/>
     </row>
     <row r="13" ht="17.25" spans="1:8">
       <c r="A13" s="86"/>
       <c r="B13" s="86"/>
-      <c r="C13" s="94" t="s">
-        <v>291</v>
-      </c>
+      <c r="C13" s="86"/>
       <c r="D13" s="96" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E13" s="87" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G13" s="92" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H13" s="93"/>
     </row>
     <row r="14" ht="17.25" spans="1:8">
       <c r="A14" s="86"/>
       <c r="B14" s="86"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95" t="s">
-        <v>296</v>
+      <c r="C14" s="86"/>
+      <c r="D14" s="94" t="s">
+        <v>297</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>297</v>
-      </c>
-      <c r="F14" s="97" t="s">
-        <v>283</v>
+        <v>291</v>
+      </c>
+      <c r="F14" s="87" t="s">
+        <v>298</v>
       </c>
       <c r="G14" s="92" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H14" s="93"/>
     </row>
     <row r="15" ht="17.25" spans="1:8">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="96" t="s">
-        <v>299</v>
+      <c r="C15" s="86"/>
+      <c r="D15" s="94" t="s">
+        <v>300</v>
       </c>
       <c r="E15" s="87" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F15" s="87" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G15" s="92" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H15" s="93"/>
     </row>
     <row r="16" ht="17.25" spans="1:8">
       <c r="A16" s="86"/>
-      <c r="B16" s="86" t="s">
-        <v>302</v>
-      </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="96" t="s">
+      <c r="B16" s="86"/>
+      <c r="C16" s="95" t="s">
         <v>303</v>
       </c>
+      <c r="D16" s="94" t="s">
+        <v>304</v>
+      </c>
       <c r="E16" s="87" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="F16" s="87" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G16" s="92" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H16" s="93"/>
     </row>
     <row r="17" ht="17.25" spans="1:8">
       <c r="A17" s="86"/>
       <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="96" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E17" s="87" t="s">
-        <v>307</v>
-      </c>
-      <c r="F17" s="87" t="s">
-        <v>308</v>
+        <v>271</v>
+      </c>
+      <c r="F17" s="97" t="s">
+        <v>295</v>
       </c>
       <c r="G17" s="92" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H17" s="93"/>
     </row>
     <row r="18" ht="17.25" spans="1:8">
       <c r="A18" s="86"/>
       <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="96" t="s">
-        <v>309</v>
+      <c r="C18" s="95"/>
+      <c r="D18" s="94" t="s">
+        <v>310</v>
       </c>
       <c r="E18" s="87" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="F18" s="87" t="s">
         <v>311</v>
@@ -14780,39 +15394,39 @@
     </row>
     <row r="19" ht="17.25" spans="1:8">
       <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
+      <c r="B19" s="86" t="s">
+        <v>313</v>
+      </c>
       <c r="C19" s="86"/>
-      <c r="D19" s="96" t="s">
-        <v>313</v>
+      <c r="D19" s="94" t="s">
+        <v>314</v>
       </c>
       <c r="E19" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F19" s="87" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G19" s="92" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H19" s="93"/>
     </row>
     <row r="20" ht="17.25" spans="1:8">
       <c r="A20" s="86"/>
       <c r="B20" s="86"/>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="86"/>
+      <c r="D20" s="94" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" s="87" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="92" t="s">
         <v>316</v>
-      </c>
-      <c r="D20" s="96" t="s">
-        <v>317</v>
-      </c>
-      <c r="E20" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="F20" s="87" t="s">
-        <v>318</v>
-      </c>
-      <c r="G20" s="92" t="s">
-        <v>319</v>
       </c>
       <c r="H20" s="93"/>
     </row>
@@ -14820,7 +15434,7 @@
       <c r="A21" s="86"/>
       <c r="B21" s="86"/>
       <c r="C21" s="86"/>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="94" t="s">
         <v>320</v>
       </c>
       <c r="E21" s="87" t="s">
@@ -14838,11 +15452,11 @@
       <c r="A22" s="86"/>
       <c r="B22" s="86"/>
       <c r="C22" s="86"/>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="94" t="s">
         <v>324</v>
       </c>
       <c r="E22" s="87" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="F22" s="87" t="s">
         <v>325</v>
@@ -14855,18 +15469,20 @@
     <row r="23" ht="17.25" spans="1:8">
       <c r="A23" s="86"/>
       <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="96" t="s">
+      <c r="C23" s="86" t="s">
         <v>327</v>
       </c>
+      <c r="D23" s="94" t="s">
+        <v>328</v>
+      </c>
       <c r="E23" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F23" s="87" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G23" s="92" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H23" s="93"/>
     </row>
@@ -14874,8 +15490,17 @@
       <c r="A24" s="86"/>
       <c r="B24" s="86"/>
       <c r="C24" s="86"/>
+      <c r="D24" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>332</v>
+      </c>
+      <c r="F24" s="87" t="s">
+        <v>333</v>
+      </c>
       <c r="G24" s="92" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H24" s="93"/>
     </row>
@@ -14883,17 +15508,17 @@
       <c r="A25" s="86"/>
       <c r="B25" s="86"/>
       <c r="C25" s="86"/>
-      <c r="D25" s="96" t="s">
-        <v>331</v>
+      <c r="D25" s="94" t="s">
+        <v>335</v>
       </c>
       <c r="E25" s="87" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="F25" s="87" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G25" s="92" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H25" s="93"/>
     </row>
@@ -14901,37 +15526,26 @@
       <c r="A26" s="86"/>
       <c r="B26" s="86"/>
       <c r="C26" s="86"/>
-      <c r="D26" s="96" t="s">
-        <v>334</v>
+      <c r="D26" s="94" t="s">
+        <v>338</v>
       </c>
       <c r="E26" s="87" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="F26" s="87" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G26" s="92" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H26" s="93"/>
     </row>
     <row r="27" ht="17.25" spans="1:8">
       <c r="A27" s="86"/>
-      <c r="B27" s="86" t="s">
-        <v>337</v>
-      </c>
+      <c r="B27" s="86"/>
       <c r="C27" s="86"/>
-      <c r="D27" s="96" t="s">
-        <v>338</v>
-      </c>
-      <c r="E27" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="F27" s="87" t="s">
-        <v>339</v>
-      </c>
       <c r="G27" s="92" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H27" s="93"/>
     </row>
@@ -14939,8 +15553,17 @@
       <c r="A28" s="86"/>
       <c r="B28" s="86"/>
       <c r="C28" s="86"/>
+      <c r="D28" s="94" t="s">
+        <v>342</v>
+      </c>
+      <c r="E28" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="F28" s="87" t="s">
+        <v>343</v>
+      </c>
       <c r="G28" s="92" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H28" s="93"/>
     </row>
@@ -14948,59 +15571,59 @@
       <c r="A29" s="86"/>
       <c r="B29" s="86"/>
       <c r="C29" s="86"/>
-      <c r="D29" s="96" t="s">
-        <v>342</v>
+      <c r="D29" s="94" t="s">
+        <v>345</v>
       </c>
       <c r="E29" s="87" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="F29" s="87" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G29" s="92" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H29" s="93"/>
     </row>
     <row r="30" ht="17.25" spans="1:8">
       <c r="A30" s="86" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B30" s="86" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C30" s="86"/>
-      <c r="D30" s="96" t="s">
-        <v>347</v>
+      <c r="D30" s="94" t="s">
+        <v>350</v>
       </c>
       <c r="E30" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F30" s="87" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G30" s="92" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H30" s="93"/>
     </row>
     <row r="31" ht="17.25" spans="1:8">
       <c r="A31" s="86"/>
       <c r="B31" s="86" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C31" s="86"/>
-      <c r="D31" s="96" t="s">
-        <v>351</v>
+      <c r="D31" s="94" t="s">
+        <v>354</v>
       </c>
       <c r="E31" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F31" s="87" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G31" s="92" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H31" s="93"/>
     </row>
@@ -15008,17 +15631,17 @@
       <c r="A32" s="86"/>
       <c r="B32" s="86"/>
       <c r="C32" s="86"/>
-      <c r="D32" s="96" t="s">
-        <v>354</v>
+      <c r="D32" s="94" t="s">
+        <v>357</v>
       </c>
       <c r="E32" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F32" s="87" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G32" s="92" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H32" s="93"/>
     </row>
@@ -15026,17 +15649,17 @@
       <c r="A33" s="86"/>
       <c r="B33" s="86"/>
       <c r="C33" s="86"/>
-      <c r="D33" s="96" t="s">
-        <v>357</v>
+      <c r="D33" s="94" t="s">
+        <v>360</v>
       </c>
       <c r="E33" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F33" s="87" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G33" s="92" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H33" s="93"/>
     </row>
@@ -15044,37 +15667,37 @@
       <c r="A34" s="86"/>
       <c r="B34" s="86"/>
       <c r="C34" s="86"/>
-      <c r="D34" s="96" t="s">
-        <v>360</v>
+      <c r="D34" s="94" t="s">
+        <v>363</v>
       </c>
       <c r="E34" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F34" s="87" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G34" s="92" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H34" s="93"/>
     </row>
     <row r="35" ht="17.25" spans="1:8">
       <c r="A35" s="86"/>
       <c r="B35" s="86" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C35" s="86"/>
-      <c r="D35" s="96" t="s">
-        <v>363</v>
+      <c r="D35" s="94" t="s">
+        <v>366</v>
       </c>
       <c r="E35" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F35" s="87" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G35" s="92" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H35" s="93"/>
     </row>
@@ -15083,7 +15706,7 @@
       <c r="B36" s="86"/>
       <c r="C36" s="86"/>
       <c r="G36" s="92" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H36" s="93"/>
     </row>
@@ -15092,29 +15715,29 @@
       <c r="B37" s="86"/>
       <c r="C37" s="86"/>
       <c r="G37" s="92" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H37" s="93"/>
     </row>
     <row r="38" ht="17.25" spans="1:8">
       <c r="A38" s="86"/>
       <c r="B38" s="86" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C38" s="86" t="s">
-        <v>369</v>
-      </c>
-      <c r="D38" s="96" t="s">
-        <v>370</v>
+        <v>372</v>
+      </c>
+      <c r="D38" s="94" t="s">
+        <v>373</v>
       </c>
       <c r="E38" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F38" s="87" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G38" s="92" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H38" s="93"/>
     </row>
@@ -15122,17 +15745,17 @@
       <c r="A39" s="86"/>
       <c r="B39" s="86"/>
       <c r="C39" s="86"/>
-      <c r="D39" s="96" t="s">
-        <v>373</v>
+      <c r="D39" s="94" t="s">
+        <v>376</v>
       </c>
       <c r="E39" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F39" s="87" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G39" s="92" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H39" s="93"/>
     </row>
@@ -15140,17 +15763,17 @@
       <c r="A40" s="86"/>
       <c r="B40" s="86"/>
       <c r="C40" s="86"/>
-      <c r="D40" s="96" t="s">
-        <v>376</v>
+      <c r="D40" s="94" t="s">
+        <v>379</v>
       </c>
       <c r="E40" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F40" s="87" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G40" s="92" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H40" s="93"/>
     </row>
@@ -15158,19 +15781,19 @@
       <c r="A41" s="86"/>
       <c r="B41" s="86"/>
       <c r="C41" s="86" t="s">
-        <v>379</v>
-      </c>
-      <c r="D41" s="96" t="s">
-        <v>380</v>
+        <v>382</v>
+      </c>
+      <c r="D41" s="94" t="s">
+        <v>383</v>
       </c>
       <c r="E41" s="87" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="F41" s="87" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G41" s="92" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H41" s="93"/>
     </row>
@@ -15178,17 +15801,17 @@
       <c r="A42" s="86"/>
       <c r="B42" s="86"/>
       <c r="C42" s="86"/>
-      <c r="D42" s="96" t="s">
-        <v>383</v>
+      <c r="D42" s="94" t="s">
+        <v>386</v>
       </c>
       <c r="E42" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F42" s="87" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G42" s="92" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H42" s="93"/>
     </row>
@@ -15196,17 +15819,17 @@
       <c r="A43" s="86"/>
       <c r="B43" s="86"/>
       <c r="C43" s="86"/>
-      <c r="D43" s="96" t="s">
-        <v>386</v>
+      <c r="D43" s="94" t="s">
+        <v>389</v>
       </c>
       <c r="E43" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F43" s="87" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G43" s="92" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H43" s="93"/>
     </row>
@@ -15214,17 +15837,17 @@
       <c r="A44" s="86"/>
       <c r="B44" s="86"/>
       <c r="C44" s="86"/>
-      <c r="D44" s="96" t="s">
-        <v>389</v>
+      <c r="D44" s="94" t="s">
+        <v>392</v>
       </c>
       <c r="E44" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F44" s="87" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G44" s="92" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H44" s="93"/>
     </row>
@@ -15232,48 +15855,48 @@
       <c r="A45" s="86"/>
       <c r="B45" s="86"/>
       <c r="C45" s="86"/>
-      <c r="D45" s="96" t="s">
-        <v>392</v>
+      <c r="D45" s="94" t="s">
+        <v>395</v>
       </c>
       <c r="E45" s="87" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="F45" s="87" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G45" s="92" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H45" s="93"/>
     </row>
     <row r="46" ht="17.25" spans="1:8">
       <c r="A46" s="86"/>
       <c r="B46" s="86" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C46" s="86"/>
-      <c r="D46" s="96" t="s">
-        <v>396</v>
+      <c r="D46" s="94" t="s">
+        <v>399</v>
       </c>
       <c r="E46" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F46" s="87" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G46" s="92" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H46" s="93"/>
     </row>
     <row r="47" ht="17.25" spans="1:8">
       <c r="A47" s="86"/>
       <c r="B47" s="86" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C47" s="86"/>
       <c r="G47" s="92" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H47" s="93"/>
     </row>
@@ -15282,7 +15905,7 @@
       <c r="B48" s="86"/>
       <c r="C48" s="86"/>
       <c r="G48" s="92" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H48" s="93"/>
     </row>
@@ -15291,7 +15914,7 @@
       <c r="B49" s="86"/>
       <c r="C49" s="86"/>
       <c r="G49" s="92" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H49" s="93"/>
     </row>
@@ -15300,7 +15923,7 @@
       <c r="B50" s="86"/>
       <c r="C50" s="86"/>
       <c r="G50" s="92" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H50" s="93"/>
     </row>
@@ -15309,7 +15932,7 @@
       <c r="B51" s="86"/>
       <c r="C51" s="86"/>
       <c r="G51" s="92" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H51" s="93"/>
     </row>
@@ -15318,7 +15941,7 @@
       <c r="B52" s="86"/>
       <c r="C52" s="86"/>
       <c r="G52" s="92" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H52" s="93"/>
     </row>
@@ -15327,7 +15950,7 @@
       <c r="B53" s="86"/>
       <c r="C53" s="86"/>
       <c r="G53" s="92" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H53" s="93"/>
     </row>
@@ -15336,40 +15959,40 @@
       <c r="B54" s="86"/>
       <c r="C54" s="86"/>
       <c r="G54" s="92" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H54" s="93"/>
     </row>
     <row r="55" ht="17.25" spans="1:8">
       <c r="A55" s="86"/>
       <c r="B55" s="86" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C55" s="86"/>
       <c r="G55" s="92" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H55" s="93"/>
     </row>
     <row r="56" ht="17.25" spans="1:8">
       <c r="A56" s="86" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B56" s="86" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="96" t="s">
-        <v>412</v>
+      <c r="D56" s="94" t="s">
+        <v>415</v>
       </c>
       <c r="E56" s="87" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F56" s="87" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G56" s="92" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H56" s="93"/>
     </row>
@@ -15377,17 +16000,17 @@
       <c r="A57" s="86"/>
       <c r="B57" s="86"/>
       <c r="C57" s="86"/>
-      <c r="D57" s="96" t="s">
-        <v>416</v>
+      <c r="D57" s="94" t="s">
+        <v>419</v>
       </c>
       <c r="E57" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F57" s="87" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G57" s="92" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H57" s="93"/>
     </row>
@@ -15395,17 +16018,17 @@
       <c r="A58" s="86"/>
       <c r="B58" s="86"/>
       <c r="C58" s="86"/>
-      <c r="D58" s="96" t="s">
-        <v>419</v>
+      <c r="D58" s="94" t="s">
+        <v>422</v>
       </c>
       <c r="E58" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F58" s="87" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G58" s="92" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H58" s="93"/>
     </row>
@@ -15413,17 +16036,17 @@
       <c r="A59" s="86"/>
       <c r="B59" s="86"/>
       <c r="C59" s="86"/>
-      <c r="D59" s="96" t="s">
-        <v>422</v>
+      <c r="D59" s="94" t="s">
+        <v>425</v>
       </c>
       <c r="E59" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F59" s="87" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G59" s="92" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H59" s="93"/>
     </row>
@@ -15431,93 +16054,93 @@
       <c r="A60" s="86"/>
       <c r="B60" s="86"/>
       <c r="C60" s="86"/>
-      <c r="D60" s="96" t="s">
-        <v>425</v>
+      <c r="D60" s="94" t="s">
+        <v>428</v>
       </c>
       <c r="E60" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F60" s="87" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G60" s="92" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H60" s="93"/>
     </row>
     <row r="61" ht="17.25" spans="1:8">
       <c r="A61" s="86"/>
-      <c r="B61" s="94" t="s">
-        <v>428</v>
-      </c>
-      <c r="C61" s="94"/>
-      <c r="D61" s="96" t="s">
-        <v>429</v>
+      <c r="B61" s="95" t="s">
+        <v>431</v>
+      </c>
+      <c r="C61" s="95"/>
+      <c r="D61" s="94" t="s">
+        <v>432</v>
       </c>
       <c r="E61" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F61" s="98" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G61" s="92" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H61" s="93"/>
     </row>
     <row r="62" ht="17.25" spans="1:8">
       <c r="A62" s="86"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="96" t="s">
-        <v>432</v>
+      <c r="B62" s="95"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="94" t="s">
+        <v>435</v>
       </c>
       <c r="E62" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F62" s="98" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G62" s="92" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H62" s="93"/>
     </row>
     <row r="63" ht="17.25" spans="1:8">
       <c r="A63" s="86"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="96" t="s">
-        <v>435</v>
+      <c r="B63" s="95"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="94" t="s">
+        <v>438</v>
       </c>
       <c r="E63" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F63" s="98" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G63" s="92" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H63" s="93"/>
     </row>
     <row r="64" ht="17.25" spans="1:8">
       <c r="A64" s="86"/>
-      <c r="B64" s="94" t="s">
-        <v>438</v>
+      <c r="B64" s="95" t="s">
+        <v>441</v>
       </c>
       <c r="C64" s="86"/>
-      <c r="D64" s="96" t="s">
-        <v>439</v>
+      <c r="D64" s="94" t="s">
+        <v>442</v>
       </c>
       <c r="E64" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F64" s="87" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G64" s="92" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H64" s="93"/>
     </row>
@@ -15525,17 +16148,17 @@
       <c r="A65" s="86"/>
       <c r="B65" s="86"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="99" t="s">
-        <v>442</v>
+      <c r="D65" s="94" t="s">
+        <v>445</v>
       </c>
       <c r="E65" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F65" s="87" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G65" s="92" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H65" s="93"/>
     </row>
@@ -15543,17 +16166,17 @@
       <c r="A66" s="86"/>
       <c r="B66" s="86"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="99" t="s">
-        <v>445</v>
+      <c r="D66" s="94" t="s">
+        <v>448</v>
       </c>
       <c r="E66" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="F66" s="100" t="s">
-        <v>446</v>
+        <v>267</v>
+      </c>
+      <c r="F66" s="99" t="s">
+        <v>449</v>
       </c>
       <c r="G66" s="92" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H66" s="93"/>
     </row>
@@ -15561,17 +16184,17 @@
       <c r="A67" s="86"/>
       <c r="B67" s="86"/>
       <c r="C67" s="86"/>
-      <c r="D67" s="99" t="s">
-        <v>448</v>
+      <c r="D67" s="94" t="s">
+        <v>451</v>
       </c>
       <c r="E67" s="87" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F67" s="87" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G67" s="92" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H67" s="93"/>
     </row>
@@ -15579,17 +16202,17 @@
       <c r="A68" s="86"/>
       <c r="B68" s="86"/>
       <c r="C68" s="86"/>
-      <c r="D68" s="99" t="s">
-        <v>452</v>
+      <c r="D68" s="94" t="s">
+        <v>455</v>
       </c>
       <c r="E68" s="87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F68" s="87" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G68" s="92" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H68" s="93"/>
     </row>
@@ -15597,17 +16220,17 @@
       <c r="A69" s="86"/>
       <c r="B69" s="86"/>
       <c r="C69" s="86"/>
-      <c r="D69" s="99" t="s">
+      <c r="D69" s="94" t="s">
+        <v>457</v>
+      </c>
+      <c r="E69" s="87" t="s">
+        <v>321</v>
+      </c>
+      <c r="F69" s="87" t="s">
+        <v>458</v>
+      </c>
+      <c r="G69" s="92" t="s">
         <v>454</v>
-      </c>
-      <c r="E69" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="F69" s="87" t="s">
-        <v>455</v>
-      </c>
-      <c r="G69" s="92" t="s">
-        <v>451</v>
       </c>
       <c r="H69" s="93"/>
     </row>
@@ -15616,18 +16239,27 @@
       <c r="B70" s="86"/>
       <c r="C70" s="86"/>
       <c r="G70" s="92" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H70" s="93"/>
     </row>
     <row r="71" ht="17.25" spans="1:8">
       <c r="A71" s="86"/>
       <c r="B71" s="86" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C71" s="86"/>
+      <c r="D71" s="100" t="s">
+        <v>461</v>
+      </c>
+      <c r="E71" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" s="87" t="s">
+        <v>462</v>
+      </c>
       <c r="G71" s="92" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="H71" s="93"/>
     </row>
@@ -15635,19 +16267,35 @@
       <c r="A72" s="86"/>
       <c r="B72" s="86"/>
       <c r="C72" s="86"/>
+      <c r="D72" s="100" t="s">
+        <v>464</v>
+      </c>
+      <c r="E72" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="F72" s="87" t="s">
+        <v>465</v>
+      </c>
       <c r="G72" s="92" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="H72" s="93"/>
     </row>
     <row r="73" ht="17.25" spans="1:8">
       <c r="A73" s="86"/>
-      <c r="B73" s="86" t="s">
-        <v>460</v>
-      </c>
+      <c r="B73" s="86"/>
       <c r="C73" s="86"/>
+      <c r="D73" s="100" t="s">
+        <v>467</v>
+      </c>
+      <c r="E73" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="F73" s="87" t="s">
+        <v>468</v>
+      </c>
       <c r="G73" s="92" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="H73" s="93"/>
     </row>
@@ -15655,30 +16303,46 @@
       <c r="A74" s="86"/>
       <c r="B74" s="86"/>
       <c r="C74" s="86"/>
+      <c r="D74" s="100" t="s">
+        <v>470</v>
+      </c>
+      <c r="E74" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="F74" s="87" t="s">
+        <v>471</v>
+      </c>
       <c r="G74" s="92" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="H74" s="93"/>
     </row>
     <row r="75" ht="17.25" spans="1:8">
       <c r="A75" s="86"/>
-      <c r="B75" s="86" t="s">
-        <v>463</v>
-      </c>
+      <c r="B75" s="86"/>
       <c r="C75" s="86"/>
+      <c r="D75" s="100" t="s">
+        <v>473</v>
+      </c>
+      <c r="E75" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="F75" s="87" t="s">
+        <v>474</v>
+      </c>
       <c r="G75" s="92" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="H75" s="93"/>
     </row>
     <row r="76" ht="17.25" spans="1:8">
       <c r="A76" s="86" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B76" s="86"/>
       <c r="C76" s="86"/>
       <c r="G76" s="92" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="H76" s="93"/>
     </row>
@@ -15687,7 +16351,7 @@
       <c r="B77" s="86"/>
       <c r="C77" s="86"/>
       <c r="G77" s="92" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="H77" s="93"/>
     </row>
@@ -15696,7 +16360,7 @@
       <c r="B78" s="86"/>
       <c r="C78" s="86"/>
       <c r="G78" s="92" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="H78" s="93"/>
     </row>
@@ -15705,7 +16369,7 @@
       <c r="B79" s="86"/>
       <c r="C79" s="86"/>
       <c r="G79" s="92" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="H79" s="93"/>
     </row>
@@ -15714,7 +16378,7 @@
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
       <c r="G80" s="92" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="H80" s="93"/>
     </row>
@@ -15723,7 +16387,7 @@
       <c r="B81" s="86"/>
       <c r="C81" s="86"/>
       <c r="G81" s="92" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="H81" s="93"/>
     </row>
@@ -15732,7 +16396,7 @@
       <c r="B82" s="86"/>
       <c r="C82" s="86"/>
       <c r="G82" s="92" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="H82" s="93"/>
     </row>
@@ -15741,7 +16405,7 @@
       <c r="B83" s="86"/>
       <c r="C83" s="86"/>
       <c r="G83" s="92" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="H83" s="93"/>
     </row>
@@ -15750,7 +16414,7 @@
       <c r="B84" s="86"/>
       <c r="C84" s="86"/>
       <c r="G84" s="92" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="H84" s="93"/>
     </row>
@@ -15759,18 +16423,18 @@
       <c r="B85" s="86"/>
       <c r="C85" s="86"/>
       <c r="G85" s="92" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="H85" s="93"/>
     </row>
     <row r="86" ht="17.25" spans="1:8">
-      <c r="A86" s="94" t="s">
-        <v>476</v>
+      <c r="A86" s="95" t="s">
+        <v>487</v>
       </c>
       <c r="B86" s="86"/>
       <c r="C86" s="86"/>
       <c r="G86" s="92" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="H86" s="93"/>
     </row>
@@ -15779,7 +16443,7 @@
       <c r="B87" s="86"/>
       <c r="C87" s="86"/>
       <c r="G87" s="92" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="H87" s="93"/>
     </row>
@@ -15788,7 +16452,7 @@
       <c r="B88" s="86"/>
       <c r="C88" s="86"/>
       <c r="G88" s="92" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="H88" s="93"/>
     </row>
@@ -15797,7 +16461,7 @@
       <c r="B89" s="86"/>
       <c r="C89" s="86"/>
       <c r="G89" s="92" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="H89" s="93"/>
     </row>
@@ -15806,18 +16470,18 @@
       <c r="B90" s="86"/>
       <c r="C90" s="86"/>
       <c r="G90" s="92" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="H90" s="93"/>
     </row>
     <row r="91" ht="17.25" spans="1:8">
       <c r="A91" s="86" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="B91" s="86"/>
       <c r="C91" s="86"/>
       <c r="G91" s="92" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="H91" s="93"/>
     </row>
@@ -15826,7 +16490,7 @@
       <c r="B92" s="86"/>
       <c r="C92" s="86"/>
       <c r="G92" s="92" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="H92" s="93"/>
     </row>
@@ -15835,7 +16499,7 @@
       <c r="B93" s="86"/>
       <c r="C93" s="86"/>
       <c r="G93" s="92" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="H93" s="93"/>
     </row>
@@ -15844,7 +16508,7 @@
       <c r="B94" s="86"/>
       <c r="C94" s="86"/>
       <c r="G94" s="92" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="H94" s="93"/>
     </row>
@@ -15853,7 +16517,7 @@
       <c r="B95" s="86"/>
       <c r="C95" s="86"/>
       <c r="G95" s="92" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="H95" s="93"/>
     </row>
@@ -15862,14 +16526,14 @@
       <c r="B96" s="86"/>
       <c r="C96" s="86"/>
       <c r="G96" s="92" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="H96" s="93"/>
     </row>
     <row r="97" ht="17.25" spans="3:7">
       <c r="C97" s="86"/>
       <c r="G97" s="92" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="7:7">
@@ -15945,15 +16609,15 @@
       <c r="G182" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="A30:A45"/>
     <mergeCell ref="A46:A55"/>
     <mergeCell ref="A56:A75"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="B16:B26"/>
-    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="B19:B29"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B38:B45"/>
@@ -15961,11 +16625,10 @@
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="B64:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="C41:C45"/>
     <mergeCell ref="A86:B90"/>
@@ -15973,10 +16636,10 @@
     <mergeCell ref="A76:B85"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId3" display="sprintf ( string $format [, mixed $... ] ) : string"/>
-    <hyperlink ref="D17" r:id="rId3" display="mb_strlen ( string $str [, string $encoding = mb_internal_encoding() ] ) : mixed"/>
-    <hyperlink ref="D19" r:id="rId3" display="count_chars ( string $string [, int $mode = 0 ] ) : mixed"/>
-    <hyperlink ref="D22" r:id="rId3" display="str_word_count ( string $string [, int $format = 0 [, string $charlist ]] ) : mixed"/>
+    <hyperlink ref="D13" r:id="rId3" display="sprintf ( string $format [, mixed $... ] ) : string"/>
+    <hyperlink ref="D20" r:id="rId3" display="mb_strlen ( string $str [, string $encoding = mb_internal_encoding() ] ) : mixed"/>
+    <hyperlink ref="D22" r:id="rId3" display="count_chars ( string $string [, int $mode = 0 ] ) : mixed"/>
+    <hyperlink ref="D25" r:id="rId3" display="str_word_count ( string $string [, int $format = 0 [, string $charlist ]] ) : mixed"/>
     <hyperlink ref="D42" r:id="rId3" display="strpos ( string $haystack , mixed $needle [, int $offset = 0 ] ) : int"/>
     <hyperlink ref="D40" r:id="rId3" display="strrchr ( string $haystack , mixed $needle ) : string"/>
     <hyperlink ref="D43" r:id="rId3" display="strstr ( string $haystack , mixed $needle [, bool $before_needle = FALSE ] ) : string"/>
@@ -16008,23 +16671,23 @@
   <sheetData>
     <row r="2" ht="20.25" spans="2:5">
       <c r="B2" s="73" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="E2" s="75"/>
     </row>
     <row r="3" ht="20.25" spans="2:5">
       <c r="B3" s="76" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="78" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="E3" s="78"/>
     </row>
@@ -16036,12 +16699,12 @@
     </row>
     <row r="5" ht="40.5" spans="2:5">
       <c r="B5" s="82" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="C5" s="82"/>
       <c r="D5" s="82"/>
       <c r="E5" s="83" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -16079,879 +16742,879 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="65" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="67" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="67" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="67" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="67" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="66" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="66" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="66" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="66" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="66" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="66" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="11" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="67" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="67" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="67" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="67" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="66" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="66" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="66" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="66" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="66" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="66" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="66" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="66" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="66" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="66" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="C36" s="67" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="66" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="66" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11"/>
       <c r="B41" s="11" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="66" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11"/>
       <c r="B43" s="11" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="67" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11"/>
       <c r="B45" s="11" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11"/>
       <c r="B46" s="11" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11"/>
       <c r="B47" s="11" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="66" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11"/>
       <c r="B49" s="11" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="68" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="66" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="C53" s="67" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="67" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="66" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="68" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="67" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="67" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="11"/>
       <c r="B59" s="11" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="66" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11"/>
       <c r="B61" s="11" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="C61" s="67" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="67" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="68" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="67" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="11"/>
       <c r="B65" s="11" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="66" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="11" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="67" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="67" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="67" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="11" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="69" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="70" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="69" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="69" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="69" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="69" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="69" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="69" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="69" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="69" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="69" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="69" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="69" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="69" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="69" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="69" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="69" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="11" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="69" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="69" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="11" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="69" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="69" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="69" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="69" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="69" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="69" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="69" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="69" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="11" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="69" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="69" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="11" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="69" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="69" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="69" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="69" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="69" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="69" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="69" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="69" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="69" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="69" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="69" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="69" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="69" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="69" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="69" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
     </row>
     <row r="114" ht="33" spans="1:3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="69" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="69" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -17130,7 +17793,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="54" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -17138,398 +17801,398 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="57" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="57" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="57" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="57" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="57" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="57" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="57" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="57" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="57" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="57" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="57" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="59" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="59" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" ht="33" spans="1:2">
       <c r="A18" s="59" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="59" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="59" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" ht="33" spans="1:2">
       <c r="A21" s="59" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
     </row>
     <row r="22" ht="33" spans="1:2">
       <c r="A22" s="59" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="59" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="59" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
     </row>
     <row r="25" ht="33" spans="1:2">
       <c r="A25" s="59" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
     </row>
     <row r="26" ht="33" spans="1:2">
       <c r="A26" s="51" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" ht="33" spans="1:2">
       <c r="A27" s="59" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="59" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="59" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
     </row>
     <row r="31" ht="33" spans="1:2">
       <c r="A31" s="59" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
     </row>
     <row r="32" ht="33" spans="1:2">
       <c r="A32" s="59" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="59" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
     </row>
     <row r="34" ht="33" spans="1:2">
       <c r="A34" s="59" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="59" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="59" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="59" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="59" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="59" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="59" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
     </row>
     <row r="43" ht="33" spans="1:2">
       <c r="A43" s="59" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="59" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="59" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="59" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="59" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="59" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
     </row>
     <row r="54" ht="33" spans="1:2">
       <c r="A54" s="59" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
     </row>
     <row r="56" ht="33" spans="1:2">
       <c r="A56" s="59" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="59" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -17543,7 +18206,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="62" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -17551,90 +18214,90 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="63" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="B68" s="64" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" ht="33" spans="1:2">
       <c r="A69" s="51" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
     </row>
     <row r="70" ht="33" spans="1:2">
       <c r="A70" s="51" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="B70" s="60" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
     </row>
     <row r="71" ht="33" spans="1:2">
       <c r="A71" s="51" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="B71" s="60" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
     </row>
     <row r="72" ht="33" spans="1:2">
       <c r="A72" s="51" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="B72" s="60" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="73" ht="33" spans="1:2">
       <c r="A73" s="51" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="B73" s="60" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="74" ht="33" spans="1:2">
       <c r="A74" s="51" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="B74" s="60" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="75" ht="33" spans="1:2">
       <c r="A75" s="51" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="B75" s="60" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
     </row>
     <row r="76" ht="33" spans="1:2">
       <c r="A76" s="51" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="B76" s="60" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
     </row>
     <row r="77" ht="33" spans="1:2">
       <c r="A77" s="51" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="B77" s="60" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
     </row>
     <row r="78" ht="33" spans="1:2">
       <c r="A78" s="51" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="B78" s="60" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -17700,196 +18363,196 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="41" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="45" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="46" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45" t="s">
-        <v>779</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="43" t="s">
-        <v>783</v>
+        <v>794</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="47" t="s">
-        <v>784</v>
+        <v>795</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>786</v>
+        <v>797</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4"/>
       <c r="B8" s="46" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="45" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4"/>
       <c r="B9" s="46" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>792</v>
+        <v>803</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4"/>
       <c r="B10" s="46" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="47" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="47" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="43" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4"/>
       <c r="B14" s="46" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="47" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="46" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="47" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="46" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="50" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="49"/>
       <c r="D17" s="45" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -17897,17 +18560,17 @@
       <c r="B18" s="51"/>
       <c r="C18" s="52"/>
       <c r="D18" s="45" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:4">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="44" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -17915,7 +18578,7 @@
       <c r="B20" s="51"/>
       <c r="C20" s="44"/>
       <c r="D20" s="47" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
     </row>
     <row r="21" s="39" customFormat="1" spans="1:1">
@@ -18007,7 +18670,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -18018,246 +18681,246 @@
     </row>
     <row r="2" ht="33" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="21" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
     </row>
     <row r="3" ht="33" spans="1:7">
       <c r="A3" s="17"/>
       <c r="B3" s="19" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="21"/>
       <c r="F3" s="18" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="21"/>
       <c r="F4" s="18" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" ht="33" spans="1:7">
       <c r="A5" s="17"/>
       <c r="B5" s="18" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
       <c r="F5" s="18" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="21"/>
       <c r="F6" s="18" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
     </row>
     <row r="7" ht="33" spans="1:7">
       <c r="A7" s="17"/>
       <c r="B7" s="18" t="s">
-        <v>840</v>
+        <v>851</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>841</v>
+        <v>852</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
       <c r="F7" s="23" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
     </row>
     <row r="8" ht="33" spans="1:7">
       <c r="A8" s="17"/>
       <c r="B8" s="23" t="s">
-        <v>844</v>
+        <v>855</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="21"/>
       <c r="F8" s="23" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17"/>
       <c r="B9" s="23" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21"/>
       <c r="F9" s="23" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="17"/>
       <c r="B10" s="23" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="21"/>
       <c r="F10" s="23" t="s">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>855</v>
+        <v>866</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>857</v>
+        <v>868</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
       <c r="F11" s="23" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>859</v>
+        <v>870</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>861</v>
+        <v>872</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
       <c r="F12" s="23" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
     </row>
     <row r="13" ht="33" spans="1:7">
       <c r="A13" s="17"/>
       <c r="B13" s="18" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
       <c r="F13" s="19" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="17"/>
       <c r="B14" s="23" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
       <c r="F14" s="19" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
       <c r="F15" s="18" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -18267,366 +18930,366 @@
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
       <c r="F16" s="18" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>877</v>
+        <v>888</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="17"/>
       <c r="B17" s="18" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21"/>
       <c r="F17" s="24" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17"/>
       <c r="B18" s="23" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="17" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17"/>
       <c r="B19" s="23" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="17"/>
       <c r="F19" s="23" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="17"/>
       <c r="F20" s="23" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="17"/>
       <c r="F21" s="23" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="17" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17"/>
       <c r="B23" s="18" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
     </row>
     <row r="24" ht="33" spans="1:7">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="17"/>
       <c r="F24" s="19" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17"/>
       <c r="B25" s="18" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="25" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="26"/>
       <c r="B27" s="24" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="17"/>
       <c r="F27" s="18" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="26"/>
       <c r="B28" s="23" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="17" t="s">
-        <v>926</v>
+        <v>937</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>927</v>
+        <v>938</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>928</v>
+        <v>939</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="26"/>
       <c r="B29" s="19" t="s">
-        <v>929</v>
+        <v>940</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>930</v>
+        <v>941</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="17"/>
       <c r="F29" s="23" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="26"/>
       <c r="B30" s="23" t="s">
-        <v>933</v>
+        <v>944</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="17"/>
       <c r="F30" s="23" t="s">
-        <v>935</v>
+        <v>946</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>936</v>
+        <v>947</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="26" t="s">
-        <v>937</v>
+        <v>948</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>939</v>
+        <v>950</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="17"/>
       <c r="F31" s="23" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>941</v>
+        <v>952</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="26"/>
       <c r="B32" s="23" t="s">
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="17"/>
       <c r="F32" s="23" t="s">
-        <v>944</v>
+        <v>955</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>945</v>
+        <v>956</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="26"/>
       <c r="B33" s="24" t="s">
-        <v>946</v>
+        <v>957</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>947</v>
+        <v>958</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="17"/>
       <c r="F33" s="23" t="s">
-        <v>948</v>
+        <v>959</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>949</v>
+        <v>960</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="26"/>
       <c r="B34" s="18" t="s">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="26"/>
       <c r="B35" s="18" t="s">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>953</v>
+        <v>964</v>
       </c>
       <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="26"/>
       <c r="B36" s="23" t="s">
-        <v>954</v>
+        <v>965</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="D36" s="22"/>
       <c r="F36" s="27" t="s">
-        <v>956</v>
+        <v>967</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>957</v>
+        <v>968</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="26"/>
       <c r="B37" s="23" t="s">
-        <v>958</v>
+        <v>969</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="26"/>
       <c r="B38" s="23" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>961</v>
+        <v>972</v>
       </c>
       <c r="D38" s="22"/>
     </row>
@@ -18693,7 +19356,7 @@
       <c r="C69" s="36"/>
       <c r="D69" s="35"/>
       <c r="E69" s="37" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -18941,32 +19604,32 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>964</v>
+        <v>975</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>965</v>
+        <v>976</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>966</v>
+        <v>977</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>967</v>
+        <v>978</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>968</v>
+        <v>979</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>969</v>
+        <v>980</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>970</v>
+        <v>981</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -18975,678 +19638,678 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>971</v>
+        <v>982</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>972</v>
+        <v>983</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>973</v>
+        <v>984</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>976</v>
+        <v>987</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>977</v>
+        <v>988</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>978</v>
+        <v>989</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
       <c r="B10" s="9" t="s">
-        <v>979</v>
+        <v>990</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>980</v>
+        <v>991</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
-        <v>982</v>
+        <v>993</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
-        <v>983</v>
+        <v>994</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
-        <v>984</v>
+        <v>995</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="10" t="s">
-        <v>985</v>
+        <v>996</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>987</v>
+        <v>998</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
-        <v>988</v>
+        <v>999</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4"/>
       <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="11"/>
       <c r="C19" s="5" t="s">
-        <v>990</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
-        <v>991</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
-        <v>992</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>993</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>994</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>995</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>996</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>997</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>998</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>968</v>
+        <v>979</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>1000</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="11"/>
       <c r="B29" s="4"/>
       <c r="C29" s="8" t="s">
-        <v>1001</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="11"/>
       <c r="B30" s="4"/>
       <c r="C30" s="8" t="s">
-        <v>1002</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11"/>
       <c r="B31" s="4" t="s">
-        <v>1003</v>
+        <v>1014</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1004</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11"/>
       <c r="B32" s="4"/>
       <c r="C32" s="8" t="s">
-        <v>1005</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="4"/>
       <c r="C33" s="8" t="s">
-        <v>1006</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11"/>
       <c r="B34" s="4"/>
       <c r="C34" s="8" t="s">
-        <v>1007</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="4"/>
       <c r="C35" s="8" t="s">
-        <v>1008</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="4"/>
       <c r="C36" s="8" t="s">
-        <v>1009</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11"/>
       <c r="B37" s="4"/>
       <c r="C37" s="8" t="s">
-        <v>1010</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11" t="s">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
-        <v>1012</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="11"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
-        <v>1015</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
-        <v>1017</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11" t="s">
-        <v>1018</v>
+        <v>1029</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>1019</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11"/>
       <c r="B45" s="4" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1020</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11"/>
       <c r="B46" s="4" t="s">
-        <v>1021</v>
+        <v>1032</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>1022</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11"/>
       <c r="B47" s="4"/>
       <c r="C47" s="8" t="s">
-        <v>1023</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11"/>
       <c r="B48" s="4"/>
       <c r="C48" s="8" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11"/>
       <c r="B49" s="4" t="s">
-        <v>1003</v>
+        <v>1014</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5" t="s">
-        <v>1026</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>1027</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>1029</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11"/>
       <c r="B54" s="4" t="s">
-        <v>1030</v>
+        <v>1041</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>1031</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11"/>
       <c r="B55" s="4"/>
       <c r="C55" s="8" t="s">
-        <v>1032</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>1033</v>
+        <v>1044</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
-        <v>1034</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5" t="s">
-        <v>1035</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>1036</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5" t="s">
-        <v>1037</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>1038</v>
+        <v>1049</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="8" t="s">
-        <v>1039</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="8" t="s">
-        <v>1040</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="8" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="8" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="8" t="s">
-        <v>1043</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="8" t="s">
-        <v>1044</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="8" t="s">
-        <v>1045</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="8" t="s">
-        <v>1046</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="8" t="s">
-        <v>1047</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="8" t="s">
-        <v>1048</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="8" t="s">
-        <v>1049</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="8" t="s">
-        <v>1050</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="8" t="s">
-        <v>1051</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="12" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="13" t="s">
-        <v>1053</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="13" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="13" t="s">
-        <v>1055</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="84" spans="5:5">
       <c r="E84" s="14" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="12" t="s">
-        <v>965</v>
+        <v>976</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="13" t="s">
-        <v>1057</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="13" t="s">
-        <v>1058</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="13" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="13" t="s">
-        <v>1060</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="13" t="s">
-        <v>1061</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="13" t="s">
-        <v>1062</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="13" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="13" t="s">
-        <v>1064</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="13" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="96" spans="5:5">
       <c r="E96" s="14" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="12" t="s">
-        <v>1066</v>
+        <v>1077</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="13" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="13" t="s">
-        <v>1068</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="13" t="s">
-        <v>1069</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="13" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="13" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="13" t="s">
-        <v>1072</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" s="14" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="12" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="13" t="s">
-        <v>1074</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="13" t="s">
-        <v>1075</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="13" t="s">
-        <v>1076</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="13" t="s">
-        <v>1077</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" s="14" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>

--- a/1_php/原生php/PHP函数分目参考.xlsx
+++ b/1_php/原生php/PHP函数分目参考.xlsx
@@ -27,7 +27,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0">
+    <comment ref="D23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0">
+    <comment ref="D26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0">
+    <comment ref="D36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D40" authorId="0">
+    <comment ref="D39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D43" authorId="0">
+    <comment ref="D42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0">
+    <comment ref="D44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -518,7 +518,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="1098">
   <si>
     <t>双精度判断</t>
   </si>
@@ -1360,6 +1360,173 @@
     <t>求交集（比较键名和键值，使用两个用户自定义的键名比较函数）。</t>
   </si>
   <si>
+    <t>合并</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>implode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$glue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$pieces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <t>[4,5,7]</t>
+  </si>
+  <si>
+    <t>implode()/join()</t>
+  </si>
+  <si>
+    <t>implode — 将一个一维数组的值转化为字符串</t>
+  </si>
+  <si>
     <t>单字符串</t>
   </si>
   <si>
@@ -1524,9 +1691,6 @@
     </r>
   </si>
   <si>
-    <t>[4,5,7]</t>
-  </si>
-  <si>
     <t>parse_str()</t>
   </si>
   <si>
@@ -1709,16 +1873,897 @@
     <t>分割</t>
   </si>
   <si>
+    <r>
+      <t>chunk_split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$body</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$chunklen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> = 76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> = "\r\n"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]] ) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <t>chunk_split()</t>
+  </si>
+  <si>
     <t>chunk_split — 将字符串分割成小块</t>
   </si>
   <si>
+    <r>
+      <t>explode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$delimiter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>] ) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <t>exlode()</t>
+  </si>
+  <si>
     <t>explode — 使用一个字符串分割另一个字符串</t>
   </si>
   <si>
+    <r>
+      <t>strtok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <t>strtok()</t>
+  </si>
+  <si>
     <t>strtok — 标记分割字符串</t>
   </si>
   <si>
-    <t>wordwrap — 打断字符串为指定数量的字串</t>
+    <r>
+      <t>wordwrap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> = 75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> = "\n"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$cut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF993366"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]]] ) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF737373"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF669933"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <t>[4&gt;=4.0.2,5,7]</t>
+  </si>
+  <si>
+    <t>wordwrap()</t>
+  </si>
+  <si>
+    <t>分割、插入（按单词即空格）</t>
   </si>
   <si>
     <t>输出
@@ -6737,170 +7782,6 @@
     <t>查找位置。首次位置。返回该位置及其后的字符串（仅限查找字符）</t>
   </si>
   <si>
-    <t>合并</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF336699"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>implode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF669933"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF336699"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>$glue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF669933"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF336699"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>$pieces</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>) :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF737373"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF669933"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>string</t>
-    </r>
-  </si>
-  <si>
-    <t>implode()/join()</t>
-  </si>
-  <si>
-    <t>implode — 将一个一维数组的值转化为字符串</t>
-  </si>
-  <si>
     <t>比较</t>
   </si>
   <si>
@@ -9325,6 +10206,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>quotemeta</t>
     </r>
     <r>
@@ -9426,6 +10313,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>addslashes</t>
     </r>
     <r>
@@ -9527,6 +10420,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>stripslashes</t>
     </r>
     <r>
@@ -9628,6 +10527,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>addcslashes</t>
     </r>
     <r>
@@ -9783,6 +10688,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF336699"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>stripcslashes</t>
     </r>
     <r>
@@ -11735,10 +12646,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -11886,14 +12797,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11988,31 +12922,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12025,9 +12937,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12063,12 +12974,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -12137,31 +13048,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12191,13 +13090,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12209,19 +13132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12233,7 +13144,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12245,7 +13174,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12263,49 +13198,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12534,6 +13445,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -12545,15 +13480,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12608,21 +13534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -12634,153 +13545,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13043,10 +13954,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13061,7 +13973,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13161,7 +14072,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -13584,7 +14494,7 @@
       <c r="J2" s="113"/>
       <c r="K2" s="113"/>
       <c r="L2" s="113"/>
-      <c r="M2" s="137"/>
+      <c r="M2" s="136"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="111" t="s">
@@ -13603,7 +14513,7 @@
       <c r="J3" s="115"/>
       <c r="K3" s="115"/>
       <c r="L3" s="115"/>
-      <c r="M3" s="138"/>
+      <c r="M3" s="137"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="111" t="s">
@@ -13620,7 +14530,7 @@
       <c r="J4" s="115"/>
       <c r="K4" s="115"/>
       <c r="L4" s="115"/>
-      <c r="M4" s="138"/>
+      <c r="M4" s="137"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="111" t="s">
@@ -13637,7 +14547,7 @@
       <c r="J5" s="115"/>
       <c r="K5" s="115"/>
       <c r="L5" s="115"/>
-      <c r="M5" s="138"/>
+      <c r="M5" s="137"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="111" t="s">
@@ -13656,7 +14566,7 @@
       <c r="J6" s="115"/>
       <c r="K6" s="115"/>
       <c r="L6" s="115"/>
-      <c r="M6" s="138"/>
+      <c r="M6" s="137"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="111" t="s">
@@ -13673,7 +14583,7 @@
       <c r="J7" s="115"/>
       <c r="K7" s="115"/>
       <c r="L7" s="115"/>
-      <c r="M7" s="138"/>
+      <c r="M7" s="137"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="111" t="s">
@@ -13690,7 +14600,7 @@
       <c r="J8" s="115"/>
       <c r="K8" s="115"/>
       <c r="L8" s="115"/>
-      <c r="M8" s="138"/>
+      <c r="M8" s="137"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="111" t="s">
@@ -13707,7 +14617,7 @@
       <c r="J9" s="115"/>
       <c r="K9" s="115"/>
       <c r="L9" s="115"/>
-      <c r="M9" s="138"/>
+      <c r="M9" s="137"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="111" t="s">
@@ -13726,7 +14636,7 @@
       <c r="J10" s="115"/>
       <c r="K10" s="115"/>
       <c r="L10" s="115"/>
-      <c r="M10" s="138"/>
+      <c r="M10" s="137"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="111" t="s">
@@ -13743,7 +14653,7 @@
       <c r="J11" s="117"/>
       <c r="K11" s="117"/>
       <c r="L11" s="117"/>
-      <c r="M11" s="139"/>
+      <c r="M11" s="138"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="118"/>
@@ -13773,7 +14683,7 @@
       <c r="J13" s="123"/>
       <c r="K13" s="123"/>
       <c r="L13" s="123"/>
-      <c r="M13" s="140"/>
+      <c r="M13" s="139"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="111" t="s">
@@ -13790,7 +14700,7 @@
       <c r="J14" s="125"/>
       <c r="K14" s="125"/>
       <c r="L14" s="125"/>
-      <c r="M14" s="141"/>
+      <c r="M14" s="140"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="111" t="s">
@@ -13807,7 +14717,7 @@
       <c r="J15" s="125"/>
       <c r="K15" s="125"/>
       <c r="L15" s="125"/>
-      <c r="M15" s="141"/>
+      <c r="M15" s="140"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="111" t="s">
@@ -13824,7 +14734,7 @@
       <c r="J16" s="125"/>
       <c r="K16" s="125"/>
       <c r="L16" s="125"/>
-      <c r="M16" s="141"/>
+      <c r="M16" s="140"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="111" t="s">
@@ -13841,7 +14751,7 @@
       <c r="J17" s="125"/>
       <c r="K17" s="125"/>
       <c r="L17" s="125"/>
-      <c r="M17" s="141"/>
+      <c r="M17" s="140"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="111" t="s">
@@ -13858,7 +14768,7 @@
       <c r="J18" s="125"/>
       <c r="K18" s="125"/>
       <c r="L18" s="125"/>
-      <c r="M18" s="141"/>
+      <c r="M18" s="140"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="126" t="s">
@@ -13877,7 +14787,7 @@
       <c r="J19" s="128"/>
       <c r="K19" s="128"/>
       <c r="L19" s="128"/>
-      <c r="M19" s="142"/>
+      <c r="M19" s="141"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="118"/>
@@ -13897,7 +14807,7 @@
       <c r="J21" s="130"/>
       <c r="K21" s="130"/>
       <c r="L21" s="130"/>
-      <c r="M21" s="143"/>
+      <c r="M21" s="142"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="111" t="s">
@@ -13914,7 +14824,7 @@
       <c r="J22" s="132"/>
       <c r="K22" s="132"/>
       <c r="L22" s="132"/>
-      <c r="M22" s="144"/>
+      <c r="M22" s="143"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="111" t="s">
@@ -13931,7 +14841,7 @@
       <c r="J23" s="132"/>
       <c r="K23" s="132"/>
       <c r="L23" s="132"/>
-      <c r="M23" s="144"/>
+      <c r="M23" s="143"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="111" t="s">
@@ -13948,7 +14858,7 @@
       <c r="J24" s="132"/>
       <c r="K24" s="132"/>
       <c r="L24" s="132"/>
-      <c r="M24" s="144"/>
+      <c r="M24" s="143"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="111" t="s">
@@ -13965,7 +14875,7 @@
       <c r="J25" s="132"/>
       <c r="K25" s="132"/>
       <c r="L25" s="132"/>
-      <c r="M25" s="144"/>
+      <c r="M25" s="143"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="111" t="s">
@@ -13982,7 +14892,7 @@
       <c r="J26" s="132"/>
       <c r="K26" s="132"/>
       <c r="L26" s="132"/>
-      <c r="M26" s="144"/>
+      <c r="M26" s="143"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="111" t="s">
@@ -13999,7 +14909,7 @@
       <c r="J27" s="132"/>
       <c r="K27" s="132"/>
       <c r="L27" s="132"/>
-      <c r="M27" s="144"/>
+      <c r="M27" s="143"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="111" t="s">
@@ -14016,15 +14926,15 @@
       <c r="J28" s="134"/>
       <c r="K28" s="134"/>
       <c r="L28" s="134"/>
-      <c r="M28" s="145"/>
+      <c r="M28" s="144"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="94" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="99" t="s">
+      <c r="B34" s="100" t="s">
         <v>56</v>
       </c>
     </row>
@@ -14037,7 +14947,7 @@
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="136" t="s">
+      <c r="B40" s="100" t="s">
         <v>59</v>
       </c>
     </row>
@@ -14244,7 +15154,7 @@
       <c r="H10" s="104"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="93"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="103" t="s">
         <v>99</v>
       </c>
@@ -14257,7 +15167,7 @@
       <c r="H11" s="109"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="93"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="102" t="s">
         <v>102</v>
       </c>
@@ -14273,7 +15183,7 @@
       <c r="H12" s="109"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="93"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="102" t="s">
         <v>105</v>
       </c>
@@ -14289,7 +15199,7 @@
       <c r="H13" s="104"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="93"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="102" t="s">
         <v>108</v>
       </c>
@@ -14305,7 +15215,7 @@
       <c r="H14" s="104"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="93"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="102" t="s">
         <v>111</v>
       </c>
@@ -14321,7 +15231,7 @@
       <c r="H15" s="104"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="93"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="102" t="s">
         <v>114</v>
       </c>
@@ -14337,7 +15247,7 @@
       <c r="H16" s="104"/>
     </row>
     <row r="17" ht="34.5" spans="2:8">
-      <c r="B17" s="93"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="102" t="s">
         <v>117</v>
       </c>
@@ -14355,7 +15265,7 @@
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="93"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="102" t="s">
         <v>121</v>
       </c>
@@ -14371,7 +15281,7 @@
       <c r="H18" s="104"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="93"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="102" t="s">
         <v>124</v>
       </c>
@@ -14384,7 +15294,7 @@
       <c r="H19" s="104"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="93"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="102" t="s">
         <v>127</v>
       </c>
@@ -14399,7 +15309,7 @@
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="93"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="102" t="s">
         <v>131</v>
       </c>
@@ -14412,7 +15322,7 @@
       <c r="H21" s="104"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="96" t="s">
         <v>134</v>
       </c>
       <c r="C22" s="107" t="s">
@@ -14800,10 +15710,10 @@
       <c r="H61" s="104"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="95" t="s">
+      <c r="A62" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="B62" s="95" t="s">
+      <c r="B62" s="96" t="s">
         <v>223</v>
       </c>
       <c r="C62" s="107"/>
@@ -14835,7 +15745,7 @@
       <c r="H65" s="104"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="95" t="s">
+      <c r="B66" s="96" t="s">
         <v>230</v>
       </c>
       <c r="C66" s="107"/>
@@ -15092,8 +16002,8 @@
   <sheetPr/>
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -15123,1417 +16033,1453 @@
       <c r="I1" s="90"/>
     </row>
     <row r="2" ht="17.25" spans="1:8">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="86" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="G2" s="92" t="s">
+      <c r="E2" s="87" t="s">
         <v>265</v>
       </c>
-      <c r="H2" s="93"/>
+      <c r="F2" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="94" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="92"/>
     </row>
     <row r="3" ht="17.25" spans="1:8">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
+      <c r="A3" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>269</v>
+      </c>
       <c r="C3" s="86"/>
-      <c r="D3" s="94" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="F3" s="87" t="s">
-        <v>268</v>
-      </c>
-      <c r="G3" s="92" t="s">
-        <v>269</v>
-      </c>
-      <c r="H3" s="93"/>
+      <c r="G3" s="94" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="92"/>
     </row>
     <row r="4" ht="17.25" spans="1:8">
       <c r="A4" s="86"/>
       <c r="B4" s="86"/>
       <c r="C4" s="86"/>
-      <c r="D4" s="94" t="s">
-        <v>270</v>
+      <c r="D4" s="93" t="s">
+        <v>271</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F4" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="G4" s="92" t="s">
+      <c r="G4" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="H4" s="93"/>
+      <c r="H4" s="92"/>
     </row>
     <row r="5" ht="17.25" spans="1:8">
       <c r="A5" s="86"/>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="G5" s="92" t="s">
+      <c r="E5" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="H5" s="93"/>
+      <c r="F5" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="94" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="92"/>
     </row>
     <row r="6" ht="17.25" spans="1:8">
       <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
+      <c r="B6" s="86" t="s">
+        <v>278</v>
+      </c>
       <c r="C6" s="86"/>
-      <c r="G6" s="92" t="s">
-        <v>276</v>
-      </c>
-      <c r="H6" s="93"/>
+      <c r="D6" s="95" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" s="94" t="s">
+        <v>281</v>
+      </c>
+      <c r="H6" s="92"/>
     </row>
     <row r="7" ht="17.25" spans="1:8">
       <c r="A7" s="86"/>
       <c r="B7" s="86"/>
       <c r="C7" s="86"/>
-      <c r="G7" s="92" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="93"/>
+      <c r="D7" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="H7" s="92"/>
     </row>
     <row r="8" ht="17.25" spans="1:8">
       <c r="A8" s="86"/>
       <c r="B8" s="86"/>
       <c r="C8" s="86"/>
-      <c r="G8" s="92" t="s">
-        <v>278</v>
-      </c>
-      <c r="H8" s="93"/>
+      <c r="D8" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" s="94" t="s">
+        <v>287</v>
+      </c>
+      <c r="H8" s="92"/>
     </row>
     <row r="9" ht="17.25" spans="1:8">
       <c r="A9" s="86"/>
-      <c r="B9" s="95" t="s">
-        <v>279</v>
-      </c>
-      <c r="C9" s="95" t="s">
-        <v>280</v>
-      </c>
-      <c r="D9" s="87" t="s">
-        <v>281</v>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="95" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>289</v>
       </c>
       <c r="F9" s="87" t="s">
-        <v>282</v>
-      </c>
-      <c r="G9" s="92" t="s">
-        <v>283</v>
-      </c>
-      <c r="H9" s="93"/>
+        <v>290</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>291</v>
+      </c>
+      <c r="H9" s="92"/>
     </row>
     <row r="10" ht="17.25" spans="1:8">
       <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="96" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>267</v>
+      <c r="B10" s="96" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>294</v>
       </c>
       <c r="F10" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="G10" s="92" t="s">
-        <v>286</v>
-      </c>
-      <c r="H10" s="93"/>
+        <v>295</v>
+      </c>
+      <c r="G10" s="94" t="s">
+        <v>296</v>
+      </c>
+      <c r="H10" s="92"/>
     </row>
     <row r="11" ht="17.25" spans="1:8">
       <c r="A11" s="86"/>
       <c r="B11" s="86"/>
       <c r="C11" s="86"/>
-      <c r="D11" s="96" t="s">
-        <v>287</v>
+      <c r="D11" s="97" t="s">
+        <v>297</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>288</v>
-      </c>
-      <c r="G11" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="H11" s="93"/>
+        <v>298</v>
+      </c>
+      <c r="G11" s="94" t="s">
+        <v>299</v>
+      </c>
+      <c r="H11" s="92"/>
     </row>
     <row r="12" ht="17.25" spans="1:8">
       <c r="A12" s="86"/>
       <c r="B12" s="86"/>
       <c r="C12" s="86"/>
-      <c r="D12" s="94" t="s">
-        <v>290</v>
+      <c r="D12" s="97" t="s">
+        <v>300</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="G12" s="92" t="s">
-        <v>293</v>
-      </c>
-      <c r="H12" s="93"/>
+        <v>301</v>
+      </c>
+      <c r="G12" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="92"/>
     </row>
     <row r="13" ht="17.25" spans="1:8">
       <c r="A13" s="86"/>
       <c r="B13" s="86"/>
       <c r="C13" s="86"/>
-      <c r="D13" s="96" t="s">
-        <v>294</v>
+      <c r="D13" s="93" t="s">
+        <v>303</v>
       </c>
       <c r="E13" s="87" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>295</v>
-      </c>
-      <c r="G13" s="92" t="s">
-        <v>296</v>
-      </c>
-      <c r="H13" s="93"/>
+        <v>305</v>
+      </c>
+      <c r="G13" s="94" t="s">
+        <v>306</v>
+      </c>
+      <c r="H13" s="92"/>
     </row>
     <row r="14" ht="17.25" spans="1:8">
       <c r="A14" s="86"/>
       <c r="B14" s="86"/>
       <c r="C14" s="86"/>
-      <c r="D14" s="94" t="s">
-        <v>297</v>
+      <c r="D14" s="97" t="s">
+        <v>307</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="F14" s="87" t="s">
-        <v>298</v>
-      </c>
-      <c r="G14" s="92" t="s">
-        <v>299</v>
-      </c>
-      <c r="H14" s="93"/>
+        <v>308</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>309</v>
+      </c>
+      <c r="H14" s="92"/>
     </row>
     <row r="15" ht="17.25" spans="1:8">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="86"/>
-      <c r="D15" s="94" t="s">
-        <v>300</v>
+      <c r="D15" s="93" t="s">
+        <v>310</v>
       </c>
       <c r="E15" s="87" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F15" s="87" t="s">
-        <v>301</v>
-      </c>
-      <c r="G15" s="92" t="s">
-        <v>302</v>
-      </c>
-      <c r="H15" s="93"/>
+        <v>311</v>
+      </c>
+      <c r="G15" s="94" t="s">
+        <v>312</v>
+      </c>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" ht="17.25" spans="1:8">
       <c r="A16" s="86"/>
       <c r="B16" s="86"/>
-      <c r="C16" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="D16" s="94" t="s">
+      <c r="C16" s="86"/>
+      <c r="D16" s="93" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16" s="87" t="s">
         <v>304</v>
       </c>
-      <c r="E16" s="87" t="s">
-        <v>305</v>
-      </c>
       <c r="F16" s="87" t="s">
-        <v>306</v>
-      </c>
-      <c r="G16" s="92" t="s">
-        <v>307</v>
-      </c>
-      <c r="H16" s="93"/>
+        <v>314</v>
+      </c>
+      <c r="G16" s="94" t="s">
+        <v>315</v>
+      </c>
+      <c r="H16" s="92"/>
     </row>
     <row r="17" ht="17.25" spans="1:8">
       <c r="A17" s="86"/>
       <c r="B17" s="86"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96" t="s">
-        <v>308</v>
+      <c r="C17" s="96" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="93" t="s">
+        <v>317</v>
       </c>
       <c r="E17" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="F17" s="97" t="s">
-        <v>295</v>
-      </c>
-      <c r="G17" s="92" t="s">
-        <v>309</v>
-      </c>
-      <c r="H17" s="93"/>
+        <v>318</v>
+      </c>
+      <c r="F17" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="G17" s="94" t="s">
+        <v>320</v>
+      </c>
+      <c r="H17" s="92"/>
     </row>
     <row r="18" ht="17.25" spans="1:8">
       <c r="A18" s="86"/>
       <c r="B18" s="86"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="94" t="s">
-        <v>310</v>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97" t="s">
+        <v>321</v>
       </c>
       <c r="E18" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="F18" s="87" t="s">
-        <v>311</v>
-      </c>
-      <c r="G18" s="92" t="s">
-        <v>312</v>
-      </c>
-      <c r="H18" s="93"/>
+        <v>275</v>
+      </c>
+      <c r="F18" s="98" t="s">
+        <v>308</v>
+      </c>
+      <c r="G18" s="94" t="s">
+        <v>322</v>
+      </c>
+      <c r="H18" s="92"/>
     </row>
     <row r="19" ht="17.25" spans="1:8">
       <c r="A19" s="86"/>
-      <c r="B19" s="86" t="s">
-        <v>313</v>
-      </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="94" t="s">
-        <v>314</v>
+      <c r="B19" s="86"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="93" t="s">
+        <v>323</v>
       </c>
       <c r="E19" s="87" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F19" s="87" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19" s="92" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="93"/>
+        <v>324</v>
+      </c>
+      <c r="G19" s="94" t="s">
+        <v>325</v>
+      </c>
+      <c r="H19" s="92"/>
     </row>
     <row r="20" ht="17.25" spans="1:8">
       <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
+      <c r="B20" s="86" t="s">
+        <v>326</v>
+      </c>
       <c r="C20" s="86"/>
-      <c r="D20" s="94" t="s">
-        <v>317</v>
+      <c r="D20" s="93" t="s">
+        <v>327</v>
       </c>
       <c r="E20" s="87" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>319</v>
-      </c>
-      <c r="G20" s="92" t="s">
-        <v>316</v>
-      </c>
-      <c r="H20" s="93"/>
+        <v>328</v>
+      </c>
+      <c r="G20" s="94" t="s">
+        <v>329</v>
+      </c>
+      <c r="H20" s="92"/>
     </row>
     <row r="21" ht="17.25" spans="1:8">
       <c r="A21" s="86"/>
       <c r="B21" s="86"/>
       <c r="C21" s="86"/>
-      <c r="D21" s="94" t="s">
-        <v>320</v>
+      <c r="D21" s="93" t="s">
+        <v>330</v>
       </c>
       <c r="E21" s="87" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F21" s="87" t="s">
-        <v>322</v>
-      </c>
-      <c r="G21" s="92" t="s">
-        <v>323</v>
-      </c>
-      <c r="H21" s="93"/>
+        <v>332</v>
+      </c>
+      <c r="G21" s="94" t="s">
+        <v>329</v>
+      </c>
+      <c r="H21" s="92"/>
     </row>
     <row r="22" ht="17.25" spans="1:8">
       <c r="A22" s="86"/>
       <c r="B22" s="86"/>
       <c r="C22" s="86"/>
-      <c r="D22" s="94" t="s">
-        <v>324</v>
+      <c r="D22" s="93" t="s">
+        <v>333</v>
       </c>
       <c r="E22" s="87" t="s">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="F22" s="87" t="s">
-        <v>325</v>
-      </c>
-      <c r="G22" s="92" t="s">
-        <v>326</v>
-      </c>
-      <c r="H22" s="93"/>
+        <v>335</v>
+      </c>
+      <c r="G22" s="94" t="s">
+        <v>336</v>
+      </c>
+      <c r="H22" s="92"/>
     </row>
     <row r="23" ht="17.25" spans="1:8">
       <c r="A23" s="86"/>
       <c r="B23" s="86"/>
-      <c r="C23" s="86" t="s">
-        <v>327</v>
-      </c>
-      <c r="D23" s="94" t="s">
-        <v>328</v>
+      <c r="C23" s="86"/>
+      <c r="D23" s="93" t="s">
+        <v>337</v>
       </c>
       <c r="E23" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F23" s="87" t="s">
-        <v>329</v>
-      </c>
-      <c r="G23" s="92" t="s">
-        <v>330</v>
-      </c>
-      <c r="H23" s="93"/>
+        <v>338</v>
+      </c>
+      <c r="G23" s="94" t="s">
+        <v>339</v>
+      </c>
+      <c r="H23" s="92"/>
     </row>
     <row r="24" ht="17.25" spans="1:8">
       <c r="A24" s="86"/>
       <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="94" t="s">
-        <v>331</v>
+      <c r="C24" s="86" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" s="93" t="s">
+        <v>341</v>
       </c>
       <c r="E24" s="87" t="s">
-        <v>332</v>
+        <v>265</v>
       </c>
       <c r="F24" s="87" t="s">
-        <v>333</v>
-      </c>
-      <c r="G24" s="92" t="s">
-        <v>334</v>
-      </c>
-      <c r="H24" s="93"/>
+        <v>342</v>
+      </c>
+      <c r="G24" s="94" t="s">
+        <v>343</v>
+      </c>
+      <c r="H24" s="92"/>
     </row>
     <row r="25" ht="17.25" spans="1:8">
       <c r="A25" s="86"/>
       <c r="B25" s="86"/>
       <c r="C25" s="86"/>
-      <c r="D25" s="94" t="s">
-        <v>335</v>
+      <c r="D25" s="93" t="s">
+        <v>344</v>
       </c>
       <c r="E25" s="87" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="F25" s="87" t="s">
-        <v>336</v>
-      </c>
-      <c r="G25" s="92" t="s">
-        <v>337</v>
-      </c>
-      <c r="H25" s="93"/>
+        <v>346</v>
+      </c>
+      <c r="G25" s="94" t="s">
+        <v>347</v>
+      </c>
+      <c r="H25" s="92"/>
     </row>
     <row r="26" ht="17.25" spans="1:8">
       <c r="A26" s="86"/>
       <c r="B26" s="86"/>
       <c r="C26" s="86"/>
-      <c r="D26" s="94" t="s">
-        <v>338</v>
+      <c r="D26" s="93" t="s">
+        <v>348</v>
       </c>
       <c r="E26" s="87" t="s">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="F26" s="87" t="s">
-        <v>339</v>
-      </c>
-      <c r="G26" s="92" t="s">
-        <v>340</v>
-      </c>
-      <c r="H26" s="93"/>
+        <v>349</v>
+      </c>
+      <c r="G26" s="94" t="s">
+        <v>350</v>
+      </c>
+      <c r="H26" s="92"/>
     </row>
     <row r="27" ht="17.25" spans="1:8">
       <c r="A27" s="86"/>
       <c r="B27" s="86"/>
       <c r="C27" s="86"/>
-      <c r="G27" s="92" t="s">
-        <v>341</v>
-      </c>
-      <c r="H27" s="93"/>
+      <c r="D27" s="93" t="s">
+        <v>351</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="87" t="s">
+        <v>352</v>
+      </c>
+      <c r="G27" s="94" t="s">
+        <v>353</v>
+      </c>
+      <c r="H27" s="92"/>
     </row>
     <row r="28" ht="17.25" spans="1:8">
       <c r="A28" s="86"/>
       <c r="B28" s="86"/>
       <c r="C28" s="86"/>
-      <c r="D28" s="94" t="s">
-        <v>342</v>
-      </c>
-      <c r="E28" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="F28" s="87" t="s">
-        <v>343</v>
-      </c>
-      <c r="G28" s="92" t="s">
-        <v>344</v>
-      </c>
-      <c r="H28" s="93"/>
+      <c r="G28" s="94" t="s">
+        <v>354</v>
+      </c>
+      <c r="H28" s="92"/>
     </row>
     <row r="29" ht="17.25" spans="1:8">
       <c r="A29" s="86"/>
       <c r="B29" s="86"/>
       <c r="C29" s="86"/>
-      <c r="D29" s="94" t="s">
-        <v>345</v>
+      <c r="D29" s="93" t="s">
+        <v>355</v>
       </c>
       <c r="E29" s="87" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="F29" s="87" t="s">
-        <v>346</v>
-      </c>
-      <c r="G29" s="92" t="s">
-        <v>347</v>
-      </c>
-      <c r="H29" s="93"/>
+        <v>356</v>
+      </c>
+      <c r="G29" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="H29" s="92"/>
     </row>
     <row r="30" ht="17.25" spans="1:8">
-      <c r="A30" s="86" t="s">
-        <v>348</v>
-      </c>
-      <c r="B30" s="86" t="s">
-        <v>349</v>
-      </c>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="86"/>
-      <c r="D30" s="94" t="s">
-        <v>350</v>
+      <c r="D30" s="93" t="s">
+        <v>358</v>
       </c>
       <c r="E30" s="87" t="s">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="F30" s="87" t="s">
-        <v>351</v>
-      </c>
-      <c r="G30" s="92" t="s">
-        <v>352</v>
-      </c>
-      <c r="H30" s="93"/>
+        <v>359</v>
+      </c>
+      <c r="G30" s="94" t="s">
+        <v>360</v>
+      </c>
+      <c r="H30" s="92"/>
     </row>
     <row r="31" ht="17.25" spans="1:8">
-      <c r="A31" s="86"/>
+      <c r="A31" s="86" t="s">
+        <v>361</v>
+      </c>
       <c r="B31" s="86" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C31" s="86"/>
-      <c r="D31" s="94" t="s">
-        <v>354</v>
+      <c r="D31" s="93" t="s">
+        <v>363</v>
       </c>
       <c r="E31" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F31" s="87" t="s">
-        <v>355</v>
-      </c>
-      <c r="G31" s="92" t="s">
-        <v>356</v>
-      </c>
-      <c r="H31" s="93"/>
+        <v>364</v>
+      </c>
+      <c r="G31" s="94" t="s">
+        <v>365</v>
+      </c>
+      <c r="H31" s="92"/>
     </row>
     <row r="32" ht="17.25" spans="1:8">
       <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
+      <c r="B32" s="86" t="s">
+        <v>366</v>
+      </c>
       <c r="C32" s="86"/>
-      <c r="D32" s="94" t="s">
-        <v>357</v>
+      <c r="D32" s="93" t="s">
+        <v>367</v>
       </c>
       <c r="E32" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F32" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="G32" s="92" t="s">
-        <v>359</v>
-      </c>
-      <c r="H32" s="93"/>
+        <v>368</v>
+      </c>
+      <c r="G32" s="94" t="s">
+        <v>369</v>
+      </c>
+      <c r="H32" s="92"/>
     </row>
     <row r="33" ht="17.25" spans="1:8">
       <c r="A33" s="86"/>
       <c r="B33" s="86"/>
       <c r="C33" s="86"/>
-      <c r="D33" s="94" t="s">
-        <v>360</v>
+      <c r="D33" s="93" t="s">
+        <v>370</v>
       </c>
       <c r="E33" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F33" s="87" t="s">
-        <v>361</v>
-      </c>
-      <c r="G33" s="92" t="s">
-        <v>362</v>
-      </c>
-      <c r="H33" s="93"/>
+        <v>371</v>
+      </c>
+      <c r="G33" s="94" t="s">
+        <v>372</v>
+      </c>
+      <c r="H33" s="92"/>
     </row>
     <row r="34" ht="17.25" spans="1:8">
       <c r="A34" s="86"/>
       <c r="B34" s="86"/>
       <c r="C34" s="86"/>
-      <c r="D34" s="94" t="s">
-        <v>363</v>
+      <c r="D34" s="93" t="s">
+        <v>373</v>
       </c>
       <c r="E34" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F34" s="87" t="s">
-        <v>364</v>
-      </c>
-      <c r="G34" s="92" t="s">
-        <v>359</v>
-      </c>
-      <c r="H34" s="93"/>
+        <v>374</v>
+      </c>
+      <c r="G34" s="94" t="s">
+        <v>375</v>
+      </c>
+      <c r="H34" s="92"/>
     </row>
     <row r="35" ht="17.25" spans="1:8">
       <c r="A35" s="86"/>
-      <c r="B35" s="86" t="s">
-        <v>365</v>
-      </c>
+      <c r="B35" s="86"/>
       <c r="C35" s="86"/>
-      <c r="D35" s="94" t="s">
-        <v>366</v>
+      <c r="D35" s="93" t="s">
+        <v>376</v>
       </c>
       <c r="E35" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F35" s="87" t="s">
-        <v>367</v>
-      </c>
-      <c r="G35" s="92" t="s">
-        <v>368</v>
-      </c>
-      <c r="H35" s="93"/>
+        <v>377</v>
+      </c>
+      <c r="G35" s="94" t="s">
+        <v>372</v>
+      </c>
+      <c r="H35" s="92"/>
     </row>
     <row r="36" ht="17.25" spans="1:8">
       <c r="A36" s="86"/>
-      <c r="B36" s="86"/>
+      <c r="B36" s="86" t="s">
+        <v>378</v>
+      </c>
       <c r="C36" s="86"/>
-      <c r="G36" s="92" t="s">
-        <v>369</v>
-      </c>
-      <c r="H36" s="93"/>
+      <c r="D36" s="93" t="s">
+        <v>379</v>
+      </c>
+      <c r="E36" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" s="87" t="s">
+        <v>380</v>
+      </c>
+      <c r="G36" s="94" t="s">
+        <v>381</v>
+      </c>
+      <c r="H36" s="92"/>
     </row>
     <row r="37" ht="17.25" spans="1:8">
       <c r="A37" s="86"/>
       <c r="B37" s="86"/>
       <c r="C37" s="86"/>
-      <c r="G37" s="92" t="s">
-        <v>370</v>
-      </c>
-      <c r="H37" s="93"/>
+      <c r="G37" s="94" t="s">
+        <v>382</v>
+      </c>
+      <c r="H37" s="92"/>
     </row>
     <row r="38" ht="17.25" spans="1:8">
       <c r="A38" s="86"/>
-      <c r="B38" s="86" t="s">
-        <v>371</v>
-      </c>
-      <c r="C38" s="86" t="s">
-        <v>372</v>
-      </c>
-      <c r="D38" s="94" t="s">
-        <v>373</v>
-      </c>
-      <c r="E38" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="F38" s="87" t="s">
-        <v>374</v>
-      </c>
-      <c r="G38" s="92" t="s">
-        <v>375</v>
-      </c>
-      <c r="H38" s="93"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="G38" s="94" t="s">
+        <v>383</v>
+      </c>
+      <c r="H38" s="92"/>
     </row>
     <row r="39" ht="17.25" spans="1:8">
       <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="94" t="s">
-        <v>376</v>
+      <c r="B39" s="86" t="s">
+        <v>384</v>
+      </c>
+      <c r="C39" s="86" t="s">
+        <v>385</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>386</v>
       </c>
       <c r="E39" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F39" s="87" t="s">
-        <v>377</v>
-      </c>
-      <c r="G39" s="92" t="s">
-        <v>378</v>
-      </c>
-      <c r="H39" s="93"/>
+        <v>387</v>
+      </c>
+      <c r="G39" s="94" t="s">
+        <v>388</v>
+      </c>
+      <c r="H39" s="92"/>
     </row>
     <row r="40" ht="17.25" spans="1:8">
       <c r="A40" s="86"/>
       <c r="B40" s="86"/>
       <c r="C40" s="86"/>
-      <c r="D40" s="94" t="s">
-        <v>379</v>
+      <c r="D40" s="93" t="s">
+        <v>389</v>
       </c>
       <c r="E40" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F40" s="87" t="s">
-        <v>380</v>
-      </c>
-      <c r="G40" s="92" t="s">
-        <v>381</v>
-      </c>
-      <c r="H40" s="93"/>
+        <v>390</v>
+      </c>
+      <c r="G40" s="94" t="s">
+        <v>391</v>
+      </c>
+      <c r="H40" s="92"/>
     </row>
     <row r="41" ht="17.25" spans="1:8">
       <c r="A41" s="86"/>
       <c r="B41" s="86"/>
-      <c r="C41" s="86" t="s">
-        <v>382</v>
-      </c>
-      <c r="D41" s="94" t="s">
-        <v>383</v>
+      <c r="C41" s="86"/>
+      <c r="D41" s="93" t="s">
+        <v>392</v>
       </c>
       <c r="E41" s="87" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F41" s="87" t="s">
-        <v>384</v>
-      </c>
-      <c r="G41" s="92" t="s">
-        <v>385</v>
-      </c>
-      <c r="H41" s="93"/>
+        <v>393</v>
+      </c>
+      <c r="G41" s="94" t="s">
+        <v>394</v>
+      </c>
+      <c r="H41" s="92"/>
     </row>
     <row r="42" ht="17.25" spans="1:8">
       <c r="A42" s="86"/>
       <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="94" t="s">
-        <v>386</v>
+      <c r="C42" s="86" t="s">
+        <v>395</v>
+      </c>
+      <c r="D42" s="93" t="s">
+        <v>396</v>
       </c>
       <c r="E42" s="87" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F42" s="87" t="s">
-        <v>387</v>
-      </c>
-      <c r="G42" s="92" t="s">
-        <v>388</v>
-      </c>
-      <c r="H42" s="93"/>
+        <v>397</v>
+      </c>
+      <c r="G42" s="94" t="s">
+        <v>398</v>
+      </c>
+      <c r="H42" s="92"/>
     </row>
     <row r="43" ht="17.25" spans="1:8">
       <c r="A43" s="86"/>
       <c r="B43" s="86"/>
       <c r="C43" s="86"/>
-      <c r="D43" s="94" t="s">
-        <v>389</v>
+      <c r="D43" s="93" t="s">
+        <v>399</v>
       </c>
       <c r="E43" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F43" s="87" t="s">
-        <v>390</v>
-      </c>
-      <c r="G43" s="92" t="s">
-        <v>391</v>
-      </c>
-      <c r="H43" s="93"/>
+        <v>400</v>
+      </c>
+      <c r="G43" s="94" t="s">
+        <v>401</v>
+      </c>
+      <c r="H43" s="92"/>
     </row>
     <row r="44" ht="17.25" spans="1:8">
       <c r="A44" s="86"/>
       <c r="B44" s="86"/>
       <c r="C44" s="86"/>
-      <c r="D44" s="94" t="s">
-        <v>392</v>
+      <c r="D44" s="93" t="s">
+        <v>402</v>
       </c>
       <c r="E44" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F44" s="87" t="s">
-        <v>393</v>
-      </c>
-      <c r="G44" s="92" t="s">
-        <v>394</v>
-      </c>
-      <c r="H44" s="93"/>
+        <v>403</v>
+      </c>
+      <c r="G44" s="94" t="s">
+        <v>404</v>
+      </c>
+      <c r="H44" s="92"/>
     </row>
     <row r="45" ht="17.25" spans="1:8">
       <c r="A45" s="86"/>
       <c r="B45" s="86"/>
       <c r="C45" s="86"/>
-      <c r="D45" s="94" t="s">
-        <v>395</v>
+      <c r="D45" s="93" t="s">
+        <v>405</v>
       </c>
       <c r="E45" s="87" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F45" s="87" t="s">
-        <v>396</v>
-      </c>
-      <c r="G45" s="92" t="s">
-        <v>397</v>
-      </c>
-      <c r="H45" s="93"/>
+        <v>406</v>
+      </c>
+      <c r="G45" s="94" t="s">
+        <v>407</v>
+      </c>
+      <c r="H45" s="92"/>
     </row>
     <row r="46" ht="17.25" spans="1:8">
       <c r="A46" s="86"/>
-      <c r="B46" s="86" t="s">
-        <v>398</v>
-      </c>
+      <c r="B46" s="86"/>
       <c r="C46" s="86"/>
-      <c r="D46" s="94" t="s">
-        <v>399</v>
+      <c r="D46" s="93" t="s">
+        <v>408</v>
       </c>
       <c r="E46" s="87" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F46" s="87" t="s">
-        <v>400</v>
-      </c>
-      <c r="G46" s="92" t="s">
-        <v>401</v>
-      </c>
-      <c r="H46" s="93"/>
+        <v>409</v>
+      </c>
+      <c r="G46" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="H46" s="92"/>
     </row>
     <row r="47" ht="17.25" spans="1:8">
-      <c r="A47" s="86"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="86" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C47" s="86"/>
-      <c r="G47" s="92" t="s">
-        <v>403</v>
-      </c>
-      <c r="H47" s="93"/>
+      <c r="G47" s="94" t="s">
+        <v>412</v>
+      </c>
+      <c r="H47" s="92"/>
     </row>
     <row r="48" ht="17.25" spans="1:8">
-      <c r="A48" s="86"/>
+      <c r="A48" s="92"/>
       <c r="B48" s="86"/>
       <c r="C48" s="86"/>
-      <c r="G48" s="92" t="s">
-        <v>404</v>
-      </c>
-      <c r="H48" s="93"/>
+      <c r="G48" s="94" t="s">
+        <v>413</v>
+      </c>
+      <c r="H48" s="92"/>
     </row>
     <row r="49" ht="17.25" spans="1:8">
-      <c r="A49" s="86"/>
+      <c r="A49" s="92"/>
       <c r="B49" s="86"/>
       <c r="C49" s="86"/>
-      <c r="G49" s="92" t="s">
-        <v>405</v>
-      </c>
-      <c r="H49" s="93"/>
+      <c r="G49" s="94" t="s">
+        <v>414</v>
+      </c>
+      <c r="H49" s="92"/>
     </row>
     <row r="50" ht="17.25" spans="1:8">
-      <c r="A50" s="86"/>
+      <c r="A50" s="92"/>
       <c r="B50" s="86"/>
       <c r="C50" s="86"/>
-      <c r="G50" s="92" t="s">
-        <v>406</v>
-      </c>
-      <c r="H50" s="93"/>
+      <c r="G50" s="94" t="s">
+        <v>415</v>
+      </c>
+      <c r="H50" s="92"/>
     </row>
     <row r="51" ht="17.25" spans="1:8">
-      <c r="A51" s="86"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="86"/>
       <c r="C51" s="86"/>
-      <c r="G51" s="92" t="s">
-        <v>407</v>
-      </c>
-      <c r="H51" s="93"/>
+      <c r="G51" s="94" t="s">
+        <v>416</v>
+      </c>
+      <c r="H51" s="92"/>
     </row>
     <row r="52" ht="17.25" spans="1:8">
-      <c r="A52" s="86"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="86"/>
       <c r="C52" s="86"/>
-      <c r="G52" s="92" t="s">
-        <v>408</v>
-      </c>
-      <c r="H52" s="93"/>
+      <c r="G52" s="94" t="s">
+        <v>417</v>
+      </c>
+      <c r="H52" s="92"/>
     </row>
     <row r="53" ht="17.25" spans="1:8">
-      <c r="A53" s="86"/>
+      <c r="A53" s="92"/>
       <c r="B53" s="86"/>
       <c r="C53" s="86"/>
-      <c r="G53" s="92" t="s">
-        <v>409</v>
-      </c>
-      <c r="H53" s="93"/>
+      <c r="G53" s="94" t="s">
+        <v>418</v>
+      </c>
+      <c r="H53" s="92"/>
     </row>
     <row r="54" ht="17.25" spans="1:8">
-      <c r="A54" s="86"/>
+      <c r="A54" s="92"/>
       <c r="B54" s="86"/>
       <c r="C54" s="86"/>
-      <c r="G54" s="92" t="s">
-        <v>410</v>
-      </c>
-      <c r="H54" s="93"/>
+      <c r="G54" s="94" t="s">
+        <v>419</v>
+      </c>
+      <c r="H54" s="92"/>
     </row>
     <row r="55" ht="17.25" spans="1:8">
-      <c r="A55" s="86"/>
+      <c r="A55" s="92"/>
       <c r="B55" s="86" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C55" s="86"/>
-      <c r="G55" s="92" t="s">
-        <v>412</v>
-      </c>
-      <c r="H55" s="93"/>
+      <c r="G55" s="94" t="s">
+        <v>421</v>
+      </c>
+      <c r="H55" s="92"/>
     </row>
     <row r="56" ht="17.25" spans="1:8">
       <c r="A56" s="86" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B56" s="86" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="94" t="s">
-        <v>415</v>
+      <c r="D56" s="93" t="s">
+        <v>424</v>
       </c>
       <c r="E56" s="87" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="F56" s="87" t="s">
-        <v>417</v>
-      </c>
-      <c r="G56" s="92" t="s">
-        <v>418</v>
-      </c>
-      <c r="H56" s="93"/>
+        <v>426</v>
+      </c>
+      <c r="G56" s="94" t="s">
+        <v>427</v>
+      </c>
+      <c r="H56" s="92"/>
     </row>
     <row r="57" ht="17.25" spans="1:8">
       <c r="A57" s="86"/>
       <c r="B57" s="86"/>
       <c r="C57" s="86"/>
-      <c r="D57" s="94" t="s">
-        <v>419</v>
+      <c r="D57" s="93" t="s">
+        <v>428</v>
       </c>
       <c r="E57" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F57" s="87" t="s">
-        <v>420</v>
-      </c>
-      <c r="G57" s="92" t="s">
-        <v>421</v>
-      </c>
-      <c r="H57" s="93"/>
+        <v>429</v>
+      </c>
+      <c r="G57" s="94" t="s">
+        <v>430</v>
+      </c>
+      <c r="H57" s="92"/>
     </row>
     <row r="58" ht="17.25" spans="1:8">
       <c r="A58" s="86"/>
       <c r="B58" s="86"/>
       <c r="C58" s="86"/>
-      <c r="D58" s="94" t="s">
-        <v>422</v>
+      <c r="D58" s="93" t="s">
+        <v>431</v>
       </c>
       <c r="E58" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F58" s="87" t="s">
-        <v>423</v>
-      </c>
-      <c r="G58" s="92" t="s">
-        <v>424</v>
-      </c>
-      <c r="H58" s="93"/>
+        <v>432</v>
+      </c>
+      <c r="G58" s="94" t="s">
+        <v>433</v>
+      </c>
+      <c r="H58" s="92"/>
     </row>
     <row r="59" ht="17.25" spans="1:8">
       <c r="A59" s="86"/>
       <c r="B59" s="86"/>
       <c r="C59" s="86"/>
-      <c r="D59" s="94" t="s">
-        <v>425</v>
+      <c r="D59" s="93" t="s">
+        <v>434</v>
       </c>
       <c r="E59" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F59" s="87" t="s">
-        <v>426</v>
-      </c>
-      <c r="G59" s="92" t="s">
-        <v>427</v>
-      </c>
-      <c r="H59" s="93"/>
+        <v>435</v>
+      </c>
+      <c r="G59" s="94" t="s">
+        <v>436</v>
+      </c>
+      <c r="H59" s="92"/>
     </row>
     <row r="60" ht="17.25" spans="1:8">
       <c r="A60" s="86"/>
       <c r="B60" s="86"/>
       <c r="C60" s="86"/>
-      <c r="D60" s="94" t="s">
-        <v>428</v>
+      <c r="D60" s="93" t="s">
+        <v>437</v>
       </c>
       <c r="E60" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F60" s="87" t="s">
-        <v>429</v>
-      </c>
-      <c r="G60" s="92" t="s">
-        <v>430</v>
-      </c>
-      <c r="H60" s="93"/>
+        <v>438</v>
+      </c>
+      <c r="G60" s="94" t="s">
+        <v>439</v>
+      </c>
+      <c r="H60" s="92"/>
     </row>
     <row r="61" ht="17.25" spans="1:8">
       <c r="A61" s="86"/>
-      <c r="B61" s="95" t="s">
-        <v>431</v>
-      </c>
-      <c r="C61" s="95"/>
-      <c r="D61" s="94" t="s">
-        <v>432</v>
+      <c r="B61" s="96" t="s">
+        <v>440</v>
+      </c>
+      <c r="C61" s="96"/>
+      <c r="D61" s="93" t="s">
+        <v>441</v>
       </c>
       <c r="E61" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="F61" s="98" t="s">
-        <v>433</v>
-      </c>
-      <c r="G61" s="92" t="s">
-        <v>434</v>
-      </c>
-      <c r="H61" s="93"/>
+        <v>265</v>
+      </c>
+      <c r="F61" s="99" t="s">
+        <v>442</v>
+      </c>
+      <c r="G61" s="94" t="s">
+        <v>443</v>
+      </c>
+      <c r="H61" s="92"/>
     </row>
     <row r="62" ht="17.25" spans="1:8">
       <c r="A62" s="86"/>
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="94" t="s">
-        <v>435</v>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="93" t="s">
+        <v>444</v>
       </c>
       <c r="E62" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="F62" s="98" t="s">
-        <v>436</v>
-      </c>
-      <c r="G62" s="92" t="s">
-        <v>437</v>
-      </c>
-      <c r="H62" s="93"/>
+        <v>265</v>
+      </c>
+      <c r="F62" s="99" t="s">
+        <v>445</v>
+      </c>
+      <c r="G62" s="94" t="s">
+        <v>446</v>
+      </c>
+      <c r="H62" s="92"/>
     </row>
     <row r="63" ht="17.25" spans="1:8">
       <c r="A63" s="86"/>
-      <c r="B63" s="95"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="94" t="s">
-        <v>438</v>
+      <c r="B63" s="96"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="93" t="s">
+        <v>447</v>
       </c>
       <c r="E63" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="F63" s="98" t="s">
-        <v>439</v>
-      </c>
-      <c r="G63" s="92" t="s">
-        <v>440</v>
-      </c>
-      <c r="H63" s="93"/>
+        <v>265</v>
+      </c>
+      <c r="F63" s="99" t="s">
+        <v>448</v>
+      </c>
+      <c r="G63" s="94" t="s">
+        <v>449</v>
+      </c>
+      <c r="H63" s="92"/>
     </row>
     <row r="64" ht="17.25" spans="1:8">
       <c r="A64" s="86"/>
-      <c r="B64" s="95" t="s">
-        <v>441</v>
+      <c r="B64" s="96" t="s">
+        <v>450</v>
       </c>
       <c r="C64" s="86"/>
-      <c r="D64" s="94" t="s">
-        <v>442</v>
+      <c r="D64" s="93" t="s">
+        <v>451</v>
       </c>
       <c r="E64" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F64" s="87" t="s">
-        <v>443</v>
-      </c>
-      <c r="G64" s="92" t="s">
-        <v>444</v>
-      </c>
-      <c r="H64" s="93"/>
+        <v>452</v>
+      </c>
+      <c r="G64" s="94" t="s">
+        <v>453</v>
+      </c>
+      <c r="H64" s="92"/>
     </row>
     <row r="65" ht="17.25" spans="1:8">
       <c r="A65" s="86"/>
       <c r="B65" s="86"/>
       <c r="C65" s="86"/>
-      <c r="D65" s="94" t="s">
-        <v>445</v>
+      <c r="D65" s="93" t="s">
+        <v>454</v>
       </c>
       <c r="E65" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F65" s="87" t="s">
-        <v>446</v>
-      </c>
-      <c r="G65" s="92" t="s">
-        <v>447</v>
-      </c>
-      <c r="H65" s="93"/>
+        <v>455</v>
+      </c>
+      <c r="G65" s="94" t="s">
+        <v>456</v>
+      </c>
+      <c r="H65" s="92"/>
     </row>
     <row r="66" ht="17.25" spans="1:8">
       <c r="A66" s="86"/>
       <c r="B66" s="86"/>
       <c r="C66" s="86"/>
-      <c r="D66" s="94" t="s">
-        <v>448</v>
+      <c r="D66" s="93" t="s">
+        <v>457</v>
       </c>
       <c r="E66" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="F66" s="99" t="s">
-        <v>449</v>
-      </c>
-      <c r="G66" s="92" t="s">
-        <v>450</v>
-      </c>
-      <c r="H66" s="93"/>
+        <v>265</v>
+      </c>
+      <c r="F66" s="100" t="s">
+        <v>458</v>
+      </c>
+      <c r="G66" s="94" t="s">
+        <v>459</v>
+      </c>
+      <c r="H66" s="92"/>
     </row>
     <row r="67" ht="17.25" spans="1:8">
       <c r="A67" s="86"/>
       <c r="B67" s="86"/>
       <c r="C67" s="86"/>
-      <c r="D67" s="94" t="s">
-        <v>451</v>
+      <c r="D67" s="93" t="s">
+        <v>460</v>
       </c>
       <c r="E67" s="87" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="F67" s="87" t="s">
-        <v>453</v>
-      </c>
-      <c r="G67" s="92" t="s">
-        <v>454</v>
-      </c>
-      <c r="H67" s="93"/>
+        <v>462</v>
+      </c>
+      <c r="G67" s="94" t="s">
+        <v>463</v>
+      </c>
+      <c r="H67" s="92"/>
     </row>
     <row r="68" ht="17.25" spans="1:8">
       <c r="A68" s="86"/>
       <c r="B68" s="86"/>
       <c r="C68" s="86"/>
-      <c r="D68" s="94" t="s">
-        <v>455</v>
+      <c r="D68" s="93" t="s">
+        <v>464</v>
       </c>
       <c r="E68" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F68" s="87" t="s">
-        <v>456</v>
-      </c>
-      <c r="G68" s="92" t="s">
-        <v>450</v>
-      </c>
-      <c r="H68" s="93"/>
+        <v>465</v>
+      </c>
+      <c r="G68" s="94" t="s">
+        <v>459</v>
+      </c>
+      <c r="H68" s="92"/>
     </row>
     <row r="69" ht="17.25" spans="1:8">
       <c r="A69" s="86"/>
       <c r="B69" s="86"/>
       <c r="C69" s="86"/>
-      <c r="D69" s="94" t="s">
-        <v>457</v>
+      <c r="D69" s="93" t="s">
+        <v>466</v>
       </c>
       <c r="E69" s="87" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="F69" s="87" t="s">
-        <v>458</v>
-      </c>
-      <c r="G69" s="92" t="s">
-        <v>454</v>
-      </c>
-      <c r="H69" s="93"/>
+        <v>467</v>
+      </c>
+      <c r="G69" s="94" t="s">
+        <v>463</v>
+      </c>
+      <c r="H69" s="92"/>
     </row>
     <row r="70" ht="17.25" spans="1:8">
       <c r="A70" s="86"/>
       <c r="B70" s="86"/>
       <c r="C70" s="86"/>
-      <c r="G70" s="92" t="s">
-        <v>459</v>
-      </c>
-      <c r="H70" s="93"/>
+      <c r="G70" s="94" t="s">
+        <v>468</v>
+      </c>
+      <c r="H70" s="92"/>
     </row>
     <row r="71" ht="17.25" spans="1:8">
       <c r="A71" s="86"/>
       <c r="B71" s="86" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C71" s="86"/>
-      <c r="D71" s="100" t="s">
-        <v>461</v>
+      <c r="D71" s="93" t="s">
+        <v>470</v>
       </c>
       <c r="E71" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F71" s="87" t="s">
-        <v>462</v>
-      </c>
-      <c r="G71" s="92" t="s">
-        <v>463</v>
-      </c>
-      <c r="H71" s="93"/>
+        <v>471</v>
+      </c>
+      <c r="G71" s="94" t="s">
+        <v>472</v>
+      </c>
+      <c r="H71" s="92"/>
     </row>
     <row r="72" ht="17.25" spans="1:8">
       <c r="A72" s="86"/>
       <c r="B72" s="86"/>
       <c r="C72" s="86"/>
-      <c r="D72" s="100" t="s">
-        <v>464</v>
+      <c r="D72" s="93" t="s">
+        <v>473</v>
       </c>
       <c r="E72" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F72" s="87" t="s">
-        <v>465</v>
-      </c>
-      <c r="G72" s="92" t="s">
-        <v>466</v>
-      </c>
-      <c r="H72" s="93"/>
+        <v>474</v>
+      </c>
+      <c r="G72" s="94" t="s">
+        <v>475</v>
+      </c>
+      <c r="H72" s="92"/>
     </row>
     <row r="73" ht="17.25" spans="1:8">
       <c r="A73" s="86"/>
       <c r="B73" s="86"/>
       <c r="C73" s="86"/>
-      <c r="D73" s="100" t="s">
-        <v>467</v>
+      <c r="D73" s="93" t="s">
+        <v>476</v>
       </c>
       <c r="E73" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F73" s="87" t="s">
-        <v>468</v>
-      </c>
-      <c r="G73" s="92" t="s">
-        <v>469</v>
-      </c>
-      <c r="H73" s="93"/>
+        <v>477</v>
+      </c>
+      <c r="G73" s="94" t="s">
+        <v>478</v>
+      </c>
+      <c r="H73" s="92"/>
     </row>
     <row r="74" ht="17.25" spans="1:8">
       <c r="A74" s="86"/>
       <c r="B74" s="86"/>
       <c r="C74" s="86"/>
-      <c r="D74" s="100" t="s">
-        <v>470</v>
+      <c r="D74" s="93" t="s">
+        <v>479</v>
       </c>
       <c r="E74" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F74" s="87" t="s">
-        <v>471</v>
-      </c>
-      <c r="G74" s="92" t="s">
-        <v>472</v>
-      </c>
-      <c r="H74" s="93"/>
+        <v>480</v>
+      </c>
+      <c r="G74" s="94" t="s">
+        <v>481</v>
+      </c>
+      <c r="H74" s="92"/>
     </row>
     <row r="75" ht="17.25" spans="1:8">
       <c r="A75" s="86"/>
       <c r="B75" s="86"/>
       <c r="C75" s="86"/>
-      <c r="D75" s="100" t="s">
-        <v>473</v>
+      <c r="D75" s="93" t="s">
+        <v>482</v>
       </c>
       <c r="E75" s="87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F75" s="87" t="s">
-        <v>474</v>
-      </c>
-      <c r="G75" s="92" t="s">
-        <v>475</v>
-      </c>
-      <c r="H75" s="93"/>
+        <v>483</v>
+      </c>
+      <c r="G75" s="94" t="s">
+        <v>484</v>
+      </c>
+      <c r="H75" s="92"/>
     </row>
     <row r="76" ht="17.25" spans="1:8">
       <c r="A76" s="86" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B76" s="86"/>
       <c r="C76" s="86"/>
-      <c r="G76" s="92" t="s">
-        <v>477</v>
-      </c>
-      <c r="H76" s="93"/>
+      <c r="G76" s="94" t="s">
+        <v>486</v>
+      </c>
+      <c r="H76" s="92"/>
     </row>
     <row r="77" ht="17.25" spans="1:8">
       <c r="A77" s="86"/>
       <c r="B77" s="86"/>
       <c r="C77" s="86"/>
-      <c r="G77" s="92" t="s">
-        <v>478</v>
-      </c>
-      <c r="H77" s="93"/>
+      <c r="G77" s="94" t="s">
+        <v>487</v>
+      </c>
+      <c r="H77" s="92"/>
     </row>
     <row r="78" ht="17.25" spans="1:8">
       <c r="A78" s="86"/>
       <c r="B78" s="86"/>
       <c r="C78" s="86"/>
-      <c r="G78" s="92" t="s">
-        <v>479</v>
-      </c>
-      <c r="H78" s="93"/>
+      <c r="G78" s="94" t="s">
+        <v>488</v>
+      </c>
+      <c r="H78" s="92"/>
     </row>
     <row r="79" ht="17.25" spans="1:8">
       <c r="A79" s="86"/>
       <c r="B79" s="86"/>
       <c r="C79" s="86"/>
-      <c r="G79" s="92" t="s">
-        <v>480</v>
-      </c>
-      <c r="H79" s="93"/>
+      <c r="G79" s="94" t="s">
+        <v>489</v>
+      </c>
+      <c r="H79" s="92"/>
     </row>
     <row r="80" ht="17.25" spans="1:8">
       <c r="A80" s="86"/>
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
-      <c r="G80" s="92" t="s">
-        <v>481</v>
-      </c>
-      <c r="H80" s="93"/>
+      <c r="G80" s="94" t="s">
+        <v>490</v>
+      </c>
+      <c r="H80" s="92"/>
     </row>
     <row r="81" ht="17.25" spans="1:8">
       <c r="A81" s="86"/>
       <c r="B81" s="86"/>
       <c r="C81" s="86"/>
-      <c r="G81" s="92" t="s">
-        <v>482</v>
-      </c>
-      <c r="H81" s="93"/>
+      <c r="G81" s="94" t="s">
+        <v>491</v>
+      </c>
+      <c r="H81" s="92"/>
     </row>
     <row r="82" ht="17.25" spans="1:8">
       <c r="A82" s="86"/>
       <c r="B82" s="86"/>
       <c r="C82" s="86"/>
-      <c r="G82" s="92" t="s">
-        <v>483</v>
-      </c>
-      <c r="H82" s="93"/>
+      <c r="G82" s="94" t="s">
+        <v>492</v>
+      </c>
+      <c r="H82" s="92"/>
     </row>
     <row r="83" ht="17.25" spans="1:8">
       <c r="A83" s="86"/>
       <c r="B83" s="86"/>
       <c r="C83" s="86"/>
-      <c r="G83" s="92" t="s">
-        <v>484</v>
-      </c>
-      <c r="H83" s="93"/>
+      <c r="G83" s="94" t="s">
+        <v>493</v>
+      </c>
+      <c r="H83" s="92"/>
     </row>
     <row r="84" ht="17.25" spans="1:8">
       <c r="A84" s="86"/>
       <c r="B84" s="86"/>
       <c r="C84" s="86"/>
-      <c r="G84" s="92" t="s">
-        <v>485</v>
-      </c>
-      <c r="H84" s="93"/>
+      <c r="G84" s="94" t="s">
+        <v>494</v>
+      </c>
+      <c r="H84" s="92"/>
     </row>
     <row r="85" ht="17.25" spans="1:8">
       <c r="A85" s="86"/>
       <c r="B85" s="86"/>
       <c r="C85" s="86"/>
-      <c r="G85" s="92" t="s">
-        <v>486</v>
-      </c>
-      <c r="H85" s="93"/>
+      <c r="G85" s="94" t="s">
+        <v>495</v>
+      </c>
+      <c r="H85" s="92"/>
     </row>
     <row r="86" ht="17.25" spans="1:8">
-      <c r="A86" s="95" t="s">
-        <v>487</v>
+      <c r="A86" s="96" t="s">
+        <v>496</v>
       </c>
       <c r="B86" s="86"/>
       <c r="C86" s="86"/>
-      <c r="G86" s="92" t="s">
-        <v>488</v>
-      </c>
-      <c r="H86" s="93"/>
+      <c r="G86" s="94" t="s">
+        <v>497</v>
+      </c>
+      <c r="H86" s="92"/>
     </row>
     <row r="87" ht="17.25" spans="1:8">
       <c r="A87" s="86"/>
       <c r="B87" s="86"/>
       <c r="C87" s="86"/>
-      <c r="G87" s="92" t="s">
-        <v>489</v>
-      </c>
-      <c r="H87" s="93"/>
+      <c r="G87" s="94" t="s">
+        <v>498</v>
+      </c>
+      <c r="H87" s="92"/>
     </row>
     <row r="88" ht="17.25" spans="1:8">
       <c r="A88" s="86"/>
       <c r="B88" s="86"/>
       <c r="C88" s="86"/>
-      <c r="G88" s="92" t="s">
-        <v>490</v>
-      </c>
-      <c r="H88" s="93"/>
+      <c r="G88" s="94" t="s">
+        <v>499</v>
+      </c>
+      <c r="H88" s="92"/>
     </row>
     <row r="89" ht="17.25" spans="1:8">
       <c r="A89" s="86"/>
       <c r="B89" s="86"/>
       <c r="C89" s="86"/>
-      <c r="G89" s="92" t="s">
-        <v>491</v>
-      </c>
-      <c r="H89" s="93"/>
+      <c r="G89" s="94" t="s">
+        <v>500</v>
+      </c>
+      <c r="H89" s="92"/>
     </row>
     <row r="90" ht="17.25" spans="1:8">
       <c r="A90" s="86"/>
       <c r="B90" s="86"/>
       <c r="C90" s="86"/>
-      <c r="G90" s="92" t="s">
-        <v>492</v>
-      </c>
-      <c r="H90" s="93"/>
+      <c r="G90" s="94" t="s">
+        <v>501</v>
+      </c>
+      <c r="H90" s="92"/>
     </row>
     <row r="91" ht="17.25" spans="1:8">
       <c r="A91" s="86" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B91" s="86"/>
       <c r="C91" s="86"/>
-      <c r="G91" s="92" t="s">
-        <v>494</v>
-      </c>
-      <c r="H91" s="93"/>
+      <c r="G91" s="94" t="s">
+        <v>503</v>
+      </c>
+      <c r="H91" s="92"/>
     </row>
     <row r="92" ht="17.25" spans="1:8">
       <c r="A92" s="86"/>
       <c r="B92" s="86"/>
       <c r="C92" s="86"/>
-      <c r="G92" s="92" t="s">
-        <v>495</v>
-      </c>
-      <c r="H92" s="93"/>
+      <c r="G92" s="94" t="s">
+        <v>504</v>
+      </c>
+      <c r="H92" s="92"/>
     </row>
     <row r="93" ht="17.25" spans="1:8">
       <c r="A93" s="86"/>
       <c r="B93" s="86"/>
       <c r="C93" s="86"/>
-      <c r="G93" s="92" t="s">
-        <v>496</v>
-      </c>
-      <c r="H93" s="93"/>
+      <c r="G93" s="94" t="s">
+        <v>505</v>
+      </c>
+      <c r="H93" s="92"/>
     </row>
     <row r="94" ht="17.25" spans="1:8">
       <c r="A94" s="86"/>
       <c r="B94" s="86"/>
       <c r="C94" s="86"/>
-      <c r="G94" s="92" t="s">
-        <v>497</v>
-      </c>
-      <c r="H94" s="93"/>
+      <c r="G94" s="94" t="s">
+        <v>506</v>
+      </c>
+      <c r="H94" s="92"/>
     </row>
     <row r="95" ht="17.25" spans="1:8">
       <c r="A95" s="86"/>
       <c r="B95" s="86"/>
       <c r="C95" s="86"/>
-      <c r="G95" s="92" t="s">
-        <v>498</v>
-      </c>
-      <c r="H95" s="93"/>
+      <c r="G95" s="94" t="s">
+        <v>507</v>
+      </c>
+      <c r="H95" s="92"/>
     </row>
     <row r="96" ht="17.25" spans="1:8">
       <c r="A96" s="86"/>
       <c r="B96" s="86"/>
       <c r="C96" s="86"/>
-      <c r="G96" s="92" t="s">
-        <v>499</v>
-      </c>
-      <c r="H96" s="93"/>
+      <c r="G96" s="94" t="s">
+        <v>508</v>
+      </c>
+      <c r="H96" s="92"/>
     </row>
     <row r="97" ht="17.25" spans="3:7">
       <c r="C97" s="86"/>
-      <c r="G97" s="92" t="s">
-        <v>500</v>
+      <c r="G97" s="94" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="158" spans="7:7">
@@ -16609,41 +17555,40 @@
       <c r="G182" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A2:A29"/>
-    <mergeCell ref="A30:A45"/>
-    <mergeCell ref="A46:A55"/>
+  <mergeCells count="23">
+    <mergeCell ref="A3:A30"/>
+    <mergeCell ref="A31:A46"/>
     <mergeCell ref="A56:A75"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="B19:B29"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="B20:B30"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B46"/>
     <mergeCell ref="B47:B54"/>
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="B64:B70"/>
     <mergeCell ref="B71:B75"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C46"/>
     <mergeCell ref="A86:B90"/>
     <mergeCell ref="A91:B96"/>
     <mergeCell ref="A76:B85"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId3" display="sprintf ( string $format [, mixed $... ] ) : string"/>
-    <hyperlink ref="D20" r:id="rId3" display="mb_strlen ( string $str [, string $encoding = mb_internal_encoding() ] ) : mixed"/>
-    <hyperlink ref="D22" r:id="rId3" display="count_chars ( string $string [, int $mode = 0 ] ) : mixed"/>
-    <hyperlink ref="D25" r:id="rId3" display="str_word_count ( string $string [, int $format = 0 [, string $charlist ]] ) : mixed"/>
-    <hyperlink ref="D42" r:id="rId3" display="strpos ( string $haystack , mixed $needle [, int $offset = 0 ] ) : int"/>
-    <hyperlink ref="D40" r:id="rId3" display="strrchr ( string $haystack , mixed $needle ) : string"/>
-    <hyperlink ref="D43" r:id="rId3" display="strstr ( string $haystack , mixed $needle [, bool $before_needle = FALSE ] ) : string"/>
-    <hyperlink ref="D44" r:id="rId3" display="stristr ( string $haystack , mixed $needle [, bool $before_needle = FALSE ] ) : string"/>
+    <hyperlink ref="D14" r:id="rId3" display="sprintf ( string $format [, mixed $... ] ) : string"/>
+    <hyperlink ref="D21" r:id="rId3" display="mb_strlen ( string $str [, string $encoding = mb_internal_encoding() ] ) : mixed"/>
+    <hyperlink ref="D23" r:id="rId3" display="count_chars ( string $string [, int $mode = 0 ] ) : mixed"/>
+    <hyperlink ref="D26" r:id="rId3" display="str_word_count ( string $string [, int $format = 0 [, string $charlist ]] ) : mixed"/>
+    <hyperlink ref="D43" r:id="rId3" display="strpos ( string $haystack , mixed $needle [, int $offset = 0 ] ) : int"/>
+    <hyperlink ref="D41" r:id="rId3" display="strrchr ( string $haystack , mixed $needle ) : string"/>
+    <hyperlink ref="D44" r:id="rId3" display="strstr ( string $haystack , mixed $needle [, bool $before_needle = FALSE ] ) : string"/>
+    <hyperlink ref="D45" r:id="rId3" display="stristr ( string $haystack , mixed $needle [, bool $before_needle = FALSE ] ) : string"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -16671,23 +17616,23 @@
   <sheetData>
     <row r="2" ht="20.25" spans="2:5">
       <c r="B2" s="73" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="E2" s="75"/>
     </row>
     <row r="3" ht="20.25" spans="2:5">
       <c r="B3" s="76" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="78" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="E3" s="78"/>
     </row>
@@ -16699,12 +17644,12 @@
     </row>
     <row r="5" ht="40.5" spans="2:5">
       <c r="B5" s="82" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="C5" s="82"/>
       <c r="D5" s="82"/>
       <c r="E5" s="83" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -16742,879 +17687,879 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="65" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="67" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="67" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="67" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="67" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="66" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="66" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="66" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="66" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="66" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="66" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="11" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="67" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="67" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="67" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="67" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="66" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="66" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="66" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="66" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="66" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="66" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="66" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="66" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="66" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="66" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C36" s="67" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="66" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="66" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11"/>
       <c r="B41" s="11" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="66" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11"/>
       <c r="B43" s="11" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="67" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11"/>
       <c r="B45" s="11" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11"/>
       <c r="B46" s="11" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11"/>
       <c r="B47" s="11" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="66" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11"/>
       <c r="B49" s="11" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="68" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="66" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C53" s="67" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="67" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="66" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="68" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="67" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="67" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="11"/>
       <c r="B59" s="11" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="66" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11"/>
       <c r="B61" s="11" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="C61" s="67" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="67" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="68" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="67" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="11"/>
       <c r="B65" s="11" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="66" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="11" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="67" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="67" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="67" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="11" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="69" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="70" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="69" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="69" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="69" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="69" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="69" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="69" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="69" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="69" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="69" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="69" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="69" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="69" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="69" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="69" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="69" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="11" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="69" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="69" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="11" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="69" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="69" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="69" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="69" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="69" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="69" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="69" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="69" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="11" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="69" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="69" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="11" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="69" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="69" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="69" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="69" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="69" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="69" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="69" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="69" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="69" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="69" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="69" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="69" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="69" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="69" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="69" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="114" ht="33" spans="1:3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="69" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="69" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -17793,7 +18738,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="54" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -17801,398 +18746,398 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="57" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="57" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="57" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="57" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="57" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="57" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="57" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="57" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="57" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="57" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="57" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="59" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="59" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" ht="33" spans="1:2">
       <c r="A18" s="59" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="59" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="59" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" ht="33" spans="1:2">
       <c r="A21" s="59" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="22" ht="33" spans="1:2">
       <c r="A22" s="59" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="59" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="59" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
     </row>
     <row r="25" ht="33" spans="1:2">
       <c r="A25" s="59" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
     </row>
     <row r="26" ht="33" spans="1:2">
       <c r="A26" s="51" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
     </row>
     <row r="27" ht="33" spans="1:2">
       <c r="A27" s="59" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="59" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="59" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
     </row>
     <row r="31" ht="33" spans="1:2">
       <c r="A31" s="59" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
     </row>
     <row r="32" ht="33" spans="1:2">
       <c r="A32" s="59" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="59" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
     </row>
     <row r="34" ht="33" spans="1:2">
       <c r="A34" s="59" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="59" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="59" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="59" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="59" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="59" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="59" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
     </row>
     <row r="43" ht="33" spans="1:2">
       <c r="A43" s="59" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="59" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="59" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="59" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="59" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="59" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
     </row>
     <row r="54" ht="33" spans="1:2">
       <c r="A54" s="59" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
     </row>
     <row r="56" ht="33" spans="1:2">
       <c r="A56" s="59" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="59" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -18206,7 +19151,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="62" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -18214,7 +19159,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="63" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="B68" s="64" t="s">
         <v>62</v>
@@ -18222,82 +19167,82 @@
     </row>
     <row r="69" ht="33" spans="1:2">
       <c r="A69" s="51" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
     </row>
     <row r="70" ht="33" spans="1:2">
       <c r="A70" s="51" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="B70" s="60" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
     </row>
     <row r="71" ht="33" spans="1:2">
       <c r="A71" s="51" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="B71" s="60" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
     </row>
     <row r="72" ht="33" spans="1:2">
       <c r="A72" s="51" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="B72" s="60" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
     </row>
     <row r="73" ht="33" spans="1:2">
       <c r="A73" s="51" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="B73" s="60" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
     </row>
     <row r="74" ht="33" spans="1:2">
       <c r="A74" s="51" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="B74" s="60" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
     </row>
     <row r="75" ht="33" spans="1:2">
       <c r="A75" s="51" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="B75" s="60" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
     </row>
     <row r="76" ht="33" spans="1:2">
       <c r="A76" s="51" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="B76" s="60" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
     </row>
     <row r="77" ht="33" spans="1:2">
       <c r="A77" s="51" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="B77" s="60" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
     </row>
     <row r="78" ht="33" spans="1:2">
       <c r="A78" s="51" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="B78" s="60" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -18363,196 +19308,196 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="41" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="45" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="46" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="43" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="47" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4"/>
       <c r="B8" s="46" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="45" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4"/>
       <c r="B9" s="46" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4"/>
       <c r="B10" s="46" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="47" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="47" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="43" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4"/>
       <c r="B14" s="46" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="47" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="46" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="47" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="46" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="50" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="49"/>
       <c r="D17" s="45" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -18560,17 +19505,17 @@
       <c r="B18" s="51"/>
       <c r="C18" s="52"/>
       <c r="D18" s="45" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:4">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="44" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -18578,7 +19523,7 @@
       <c r="B20" s="51"/>
       <c r="C20" s="44"/>
       <c r="D20" s="47" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
     </row>
     <row r="21" s="39" customFormat="1" spans="1:1">
@@ -18670,7 +19615,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -18681,246 +19626,246 @@
     </row>
     <row r="2" ht="33" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="21" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" ht="33" spans="1:7">
       <c r="A3" s="17"/>
       <c r="B3" s="19" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="21"/>
       <c r="F3" s="18" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="21"/>
       <c r="F4" s="18" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5" ht="33" spans="1:7">
       <c r="A5" s="17"/>
       <c r="B5" s="18" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
       <c r="F5" s="18" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="21"/>
       <c r="F6" s="18" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
     </row>
     <row r="7" ht="33" spans="1:7">
       <c r="A7" s="17"/>
       <c r="B7" s="18" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
       <c r="F7" s="23" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
     </row>
     <row r="8" ht="33" spans="1:7">
       <c r="A8" s="17"/>
       <c r="B8" s="23" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="21"/>
       <c r="F8" s="23" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17"/>
       <c r="B9" s="23" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="21"/>
       <c r="F9" s="23" t="s">
-        <v>861</v>
+        <v>870</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>862</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="17"/>
       <c r="B10" s="23" t="s">
-        <v>863</v>
+        <v>872</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="21"/>
       <c r="F10" s="23" t="s">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>866</v>
+        <v>875</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
       <c r="F11" s="23" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
       <c r="F12" s="23" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" ht="33" spans="1:7">
       <c r="A13" s="17"/>
       <c r="B13" s="18" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
       <c r="F13" s="19" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>878</v>
+        <v>887</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="17"/>
       <c r="B14" s="23" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
       <c r="F14" s="19" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
       <c r="F15" s="18" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -18930,366 +19875,366 @@
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
       <c r="F16" s="18" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="17"/>
       <c r="B17" s="18" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="21"/>
       <c r="F17" s="24" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17"/>
       <c r="B18" s="23" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="17" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17"/>
       <c r="B19" s="23" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="17"/>
       <c r="F19" s="23" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="17"/>
       <c r="F20" s="23" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="17"/>
       <c r="F21" s="23" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="17" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17"/>
       <c r="B23" s="18" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
     </row>
     <row r="24" ht="33" spans="1:7">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="17"/>
       <c r="F24" s="19" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17"/>
       <c r="B25" s="18" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="25" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="26"/>
       <c r="B27" s="24" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="17"/>
       <c r="F27" s="18" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="26"/>
       <c r="B28" s="23" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="17" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="26"/>
       <c r="B29" s="19" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="17"/>
       <c r="F29" s="23" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="26"/>
       <c r="B30" s="23" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="17"/>
       <c r="F30" s="23" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="26" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>950</v>
+        <v>959</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="17"/>
       <c r="F31" s="23" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>952</v>
+        <v>961</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="26"/>
       <c r="B32" s="23" t="s">
-        <v>953</v>
+        <v>962</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="17"/>
       <c r="F32" s="23" t="s">
-        <v>955</v>
+        <v>964</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>956</v>
+        <v>965</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="26"/>
       <c r="B33" s="24" t="s">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="17"/>
       <c r="F33" s="23" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="26"/>
       <c r="B34" s="18" t="s">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>962</v>
+        <v>971</v>
       </c>
       <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="26"/>
       <c r="B35" s="18" t="s">
-        <v>963</v>
+        <v>972</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>964</v>
+        <v>973</v>
       </c>
       <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="26"/>
       <c r="B36" s="23" t="s">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="D36" s="22"/>
       <c r="F36" s="27" t="s">
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>968</v>
+        <v>977</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="26"/>
       <c r="B37" s="23" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>970</v>
+        <v>979</v>
       </c>
       <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="26"/>
       <c r="B38" s="23" t="s">
-        <v>971</v>
+        <v>980</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>972</v>
+        <v>981</v>
       </c>
       <c r="D38" s="22"/>
     </row>
@@ -19356,7 +20301,7 @@
       <c r="C69" s="36"/>
       <c r="D69" s="35"/>
       <c r="E69" s="37" t="s">
-        <v>973</v>
+        <v>982</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -19604,32 +20549,32 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>974</v>
+        <v>983</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>975</v>
+        <v>984</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>976</v>
+        <v>985</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>977</v>
+        <v>986</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>979</v>
+        <v>988</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>980</v>
+        <v>989</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>981</v>
+        <v>990</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -19638,678 +20583,678 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>983</v>
+        <v>992</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>984</v>
+        <v>993</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>985</v>
+        <v>994</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>986</v>
+        <v>995</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>987</v>
+        <v>996</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>988</v>
+        <v>997</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>989</v>
+        <v>998</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
       <c r="B10" s="9" t="s">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>991</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
-        <v>992</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
-        <v>993</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
-        <v>994</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
-        <v>995</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="10" t="s">
-        <v>996</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>997</v>
+        <v>1006</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>998</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4"/>
       <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
-        <v>999</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4"/>
       <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
-        <v>1000</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="11"/>
       <c r="C19" s="5" t="s">
-        <v>1001</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
-        <v>1002</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
-        <v>1003</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>1005</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>1006</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>1007</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>1008</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>1009</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>979</v>
+        <v>988</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="11"/>
       <c r="B29" s="4"/>
       <c r="C29" s="8" t="s">
-        <v>1012</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="11"/>
       <c r="B30" s="4"/>
       <c r="C30" s="8" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11"/>
       <c r="B31" s="4" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1015</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11"/>
       <c r="B32" s="4"/>
       <c r="C32" s="8" t="s">
-        <v>1016</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11"/>
       <c r="B33" s="4"/>
       <c r="C33" s="8" t="s">
-        <v>1017</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11"/>
       <c r="B34" s="4"/>
       <c r="C34" s="8" t="s">
-        <v>1018</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11"/>
       <c r="B35" s="4"/>
       <c r="C35" s="8" t="s">
-        <v>1019</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11"/>
       <c r="B36" s="4"/>
       <c r="C36" s="8" t="s">
-        <v>1020</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11"/>
       <c r="B37" s="4"/>
       <c r="C37" s="8" t="s">
-        <v>1021</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11" t="s">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="5" t="s">
-        <v>1023</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="11"/>
       <c r="B39" s="9"/>
       <c r="C39" s="5" t="s">
-        <v>1024</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11"/>
       <c r="B40" s="9"/>
       <c r="C40" s="5" t="s">
-        <v>1025</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11"/>
       <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
-        <v>1026</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>1027</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
-        <v>1028</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11" t="s">
-        <v>1029</v>
+        <v>1038</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>1030</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11"/>
       <c r="B45" s="4" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1031</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11"/>
       <c r="B46" s="4" t="s">
-        <v>1032</v>
+        <v>1041</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11"/>
       <c r="B47" s="4"/>
       <c r="C47" s="8" t="s">
-        <v>1034</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11"/>
       <c r="B48" s="4"/>
       <c r="C48" s="8" t="s">
-        <v>1035</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11"/>
       <c r="B49" s="4" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1036</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5" t="s">
-        <v>1037</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>1038</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
-        <v>1039</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11"/>
       <c r="B54" s="4" t="s">
-        <v>1041</v>
+        <v>1050</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>1042</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11"/>
       <c r="B55" s="4"/>
       <c r="C55" s="8" t="s">
-        <v>1043</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>1044</v>
+        <v>1053</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
-        <v>1045</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5" t="s">
-        <v>1046</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>1047</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5" t="s">
-        <v>1048</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>1049</v>
+        <v>1058</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="8" t="s">
-        <v>1050</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="8" t="s">
-        <v>1051</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="8" t="s">
-        <v>1052</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="8" t="s">
-        <v>1053</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="8" t="s">
-        <v>1054</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="8" t="s">
-        <v>1055</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="8" t="s">
-        <v>1056</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="8" t="s">
-        <v>1057</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="8" t="s">
-        <v>1058</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="8" t="s">
-        <v>1059</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="8" t="s">
-        <v>1060</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="8" t="s">
-        <v>1061</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="8" t="s">
-        <v>1062</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="12" t="s">
-        <v>1063</v>
+        <v>1072</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="13" t="s">
-        <v>1064</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="13" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="13" t="s">
-        <v>1066</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="84" spans="5:5">
       <c r="E84" s="14" t="s">
-        <v>1067</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="12" t="s">
-        <v>976</v>
+        <v>985</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="13" t="s">
-        <v>1068</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="13" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="13" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" s="13" t="s">
-        <v>1071</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="13" t="s">
-        <v>1072</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="13" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" s="13" t="s">
-        <v>1074</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="13" t="s">
-        <v>1075</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" s="13" t="s">
-        <v>1076</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="96" spans="5:5">
       <c r="E96" s="14" t="s">
-        <v>1067</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="12" t="s">
-        <v>1077</v>
+        <v>1086</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" s="13" t="s">
-        <v>1078</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" s="13" t="s">
-        <v>1079</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" s="13" t="s">
-        <v>1080</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" s="13" t="s">
-        <v>1081</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="13" t="s">
-        <v>1082</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="13" t="s">
-        <v>1083</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" s="14" t="s">
-        <v>1067</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="12" t="s">
-        <v>1084</v>
+        <v>1093</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" s="13" t="s">
-        <v>1085</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="13" t="s">
-        <v>1086</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="13" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="13" t="s">
-        <v>1088</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" s="14" t="s">
-        <v>1067</v>
+        <v>1076</v>
       </c>
     </row>
   </sheetData>
